--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F97358-50E5-4DBC-8D1C-1A56D1DDC902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19616B5-67EF-4997-90CC-DB259A4390DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="1035" windowWidth="19860" windowHeight="14040" tabRatio="546" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8385" yWindow="1035" windowWidth="19860" windowHeight="14040" tabRatio="546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -1597,9 +1597,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1804,6 +1801,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1834,6 +1857,17 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1863,47 +1897,57 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard_team model" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2423,7 +2467,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2440,10 +2484,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="161" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="154"/>
+      <c r="B4" s="161"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
@@ -2702,28 +2746,28 @@
     <col min="1" max="1" width="3.109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" style="45" customWidth="1"/>
     <col min="3" max="3" width="5.109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="85" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="84" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" style="88" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="82" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="87" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="81" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="81" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.88671875" style="18" customWidth="1"/>
     <col min="10" max="10" width="7.109375" style="18" customWidth="1"/>
     <col min="11" max="16384" width="7.109375" style="18" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="155" t="str">
+      <c r="B1" s="162" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="157"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="30"/>
@@ -2731,17 +2775,17 @@
     <row r="3" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="85" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="86" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="86" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2770,17 +2814,17 @@
     </row>
     <row r="14" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="89"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="71"/>
       <c r="D15" s="72"/>
       <c r="E15" s="71"/>
       <c r="F15" s="72"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="73"/>
     </row>
     <row r="16" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="74"/>
       <c r="D16" s="75" t="s">
         <v>12</v>
@@ -2803,9 +2847,9 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E17" s="20"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="48"/>
@@ -2849,9 +2893,7 @@
   </sheetPr>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2871,155 +2913,155 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="165" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="160"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="130"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="131" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="174" t="s">
+      <c r="F4" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="171" t="s">
+      <c r="G4" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="175" t="s">
+      <c r="H4" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="176"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="171"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="180"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="159"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="133"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="121" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="G6" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="161" t="s">
+      <c r="H6" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="161"/>
-      <c r="J6" s="120" t="s">
+      <c r="I6" s="168"/>
+      <c r="J6" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="K6" s="133" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121" t="s">
+      <c r="B7" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="123" t="s">
+      <c r="G7" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="124" t="s">
+      <c r="H7" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="124" t="s">
+      <c r="I7" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="120" t="s">
+      <c r="J7" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="134" t="s">
+      <c r="K7" s="133" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="135"/>
+      <c r="B8" s="134"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="136"/>
+      <c r="G8" s="135"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="137"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="138">
+      <c r="B9" s="137">
         <v>1</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140" t="s">
+      <c r="C9" s="138"/>
+      <c r="D9" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140" t="s">
+      <c r="E9" s="138"/>
+      <c r="F9" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="141">
+      <c r="G9" s="140">
         <v>888.8</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="142">
+      <c r="K9" s="141">
         <f>SUM(J10:J13)-MINA(J10:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="28">
         <v>123456</v>
       </c>
@@ -3039,12 +3081,12 @@
         <f>SUM(H10:I10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="143"/>
+      <c r="K10" s="142"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="28">
         <v>123456</v>
       </c>
@@ -3064,12 +3106,12 @@
         <f>SUM(H11:I11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="143"/>
+      <c r="K11" s="142"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="28">
         <v>123456</v>
       </c>
@@ -3089,12 +3131,12 @@
         <f>SUM(H12:I12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="143"/>
+      <c r="K12" s="142"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="28">
         <v>123456</v>
       </c>
@@ -3114,46 +3156,46 @@
         <f>SUM(H13:I13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="143"/>
+      <c r="K13" s="142"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="144"/>
+      <c r="G14" s="143"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="K14" s="143"/>
+      <c r="K14" s="142"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="138">
+      <c r="B15" s="137">
         <v>2</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140" t="s">
+      <c r="C15" s="138"/>
+      <c r="D15" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140" t="s">
+      <c r="E15" s="138"/>
+      <c r="F15" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="141">
+      <c r="G15" s="140">
         <v>888.8</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="142">
+      <c r="K15" s="141">
         <f>IF(COUNTA(J16:J19)&lt;3,0,IF(COUNTA(J16:J19)=3,SUM(J16:J19),IF(SUM(J16:J19)&gt;0,SUM(J16:J19)-MINA(J16:J19),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="28">
         <v>123456</v>
       </c>
@@ -3173,12 +3215,12 @@
         <f>SUM(H16:I16)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="143"/>
+      <c r="K16" s="142"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="28">
         <v>123456</v>
       </c>
@@ -3198,12 +3240,12 @@
         <f>SUM(H17:I17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="143"/>
+      <c r="K17" s="142"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="28">
         <v>123456</v>
       </c>
@@ -3223,12 +3265,12 @@
         <f>SUM(H18:I18)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="143"/>
+      <c r="K18" s="142"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
       <c r="E19" s="28">
         <v>123456</v>
       </c>
@@ -3248,46 +3290,46 @@
         <f>SUM(H19:I19)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="143"/>
+      <c r="K19" s="142"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="144"/>
+      <c r="G20" s="143"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="K20" s="143"/>
+      <c r="K20" s="142"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="138">
+      <c r="B21" s="137">
         <v>3</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140" t="s">
+      <c r="C21" s="138"/>
+      <c r="D21" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140" t="s">
+      <c r="E21" s="138"/>
+      <c r="F21" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="141">
+      <c r="G21" s="140">
         <v>888.8</v>
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="142">
+      <c r="K21" s="141">
         <f>IF(COUNTA(J22:J25)&lt;3,0,IF(COUNTA(J22:J25)=3,SUM(J22:J25),IF(SUM(J22:J25)&gt;0,SUM(J22:J25)-MINA(J22:J25),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="138"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="28">
         <v>123456</v>
       </c>
@@ -3307,12 +3349,12 @@
         <f>SUM(H22:I22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="143"/>
+      <c r="K22" s="142"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
       <c r="E23" s="28">
         <v>123456</v>
       </c>
@@ -3332,12 +3374,12 @@
         <f>SUM(H23:I23)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="143"/>
+      <c r="K23" s="142"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="138"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
       <c r="E24" s="28">
         <v>123456</v>
       </c>
@@ -3357,12 +3399,12 @@
         <f>SUM(H24:I24)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="143"/>
+      <c r="K24" s="142"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="28">
         <v>123456</v>
       </c>
@@ -3382,46 +3424,46 @@
         <f>SUM(H25:I25)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="143"/>
+      <c r="K25" s="142"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
       <c r="E26" s="28"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="144"/>
+      <c r="G26" s="143"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="K26" s="143"/>
+      <c r="K26" s="142"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="138">
+      <c r="B27" s="137">
         <v>4</v>
       </c>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140" t="s">
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="139"/>
-      <c r="F27" s="140" t="s">
+      <c r="E27" s="138"/>
+      <c r="F27" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="141">
+      <c r="G27" s="140">
         <v>888.8</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="142">
+      <c r="K27" s="141">
         <f>IF(COUNTA(J28:J31)&lt;3,0,IF(COUNTA(J28:J31)=3,SUM(J28:J31),IF(SUM(J28:J31)&gt;0,SUM(J28:J31)-MINA(J28:J31),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
       <c r="E28" s="28">
         <v>123456</v>
       </c>
@@ -3441,12 +3483,12 @@
         <f>SUM(H28:I28)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="143"/>
+      <c r="K28" s="142"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="138"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
       <c r="E29" s="28">
         <v>123456</v>
       </c>
@@ -3466,12 +3508,12 @@
         <f>SUM(H29:I29)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="143"/>
+      <c r="K29" s="142"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="138"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="28">
         <v>123456</v>
       </c>
@@ -3491,12 +3533,12 @@
         <f>SUM(H30:I30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="143"/>
+      <c r="K30" s="142"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="138"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="28">
         <v>123456</v>
       </c>
@@ -3516,46 +3558,46 @@
         <f>SUM(H31:I31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="143"/>
+      <c r="K31" s="142"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="138"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="28"/>
       <c r="F32" s="29"/>
-      <c r="G32" s="144"/>
+      <c r="G32" s="143"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
-      <c r="K32" s="143"/>
+      <c r="K32" s="142"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="138">
+      <c r="B33" s="137">
         <v>5</v>
       </c>
-      <c r="C33" s="139"/>
-      <c r="D33" s="140" t="s">
+      <c r="C33" s="138"/>
+      <c r="D33" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="139"/>
-      <c r="F33" s="140" t="s">
+      <c r="E33" s="138"/>
+      <c r="F33" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="141">
+      <c r="G33" s="140">
         <v>888.8</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="142">
+      <c r="K33" s="141">
         <f>IF(COUNTA(J34:J37)&lt;3,0,IF(COUNTA(J34:J37)=3,SUM(J34:J37),IF(SUM(J34:J37)&gt;0,SUM(J34:J37)-MINA(J34:J37),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="138"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
       <c r="E34" s="28">
         <v>123456</v>
       </c>
@@ -3575,12 +3617,12 @@
         <f>SUM(H34:I34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="143"/>
+      <c r="K34" s="142"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="138"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
       <c r="E35" s="28">
         <v>123456</v>
       </c>
@@ -3600,12 +3642,12 @@
         <f>SUM(H35:I35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="143"/>
+      <c r="K35" s="142"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="138"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
       <c r="E36" s="28">
         <v>123456</v>
       </c>
@@ -3625,12 +3667,12 @@
         <f>SUM(H36:I36)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="143"/>
+      <c r="K36" s="142"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="138"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="28">
         <v>123456</v>
       </c>
@@ -3650,46 +3692,46 @@
         <f>SUM(H37:I37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="143"/>
+      <c r="K37" s="142"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="138"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="144"/>
+      <c r="G38" s="143"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="K38" s="143"/>
+      <c r="K38" s="142"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="138">
+      <c r="B39" s="137">
         <v>6</v>
       </c>
-      <c r="C39" s="139"/>
-      <c r="D39" s="140" t="s">
+      <c r="C39" s="138"/>
+      <c r="D39" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="139"/>
-      <c r="F39" s="140" t="s">
+      <c r="E39" s="138"/>
+      <c r="F39" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="141">
+      <c r="G39" s="140">
         <v>888.8</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="142">
+      <c r="K39" s="141">
         <f>IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="138"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
       <c r="E40" s="28">
         <v>123456</v>
       </c>
@@ -3709,12 +3751,12 @@
         <f>SUM(H40:I40)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="143"/>
+      <c r="K40" s="142"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="138"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
       <c r="E41" s="28">
         <v>123456</v>
       </c>
@@ -3734,12 +3776,12 @@
         <f>SUM(H41:I41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="143"/>
+      <c r="K41" s="142"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="138"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
       <c r="E42" s="28">
         <v>123456</v>
       </c>
@@ -3759,12 +3801,12 @@
         <f>SUM(H42:I42)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="143"/>
+      <c r="K42" s="142"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="138"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
       <c r="E43" s="28">
         <v>123456</v>
       </c>
@@ -3784,46 +3826,46 @@
         <f>SUM(H43:I43)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="143"/>
+      <c r="K43" s="142"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="138"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
-      <c r="G44" s="144"/>
+      <c r="G44" s="143"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="K44" s="143"/>
+      <c r="K44" s="142"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="138">
+      <c r="B45" s="137">
         <v>7</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="140" t="s">
+      <c r="C45" s="138"/>
+      <c r="D45" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="139"/>
-      <c r="F45" s="140" t="s">
+      <c r="E45" s="138"/>
+      <c r="F45" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="141">
+      <c r="G45" s="140">
         <v>888.8</v>
       </c>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="142">
+      <c r="K45" s="141">
         <f>IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="138"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
       <c r="E46" s="28">
         <v>123456</v>
       </c>
@@ -3843,12 +3885,12 @@
         <f>SUM(H46:I46)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="143"/>
+      <c r="K46" s="142"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="138"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
       <c r="E47" s="28">
         <v>123456</v>
       </c>
@@ -3868,12 +3910,12 @@
         <f>SUM(H47:I47)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="143"/>
+      <c r="K47" s="142"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="138"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
       <c r="E48" s="28">
         <v>123456</v>
       </c>
@@ -3893,12 +3935,12 @@
         <f>SUM(H48:I48)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="143"/>
+      <c r="K48" s="142"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
       <c r="E49" s="28">
         <v>123456</v>
       </c>
@@ -3918,46 +3960,46 @@
         <f>SUM(H49:I49)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="143"/>
+      <c r="K49" s="142"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="138"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
       <c r="E50" s="28"/>
       <c r="F50" s="29"/>
-      <c r="G50" s="144"/>
+      <c r="G50" s="143"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="K50" s="143"/>
+      <c r="K50" s="142"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="138">
+      <c r="B51" s="137">
         <v>8</v>
       </c>
-      <c r="C51" s="139"/>
-      <c r="D51" s="140" t="s">
+      <c r="C51" s="138"/>
+      <c r="D51" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="139"/>
-      <c r="F51" s="140" t="s">
+      <c r="E51" s="138"/>
+      <c r="F51" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="141">
+      <c r="G51" s="140">
         <v>888.8</v>
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="142">
+      <c r="K51" s="141">
         <f>IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="138"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="138"/>
       <c r="E52" s="28">
         <v>123456</v>
       </c>
@@ -3977,12 +4019,12 @@
         <f>SUM(H52:I52)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="143"/>
+      <c r="K52" s="142"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="138"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="28">
         <v>123456</v>
       </c>
@@ -4002,12 +4044,12 @@
         <f>SUM(H53:I53)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="143"/>
+      <c r="K53" s="142"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="138"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="138"/>
       <c r="E54" s="28">
         <v>123456</v>
       </c>
@@ -4027,12 +4069,12 @@
         <f>SUM(H54:I54)</f>
         <v>0</v>
       </c>
-      <c r="K54" s="143"/>
+      <c r="K54" s="142"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="138"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="139"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="138"/>
       <c r="E55" s="28">
         <v>123456</v>
       </c>
@@ -4052,46 +4094,46 @@
         <f>SUM(H55:I55)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="143"/>
+      <c r="K55" s="142"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="138"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="139"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="138"/>
       <c r="E56" s="28"/>
       <c r="F56" s="29"/>
-      <c r="G56" s="144"/>
+      <c r="G56" s="143"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="K56" s="143"/>
+      <c r="K56" s="142"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="138">
+      <c r="B57" s="137">
         <v>9</v>
       </c>
-      <c r="C57" s="139"/>
-      <c r="D57" s="140" t="s">
+      <c r="C57" s="138"/>
+      <c r="D57" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="139"/>
-      <c r="F57" s="140" t="s">
+      <c r="E57" s="138"/>
+      <c r="F57" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="141">
+      <c r="G57" s="140">
         <v>888.8</v>
       </c>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
       <c r="J57" s="20"/>
-      <c r="K57" s="142">
+      <c r="K57" s="141">
         <f>IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="138"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
       <c r="E58" s="28">
         <v>123456</v>
       </c>
@@ -4111,12 +4153,12 @@
         <f>SUM(H58:I58)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="143"/>
+      <c r="K58" s="142"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="138"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="139"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
       <c r="E59" s="28">
         <v>123456</v>
       </c>
@@ -4136,12 +4178,12 @@
         <f>SUM(H59:I59)</f>
         <v>0</v>
       </c>
-      <c r="K59" s="143"/>
+      <c r="K59" s="142"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="138"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="139"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
       <c r="E60" s="28">
         <v>123456</v>
       </c>
@@ -4161,12 +4203,12 @@
         <f>SUM(H60:I60)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="143"/>
+      <c r="K60" s="142"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="138"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="139"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="138"/>
       <c r="E61" s="28">
         <v>123456</v>
       </c>
@@ -4186,48 +4228,48 @@
         <f>SUM(H61:I61)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="143"/>
+      <c r="K61" s="142"/>
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62"/>
-      <c r="B62" s="145"/>
+      <c r="B62" s="144"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62" s="146"/>
+      <c r="G62" s="145"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
       <c r="J62"/>
-      <c r="K62" s="147"/>
+      <c r="K62" s="146"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="138">
+      <c r="B63" s="137">
         <v>10</v>
       </c>
-      <c r="C63" s="139"/>
-      <c r="D63" s="140" t="s">
+      <c r="C63" s="138"/>
+      <c r="D63" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="139"/>
-      <c r="F63" s="140" t="s">
+      <c r="E63" s="138"/>
+      <c r="F63" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="141">
+      <c r="G63" s="140">
         <v>888.8</v>
       </c>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
       <c r="J63" s="20"/>
-      <c r="K63" s="142">
+      <c r="K63" s="141">
         <f>IF(COUNTA(J64:J67)&lt;3,0,IF(COUNTA(J64:J67)=3,SUM(J64:J67),IF(SUM(J64:J67)&gt;0,SUM(J64:J67)-MINA(J64:J67),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="138"/>
-      <c r="C64" s="139"/>
-      <c r="D64" s="139"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="138"/>
       <c r="E64" s="28">
         <v>123456</v>
       </c>
@@ -4247,12 +4289,12 @@
         <f>SUM(H64:I64)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="143"/>
+      <c r="K64" s="142"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="138"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="139"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="138"/>
       <c r="E65" s="28">
         <v>123456</v>
       </c>
@@ -4272,12 +4314,12 @@
         <f>SUM(H65:I65)</f>
         <v>0</v>
       </c>
-      <c r="K65" s="143"/>
+      <c r="K65" s="142"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="138"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="139"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="138"/>
       <c r="E66" s="28">
         <v>123456</v>
       </c>
@@ -4297,12 +4339,12 @@
         <f>SUM(H66:I66)</f>
         <v>0</v>
       </c>
-      <c r="K66" s="143"/>
+      <c r="K66" s="142"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="138"/>
-      <c r="C67" s="139"/>
-      <c r="D67" s="139"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="138"/>
       <c r="E67" s="28">
         <v>123456</v>
       </c>
@@ -4322,41 +4364,41 @@
         <f>SUM(H67:I67)</f>
         <v>0</v>
       </c>
-      <c r="K67" s="143"/>
+      <c r="K67" s="142"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="135"/>
+      <c r="B68" s="134"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
-      <c r="K68" s="143"/>
+      <c r="K68" s="142"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="138">
+      <c r="B69" s="137">
         <v>11</v>
       </c>
-      <c r="C69" s="139"/>
-      <c r="D69" s="140" t="s">
+      <c r="C69" s="138"/>
+      <c r="D69" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="E69" s="139"/>
-      <c r="F69" s="140" t="s">
+      <c r="E69" s="138"/>
+      <c r="F69" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="141">
+      <c r="G69" s="140">
         <v>888.8</v>
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="142">
+      <c r="K69" s="141">
         <f>IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="138"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="139"/>
+      <c r="B70" s="137"/>
+      <c r="C70" s="138"/>
+      <c r="D70" s="138"/>
       <c r="E70" s="28">
         <v>123456</v>
       </c>
@@ -4376,12 +4418,12 @@
         <f>SUM(H70:I70)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="143"/>
+      <c r="K70" s="142"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="138"/>
-      <c r="C71" s="139"/>
-      <c r="D71" s="139"/>
+      <c r="B71" s="137"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="138"/>
       <c r="E71" s="28">
         <v>123456</v>
       </c>
@@ -4401,12 +4443,12 @@
         <f>SUM(H71:I71)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="143"/>
+      <c r="K71" s="142"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="138"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="139"/>
+      <c r="B72" s="137"/>
+      <c r="C72" s="138"/>
+      <c r="D72" s="138"/>
       <c r="E72" s="28">
         <v>123456</v>
       </c>
@@ -4426,12 +4468,12 @@
         <f>SUM(H72:I72)</f>
         <v>0</v>
       </c>
-      <c r="K72" s="143"/>
+      <c r="K72" s="142"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="138"/>
-      <c r="C73" s="139"/>
-      <c r="D73" s="139"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="138"/>
       <c r="E73" s="28">
         <v>123456</v>
       </c>
@@ -4451,41 +4493,41 @@
         <f>SUM(H73:I73)</f>
         <v>0</v>
       </c>
-      <c r="K73" s="143"/>
+      <c r="K73" s="142"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="135"/>
+      <c r="B74" s="134"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
-      <c r="K74" s="143"/>
+      <c r="K74" s="142"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="138">
+      <c r="B75" s="137">
         <v>12</v>
       </c>
-      <c r="C75" s="139"/>
-      <c r="D75" s="140" t="s">
+      <c r="C75" s="138"/>
+      <c r="D75" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="139"/>
-      <c r="F75" s="140" t="s">
+      <c r="E75" s="138"/>
+      <c r="F75" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="G75" s="141">
+      <c r="G75" s="140">
         <v>888.8</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
       <c r="J75" s="20"/>
-      <c r="K75" s="142">
+      <c r="K75" s="141">
         <f>IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="138"/>
-      <c r="C76" s="139"/>
-      <c r="D76" s="139"/>
+      <c r="B76" s="137"/>
+      <c r="C76" s="138"/>
+      <c r="D76" s="138"/>
       <c r="E76" s="28">
         <v>123456</v>
       </c>
@@ -4505,12 +4547,12 @@
         <f>SUM(H76:I76)</f>
         <v>0</v>
       </c>
-      <c r="K76" s="143"/>
+      <c r="K76" s="142"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="138"/>
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
+      <c r="B77" s="137"/>
+      <c r="C77" s="138"/>
+      <c r="D77" s="138"/>
       <c r="E77" s="28">
         <v>123456</v>
       </c>
@@ -4530,12 +4572,12 @@
         <f>SUM(H77:I77)</f>
         <v>0</v>
       </c>
-      <c r="K77" s="143"/>
+      <c r="K77" s="142"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="138"/>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="138"/>
+      <c r="D78" s="138"/>
       <c r="E78" s="28">
         <v>123456</v>
       </c>
@@ -4555,12 +4597,12 @@
         <f>SUM(H78:I78)</f>
         <v>0</v>
       </c>
-      <c r="K78" s="143"/>
+      <c r="K78" s="142"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="138"/>
-      <c r="C79" s="139"/>
-      <c r="D79" s="139"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="138"/>
       <c r="E79" s="28">
         <v>123456</v>
       </c>
@@ -4580,19 +4622,19 @@
         <f>SUM(H79:I79)</f>
         <v>0</v>
       </c>
-      <c r="K79" s="143"/>
+      <c r="K79" s="142"/>
     </row>
     <row r="80" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="148"/>
-      <c r="C80" s="149"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="150"/>
-      <c r="F80" s="150"/>
-      <c r="G80" s="151"/>
-      <c r="H80" s="152"/>
-      <c r="I80" s="152"/>
-      <c r="J80" s="152"/>
-      <c r="K80" s="153"/>
+      <c r="B80" s="147"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="148"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="149"/>
+      <c r="G80" s="150"/>
+      <c r="H80" s="151"/>
+      <c r="I80" s="151"/>
+      <c r="J80" s="151"/>
+      <c r="K80" s="152"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="45" t="s">
@@ -4627,9 +4669,7 @@
   </sheetPr>
   <dimension ref="A2:X22"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView defaultGridColor="0" colorId="22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4651,31 +4691,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="str">
+      <c r="A2" s="175" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="167"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="177"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -4704,26 +4744,26 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="162" t="s">
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="162" t="s">
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="164"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="174"/>
       <c r="S7" s="6"/>
       <c r="U7" s="55" t="s">
         <v>4</v>
@@ -4755,7 +4795,7 @@
       <c r="H8" s="8">
         <v>4</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="104"/>
       <c r="J8" s="9">
         <v>1</v>
       </c>
@@ -4768,7 +4808,7 @@
       <c r="M8" s="8">
         <v>4</v>
       </c>
-      <c r="N8" s="105"/>
+      <c r="N8" s="104"/>
       <c r="O8" s="9">
         <v>1</v>
       </c>
@@ -4799,12 +4839,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="106"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="106"/>
+      <c r="N9" s="105"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -4823,12 +4863,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="106"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="106"/>
+      <c r="N10" s="105"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -4869,7 +4909,7 @@
         <f>IF('Deelnemers en Scores'!H13=0,"",'Deelnemers en Scores'!H13)</f>
         <v/>
       </c>
-      <c r="I11" s="107"/>
+      <c r="I11" s="106"/>
       <c r="J11" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I10=0,"",'Deelnemers en Scores'!I10)</f>
         <v/>
@@ -4886,7 +4926,7 @@
         <f>IF('Deelnemers en Scores'!I13=0,"",'Deelnemers en Scores'!I13)</f>
         <v/>
       </c>
-      <c r="N11" s="107"/>
+      <c r="N11" s="106"/>
       <c r="O11" s="52" t="str">
         <f t="shared" ref="O11:O22" si="0">IF(ISNUMBER(J11),E11+J11,"")</f>
         <v/>
@@ -4909,8 +4949,8 @@
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="79"/>
-      <c r="V11" s="80">
-        <f t="shared" ref="V11:V22" si="4">S11+U11</f>
+      <c r="V11" s="160">
+        <f t="shared" ref="V11:V22" si="4">S11+(U11/100)</f>
         <v>0</v>
       </c>
     </row>
@@ -4944,7 +4984,7 @@
         <f>IF('Deelnemers en Scores'!H19=0,"",'Deelnemers en Scores'!H19)</f>
         <v/>
       </c>
-      <c r="I12" s="107"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I16=0,"",'Deelnemers en Scores'!I16)</f>
         <v/>
@@ -4961,7 +5001,7 @@
         <f>IF('Deelnemers en Scores'!I19=0,"",'Deelnemers en Scores'!I19)</f>
         <v/>
       </c>
-      <c r="N12" s="107"/>
+      <c r="N12" s="106"/>
       <c r="O12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4984,7 +5024,7 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="79"/>
-      <c r="V12" s="80">
+      <c r="V12" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5019,7 +5059,7 @@
         <f>IF('Deelnemers en Scores'!H25=0,"",'Deelnemers en Scores'!H25)</f>
         <v/>
       </c>
-      <c r="I13" s="107"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I22=0,"",'Deelnemers en Scores'!I22)</f>
         <v/>
@@ -5036,7 +5076,7 @@
         <f>IF('Deelnemers en Scores'!I25=0,"",'Deelnemers en Scores'!I25)</f>
         <v/>
       </c>
-      <c r="N13" s="107"/>
+      <c r="N13" s="106"/>
       <c r="O13" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5059,7 +5099,7 @@
       </c>
       <c r="T13" s="14"/>
       <c r="U13" s="79"/>
-      <c r="V13" s="80">
+      <c r="V13" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5094,7 +5134,7 @@
         <f>IF('Deelnemers en Scores'!H31=0,"",'Deelnemers en Scores'!H31)</f>
         <v/>
       </c>
-      <c r="I14" s="107"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I28=0,"",'Deelnemers en Scores'!I28)</f>
         <v/>
@@ -5111,7 +5151,7 @@
         <f>IF('Deelnemers en Scores'!I31=0,"",'Deelnemers en Scores'!I31)</f>
         <v/>
       </c>
-      <c r="N14" s="107"/>
+      <c r="N14" s="106"/>
       <c r="O14" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5134,7 +5174,7 @@
       </c>
       <c r="T14" s="14"/>
       <c r="U14" s="79"/>
-      <c r="V14" s="80">
+      <c r="V14" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5169,7 +5209,7 @@
         <f>IF('Deelnemers en Scores'!H37=0,"",'Deelnemers en Scores'!H37)</f>
         <v/>
       </c>
-      <c r="I15" s="107"/>
+      <c r="I15" s="106"/>
       <c r="J15" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I34=0,"",'Deelnemers en Scores'!I34)</f>
         <v/>
@@ -5186,7 +5226,7 @@
         <f>IF('Deelnemers en Scores'!I37=0,"",'Deelnemers en Scores'!I37)</f>
         <v/>
       </c>
-      <c r="N15" s="107"/>
+      <c r="N15" s="106"/>
       <c r="O15" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5209,7 +5249,7 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="79"/>
-      <c r="V15" s="80">
+      <c r="V15" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5244,7 +5284,7 @@
         <f>IF('Deelnemers en Scores'!H43=0,"",'Deelnemers en Scores'!H43)</f>
         <v/>
       </c>
-      <c r="I16" s="107"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I40=0,"",'Deelnemers en Scores'!I40)</f>
         <v/>
@@ -5261,7 +5301,7 @@
         <f>IF('Deelnemers en Scores'!I43=0,"",'Deelnemers en Scores'!I43)</f>
         <v/>
       </c>
-      <c r="N16" s="107"/>
+      <c r="N16" s="106"/>
       <c r="O16" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5284,7 +5324,7 @@
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="79"/>
-      <c r="V16" s="80">
+      <c r="V16" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5319,7 +5359,7 @@
         <f>IF('Deelnemers en Scores'!H49=0,"",'Deelnemers en Scores'!H49)</f>
         <v/>
       </c>
-      <c r="I17" s="107"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I46=0,"",'Deelnemers en Scores'!I46)</f>
         <v/>
@@ -5336,7 +5376,7 @@
         <f>IF('Deelnemers en Scores'!I49=0,"",'Deelnemers en Scores'!I49)</f>
         <v/>
       </c>
-      <c r="N17" s="107"/>
+      <c r="N17" s="106"/>
       <c r="O17" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5359,7 +5399,7 @@
       </c>
       <c r="T17" s="14"/>
       <c r="U17" s="79"/>
-      <c r="V17" s="80">
+      <c r="V17" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5394,7 +5434,7 @@
         <f>IF('Deelnemers en Scores'!H55=0,"",'Deelnemers en Scores'!H55)</f>
         <v/>
       </c>
-      <c r="I18" s="107"/>
+      <c r="I18" s="106"/>
       <c r="J18" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I52=0,"",'Deelnemers en Scores'!I52)</f>
         <v/>
@@ -5411,7 +5451,7 @@
         <f>IF('Deelnemers en Scores'!I55=0,"",'Deelnemers en Scores'!I55)</f>
         <v/>
       </c>
-      <c r="N18" s="107"/>
+      <c r="N18" s="106"/>
       <c r="O18" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5434,7 +5474,7 @@
       </c>
       <c r="T18" s="14"/>
       <c r="U18" s="79"/>
-      <c r="V18" s="80">
+      <c r="V18" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5469,7 +5509,7 @@
         <f>IF('Deelnemers en Scores'!H61=0,"",'Deelnemers en Scores'!H61)</f>
         <v/>
       </c>
-      <c r="I19" s="107"/>
+      <c r="I19" s="106"/>
       <c r="J19" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I58=0,"",'Deelnemers en Scores'!I58)</f>
         <v/>
@@ -5486,7 +5526,7 @@
         <f>IF('Deelnemers en Scores'!I61=0,"",'Deelnemers en Scores'!I61)</f>
         <v/>
       </c>
-      <c r="N19" s="107"/>
+      <c r="N19" s="106"/>
       <c r="O19" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5509,7 +5549,7 @@
       </c>
       <c r="T19" s="14"/>
       <c r="U19" s="79"/>
-      <c r="V19" s="80">
+      <c r="V19" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5544,7 +5584,7 @@
         <f>IF('Deelnemers en Scores'!H67=0,"",'Deelnemers en Scores'!H67)</f>
         <v/>
       </c>
-      <c r="I20" s="107"/>
+      <c r="I20" s="106"/>
       <c r="J20" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I64=0,"",'Deelnemers en Scores'!I64)</f>
         <v/>
@@ -5561,7 +5601,7 @@
         <f>IF('Deelnemers en Scores'!I67=0,"",'Deelnemers en Scores'!I67)</f>
         <v/>
       </c>
-      <c r="N20" s="107"/>
+      <c r="N20" s="106"/>
       <c r="O20" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5584,7 +5624,7 @@
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="79"/>
-      <c r="V20" s="80">
+      <c r="V20" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5619,7 +5659,7 @@
         <f>IF('Deelnemers en Scores'!H73=0,"",'Deelnemers en Scores'!H73)</f>
         <v/>
       </c>
-      <c r="I21" s="107"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I70=0,"",'Deelnemers en Scores'!I70)</f>
         <v/>
@@ -5636,7 +5676,7 @@
         <f>IF('Deelnemers en Scores'!I73=0,"",'Deelnemers en Scores'!I73)</f>
         <v/>
       </c>
-      <c r="N21" s="107"/>
+      <c r="N21" s="106"/>
       <c r="O21" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5659,7 +5699,7 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="79"/>
-      <c r="V21" s="80">
+      <c r="V21" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5694,7 +5734,7 @@
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
-      <c r="I22" s="107"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="51" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
@@ -5711,7 +5751,7 @@
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
-      <c r="N22" s="107"/>
+      <c r="N22" s="106"/>
       <c r="O22" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5734,7 +5774,7 @@
       </c>
       <c r="T22" s="14"/>
       <c r="U22" s="79"/>
-      <c r="V22" s="80">
+      <c r="V22" s="160">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5751,6 +5791,12 @@
     <mergeCell ref="A2:V2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="V11:V22">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -5810,32 +5856,32 @@
     <row r="2" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="168" t="str">
+      <c r="B4" s="178" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="170"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="179"/>
+      <c r="X4" s="180"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -5915,22 +5961,22 @@
     </row>
     <row r="7" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:43" ht="30" x14ac:dyDescent="0.4">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
-      <c r="L8" s="92" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="L8" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="93"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="60" t="s">
         <v>97</v>
@@ -6057,7 +6103,7 @@
       <c r="AA11" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="AB11" s="81" t="s">
+      <c r="AB11" s="80" t="s">
         <v>100</v>
       </c>
       <c r="AC11" s="69" t="s">
@@ -6072,7 +6118,7 @@
       <c r="AM11" s="33"/>
     </row>
     <row r="12" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="108">
+      <c r="A12" s="107">
         <v>1</v>
       </c>
       <c r="B12" s="15" t="str">
@@ -6084,13 +6130,13 @@
         <f>IF(INDEX(Uitslag!C$11:V$22,A12,20)&gt;0,INDEX(Uitslag!D$11:D$22,A12,1),"")</f>
         <v/>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="112"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="111"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="61"/>
       <c r="AB12" s="61"/>
@@ -6111,13 +6157,13 @@
       <c r="E13"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="100" t="str">
+      <c r="H13" s="99" t="str">
         <f>IF(AA13=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I13" s="115"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="112"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="33"/>
       <c r="Z13" s="61" t="b">
         <f>AND(F12&lt;&gt;"",F14&lt;&gt;"")</f>
@@ -6139,7 +6185,7 @@
       <c r="AG13" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="AH13" s="81" t="s">
+      <c r="AH13" s="80" t="s">
         <v>100</v>
       </c>
       <c r="AI13" s="69" t="s">
@@ -6150,7 +6196,7 @@
       </c>
     </row>
     <row r="14" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="108">
+      <c r="A14" s="107">
         <v>8</v>
       </c>
       <c r="B14" s="15" t="str">
@@ -6162,12 +6208,12 @@
         <f>IF(INDEX(Uitslag!C$11:V$22,A14,20)&gt;0,INDEX(Uitslag!D$11:D$22,A14,1),"")</f>
         <v/>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
       <c r="N14" s="67" t="s">
         <v>75</v>
       </c>
@@ -6198,13 +6244,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="110"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="61"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="108">
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="107">
         <v>1</v>
       </c>
       <c r="L15" s="15" t="str">
@@ -6212,11 +6258,11 @@
         <v/>
       </c>
       <c r="M15" s="70"/>
-      <c r="N15" s="103"/>
+      <c r="N15" s="102"/>
       <c r="O15" s="27"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="109"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="108"/>
       <c r="S15" s="39"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="61"/>
@@ -6247,10 +6293,10 @@
       <c r="E16"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="34"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
@@ -6258,14 +6304,14 @@
         <f>IF(AG16=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="R16" s="109"/>
-      <c r="T16" s="95" t="s">
+      <c r="R16" s="108"/>
+      <c r="T16" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="97"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="96"/>
       <c r="Z16" s="39"/>
       <c r="AA16" s="39"/>
       <c r="AB16" s="39"/>
@@ -6289,9 +6335,9 @@
       <c r="AK16" s="33"/>
     </row>
     <row r="17" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I17" s="112"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="108">
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="107">
         <v>4</v>
       </c>
       <c r="L17" s="15" t="str">
@@ -6299,11 +6345,11 @@
         <v/>
       </c>
       <c r="M17" s="70"/>
-      <c r="N17" s="103"/>
+      <c r="N17" s="102"/>
       <c r="O17" s="27"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="109"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="108"/>
       <c r="Z17" s="27"/>
       <c r="AA17" s="61"/>
       <c r="AB17" s="61"/>
@@ -6324,7 +6370,7 @@
       <c r="AP17" s="66"/>
     </row>
     <row r="18" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108">
+      <c r="A18" s="107">
         <v>5</v>
       </c>
       <c r="B18" s="15" t="str">
@@ -6336,14 +6382,14 @@
         <f>IF(INDEX(Uitslag!C$11:V$22,A18,20)&gt;0,INDEX(Uitslag!D$11:D$22,A18,1),"")</f>
         <v/>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="112"/>
-      <c r="R18" s="109"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="111"/>
+      <c r="R18" s="108"/>
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
@@ -6389,15 +6435,15 @@
       <c r="E19"/>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="100" t="str">
+      <c r="H19" s="99" t="str">
         <f>IF(AA19=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I19" s="115"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="112"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="108"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="111"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="107"/>
       <c r="T19" s="15" t="str">
         <f>IF(AJ15=TRUE,L15,IF(AJ17=TRUE,L17,""))</f>
         <v/>
@@ -6432,7 +6478,7 @@
       </c>
     </row>
     <row r="20" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108">
+      <c r="A20" s="107">
         <v>4</v>
       </c>
       <c r="B20" s="15" t="str">
@@ -6444,18 +6490,18 @@
         <f>IF(INDEX(Uitslag!C$11:V$22,A20,20)&gt;0,INDEX(Uitslag!D$11:D$22,A20,1),"")</f>
         <v/>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="112"/>
-      <c r="R20" s="109"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="111"/>
+      <c r="R20" s="108"/>
       <c r="T20" s="38"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
       <c r="X20" s="36" t="str">
         <f>IF(AM20=TRUE,"SO","")</f>
         <v/>
@@ -6494,11 +6540,11 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="108"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="107"/>
       <c r="T21" s="15" t="str">
         <f>IF(AJ27=TRUE,L27,IF(AJ29=TRUE,L29,""))</f>
         <v/>
@@ -6533,10 +6579,10 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="R22" s="109"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="R22" s="108"/>
       <c r="Y22" s="39"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="61"/>
@@ -6545,7 +6591,7 @@
       <c r="AD22" s="61"/>
     </row>
     <row r="23" spans="1:42" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="R23" s="109"/>
+      <c r="R23" s="108"/>
       <c r="AC23" s="36"/>
       <c r="AD23" s="36"/>
       <c r="AF23" s="69"/>
@@ -6555,7 +6601,7 @@
       <c r="AJ23" s="36"/>
     </row>
     <row r="24" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="108">
+      <c r="A24" s="107">
         <v>3</v>
       </c>
       <c r="B24" s="15" t="str">
@@ -6567,13 +6613,13 @@
         <f>IF(INDEX(Uitslag!C$11:V$22,A24,20)&gt;0,INDEX(Uitslag!D$11:D$22,A24,1),"")</f>
         <v/>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="R24" s="109"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="R24" s="108"/>
       <c r="Z24" s="27"/>
       <c r="AA24" s="61"/>
       <c r="AB24" s="61"/>
@@ -6597,13 +6643,13 @@
       <c r="E25"/>
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="100" t="str">
+      <c r="H25" s="99" t="str">
         <f>IF(AA25=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="111"/>
-      <c r="R25" s="109"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="110"/>
+      <c r="R25" s="108"/>
       <c r="Z25" s="61" t="b">
         <f>AND(F24&lt;&gt;"",F26&lt;&gt;"")</f>
         <v>0</v>
@@ -6622,7 +6668,7 @@
       <c r="AJ25" s="36"/>
     </row>
     <row r="26" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="108">
+      <c r="A26" s="107">
         <v>6</v>
       </c>
       <c r="B26" s="15" t="str">
@@ -6634,12 +6680,12 @@
         <f>IF(INDEX(Uitslag!C$11:V$22,A26,20)&gt;0,INDEX(Uitslag!D$11:D$22,A26,1),"")</f>
         <v/>
       </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
       <c r="L26" s="38"/>
       <c r="N26" s="67" t="s">
         <v>75</v>
@@ -6648,7 +6694,7 @@
       <c r="P26" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="109"/>
+      <c r="R26" s="108"/>
       <c r="Z26" s="27"/>
       <c r="AA26" s="61"/>
       <c r="AB26" s="61"/>
@@ -6666,7 +6712,7 @@
       <c r="AG26" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="AH26" s="81" t="s">
+      <c r="AH26" s="80" t="s">
         <v>100</v>
       </c>
       <c r="AI26" s="69" t="s">
@@ -6684,10 +6730,10 @@
       <c r="E27"/>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="108">
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="107">
         <v>3</v>
       </c>
       <c r="L27" s="15" t="str">
@@ -6695,11 +6741,11 @@
         <v/>
       </c>
       <c r="M27" s="70"/>
-      <c r="N27" s="103"/>
+      <c r="N27" s="102"/>
       <c r="O27" s="27"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="109"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="108"/>
       <c r="Y27" s="33"/>
       <c r="AC27" s="36"/>
       <c r="AD27" s="36"/>
@@ -6725,8 +6771,8 @@
       <c r="E28"/>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
       <c r="L28" s="34"/>
       <c r="N28" s="35"/>
       <c r="O28" s="36"/>
@@ -6734,14 +6780,14 @@
         <f>IF(AG28=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="R28" s="109"/>
-      <c r="T28" s="95" t="s">
+      <c r="R28" s="108"/>
+      <c r="T28" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="97"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="96"/>
       <c r="Y28" s="33"/>
       <c r="Z28" s="61"/>
       <c r="AA28" s="61"/>
@@ -6766,9 +6812,9 @@
       <c r="AK28" s="33"/>
     </row>
     <row r="29" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="I29" s="117"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="108">
+      <c r="I29" s="116"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="107">
         <v>2</v>
       </c>
       <c r="L29" s="15" t="str">
@@ -6776,11 +6822,11 @@
         <v/>
       </c>
       <c r="M29" s="70"/>
-      <c r="N29" s="103"/>
+      <c r="N29" s="102"/>
       <c r="O29" s="27"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="109"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="108"/>
       <c r="Z29" s="27"/>
       <c r="AA29" s="61"/>
       <c r="AB29" s="61"/>
@@ -6794,7 +6840,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="108">
+      <c r="A30" s="107">
         <v>7</v>
       </c>
       <c r="B30" s="15" t="str">
@@ -6806,13 +6852,13 @@
         <f>IF(INDEX(Uitslag!C$11:V$22,A30,20)&gt;0,INDEX(Uitslag!D$11:D$22,A30,1),"")</f>
         <v/>
       </c>
-      <c r="E30" s="98"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="R30" s="109"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="R30" s="108"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
       <c r="V30" s="67" t="s">
@@ -6857,14 +6903,14 @@
       <c r="E31"/>
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="100" t="str">
+      <c r="H31" s="99" t="str">
         <f>IF(AA31=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="111"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="108"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="110"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="107"/>
       <c r="T31" s="15" t="str">
         <f>IF(AJ15=TRUE,L17,IF(AJ17=TRUE,L15,""))</f>
         <v/>
@@ -6899,7 +6945,7 @@
       </c>
     </row>
     <row r="32" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="108">
+      <c r="A32" s="107">
         <v>2</v>
       </c>
       <c r="B32" s="15" t="str">
@@ -6911,17 +6957,17 @@
         <f>IF(INDEX(Uitslag!C$11:V$22,A32,20)&gt;0,INDEX(Uitslag!D$11:D$22,A32,1),"")</f>
         <v/>
       </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="R32" s="109"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="R32" s="108"/>
       <c r="T32" s="38"/>
       <c r="U32" s="33"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
       <c r="X32" s="36" t="str">
         <f>IF(AM32=TRUE,"SO","")</f>
         <v/>
@@ -6959,8 +7005,8 @@
       </c>
     </row>
     <row r="33" spans="18:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="R33" s="109"/>
-      <c r="S33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="107"/>
       <c r="T33" s="15" t="str">
         <f>IF(AJ27=TRUE,L29,IF(AJ29=TRUE,L27,""))</f>
         <v/>
@@ -7046,42 +7092,42 @@
     <mergeCell ref="B4:X4"/>
   </mergeCells>
   <conditionalFormatting sqref="H12 H14">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AA$13=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30 H32">
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>AA$31=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 H26">
-    <cfRule type="expression" dxfId="9" priority="20">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>AA$25=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 H20">
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>AA$19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17 P29">
-    <cfRule type="expression" dxfId="7" priority="24">
+    <cfRule type="expression" dxfId="12" priority="24">
       <formula>AG16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15 P27">
-    <cfRule type="expression" dxfId="6" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>AG16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19 X21">
-    <cfRule type="expression" dxfId="5" priority="27">
+    <cfRule type="expression" dxfId="10" priority="27">
       <formula>AM$20=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31 X33">
-    <cfRule type="expression" dxfId="4" priority="28">
+    <cfRule type="expression" dxfId="9" priority="28">
       <formula>AM$32=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7132,24 +7178,24 @@
     <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="168" t="str">
+      <c r="B4" s="178" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="170"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="180"/>
       <c r="Q4"/>
       <c r="U4"/>
       <c r="V4"/>
@@ -7181,15 +7227,15 @@
       <c r="Y6" s="33"/>
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="93"/>
       <c r="J7" s="60"/>
       <c r="K7" s="39"/>
       <c r="R7" s="27"/>
@@ -7233,7 +7279,7 @@
       <c r="S10" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="81" t="s">
+      <c r="T10" s="80" t="s">
         <v>99</v>
       </c>
       <c r="U10" s="69" t="s">
@@ -7245,7 +7291,7 @@
       <c r="W10" s="33"/>
     </row>
     <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
       <c r="B11" s="15" t="str">
@@ -7261,8 +7307,8 @@
       <c r="F11" s="25"/>
       <c r="G11" s="27"/>
       <c r="H11" s="62"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="118"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="117"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="36"/>
       <c r="S11" s="61"/>
@@ -7290,14 +7336,14 @@
         <f>IF(S12=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="J12" s="118"/>
-      <c r="L12" s="95" t="s">
+      <c r="J12" s="117"/>
+      <c r="L12" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="97"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
       <c r="R12" s="61" t="b">
         <f>AND(F11&lt;&gt;"",F13&lt;&gt;"")</f>
         <v>0</v>
@@ -7317,7 +7363,7 @@
       <c r="Y12" s="39"/>
     </row>
     <row r="13" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+      <c r="A13" s="107">
         <v>4</v>
       </c>
       <c r="B13" s="15" t="str">
@@ -7333,8 +7379,8 @@
       <c r="F13" s="25"/>
       <c r="G13" s="27"/>
       <c r="H13" s="62"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="118"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="117"/>
       <c r="K13" s="39"/>
       <c r="R13" s="27"/>
       <c r="S13" s="61"/>
@@ -7350,7 +7396,7 @@
       <c r="Z13" s="40"/>
     </row>
     <row r="14" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="118"/>
+      <c r="J14" s="117"/>
       <c r="K14" s="39"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -7369,7 +7415,7 @@
       <c r="Y14" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="Z14" s="81" t="s">
+      <c r="Z14" s="80" t="s">
         <v>99</v>
       </c>
       <c r="AA14" s="69" t="s">
@@ -7380,8 +7426,8 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J15" s="118"/>
-      <c r="K15" s="109"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="15" t="str">
         <f>IF(V11=TRUE,B11,IF(V13=TRUE,B13,""))</f>
         <v/>
@@ -7407,11 +7453,11 @@
       </c>
     </row>
     <row r="16" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="J16" s="119"/>
+      <c r="J16" s="118"/>
       <c r="L16" s="38"/>
       <c r="M16" s="33"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
       <c r="P16" s="36" t="str">
         <f>IF(Y16=TRUE,"SO","")</f>
         <v/>
@@ -7437,8 +7483,8 @@
       <c r="F17" s="35"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="109"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="108"/>
       <c r="L17" s="15" t="str">
         <f>IF(V20=TRUE,B20,IF(V22=TRUE,B22,""))</f>
         <v/>
@@ -7469,7 +7515,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
-      <c r="J18" s="119"/>
+      <c r="J18" s="118"/>
     </row>
     <row r="19" spans="1:28" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
@@ -7483,14 +7529,14 @@
       <c r="H19" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="119"/>
+      <c r="J19" s="118"/>
       <c r="R19" s="69" t="s">
         <v>99</v>
       </c>
       <c r="S19" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="T19" s="81" t="s">
+      <c r="T19" s="80" t="s">
         <v>99</v>
       </c>
       <c r="U19" s="69" t="s">
@@ -7501,7 +7547,7 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="108">
+      <c r="A20" s="107">
         <v>3</v>
       </c>
       <c r="B20" s="15" t="str">
@@ -7517,8 +7563,8 @@
       <c r="F20" s="25"/>
       <c r="G20" s="27"/>
       <c r="H20" s="62"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="119"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="118"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
@@ -7544,14 +7590,14 @@
         <f>IF(S21=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="J21" s="119"/>
-      <c r="L21" s="95" t="s">
+      <c r="J21" s="118"/>
+      <c r="L21" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="97"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
       <c r="R21" s="61" t="b">
         <f>AND(F20&lt;&gt;"",F22&lt;&gt;"")</f>
         <v>0</v>
@@ -7566,7 +7612,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="108">
+      <c r="A22" s="107">
         <v>2</v>
       </c>
       <c r="B22" s="15" t="str">
@@ -7582,8 +7628,8 @@
       <c r="F22" s="25"/>
       <c r="G22" s="27"/>
       <c r="H22" s="62"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="119"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="118"/>
       <c r="U22" s="61">
         <f>F22+H22</f>
         <v>0</v>
@@ -7594,10 +7640,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J23" s="119"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="1:28" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="J24" s="119"/>
+      <c r="J24" s="118"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
       <c r="N24" s="67" t="s">
@@ -7620,7 +7666,7 @@
       <c r="Y24" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="Z24" s="81" t="s">
+      <c r="Z24" s="80" t="s">
         <v>99</v>
       </c>
       <c r="AA24" s="69" t="s">
@@ -7631,8 +7677,8 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="J25" s="119"/>
-      <c r="K25" s="109"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="108"/>
       <c r="L25" s="15" t="str">
         <f>IF(V11=TRUE,B13,IF(V13=TRUE,B11,""))</f>
         <v/>
@@ -7661,11 +7707,11 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="J26" s="119"/>
+      <c r="J26" s="118"/>
       <c r="L26" s="38"/>
       <c r="M26" s="33"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
       <c r="P26" s="36" t="str">
         <f>IF(Y26=TRUE,"SO","")</f>
         <v/>
@@ -7693,8 +7739,8 @@
       <c r="AB26" s="66"/>
     </row>
     <row r="27" spans="1:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="J27" s="119"/>
-      <c r="K27" s="109"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="108"/>
       <c r="L27" s="15" t="str">
         <f>IF(V20=TRUE,B22,IF(V22=TRUE,B20,""))</f>
         <v/>
@@ -7741,22 +7787,22 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="P25 P27">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>Y$26=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20 H11">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="7" priority="29">
       <formula>S12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H13">
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="6" priority="30">
       <formula>S12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15 P17">
-    <cfRule type="expression" dxfId="0" priority="31">
+    <cfRule type="expression" dxfId="5" priority="31">
       <formula>Y$16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19616B5-67EF-4997-90CC-DB259A4390DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4F441-B1C5-41FD-A7FC-BE230924762E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="1035" windowWidth="19860" windowHeight="14040" tabRatio="546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11700" yWindow="1035" windowWidth="16545" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="134">
   <si>
     <t>Baan</t>
   </si>
@@ -341,9 +341,6 @@
     <t>De scores van de voorrondes moeten ingevuld worden in kolommen H en I.</t>
   </si>
   <si>
-    <t>Dit blad bevat de samenvatting van de uitslag van de voorrondes.</t>
-  </si>
-  <si>
     <t>De team sterkte hoef je niet aan te passen.</t>
   </si>
   <si>
@@ -549,12 +546,6 @@
     </r>
   </si>
   <si>
-    <t>Finales met 8/4 teams</t>
-  </si>
-  <si>
-    <t>Bij 4 teams of minder, gebruik het blad Finales met 4 teams, anders Finales met 8 teams.</t>
-  </si>
-  <si>
     <t>Vul de scores in.</t>
   </si>
   <si>
@@ -623,15 +614,6 @@
   </si>
   <si>
     <t>Toegestane invaller mag geen hoger gemiddelde hebben dan de uitvaller.</t>
-  </si>
-  <si>
-    <t>Sorteer regels 11 t/m 22 op resultaat in kolom V, aflopend</t>
-  </si>
-  <si>
-    <t>Controleer of er een shootoff (om een plek in de finale) of tossen nodig is (voor startplaats binnen de finale)</t>
-  </si>
-  <si>
-    <t>Resultaat van de shootoffs / toss kan ingevoerd worden in kolom U.</t>
   </si>
   <si>
     <t>Naar finale?</t>
@@ -661,7 +643,112 @@
     </r>
   </si>
   <si>
-    <t>Instructies voor juist gebruik van dit BK programma voor de Indoor competitie</t>
+    <t>Finales met 8 of 4 teams</t>
+  </si>
+  <si>
+    <t>Instructies voor juist gebruik van dit BK programma voor de Indoor teams competitie</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Het blad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uitslag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> bevat de samenvatting van de voorrondes en stuurt welke teams in de finale mogen beginnen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sorteer regels 11 t/m 22 op resultaat in kolom V, aflopend (hoogste eerst)</t>
+  </si>
+  <si>
+    <t>Vergeet niet opnieuw te sorteren!</t>
+  </si>
+  <si>
+    <t>De exacte waardes die je invoert zijn niet van belang, als er maar verschil ontstaat en de velden niet meer geel zijn. Hoger = beter.</t>
+  </si>
+  <si>
+    <t>Gelijke resultaten?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eventuele gelijke resultaten worden op het blad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Uitslag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in geel gemarkeerd.</t>
+    </r>
+  </si>
+  <si>
+    <t>Als dit bepalend is voor wel/niet deelname aan de finale, dan moet een shoot-off georganiseerd worden.
+Voor overige gelijke scores: tel de 10-en en 9-ens van de kwalificatie-scores.</t>
+  </si>
+  <si>
+    <t>Resultaat van de shoot-off / telling moet ingevoerd worden in kolom U. Dit wordt als decimaal toegevoegd aan het resultaat.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bij 4 teams of minder, gebruik het blad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Finales met 4 teams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, anders </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Finales met 8 teams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1378,7 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1898,53 +1985,19 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard_team model" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2026,9 +2079,19 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2465,27 +2528,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E943A-A4FE-44C0-91C8-714011AFBE50}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A2:B63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="103.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.5546875" style="14" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="14" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="47" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="161" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B4" s="161"/>
     </row>
@@ -2499,13 +2560,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2"/>
+        <v>85</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2515,7 +2575,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2530,32 +2590,29 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2"/>
+        <v>103</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2"/>
+        <v>89</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>59</v>
@@ -2568,22 +2625,22 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2591,8 +2648,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
@@ -2601,126 +2656,140 @@
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="14" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="14" t="s">
-        <v>107</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B38" s="181" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B39" s="181" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B40" s="181" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="181" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="181"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="14" t="s">
-        <v>82</v>
+      <c r="A44" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="14" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="14" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
       <c r="B48" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
       <c r="B49" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
       <c r="B50" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
       <c r="B51" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="14" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2776,17 +2845,17 @@
     <row r="4" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="D6" s="85" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D7" s="86" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -2804,7 +2873,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D12" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -2833,7 +2902,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="76" t="s">
         <v>47</v>
@@ -2842,7 +2911,7 @@
         <v>65</v>
       </c>
       <c r="I16" s="77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -2855,7 +2924,7 @@
       <c r="B18" s="48"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="28">
         <v>123456</v>
@@ -2867,7 +2936,7 @@
         <v>7.7770000000000001</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I18" s="49"/>
     </row>
@@ -2914,7 +2983,7 @@
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="165" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="166"/>
       <c r="D2" s="166"/>
@@ -3010,7 +3079,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="122" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H7" s="123" t="s">
         <v>57</v>
@@ -3019,7 +3088,7 @@
         <v>58</v>
       </c>
       <c r="J7" s="119" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K7" s="133" t="s">
         <v>9</v>
@@ -5792,10 +5861,10 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="V11:V22">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5962,7 +6031,7 @@
     <row r="7" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:43" ht="30" x14ac:dyDescent="0.4">
       <c r="B8" s="91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="92"/>
@@ -5979,7 +6048,7 @@
       <c r="P8" s="93"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
@@ -5987,7 +6056,7 @@
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
       <c r="AF8" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG8" s="33"/>
       <c r="AH8" s="33"/>
@@ -5995,7 +6064,7 @@
       <c r="AJ8" s="33"/>
       <c r="AK8" s="33"/>
       <c r="AL8" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6090,27 +6159,27 @@
     </row>
     <row r="11" spans="1:43" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="67" t="s">
         <v>75</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>76</v>
       </c>
       <c r="I11" s="67"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB11" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="AA11" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB11" s="80" t="s">
+      <c r="AC11" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="AC11" s="69" t="s">
+      <c r="AD11" s="69" t="s">
         <v>101</v>
-      </c>
-      <c r="AD11" s="69" t="s">
-        <v>102</v>
       </c>
       <c r="AE11" s="33"/>
       <c r="AK11" s="33"/>
@@ -6180,19 +6249,19 @@
       <c r="AC13" s="36"/>
       <c r="AD13" s="36"/>
       <c r="AF13" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG13" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH13" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="AG13" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH13" s="80" t="s">
+      <c r="AI13" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="AI13" s="69" t="s">
-        <v>101</v>
-      </c>
       <c r="AJ13" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6215,11 +6284,11 @@
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="N14" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O14" s="68"/>
       <c r="P14" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S14" s="39"/>
       <c r="Z14" s="27"/>
@@ -6394,11 +6463,11 @@
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
       <c r="V18" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W18" s="67"/>
       <c r="X18" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y18" s="67"/>
       <c r="AC18" s="61">
@@ -6412,19 +6481,19 @@
       <c r="AE18" s="39"/>
       <c r="AK18" s="33"/>
       <c r="AL18" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM18" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN18" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AN18" s="64" t="s">
+      <c r="AO18" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="AO18" s="65" t="s">
-        <v>80</v>
-      </c>
       <c r="AP18" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6688,11 +6757,11 @@
       <c r="J26" s="110"/>
       <c r="L26" s="38"/>
       <c r="N26" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O26" s="68"/>
       <c r="P26" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R26" s="108"/>
       <c r="Z26" s="27"/>
@@ -6707,19 +6776,19 @@
         <v>0</v>
       </c>
       <c r="AF26" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG26" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH26" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="AG26" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH26" s="80" t="s">
+      <c r="AI26" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="AI26" s="69" t="s">
-        <v>101</v>
-      </c>
       <c r="AJ26" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
@@ -6782,7 +6851,7 @@
       </c>
       <c r="R28" s="108"/>
       <c r="T28" s="94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U28" s="95"/>
       <c r="V28" s="95"/>
@@ -6862,11 +6931,11 @@
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
       <c r="V30" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W30" s="67"/>
       <c r="X30" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z30" s="39"/>
       <c r="AA30" s="39"/>
@@ -6880,19 +6949,19 @@
         <v>0</v>
       </c>
       <c r="AL30" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM30" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN30" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AN30" s="64" t="s">
+      <c r="AO30" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="AO30" s="65" t="s">
-        <v>80</v>
-      </c>
       <c r="AP30" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="30" x14ac:dyDescent="0.2">
@@ -7092,42 +7161,42 @@
     <mergeCell ref="B4:X4"/>
   </mergeCells>
   <conditionalFormatting sqref="H12 H14">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AA$13=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30 H32">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>AA$31=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 H26">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="9" priority="20">
       <formula>AA$25=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 H20">
-    <cfRule type="expression" dxfId="13" priority="21">
+    <cfRule type="expression" dxfId="8" priority="21">
       <formula>AA$19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17 P29">
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="7" priority="24">
       <formula>AG16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15 P27">
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="6" priority="25">
       <formula>AG16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19 X21">
-    <cfRule type="expression" dxfId="10" priority="27">
+    <cfRule type="expression" dxfId="5" priority="27">
       <formula>AM$20=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31 X33">
-    <cfRule type="expression" dxfId="9" priority="28">
+    <cfRule type="expression" dxfId="4" priority="28">
       <formula>AM$32=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7266,27 +7335,27 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="F10" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="31"/>
       <c r="R10" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S10" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="80" t="s">
-        <v>99</v>
-      </c>
       <c r="U10" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V10" s="69" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="W10" s="33"/>
     </row>
@@ -7401,28 +7470,28 @@
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O14" s="67"/>
       <c r="P14" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
       <c r="X14" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y14" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z14" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="Z14" s="80" t="s">
-        <v>99</v>
-      </c>
       <c r="AA14" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -7523,27 +7592,27 @@
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="F19" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="68"/>
       <c r="H19" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="118"/>
       <c r="R19" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S19" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="T19" s="80" t="s">
-        <v>99</v>
-      </c>
       <c r="U19" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V19" s="69" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
@@ -7592,7 +7661,7 @@
       </c>
       <c r="J21" s="118"/>
       <c r="L21" s="94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" s="95"/>
       <c r="N21" s="95"/>
@@ -7647,11 +7716,11 @@
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
       <c r="N24" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="67"/>
       <c r="P24" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="67"/>
       <c r="R24" s="67"/>
@@ -7661,19 +7730,19 @@
       <c r="V24" s="67"/>
       <c r="W24" s="67"/>
       <c r="X24" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y24" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z24" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="Z24" s="80" t="s">
-        <v>99</v>
-      </c>
       <c r="AA24" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB24" s="69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="30" x14ac:dyDescent="0.2">
@@ -7787,22 +7856,22 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="P25 P27">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>Y$26=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20 H11">
-    <cfRule type="expression" dxfId="7" priority="29">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>S12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H13">
-    <cfRule type="expression" dxfId="6" priority="30">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>S12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15 P17">
-    <cfRule type="expression" dxfId="5" priority="31">
+    <cfRule type="expression" dxfId="0" priority="31">
       <formula>Y$16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4F441-B1C5-41FD-A7FC-BE230924762E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C62E51-2E5C-4063-9B21-0099A2022D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="1035" windowWidth="16545" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -1465,7 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1492,10 +1492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1503,9 +1499,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1526,10 +1519,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1735,14 +1724,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1767,10 +1748,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1782,14 +1759,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1891,13 +1860,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1915,6 +1877,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1955,6 +1920,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1985,8 +1956,49 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2528,48 +2540,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E943A-A4FE-44C0-91C8-714011AFBE50}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="85.5546875" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="14" hidden="1"/>
+    <col min="1" max="1" width="8.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="86.88671875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="12" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="47" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="43" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>124</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="161"/>
+      <c r="B4" s="151"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="46"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2579,75 +2594,80 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>103</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="150" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
@@ -2655,53 +2675,55 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="150" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="150" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="B40" s="181" t="s">
+      <c r="B40" s="150" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="150" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="181"/>
-    </row>
+      <c r="B42" s="150"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>123</v>
@@ -2709,43 +2731,43 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2753,45 +2775,49 @@
       <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="12" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="12" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
@@ -2812,133 +2838,133 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="84" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" style="87" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="81" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.88671875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="7.109375" style="18" hidden="1"/>
+    <col min="1" max="1" width="3.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="83" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="77" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.88671875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="7.109375" style="15" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="162" t="str">
+      <c r="B1" s="152" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C2" s="30"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="81" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="82" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="82" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="45"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="74" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="74" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="88"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="73"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="89"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="76" t="s">
+      <c r="G16" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="76" t="s">
+      <c r="H16" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="73" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E17" s="20"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="48"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="24">
         <v>123456</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="45"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2966,1747 +2992,1747 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="43" customWidth="1"/>
-    <col min="8" max="9" width="3.6640625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="18" customWidth="1"/>
-    <col min="13" max="16384" width="7.109375" style="18" hidden="1"/>
+    <col min="1" max="1" width="3.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="39" customWidth="1"/>
+    <col min="8" max="9" width="3.6640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="7.109375" style="15" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="167"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="157"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="124"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="130" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="169" t="s">
+      <c r="F4" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="170" t="s">
+      <c r="H4" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="171"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="161"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="159"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="148"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="132"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="168" t="s">
+      <c r="H6" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="168"/>
-      <c r="J6" s="119" t="s">
+      <c r="I6" s="158"/>
+      <c r="J6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="124" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120" t="s">
+      <c r="B7" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="J7" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="133" t="s">
+      <c r="K7" s="124" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="134"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="136"/>
+      <c r="B8" s="125"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="127"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="137">
+      <c r="B9" s="128">
         <v>1</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139" t="s">
+      <c r="C9" s="129"/>
+      <c r="D9" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139" t="s">
+      <c r="E9" s="129"/>
+      <c r="F9" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="140">
+      <c r="G9" s="131">
         <v>888.8</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="141">
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="132">
         <f>SUM(J10:J13)-MINA(J10:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="137"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="28">
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="24">
         <v>123456</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H10" s="28">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
         <f>SUM(H10:I10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="142"/>
+      <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="28">
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="24">
         <v>123456</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H11" s="28">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
         <f>SUM(H11:I11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="142"/>
+      <c r="K11" s="133"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="28">
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="24">
         <v>123456</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H12" s="28">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0</v>
-      </c>
-      <c r="J12" s="19">
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
         <f>SUM(H12:I12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="142"/>
+      <c r="K12" s="133"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="28">
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="24">
         <v>123456</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H13" s="28">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
-        <v>0</v>
-      </c>
-      <c r="J13" s="19">
+      <c r="H13" s="24">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
         <f>SUM(H13:I13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="142"/>
+      <c r="K13" s="133"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="137"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="K14" s="142"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="137">
+      <c r="B15" s="128">
         <v>2</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139" t="s">
+      <c r="C15" s="129"/>
+      <c r="D15" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139" t="s">
+      <c r="E15" s="129"/>
+      <c r="F15" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="140">
+      <c r="G15" s="131">
         <v>888.8</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="141">
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="132">
         <f>IF(COUNTA(J16:J19)&lt;3,0,IF(COUNTA(J16:J19)=3,SUM(J16:J19),IF(SUM(J16:J19)&gt;0,SUM(J16:J19)-MINA(J16:J19),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="28">
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="24">
         <v>123456</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H16" s="28">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
+      <c r="H16" s="24">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
         <f>SUM(H16:I16)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="142"/>
+      <c r="K16" s="133"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="137"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="28">
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="24">
         <v>123456</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
         <f>SUM(H17:I17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="142"/>
+      <c r="K17" s="133"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="137"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="28">
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="24">
         <v>123456</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H18" s="28">
-        <v>0</v>
-      </c>
-      <c r="I18" s="28">
-        <v>0</v>
-      </c>
-      <c r="J18" s="19">
+      <c r="H18" s="24">
+        <v>0</v>
+      </c>
+      <c r="I18" s="24">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
         <f>SUM(H18:I18)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="142"/>
+      <c r="K18" s="133"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="28">
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="24">
         <v>123456</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H19" s="28">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
-        <v>0</v>
-      </c>
-      <c r="J19" s="19">
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
         <f>SUM(H19:I19)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="142"/>
+      <c r="K19" s="133"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="137"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="K20" s="142"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="K20" s="133"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="137">
+      <c r="B21" s="128">
         <v>3</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139" t="s">
+      <c r="C21" s="129"/>
+      <c r="D21" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139" t="s">
+      <c r="E21" s="129"/>
+      <c r="F21" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="140">
+      <c r="G21" s="131">
         <v>888.8</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="141">
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="132">
         <f>IF(COUNTA(J22:J25)&lt;3,0,IF(COUNTA(J22:J25)=3,SUM(J22:J25),IF(SUM(J22:J25)&gt;0,SUM(J22:J25)-MINA(J22:J25),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="28">
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="24">
         <v>123456</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H22" s="28">
-        <v>0</v>
-      </c>
-      <c r="I22" s="28">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19">
+      <c r="H22" s="24">
+        <v>0</v>
+      </c>
+      <c r="I22" s="24">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
         <f>SUM(H22:I22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="142"/>
+      <c r="K22" s="133"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="137"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="28">
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="24">
         <v>123456</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H23" s="28">
-        <v>0</v>
-      </c>
-      <c r="I23" s="28">
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="H23" s="24">
+        <v>0</v>
+      </c>
+      <c r="I23" s="24">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
         <f>SUM(H23:I23)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="142"/>
+      <c r="K23" s="133"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="28">
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="24">
         <v>123456</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H24" s="28">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
-        <v>0</v>
-      </c>
-      <c r="J24" s="19">
+      <c r="H24" s="24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <f>SUM(H24:I24)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="142"/>
+      <c r="K24" s="133"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="137"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="28">
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="24">
         <v>123456</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H25" s="28">
-        <v>0</v>
-      </c>
-      <c r="I25" s="28">
-        <v>0</v>
-      </c>
-      <c r="J25" s="19">
+      <c r="H25" s="24">
+        <v>0</v>
+      </c>
+      <c r="I25" s="24">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
         <f>SUM(H25:I25)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="142"/>
+      <c r="K25" s="133"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="K26" s="142"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="K26" s="133"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="137">
+      <c r="B27" s="128">
         <v>4</v>
       </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139" t="s">
+      <c r="C27" s="129"/>
+      <c r="D27" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="138"/>
-      <c r="F27" s="139" t="s">
+      <c r="E27" s="129"/>
+      <c r="F27" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="140">
+      <c r="G27" s="131">
         <v>888.8</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="141">
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="132">
         <f>IF(COUNTA(J28:J31)&lt;3,0,IF(COUNTA(J28:J31)=3,SUM(J28:J31),IF(SUM(J28:J31)&gt;0,SUM(J28:J31)-MINA(J28:J31),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="137"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="28">
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="24">
         <v>123456</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H28" s="28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="19">
+      <c r="H28" s="24">
+        <v>0</v>
+      </c>
+      <c r="I28" s="24">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
         <f>SUM(H28:I28)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="142"/>
+      <c r="K28" s="133"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="28">
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="24">
         <v>123456</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H29" s="28">
-        <v>0</v>
-      </c>
-      <c r="I29" s="28">
-        <v>0</v>
-      </c>
-      <c r="J29" s="19">
+      <c r="H29" s="24">
+        <v>0</v>
+      </c>
+      <c r="I29" s="24">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
         <f>SUM(H29:I29)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="142"/>
+      <c r="K29" s="133"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="28">
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="24">
         <v>123456</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H30" s="28">
-        <v>0</v>
-      </c>
-      <c r="I30" s="28">
-        <v>0</v>
-      </c>
-      <c r="J30" s="19">
+      <c r="H30" s="24">
+        <v>0</v>
+      </c>
+      <c r="I30" s="24">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
         <f>SUM(H30:I30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="142"/>
+      <c r="K30" s="133"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="28">
+      <c r="B31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="24">
         <v>123456</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H31" s="28">
-        <v>0</v>
-      </c>
-      <c r="I31" s="28">
-        <v>0</v>
-      </c>
-      <c r="J31" s="19">
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
+      <c r="I31" s="24">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
         <f>SUM(H31:I31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="142"/>
+      <c r="K31" s="133"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="137"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="K32" s="142"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="K32" s="133"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="137">
+      <c r="B33" s="128">
         <v>5</v>
       </c>
-      <c r="C33" s="138"/>
-      <c r="D33" s="139" t="s">
+      <c r="C33" s="129"/>
+      <c r="D33" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="138"/>
-      <c r="F33" s="139" t="s">
+      <c r="E33" s="129"/>
+      <c r="F33" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="140">
+      <c r="G33" s="131">
         <v>888.8</v>
       </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="141">
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="132">
         <f>IF(COUNTA(J34:J37)&lt;3,0,IF(COUNTA(J34:J37)=3,SUM(J34:J37),IF(SUM(J34:J37)&gt;0,SUM(J34:J37)-MINA(J34:J37),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="137"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="28">
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="24">
         <v>123456</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H34" s="28">
-        <v>0</v>
-      </c>
-      <c r="I34" s="28">
-        <v>0</v>
-      </c>
-      <c r="J34" s="19">
+      <c r="H34" s="24">
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
         <f>SUM(H34:I34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="142"/>
+      <c r="K34" s="133"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="137"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="28">
+      <c r="B35" s="128"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="24">
         <v>123456</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H35" s="28">
-        <v>0</v>
-      </c>
-      <c r="I35" s="28">
-        <v>0</v>
-      </c>
-      <c r="J35" s="19">
+      <c r="H35" s="24">
+        <v>0</v>
+      </c>
+      <c r="I35" s="24">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
         <f>SUM(H35:I35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="142"/>
+      <c r="K35" s="133"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="137"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="28">
+      <c r="B36" s="128"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="24">
         <v>123456</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H36" s="28">
-        <v>0</v>
-      </c>
-      <c r="I36" s="28">
-        <v>0</v>
-      </c>
-      <c r="J36" s="19">
+      <c r="H36" s="24">
+        <v>0</v>
+      </c>
+      <c r="I36" s="24">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
         <f>SUM(H36:I36)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="142"/>
+      <c r="K36" s="133"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="137"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="28">
+      <c r="B37" s="128"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="24">
         <v>123456</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H37" s="28">
-        <v>0</v>
-      </c>
-      <c r="I37" s="28">
-        <v>0</v>
-      </c>
-      <c r="J37" s="19">
+      <c r="H37" s="24">
+        <v>0</v>
+      </c>
+      <c r="I37" s="24">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
         <f>SUM(H37:I37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="142"/>
+      <c r="K37" s="133"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="137"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="K38" s="142"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="K38" s="133"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="137">
+      <c r="B39" s="128">
         <v>6</v>
       </c>
-      <c r="C39" s="138"/>
-      <c r="D39" s="139" t="s">
+      <c r="C39" s="129"/>
+      <c r="D39" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="138"/>
-      <c r="F39" s="139" t="s">
+      <c r="E39" s="129"/>
+      <c r="F39" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="140">
+      <c r="G39" s="131">
         <v>888.8</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="141">
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="132">
         <f>IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="137"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="28">
+      <c r="B40" s="128"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="24">
         <v>123456</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H40" s="28">
-        <v>0</v>
-      </c>
-      <c r="I40" s="28">
-        <v>0</v>
-      </c>
-      <c r="J40" s="19">
+      <c r="H40" s="24">
+        <v>0</v>
+      </c>
+      <c r="I40" s="24">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
         <f>SUM(H40:I40)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="142"/>
+      <c r="K40" s="133"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="137"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="28">
+      <c r="B41" s="128"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="24">
         <v>123456</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H41" s="28">
-        <v>0</v>
-      </c>
-      <c r="I41" s="28">
-        <v>0</v>
-      </c>
-      <c r="J41" s="19">
+      <c r="H41" s="24">
+        <v>0</v>
+      </c>
+      <c r="I41" s="24">
+        <v>0</v>
+      </c>
+      <c r="J41" s="16">
         <f>SUM(H41:I41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="142"/>
+      <c r="K41" s="133"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="137"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="28">
+      <c r="B42" s="128"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="24">
         <v>123456</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="44">
+      <c r="G42" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H42" s="28">
-        <v>0</v>
-      </c>
-      <c r="I42" s="28">
-        <v>0</v>
-      </c>
-      <c r="J42" s="19">
+      <c r="H42" s="24">
+        <v>0</v>
+      </c>
+      <c r="I42" s="24">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
         <f>SUM(H42:I42)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="142"/>
+      <c r="K42" s="133"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="137"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="28">
+      <c r="B43" s="128"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="24">
         <v>123456</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="44">
+      <c r="G43" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H43" s="28">
-        <v>0</v>
-      </c>
-      <c r="I43" s="28">
-        <v>0</v>
-      </c>
-      <c r="J43" s="19">
+      <c r="H43" s="24">
+        <v>0</v>
+      </c>
+      <c r="I43" s="24">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
         <f>SUM(H43:I43)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="142"/>
+      <c r="K43" s="133"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="137"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="K44" s="142"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="K44" s="133"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="137">
+      <c r="B45" s="128">
         <v>7</v>
       </c>
-      <c r="C45" s="138"/>
-      <c r="D45" s="139" t="s">
+      <c r="C45" s="129"/>
+      <c r="D45" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="138"/>
-      <c r="F45" s="139" t="s">
+      <c r="E45" s="129"/>
+      <c r="F45" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="140">
+      <c r="G45" s="131">
         <v>888.8</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="141">
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="132">
         <f>IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="137"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="28">
+      <c r="B46" s="128"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="24">
         <v>123456</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="44">
+      <c r="G46" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H46" s="28">
-        <v>0</v>
-      </c>
-      <c r="I46" s="28">
-        <v>0</v>
-      </c>
-      <c r="J46" s="19">
+      <c r="H46" s="24">
+        <v>0</v>
+      </c>
+      <c r="I46" s="24">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
         <f>SUM(H46:I46)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="142"/>
+      <c r="K46" s="133"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="137"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="28">
+      <c r="B47" s="128"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="24">
         <v>123456</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="44">
+      <c r="G47" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H47" s="28">
-        <v>0</v>
-      </c>
-      <c r="I47" s="28">
-        <v>0</v>
-      </c>
-      <c r="J47" s="19">
+      <c r="H47" s="24">
+        <v>0</v>
+      </c>
+      <c r="I47" s="24">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
         <f>SUM(H47:I47)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="142"/>
+      <c r="K47" s="133"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="137"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="28">
+      <c r="B48" s="128"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="24">
         <v>123456</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="44">
+      <c r="G48" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H48" s="28">
-        <v>0</v>
-      </c>
-      <c r="I48" s="28">
-        <v>0</v>
-      </c>
-      <c r="J48" s="19">
+      <c r="H48" s="24">
+        <v>0</v>
+      </c>
+      <c r="I48" s="24">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
         <f>SUM(H48:I48)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="142"/>
+      <c r="K48" s="133"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="137"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="28">
+      <c r="B49" s="128"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="24">
         <v>123456</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="44">
+      <c r="G49" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H49" s="28">
-        <v>0</v>
-      </c>
-      <c r="I49" s="28">
-        <v>0</v>
-      </c>
-      <c r="J49" s="19">
+      <c r="H49" s="24">
+        <v>0</v>
+      </c>
+      <c r="I49" s="24">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
         <f>SUM(H49:I49)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="142"/>
+      <c r="K49" s="133"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="137"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="K50" s="142"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="K50" s="133"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="137">
+      <c r="B51" s="128">
         <v>8</v>
       </c>
-      <c r="C51" s="138"/>
-      <c r="D51" s="139" t="s">
+      <c r="C51" s="129"/>
+      <c r="D51" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="138"/>
-      <c r="F51" s="139" t="s">
+      <c r="E51" s="129"/>
+      <c r="F51" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="140">
+      <c r="G51" s="131">
         <v>888.8</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="141">
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="132">
         <f>IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="137"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="28">
+      <c r="B52" s="128"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="24">
         <v>123456</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="44">
+      <c r="G52" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H52" s="28">
-        <v>0</v>
-      </c>
-      <c r="I52" s="28">
-        <v>0</v>
-      </c>
-      <c r="J52" s="19">
+      <c r="H52" s="24">
+        <v>0</v>
+      </c>
+      <c r="I52" s="24">
+        <v>0</v>
+      </c>
+      <c r="J52" s="16">
         <f>SUM(H52:I52)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="142"/>
+      <c r="K52" s="133"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="137"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="28">
+      <c r="B53" s="128"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="24">
         <v>123456</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G53" s="44">
+      <c r="G53" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H53" s="28">
-        <v>0</v>
-      </c>
-      <c r="I53" s="28">
-        <v>0</v>
-      </c>
-      <c r="J53" s="19">
+      <c r="H53" s="24">
+        <v>0</v>
+      </c>
+      <c r="I53" s="24">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
         <f>SUM(H53:I53)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="142"/>
+      <c r="K53" s="133"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="137"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="28">
+      <c r="B54" s="128"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="24">
         <v>123456</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="44">
+      <c r="G54" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H54" s="28">
-        <v>0</v>
-      </c>
-      <c r="I54" s="28">
-        <v>0</v>
-      </c>
-      <c r="J54" s="19">
+      <c r="H54" s="24">
+        <v>0</v>
+      </c>
+      <c r="I54" s="24">
+        <v>0</v>
+      </c>
+      <c r="J54" s="16">
         <f>SUM(H54:I54)</f>
         <v>0</v>
       </c>
-      <c r="K54" s="142"/>
+      <c r="K54" s="133"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="137"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="28">
+      <c r="B55" s="128"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="24">
         <v>123456</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G55" s="44">
+      <c r="G55" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H55" s="28">
-        <v>0</v>
-      </c>
-      <c r="I55" s="28">
-        <v>0</v>
-      </c>
-      <c r="J55" s="19">
+      <c r="H55" s="24">
+        <v>0</v>
+      </c>
+      <c r="I55" s="24">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16">
         <f>SUM(H55:I55)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="142"/>
+      <c r="K55" s="133"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="137"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="K56" s="142"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="K56" s="133"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="137">
+      <c r="B57" s="128">
         <v>9</v>
       </c>
-      <c r="C57" s="138"/>
-      <c r="D57" s="139" t="s">
+      <c r="C57" s="129"/>
+      <c r="D57" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="138"/>
-      <c r="F57" s="139" t="s">
+      <c r="E57" s="129"/>
+      <c r="F57" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="140">
+      <c r="G57" s="131">
         <v>888.8</v>
       </c>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="141">
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="132">
         <f>IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="137"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="28">
+      <c r="B58" s="128"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="24">
         <v>123456</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="44">
+      <c r="G58" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H58" s="28">
-        <v>0</v>
-      </c>
-      <c r="I58" s="28">
-        <v>0</v>
-      </c>
-      <c r="J58" s="19">
+      <c r="H58" s="24">
+        <v>0</v>
+      </c>
+      <c r="I58" s="24">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
         <f>SUM(H58:I58)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="142"/>
+      <c r="K58" s="133"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="137"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="28">
+      <c r="B59" s="128"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="24">
         <v>123456</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G59" s="44">
+      <c r="G59" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H59" s="28">
-        <v>0</v>
-      </c>
-      <c r="I59" s="28">
-        <v>0</v>
-      </c>
-      <c r="J59" s="19">
+      <c r="H59" s="24">
+        <v>0</v>
+      </c>
+      <c r="I59" s="24">
+        <v>0</v>
+      </c>
+      <c r="J59" s="16">
         <f>SUM(H59:I59)</f>
         <v>0</v>
       </c>
-      <c r="K59" s="142"/>
+      <c r="K59" s="133"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="137"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="28">
+      <c r="B60" s="128"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="24">
         <v>123456</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="44">
+      <c r="G60" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H60" s="28">
-        <v>0</v>
-      </c>
-      <c r="I60" s="28">
-        <v>0</v>
-      </c>
-      <c r="J60" s="19">
+      <c r="H60" s="24">
+        <v>0</v>
+      </c>
+      <c r="I60" s="24">
+        <v>0</v>
+      </c>
+      <c r="J60" s="16">
         <f>SUM(H60:I60)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="142"/>
+      <c r="K60" s="133"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="137"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="28">
+      <c r="B61" s="128"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="24">
         <v>123456</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G61" s="44">
+      <c r="G61" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H61" s="28">
-        <v>0</v>
-      </c>
-      <c r="I61" s="28">
-        <v>0</v>
-      </c>
-      <c r="J61" s="19">
+      <c r="H61" s="24">
+        <v>0</v>
+      </c>
+      <c r="I61" s="24">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16">
         <f>SUM(H61:I61)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="142"/>
+      <c r="K61" s="133"/>
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62"/>
-      <c r="B62" s="144"/>
+      <c r="B62" s="135"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62" s="145"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
       <c r="J62"/>
-      <c r="K62" s="146"/>
+      <c r="K62" s="137"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="137">
+      <c r="B63" s="128">
         <v>10</v>
       </c>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139" t="s">
+      <c r="C63" s="129"/>
+      <c r="D63" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="138"/>
-      <c r="F63" s="139" t="s">
+      <c r="E63" s="129"/>
+      <c r="F63" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="140">
+      <c r="G63" s="131">
         <v>888.8</v>
       </c>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="141">
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="132">
         <f>IF(COUNTA(J64:J67)&lt;3,0,IF(COUNTA(J64:J67)=3,SUM(J64:J67),IF(SUM(J64:J67)&gt;0,SUM(J64:J67)-MINA(J64:J67),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="137"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="28">
+      <c r="B64" s="128"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="24">
         <v>123456</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G64" s="44">
+      <c r="G64" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H64" s="28">
-        <v>0</v>
-      </c>
-      <c r="I64" s="28">
-        <v>0</v>
-      </c>
-      <c r="J64" s="19">
+      <c r="H64" s="24">
+        <v>0</v>
+      </c>
+      <c r="I64" s="24">
+        <v>0</v>
+      </c>
+      <c r="J64" s="16">
         <f>SUM(H64:I64)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="142"/>
+      <c r="K64" s="133"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="137"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="28">
+      <c r="B65" s="128"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="24">
         <v>123456</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G65" s="44">
+      <c r="G65" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H65" s="28">
-        <v>0</v>
-      </c>
-      <c r="I65" s="28">
-        <v>0</v>
-      </c>
-      <c r="J65" s="19">
+      <c r="H65" s="24">
+        <v>0</v>
+      </c>
+      <c r="I65" s="24">
+        <v>0</v>
+      </c>
+      <c r="J65" s="16">
         <f>SUM(H65:I65)</f>
         <v>0</v>
       </c>
-      <c r="K65" s="142"/>
+      <c r="K65" s="133"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="137"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="28">
+      <c r="B66" s="128"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="24">
         <v>123456</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G66" s="44">
+      <c r="G66" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H66" s="28">
-        <v>0</v>
-      </c>
-      <c r="I66" s="28">
-        <v>0</v>
-      </c>
-      <c r="J66" s="19">
+      <c r="H66" s="24">
+        <v>0</v>
+      </c>
+      <c r="I66" s="24">
+        <v>0</v>
+      </c>
+      <c r="J66" s="16">
         <f>SUM(H66:I66)</f>
         <v>0</v>
       </c>
-      <c r="K66" s="142"/>
+      <c r="K66" s="133"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="137"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
-      <c r="E67" s="28">
+      <c r="B67" s="128"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="24">
         <v>123456</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="F67" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G67" s="44">
+      <c r="G67" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H67" s="28">
-        <v>0</v>
-      </c>
-      <c r="I67" s="28">
-        <v>0</v>
-      </c>
-      <c r="J67" s="19">
+      <c r="H67" s="24">
+        <v>0</v>
+      </c>
+      <c r="I67" s="24">
+        <v>0</v>
+      </c>
+      <c r="J67" s="16">
         <f>SUM(H67:I67)</f>
         <v>0</v>
       </c>
-      <c r="K67" s="142"/>
+      <c r="K67" s="133"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="134"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="K68" s="142"/>
+      <c r="B68" s="125"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="K68" s="133"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="137">
+      <c r="B69" s="128">
         <v>11</v>
       </c>
-      <c r="C69" s="138"/>
-      <c r="D69" s="139" t="s">
+      <c r="C69" s="129"/>
+      <c r="D69" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="E69" s="138"/>
-      <c r="F69" s="139" t="s">
+      <c r="E69" s="129"/>
+      <c r="F69" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="140">
+      <c r="G69" s="131">
         <v>888.8</v>
       </c>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="141">
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="132">
         <f>IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="137"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="138"/>
-      <c r="E70" s="28">
+      <c r="B70" s="128"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="24">
         <v>123456</v>
       </c>
-      <c r="F70" s="29" t="s">
+      <c r="F70" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G70" s="44">
+      <c r="G70" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H70" s="28">
-        <v>0</v>
-      </c>
-      <c r="I70" s="28">
-        <v>0</v>
-      </c>
-      <c r="J70" s="19">
+      <c r="H70" s="24">
+        <v>0</v>
+      </c>
+      <c r="I70" s="24">
+        <v>0</v>
+      </c>
+      <c r="J70" s="16">
         <f>SUM(H70:I70)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="142"/>
+      <c r="K70" s="133"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="137"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="138"/>
-      <c r="E71" s="28">
+      <c r="B71" s="128"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="24">
         <v>123456</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F71" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G71" s="44">
+      <c r="G71" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H71" s="28">
-        <v>0</v>
-      </c>
-      <c r="I71" s="28">
-        <v>0</v>
-      </c>
-      <c r="J71" s="19">
+      <c r="H71" s="24">
+        <v>0</v>
+      </c>
+      <c r="I71" s="24">
+        <v>0</v>
+      </c>
+      <c r="J71" s="16">
         <f>SUM(H71:I71)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="142"/>
+      <c r="K71" s="133"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="137"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="28">
+      <c r="B72" s="128"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="24">
         <v>123456</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="44">
+      <c r="G72" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H72" s="28">
-        <v>0</v>
-      </c>
-      <c r="I72" s="28">
-        <v>0</v>
-      </c>
-      <c r="J72" s="19">
+      <c r="H72" s="24">
+        <v>0</v>
+      </c>
+      <c r="I72" s="24">
+        <v>0</v>
+      </c>
+      <c r="J72" s="16">
         <f>SUM(H72:I72)</f>
         <v>0</v>
       </c>
-      <c r="K72" s="142"/>
+      <c r="K72" s="133"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="137"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="138"/>
-      <c r="E73" s="28">
+      <c r="B73" s="128"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="24">
         <v>123456</v>
       </c>
-      <c r="F73" s="29" t="s">
+      <c r="F73" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G73" s="44">
+      <c r="G73" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H73" s="28">
-        <v>0</v>
-      </c>
-      <c r="I73" s="28">
-        <v>0</v>
-      </c>
-      <c r="J73" s="19">
+      <c r="H73" s="24">
+        <v>0</v>
+      </c>
+      <c r="I73" s="24">
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
         <f>SUM(H73:I73)</f>
         <v>0</v>
       </c>
-      <c r="K73" s="142"/>
+      <c r="K73" s="133"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="134"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="K74" s="142"/>
+      <c r="B74" s="125"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="K74" s="133"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="137">
+      <c r="B75" s="128">
         <v>12</v>
       </c>
-      <c r="C75" s="138"/>
-      <c r="D75" s="139" t="s">
+      <c r="C75" s="129"/>
+      <c r="D75" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="138"/>
-      <c r="F75" s="139" t="s">
+      <c r="E75" s="129"/>
+      <c r="F75" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="G75" s="140">
+      <c r="G75" s="131">
         <v>888.8</v>
       </c>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="141">
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="132">
         <f>IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="137"/>
-      <c r="C76" s="138"/>
-      <c r="D76" s="138"/>
-      <c r="E76" s="28">
+      <c r="B76" s="128"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="129"/>
+      <c r="E76" s="24">
         <v>123456</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F76" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="44">
+      <c r="G76" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H76" s="28">
-        <v>0</v>
-      </c>
-      <c r="I76" s="28">
-        <v>0</v>
-      </c>
-      <c r="J76" s="19">
+      <c r="H76" s="24">
+        <v>0</v>
+      </c>
+      <c r="I76" s="24">
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
         <f>SUM(H76:I76)</f>
         <v>0</v>
       </c>
-      <c r="K76" s="142"/>
+      <c r="K76" s="133"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="137"/>
-      <c r="C77" s="138"/>
-      <c r="D77" s="138"/>
-      <c r="E77" s="28">
+      <c r="B77" s="128"/>
+      <c r="C77" s="129"/>
+      <c r="D77" s="129"/>
+      <c r="E77" s="24">
         <v>123456</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G77" s="44">
+      <c r="G77" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H77" s="28">
-        <v>0</v>
-      </c>
-      <c r="I77" s="28">
-        <v>0</v>
-      </c>
-      <c r="J77" s="19">
+      <c r="H77" s="24">
+        <v>0</v>
+      </c>
+      <c r="I77" s="24">
+        <v>0</v>
+      </c>
+      <c r="J77" s="16">
         <f>SUM(H77:I77)</f>
         <v>0</v>
       </c>
-      <c r="K77" s="142"/>
+      <c r="K77" s="133"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="137"/>
-      <c r="C78" s="138"/>
-      <c r="D78" s="138"/>
-      <c r="E78" s="28">
+      <c r="B78" s="128"/>
+      <c r="C78" s="129"/>
+      <c r="D78" s="129"/>
+      <c r="E78" s="24">
         <v>123456</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G78" s="44">
+      <c r="G78" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H78" s="28">
-        <v>0</v>
-      </c>
-      <c r="I78" s="28">
-        <v>0</v>
-      </c>
-      <c r="J78" s="19">
+      <c r="H78" s="24">
+        <v>0</v>
+      </c>
+      <c r="I78" s="24">
+        <v>0</v>
+      </c>
+      <c r="J78" s="16">
         <f>SUM(H78:I78)</f>
         <v>0</v>
       </c>
-      <c r="K78" s="142"/>
+      <c r="K78" s="133"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="137"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="28">
+      <c r="B79" s="128"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="129"/>
+      <c r="E79" s="24">
         <v>123456</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F79" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G79" s="44">
+      <c r="G79" s="40">
         <v>7.7770000000000001</v>
       </c>
-      <c r="H79" s="28">
-        <v>0</v>
-      </c>
-      <c r="I79" s="28">
-        <v>0</v>
-      </c>
-      <c r="J79" s="19">
+      <c r="H79" s="24">
+        <v>0</v>
+      </c>
+      <c r="I79" s="24">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16">
         <f>SUM(H79:I79)</f>
         <v>0</v>
       </c>
-      <c r="K79" s="142"/>
+      <c r="K79" s="133"/>
     </row>
     <row r="80" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="147"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="148"/>
-      <c r="E80" s="149"/>
-      <c r="F80" s="149"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="151"/>
-      <c r="I80" s="151"/>
-      <c r="J80" s="151"/>
-      <c r="K80" s="152"/>
+      <c r="B80" s="138"/>
+      <c r="C80" s="139"/>
+      <c r="D80" s="139"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="141"/>
+      <c r="H80" s="142"/>
+      <c r="I80" s="142"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="143"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="41" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4716,11 +4742,12 @@
     <protectedRange password="E95F" sqref="E8:I79" name="Invoer"/>
   </protectedRanges>
   <dataConsolidate/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.47244094488188981" right="0.43307086614173229" top="0.47244094488188981" bottom="1.3779527559055118" header="0.51181102362204722" footer="0.59055118110236227"/>
@@ -4738,7 +4765,7 @@
   </sheetPr>
   <dimension ref="A2:X22"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" defaultGridColor="0" colorId="22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4760,31 +4787,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="str">
+      <c r="A2" s="167" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="177"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="169"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -4813,31 +4840,31 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="172" t="s">
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="172" t="s">
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="174"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="166"/>
       <c r="S7" s="6"/>
-      <c r="U7" s="55" t="s">
+      <c r="U7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="57" t="s">
+      <c r="V7" s="53" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4846,10 +4873,10 @@
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="9">
@@ -4864,7 +4891,7 @@
       <c r="H8" s="8">
         <v>4</v>
       </c>
-      <c r="I8" s="104"/>
+      <c r="I8" s="98"/>
       <c r="J8" s="9">
         <v>1</v>
       </c>
@@ -4877,7 +4904,7 @@
       <c r="M8" s="8">
         <v>4</v>
       </c>
-      <c r="N8" s="104"/>
+      <c r="N8" s="98"/>
       <c r="O8" s="9">
         <v>1</v>
       </c>
@@ -4893,10 +4920,10 @@
       <c r="S8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="56" t="s">
+      <c r="U8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="58" t="s">
+      <c r="V8" s="54" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4908,21 +4935,21 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="105"/>
+      <c r="I9" s="99"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="105"/>
+      <c r="N9" s="99"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -4932,918 +4959,918 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="105"/>
+      <c r="I10" s="99"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="105"/>
+      <c r="N10" s="99"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="59" t="s">
+      <c r="S10" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <f>IF('Deelnemers en Scores'!B9&gt;0,'Deelnemers en Scores'!B9,"")</f>
         <v>1</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F9="","",'Deelnemers en Scores'!F9)</f>
         <v>Team naam 1</v>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="20" t="str">
         <f>'Deelnemers en Scores'!D9</f>
         <v>Vereniging 1</v>
       </c>
-      <c r="E11" s="51" t="str">
+      <c r="E11" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H10=0,"",'Deelnemers en Scores'!H10)</f>
         <v/>
       </c>
-      <c r="F11" s="51" t="str">
+      <c r="F11" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H11=0,"",'Deelnemers en Scores'!H11)</f>
         <v/>
       </c>
-      <c r="G11" s="51" t="str">
+      <c r="G11" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H12=0,"",'Deelnemers en Scores'!H12)</f>
         <v/>
       </c>
-      <c r="H11" s="51" t="str">
+      <c r="H11" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H13=0,"",'Deelnemers en Scores'!H13)</f>
         <v/>
       </c>
-      <c r="I11" s="106"/>
-      <c r="J11" s="51" t="str">
+      <c r="I11" s="100"/>
+      <c r="J11" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I10=0,"",'Deelnemers en Scores'!I10)</f>
         <v/>
       </c>
-      <c r="K11" s="51" t="str">
+      <c r="K11" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I11=0,"",'Deelnemers en Scores'!I11)</f>
         <v/>
       </c>
-      <c r="L11" s="51" t="str">
+      <c r="L11" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I12=0,"",'Deelnemers en Scores'!I12)</f>
         <v/>
       </c>
-      <c r="M11" s="51" t="str">
+      <c r="M11" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I13=0,"",'Deelnemers en Scores'!I13)</f>
         <v/>
       </c>
-      <c r="N11" s="106"/>
-      <c r="O11" s="52" t="str">
+      <c r="N11" s="100"/>
+      <c r="O11" s="48" t="str">
         <f t="shared" ref="O11:O22" si="0">IF(ISNUMBER(J11),E11+J11,"")</f>
         <v/>
       </c>
-      <c r="P11" s="53" t="str">
+      <c r="P11" s="49" t="str">
         <f t="shared" ref="P11:P22" si="1">IF(ISNUMBER(K11),F11+K11,"")</f>
         <v/>
       </c>
-      <c r="Q11" s="53" t="str">
+      <c r="Q11" s="49" t="str">
         <f t="shared" ref="Q11:Q22" si="2">IF(ISNUMBER(L11),G11+L11,"")</f>
         <v/>
       </c>
-      <c r="R11" s="54" t="str">
+      <c r="R11" s="50" t="str">
         <f t="shared" ref="R11:R22" si="3">IF(ISNUMBER(M11),H11+M11,"")</f>
         <v/>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="21">
         <f>SUM(O11:R11)-MINA(O11:R11)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="160">
+      <c r="T11" s="12"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="149">
         <f t="shared" ref="V11:V22" si="4">S11+(U11/100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <f>IF('Deelnemers en Scores'!B15&gt;0,'Deelnemers en Scores'!B15,"")</f>
         <v>2</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F15="","",'Deelnemers en Scores'!F15)</f>
         <v>Team naam 2</v>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="20" t="str">
         <f>'Deelnemers en Scores'!D15</f>
         <v>Vereniging 2</v>
       </c>
-      <c r="E12" s="51" t="str">
+      <c r="E12" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H16=0,"",'Deelnemers en Scores'!H16)</f>
         <v/>
       </c>
-      <c r="F12" s="51" t="str">
+      <c r="F12" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H17=0,"",'Deelnemers en Scores'!H17)</f>
         <v/>
       </c>
-      <c r="G12" s="51" t="str">
+      <c r="G12" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H18=0,"",'Deelnemers en Scores'!H18)</f>
         <v/>
       </c>
-      <c r="H12" s="51" t="str">
+      <c r="H12" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H19=0,"",'Deelnemers en Scores'!H19)</f>
         <v/>
       </c>
-      <c r="I12" s="106"/>
-      <c r="J12" s="51" t="str">
+      <c r="I12" s="100"/>
+      <c r="J12" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I16=0,"",'Deelnemers en Scores'!I16)</f>
         <v/>
       </c>
-      <c r="K12" s="51" t="str">
+      <c r="K12" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I17=0,"",'Deelnemers en Scores'!I17)</f>
         <v/>
       </c>
-      <c r="L12" s="51" t="str">
+      <c r="L12" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I18=0,"",'Deelnemers en Scores'!I18)</f>
         <v/>
       </c>
-      <c r="M12" s="51" t="str">
+      <c r="M12" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I19=0,"",'Deelnemers en Scores'!I19)</f>
         <v/>
       </c>
-      <c r="N12" s="106"/>
-      <c r="O12" s="52" t="str">
+      <c r="N12" s="100"/>
+      <c r="O12" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P12" s="53" t="str">
+      <c r="P12" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q12" s="53" t="str">
+      <c r="Q12" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R12" s="54" t="str">
+      <c r="R12" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="21">
         <f t="shared" ref="S12:S22" si="5">IF(COUNTA(O12:R12)&lt;3,0,IF(COUNTA(O12:R12)=3,SUM(O12:R12),SUM(O12:R12)-MINA(O12:R12)))</f>
         <v>0</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="160">
+      <c r="T12" s="12"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <f>IF('Deelnemers en Scores'!B21&gt;0,'Deelnemers en Scores'!B21,"")</f>
         <v>3</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F21="","",'Deelnemers en Scores'!F21)</f>
         <v>Team naam 3</v>
       </c>
-      <c r="D13" s="23" t="str">
+      <c r="D13" s="20" t="str">
         <f>'Deelnemers en Scores'!D21</f>
         <v>Vereniging 3</v>
       </c>
-      <c r="E13" s="51" t="str">
+      <c r="E13" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H22=0,"",'Deelnemers en Scores'!H22)</f>
         <v/>
       </c>
-      <c r="F13" s="51" t="str">
+      <c r="F13" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H23=0,"",'Deelnemers en Scores'!H23)</f>
         <v/>
       </c>
-      <c r="G13" s="51" t="str">
+      <c r="G13" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H24=0,"",'Deelnemers en Scores'!H24)</f>
         <v/>
       </c>
-      <c r="H13" s="51" t="str">
+      <c r="H13" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H25=0,"",'Deelnemers en Scores'!H25)</f>
         <v/>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="51" t="str">
+      <c r="I13" s="100"/>
+      <c r="J13" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I22=0,"",'Deelnemers en Scores'!I22)</f>
         <v/>
       </c>
-      <c r="K13" s="51" t="str">
+      <c r="K13" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I23=0,"",'Deelnemers en Scores'!I23)</f>
         <v/>
       </c>
-      <c r="L13" s="51" t="str">
+      <c r="L13" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I24=0,"",'Deelnemers en Scores'!I24)</f>
         <v/>
       </c>
-      <c r="M13" s="51" t="str">
+      <c r="M13" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I25=0,"",'Deelnemers en Scores'!I25)</f>
         <v/>
       </c>
-      <c r="N13" s="106"/>
-      <c r="O13" s="52" t="str">
+      <c r="N13" s="100"/>
+      <c r="O13" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P13" s="53" t="str">
+      <c r="P13" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q13" s="53" t="str">
+      <c r="Q13" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R13" s="54" t="str">
+      <c r="R13" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="160">
+      <c r="T13" s="12"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <f>IF('Deelnemers en Scores'!B27&gt;0,'Deelnemers en Scores'!B27,"")</f>
         <v>4</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F27="","",'Deelnemers en Scores'!F27)</f>
         <v>Team naam 4</v>
       </c>
-      <c r="D14" s="23" t="str">
+      <c r="D14" s="20" t="str">
         <f>'Deelnemers en Scores'!D27</f>
         <v>Vereniging 4</v>
       </c>
-      <c r="E14" s="51" t="str">
+      <c r="E14" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H28=0,"",'Deelnemers en Scores'!H28)</f>
         <v/>
       </c>
-      <c r="F14" s="51" t="str">
+      <c r="F14" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H29=0,"",'Deelnemers en Scores'!H29)</f>
         <v/>
       </c>
-      <c r="G14" s="51" t="str">
+      <c r="G14" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H30=0,"",'Deelnemers en Scores'!H30)</f>
         <v/>
       </c>
-      <c r="H14" s="51" t="str">
+      <c r="H14" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H31=0,"",'Deelnemers en Scores'!H31)</f>
         <v/>
       </c>
-      <c r="I14" s="106"/>
-      <c r="J14" s="51" t="str">
+      <c r="I14" s="100"/>
+      <c r="J14" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I28=0,"",'Deelnemers en Scores'!I28)</f>
         <v/>
       </c>
-      <c r="K14" s="51" t="str">
+      <c r="K14" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I29=0,"",'Deelnemers en Scores'!I29)</f>
         <v/>
       </c>
-      <c r="L14" s="51" t="str">
+      <c r="L14" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I30=0,"",'Deelnemers en Scores'!I30)</f>
         <v/>
       </c>
-      <c r="M14" s="51" t="str">
+      <c r="M14" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I31=0,"",'Deelnemers en Scores'!I31)</f>
         <v/>
       </c>
-      <c r="N14" s="106"/>
-      <c r="O14" s="52" t="str">
+      <c r="N14" s="100"/>
+      <c r="O14" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P14" s="53" t="str">
+      <c r="P14" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q14" s="53" t="str">
+      <c r="Q14" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R14" s="54" t="str">
+      <c r="R14" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="160">
+      <c r="T14" s="12"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <f>IF('Deelnemers en Scores'!B33&gt;0,'Deelnemers en Scores'!B33,"")</f>
         <v>5</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F33="","",'Deelnemers en Scores'!F33)</f>
         <v>Team naam 5</v>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="D15" s="20" t="str">
         <f>'Deelnemers en Scores'!D33</f>
         <v>Vereniging 5</v>
       </c>
-      <c r="E15" s="51" t="str">
+      <c r="E15" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H34=0,"",'Deelnemers en Scores'!H34)</f>
         <v/>
       </c>
-      <c r="F15" s="51" t="str">
+      <c r="F15" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H35=0,"",'Deelnemers en Scores'!H35)</f>
         <v/>
       </c>
-      <c r="G15" s="51" t="str">
+      <c r="G15" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H36=0,"",'Deelnemers en Scores'!H36)</f>
         <v/>
       </c>
-      <c r="H15" s="51" t="str">
+      <c r="H15" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H37=0,"",'Deelnemers en Scores'!H37)</f>
         <v/>
       </c>
-      <c r="I15" s="106"/>
-      <c r="J15" s="51" t="str">
+      <c r="I15" s="100"/>
+      <c r="J15" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I34=0,"",'Deelnemers en Scores'!I34)</f>
         <v/>
       </c>
-      <c r="K15" s="51" t="str">
+      <c r="K15" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I35=0,"",'Deelnemers en Scores'!I35)</f>
         <v/>
       </c>
-      <c r="L15" s="51" t="str">
+      <c r="L15" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I36=0,"",'Deelnemers en Scores'!I36)</f>
         <v/>
       </c>
-      <c r="M15" s="51" t="str">
+      <c r="M15" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I37=0,"",'Deelnemers en Scores'!I37)</f>
         <v/>
       </c>
-      <c r="N15" s="106"/>
-      <c r="O15" s="52" t="str">
+      <c r="N15" s="100"/>
+      <c r="O15" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P15" s="53" t="str">
+      <c r="P15" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q15" s="53" t="str">
+      <c r="Q15" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R15" s="54" t="str">
+      <c r="R15" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="160">
+      <c r="T15" s="12"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <f>IF('Deelnemers en Scores'!B39&gt;0,'Deelnemers en Scores'!B39,"")</f>
         <v>6</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F39="","",'Deelnemers en Scores'!F39)</f>
         <v>Team naam 6</v>
       </c>
-      <c r="D16" s="23" t="str">
+      <c r="D16" s="20" t="str">
         <f>'Deelnemers en Scores'!D39</f>
         <v>Vereniging 6</v>
       </c>
-      <c r="E16" s="51" t="str">
+      <c r="E16" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H40=0,"",'Deelnemers en Scores'!H40)</f>
         <v/>
       </c>
-      <c r="F16" s="51" t="str">
+      <c r="F16" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H41=0,"",'Deelnemers en Scores'!H41)</f>
         <v/>
       </c>
-      <c r="G16" s="51" t="str">
+      <c r="G16" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H42=0,"",'Deelnemers en Scores'!H42)</f>
         <v/>
       </c>
-      <c r="H16" s="51" t="str">
+      <c r="H16" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H43=0,"",'Deelnemers en Scores'!H43)</f>
         <v/>
       </c>
-      <c r="I16" s="106"/>
-      <c r="J16" s="51" t="str">
+      <c r="I16" s="100"/>
+      <c r="J16" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I40=0,"",'Deelnemers en Scores'!I40)</f>
         <v/>
       </c>
-      <c r="K16" s="51" t="str">
+      <c r="K16" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I41=0,"",'Deelnemers en Scores'!I41)</f>
         <v/>
       </c>
-      <c r="L16" s="51" t="str">
+      <c r="L16" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I42=0,"",'Deelnemers en Scores'!I42)</f>
         <v/>
       </c>
-      <c r="M16" s="51" t="str">
+      <c r="M16" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I43=0,"",'Deelnemers en Scores'!I43)</f>
         <v/>
       </c>
-      <c r="N16" s="106"/>
-      <c r="O16" s="52" t="str">
+      <c r="N16" s="100"/>
+      <c r="O16" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P16" s="53" t="str">
+      <c r="P16" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q16" s="53" t="str">
+      <c r="Q16" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R16" s="54" t="str">
+      <c r="R16" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S16" s="24">
+      <c r="S16" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="160">
+      <c r="T16" s="12"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <f>IF('Deelnemers en Scores'!B45&gt;0,'Deelnemers en Scores'!B45,"")</f>
         <v>7</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F45="","",'Deelnemers en Scores'!F45)</f>
         <v>Team naam 7</v>
       </c>
-      <c r="D17" s="23" t="str">
+      <c r="D17" s="20" t="str">
         <f>'Deelnemers en Scores'!D45</f>
         <v>Vereniging 7</v>
       </c>
-      <c r="E17" s="51" t="str">
+      <c r="E17" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H46=0,"",'Deelnemers en Scores'!H46)</f>
         <v/>
       </c>
-      <c r="F17" s="51" t="str">
+      <c r="F17" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H47=0,"",'Deelnemers en Scores'!H47)</f>
         <v/>
       </c>
-      <c r="G17" s="51" t="str">
+      <c r="G17" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H48=0,"",'Deelnemers en Scores'!H48)</f>
         <v/>
       </c>
-      <c r="H17" s="51" t="str">
+      <c r="H17" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H49=0,"",'Deelnemers en Scores'!H49)</f>
         <v/>
       </c>
-      <c r="I17" s="106"/>
-      <c r="J17" s="51" t="str">
+      <c r="I17" s="100"/>
+      <c r="J17" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I46=0,"",'Deelnemers en Scores'!I46)</f>
         <v/>
       </c>
-      <c r="K17" s="51" t="str">
+      <c r="K17" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I47=0,"",'Deelnemers en Scores'!I47)</f>
         <v/>
       </c>
-      <c r="L17" s="51" t="str">
+      <c r="L17" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I48=0,"",'Deelnemers en Scores'!I48)</f>
         <v/>
       </c>
-      <c r="M17" s="51" t="str">
+      <c r="M17" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I49=0,"",'Deelnemers en Scores'!I49)</f>
         <v/>
       </c>
-      <c r="N17" s="106"/>
-      <c r="O17" s="52" t="str">
+      <c r="N17" s="100"/>
+      <c r="O17" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P17" s="53" t="str">
+      <c r="P17" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q17" s="53" t="str">
+      <c r="Q17" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R17" s="54" t="str">
+      <c r="R17" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="160">
+      <c r="T17" s="12"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <f>IF('Deelnemers en Scores'!B51&gt;0,'Deelnemers en Scores'!B51,"")</f>
         <v>8</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F51="","",'Deelnemers en Scores'!F51)</f>
         <v>Team naam 8</v>
       </c>
-      <c r="D18" s="23" t="str">
+      <c r="D18" s="20" t="str">
         <f>'Deelnemers en Scores'!D51</f>
         <v>Vereniging 8</v>
       </c>
-      <c r="E18" s="51" t="str">
+      <c r="E18" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H52=0,"",'Deelnemers en Scores'!H52)</f>
         <v/>
       </c>
-      <c r="F18" s="51" t="str">
+      <c r="F18" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H53=0,"",'Deelnemers en Scores'!H53)</f>
         <v/>
       </c>
-      <c r="G18" s="51" t="str">
+      <c r="G18" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H54=0,"",'Deelnemers en Scores'!H54)</f>
         <v/>
       </c>
-      <c r="H18" s="51" t="str">
+      <c r="H18" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H55=0,"",'Deelnemers en Scores'!H55)</f>
         <v/>
       </c>
-      <c r="I18" s="106"/>
-      <c r="J18" s="51" t="str">
+      <c r="I18" s="100"/>
+      <c r="J18" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I52=0,"",'Deelnemers en Scores'!I52)</f>
         <v/>
       </c>
-      <c r="K18" s="51" t="str">
+      <c r="K18" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I53=0,"",'Deelnemers en Scores'!I53)</f>
         <v/>
       </c>
-      <c r="L18" s="51" t="str">
+      <c r="L18" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I54=0,"",'Deelnemers en Scores'!I54)</f>
         <v/>
       </c>
-      <c r="M18" s="51" t="str">
+      <c r="M18" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I55=0,"",'Deelnemers en Scores'!I55)</f>
         <v/>
       </c>
-      <c r="N18" s="106"/>
-      <c r="O18" s="52" t="str">
+      <c r="N18" s="100"/>
+      <c r="O18" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P18" s="53" t="str">
+      <c r="P18" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q18" s="53" t="str">
+      <c r="Q18" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R18" s="54" t="str">
+      <c r="R18" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S18" s="24">
+      <c r="S18" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="160">
+      <c r="T18" s="12"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <f>IF('Deelnemers en Scores'!B57&gt;0,'Deelnemers en Scores'!B57,"")</f>
         <v>9</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F57="","",'Deelnemers en Scores'!F57)</f>
         <v>Team naam 9</v>
       </c>
-      <c r="D19" s="23" t="str">
+      <c r="D19" s="20" t="str">
         <f>'Deelnemers en Scores'!D57</f>
         <v>Vereniging 9</v>
       </c>
-      <c r="E19" s="51" t="str">
+      <c r="E19" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H58=0,"",'Deelnemers en Scores'!H58)</f>
         <v/>
       </c>
-      <c r="F19" s="51" t="str">
+      <c r="F19" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H59=0,"",'Deelnemers en Scores'!H59)</f>
         <v/>
       </c>
-      <c r="G19" s="51" t="str">
+      <c r="G19" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H60=0,"",'Deelnemers en Scores'!H60)</f>
         <v/>
       </c>
-      <c r="H19" s="51" t="str">
+      <c r="H19" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H61=0,"",'Deelnemers en Scores'!H61)</f>
         <v/>
       </c>
-      <c r="I19" s="106"/>
-      <c r="J19" s="51" t="str">
+      <c r="I19" s="100"/>
+      <c r="J19" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I58=0,"",'Deelnemers en Scores'!I58)</f>
         <v/>
       </c>
-      <c r="K19" s="51" t="str">
+      <c r="K19" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I59=0,"",'Deelnemers en Scores'!I59)</f>
         <v/>
       </c>
-      <c r="L19" s="51" t="str">
+      <c r="L19" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I60=0,"",'Deelnemers en Scores'!I60)</f>
         <v/>
       </c>
-      <c r="M19" s="51" t="str">
+      <c r="M19" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I61=0,"",'Deelnemers en Scores'!I61)</f>
         <v/>
       </c>
-      <c r="N19" s="106"/>
-      <c r="O19" s="52" t="str">
+      <c r="N19" s="100"/>
+      <c r="O19" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P19" s="53" t="str">
+      <c r="P19" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q19" s="53" t="str">
+      <c r="Q19" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R19" s="54" t="str">
+      <c r="R19" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="160">
+      <c r="T19" s="12"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21">
+      <c r="B20" s="18">
         <f>IF('Deelnemers en Scores'!B63&gt;0,'Deelnemers en Scores'!B63,"")</f>
         <v>10</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F63="","",'Deelnemers en Scores'!F63)</f>
         <v>Team naam 10</v>
       </c>
-      <c r="D20" s="23" t="str">
+      <c r="D20" s="20" t="str">
         <f>'Deelnemers en Scores'!D63</f>
         <v>Vereniging 10</v>
       </c>
-      <c r="E20" s="51" t="str">
+      <c r="E20" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H64=0,"",'Deelnemers en Scores'!H64)</f>
         <v/>
       </c>
-      <c r="F20" s="51" t="str">
+      <c r="F20" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H65=0,"",'Deelnemers en Scores'!H65)</f>
         <v/>
       </c>
-      <c r="G20" s="51" t="str">
+      <c r="G20" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H66=0,"",'Deelnemers en Scores'!H66)</f>
         <v/>
       </c>
-      <c r="H20" s="51" t="str">
+      <c r="H20" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H67=0,"",'Deelnemers en Scores'!H67)</f>
         <v/>
       </c>
-      <c r="I20" s="106"/>
-      <c r="J20" s="51" t="str">
+      <c r="I20" s="100"/>
+      <c r="J20" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I64=0,"",'Deelnemers en Scores'!I64)</f>
         <v/>
       </c>
-      <c r="K20" s="51" t="str">
+      <c r="K20" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I65=0,"",'Deelnemers en Scores'!I65)</f>
         <v/>
       </c>
-      <c r="L20" s="51" t="str">
+      <c r="L20" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I66=0,"",'Deelnemers en Scores'!I66)</f>
         <v/>
       </c>
-      <c r="M20" s="51" t="str">
+      <c r="M20" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I67=0,"",'Deelnemers en Scores'!I67)</f>
         <v/>
       </c>
-      <c r="N20" s="106"/>
-      <c r="O20" s="52" t="str">
+      <c r="N20" s="100"/>
+      <c r="O20" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="53" t="str">
+      <c r="P20" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="53" t="str">
+      <c r="Q20" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="54" t="str">
+      <c r="R20" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="160">
+      <c r="T20" s="12"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="21">
+      <c r="B21" s="18">
         <f>IF('Deelnemers en Scores'!B69&gt;0,'Deelnemers en Scores'!B69,"")</f>
         <v>11</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F69="","",'Deelnemers en Scores'!F69)</f>
         <v>Team naam 11</v>
       </c>
-      <c r="D21" s="23" t="str">
+      <c r="D21" s="20" t="str">
         <f>'Deelnemers en Scores'!D69</f>
         <v>Vereniging 11</v>
       </c>
-      <c r="E21" s="51" t="str">
+      <c r="E21" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H70=0,"",'Deelnemers en Scores'!H70)</f>
         <v/>
       </c>
-      <c r="F21" s="51" t="str">
+      <c r="F21" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H71=0,"",'Deelnemers en Scores'!H71)</f>
         <v/>
       </c>
-      <c r="G21" s="51" t="str">
+      <c r="G21" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H72=0,"",'Deelnemers en Scores'!H72)</f>
         <v/>
       </c>
-      <c r="H21" s="51" t="str">
+      <c r="H21" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H73=0,"",'Deelnemers en Scores'!H73)</f>
         <v/>
       </c>
-      <c r="I21" s="106"/>
-      <c r="J21" s="51" t="str">
+      <c r="I21" s="100"/>
+      <c r="J21" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I70=0,"",'Deelnemers en Scores'!I70)</f>
         <v/>
       </c>
-      <c r="K21" s="51" t="str">
+      <c r="K21" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I71=0,"",'Deelnemers en Scores'!I71)</f>
         <v/>
       </c>
-      <c r="L21" s="51" t="str">
+      <c r="L21" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I72=0,"",'Deelnemers en Scores'!I72)</f>
         <v/>
       </c>
-      <c r="M21" s="51" t="str">
+      <c r="M21" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I73=0,"",'Deelnemers en Scores'!I73)</f>
         <v/>
       </c>
-      <c r="N21" s="106"/>
-      <c r="O21" s="52" t="str">
+      <c r="N21" s="100"/>
+      <c r="O21" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P21" s="53" t="str">
+      <c r="P21" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q21" s="53" t="str">
+      <c r="Q21" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R21" s="54" t="str">
+      <c r="R21" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="160">
+      <c r="T21" s="12"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21">
+      <c r="B22" s="18">
         <f>IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="19" t="str">
         <f>IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>Team naam 12</v>
       </c>
-      <c r="D22" s="23" t="str">
+      <c r="D22" s="20" t="str">
         <f>'Deelnemers en Scores'!D75</f>
         <v>Vereniging 12</v>
       </c>
-      <c r="E22" s="51" t="str">
+      <c r="E22" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F22" s="51" t="str">
+      <c r="F22" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G22" s="51" t="str">
+      <c r="G22" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H22" s="51" t="str">
+      <c r="H22" s="47" t="str">
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
-      <c r="I22" s="106"/>
-      <c r="J22" s="51" t="str">
+      <c r="I22" s="100"/>
+      <c r="J22" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K22" s="51" t="str">
+      <c r="K22" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L22" s="51" t="str">
+      <c r="L22" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M22" s="51" t="str">
+      <c r="M22" s="47" t="str">
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
-      <c r="N22" s="106"/>
-      <c r="O22" s="52" t="str">
+      <c r="N22" s="100"/>
+      <c r="O22" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P22" s="53" t="str">
+      <c r="P22" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q22" s="53" t="str">
+      <c r="Q22" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R22" s="54" t="str">
+      <c r="R22" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S22" s="24">
+      <c r="S22" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="160">
+      <c r="T22" s="12"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5885,39 +5912,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="2" style="31" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="1.77734375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="2.77734375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="44.6640625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="1.77734375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="1.21875" style="31" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="31" customWidth="1"/>
-    <col min="17" max="19" width="2.77734375" style="31" customWidth="1"/>
-    <col min="20" max="20" width="47.77734375" style="31" customWidth="1"/>
-    <col min="21" max="21" width="1.77734375" style="31" customWidth="1"/>
-    <col min="22" max="22" width="9.77734375" style="31" customWidth="1"/>
-    <col min="23" max="23" width="2" style="31" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="31" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" style="31" customWidth="1"/>
-    <col min="26" max="28" width="11.21875" style="31" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="9.21875" style="31" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="14.109375" style="31" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" style="31" hidden="1" customWidth="1"/>
-    <col min="32" max="34" width="11.21875" style="31" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="9.21875" style="31" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="11.21875" style="31" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" style="31" hidden="1" customWidth="1"/>
-    <col min="38" max="39" width="11.21875" style="31" hidden="1" customWidth="1"/>
-    <col min="40" max="41" width="9.5546875" style="31" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="11.21875" style="31" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="2" style="31" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="2" style="27" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="1.77734375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="2.77734375" style="27" customWidth="1"/>
+    <col min="12" max="12" width="44.6640625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="1.77734375" style="27" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15" max="15" width="1.21875" style="27" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="27" customWidth="1"/>
+    <col min="17" max="19" width="2.77734375" style="27" customWidth="1"/>
+    <col min="20" max="20" width="47.77734375" style="27" customWidth="1"/>
+    <col min="21" max="21" width="1.77734375" style="27" customWidth="1"/>
+    <col min="22" max="22" width="9.77734375" style="27" customWidth="1"/>
+    <col min="23" max="23" width="2" style="27" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="27" customWidth="1"/>
+    <col min="25" max="25" width="21.6640625" style="27" customWidth="1"/>
+    <col min="26" max="28" width="11.21875" style="27" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="9.21875" style="27" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.109375" style="27" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="8.6640625" style="27" hidden="1" customWidth="1"/>
+    <col min="32" max="34" width="11.21875" style="27" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="9.21875" style="27" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="11.21875" style="27" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5546875" style="27" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="11.21875" style="27" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="9.5546875" style="27" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="11.21875" style="27" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="2" style="27" hidden="1" customWidth="1"/>
     <col min="44" max="16384" width="9.5546875" hidden="1"/>
   </cols>
   <sheetData>
@@ -5925,32 +5952,32 @@
     <row r="2" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="178" t="str">
+      <c r="B4" s="170" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="179"/>
-      <c r="X4" s="180"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="172"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -5968,1193 +5995,1194 @@
       <c r="AP4"/>
       <c r="AQ4"/>
     </row>
-    <row r="5" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
+    <row r="5" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
+      <c r="B6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
     </row>
     <row r="7" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:43" ht="30" x14ac:dyDescent="0.4">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
-      <c r="L8" s="91" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="L8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="93"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="60" t="s">
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="89"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="60" t="s">
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="60" t="s">
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="63"/>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="63"/>
-      <c r="AQ9" s="63"/>
-    </row>
-    <row r="10" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="63"/>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="63"/>
-      <c r="AM10" s="63"/>
-      <c r="AN10" s="63"/>
-      <c r="AO10" s="63"/>
-      <c r="AP10" s="63"/>
-      <c r="AQ10" s="63"/>
+    <row r="9" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+    </row>
+    <row r="10" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
     </row>
     <row r="11" spans="1:43" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="69" t="s">
+      <c r="I11" s="63"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="AA11" s="69" t="s">
+      <c r="AA11" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="AB11" s="80" t="s">
+      <c r="AB11" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="AC11" s="69" t="s">
+      <c r="AC11" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="AD11" s="69" t="s">
+      <c r="AD11" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AE11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
+      <c r="AE11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
     </row>
     <row r="12" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107">
+      <c r="A12" s="101">
         <v>1</v>
       </c>
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A12,20)&gt;0,INDEX(Uitslag!C$11:C$22,A12,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15" t="str">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A12,20)&gt;0,INDEX(Uitslag!D$11:D$22,A12,1),"")</f>
         <v/>
       </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="111"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61">
+      <c r="E12" s="93"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="104"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57">
         <f>F12+H12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="61" t="b">
+      <c r="AD12" s="57" t="b">
         <f>AND(AB13=TRUE,AC12&gt;AC14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="99" t="str">
+      <c r="A13" s="175"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="179" t="str">
         <f>IF(AA13=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="33"/>
-      <c r="Z13" s="61" t="b">
+      <c r="I13" s="185"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="29"/>
+      <c r="Z13" s="57" t="b">
         <f>AND(F12&lt;&gt;"",F14&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="61" t="b">
+      <c r="AA13" s="57" t="b">
         <f>AND(Z13=TRUE,F12=F14)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="61" t="b">
+      <c r="AB13" s="57" t="b">
         <f>IF(Z13=FALSE,FALSE,OR(AA13=FALSE,AND(H12&lt;&gt;"",H14&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AF13" s="69" t="s">
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AF13" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="AG13" s="69" t="s">
+      <c r="AG13" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="AH13" s="80" t="s">
+      <c r="AH13" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="AI13" s="69" t="s">
+      <c r="AI13" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="AJ13" s="69" t="s">
+      <c r="AJ13" s="65" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107">
+      <c r="A14" s="101">
         <v>8</v>
       </c>
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A14,20)&gt;0,INDEX(Uitslag!C$11:C$22,A14,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15" t="str">
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A14,20)&gt;0,INDEX(Uitslag!D$11:D$22,A14,1),"")</f>
         <v/>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="N14" s="67" t="s">
+      <c r="E14" s="93"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="N14" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="O14" s="68"/>
-      <c r="P14" s="67" t="s">
+      <c r="O14" s="64"/>
+      <c r="P14" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="S14" s="39"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61">
+      <c r="S14" s="35"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57">
         <f>F14+H14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="61" t="b">
+      <c r="AD14" s="57" t="b">
         <f>AND(AB13=TRUE,AC14&gt;AC12)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AK14" s="67"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AK14" s="63"/>
     </row>
     <row r="15" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="107">
+      <c r="A15" s="175"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="101">
         <v>1</v>
       </c>
-      <c r="L15" s="15" t="str">
+      <c r="L15" s="13" t="str">
         <f>IF(AD12=TRUE,B12,IF(AD14=TRUE,B14,""))</f>
         <v/>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="39"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="67"/>
-      <c r="AI15" s="61">
+      <c r="M15" s="66"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="35"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="63"/>
+      <c r="AI15" s="57">
         <f>N15+P15</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="61" t="b">
+      <c r="AJ15" s="57" t="b">
         <f>AND(AH16=TRUE,AI15&gt;AI17)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="61"/>
     </row>
     <row r="16" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="34"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36" t="str">
+      <c r="A16" s="175"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32" t="str">
         <f>IF(AG16=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="R16" s="108"/>
-      <c r="T16" s="94" t="s">
+      <c r="R16" s="102"/>
+      <c r="T16" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="96"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="61" t="b">
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="92"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="57" t="b">
         <f>AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="61" t="b">
+      <c r="AG16" s="57" t="b">
         <f>AND(AF16=TRUE,N15=N17)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="61" t="b">
+      <c r="AH16" s="57" t="b">
         <f>IF(AF16=FALSE,FALSE,OR(AG16=FALSE,AND(P15&lt;&gt;"",P17&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="33"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="29"/>
     </row>
     <row r="17" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="107">
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="101">
         <v>4</v>
       </c>
-      <c r="L17" s="15" t="str">
+      <c r="L17" s="13" t="str">
         <f>IF(AD18=TRUE,B18,IF(AD20=TRUE,B20,""))</f>
         <v/>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="108"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61">
+      <c r="M17" s="66"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="102"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57">
         <f>N17+P17</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="61" t="b">
+      <c r="AJ17" s="57" t="b">
         <f>AND(AH16=TRUE,AI17&gt;AI15)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="33"/>
-      <c r="AN17" s="66"/>
-      <c r="AP17" s="66"/>
+      <c r="AK17" s="29"/>
+      <c r="AN17" s="62"/>
+      <c r="AP17" s="62"/>
     </row>
     <row r="18" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107">
+      <c r="A18" s="101">
         <v>5</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A18,20)&gt;0,INDEX(Uitslag!C$11:C$22,A18,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15" t="str">
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A18,20)&gt;0,INDEX(Uitslag!D$11:D$22,A18,1),"")</f>
         <v/>
       </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="111"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="67" t="s">
+      <c r="E18" s="93"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="104"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67" t="s">
+      <c r="W18" s="63"/>
+      <c r="X18" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="Y18" s="67"/>
-      <c r="AC18" s="61">
+      <c r="Y18" s="63"/>
+      <c r="AC18" s="57">
         <f>F18+H18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="61" t="b">
+      <c r="AD18" s="57" t="b">
         <f>AND(AB19=TRUE,AC18&gt;AC20)</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="39"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="60" t="s">
+      <c r="AE18" s="35"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="AM18" s="60" t="s">
+      <c r="AM18" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="AN18" s="64" t="s">
+      <c r="AN18" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="AO18" s="65" t="s">
+      <c r="AO18" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AP18" s="65" t="s">
+      <c r="AP18" s="61" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="99" t="str">
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="179" t="str">
         <f>IF(AA19=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I19" s="114"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="111"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="15" t="str">
+      <c r="I19" s="185"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="104"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="13" t="str">
         <f>IF(AJ15=TRUE,L15,IF(AJ17=TRUE,L17,""))</f>
         <v/>
       </c>
-      <c r="U19" s="70"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="39" t="str">
+      <c r="U19" s="66"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="35" t="str">
         <f>IF(OR(AL20=FALSE,AO20=FALSE),"",IF(AP19=TRUE,"WINNAAR","2e"))</f>
         <v/>
       </c>
-      <c r="Z19" s="61" t="b">
+      <c r="Z19" s="57" t="b">
         <f>AND(F18&lt;&gt;"",F20&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="61" t="b">
+      <c r="AA19" s="57" t="b">
         <f>AND(Z19=TRUE,F18=F20)</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="61" t="b">
+      <c r="AB19" s="57" t="b">
         <f>IF(Z19=FALSE,FALSE,OR(AA19=FALSE,AND(H18&lt;&gt;"",H20&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AN19" s="61">
+      <c r="AN19" s="57">
         <f>V19+X19</f>
         <v>0</v>
       </c>
-      <c r="AP19" s="61" t="b">
+      <c r="AP19" s="57" t="b">
         <f>AN19&gt;AN21</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107">
+      <c r="A20" s="101">
         <v>4</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A20,20)&gt;0,INDEX(Uitslag!C$11:C$22,A20,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15" t="str">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A20,20)&gt;0,INDEX(Uitslag!D$11:D$22,A20,1),"")</f>
         <v/>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="111"/>
-      <c r="R20" s="108"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="36" t="str">
+      <c r="E20" s="93"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="104"/>
+      <c r="R20" s="102"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="32" t="str">
         <f>IF(AM20=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="61">
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="57">
         <f>F20+H20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="61" t="b">
+      <c r="AD20" s="57" t="b">
         <f>AND(AB19=TRUE,AC20&gt;AC18)</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="61" t="b">
+      <c r="AL20" s="57" t="b">
         <f>AND(V19&lt;&gt;"",V21&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AM20" s="61" t="b">
+      <c r="AM20" s="57" t="b">
         <f>AND(AL20=TRUE,V19=V21)</f>
         <v>0</v>
       </c>
-      <c r="AO20" s="61" t="b">
+      <c r="AO20" s="57" t="b">
         <f>OR(AND(X19&lt;&gt;"",X21&lt;&gt;""),AM20=FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="15" t="str">
+    <row r="21" spans="1:42" ht="30" x14ac:dyDescent="0.4">
+      <c r="A21" s="62"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="104"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="13" t="str">
         <f>IF(AJ27=TRUE,L27,IF(AJ29=TRUE,L29,""))</f>
         <v/>
       </c>
-      <c r="U21" s="70"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="39" t="str">
+      <c r="U21" s="66"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="35" t="str">
         <f>IF(OR(AL20=FALSE,AO20=FALSE),"",IF(AP21=TRUE,"WINNAAR","2e"))</f>
         <v/>
       </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AN21" s="61">
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AN21" s="57">
         <f>V21+X21</f>
         <v>0</v>
       </c>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61" t="b">
+      <c r="AO21" s="57"/>
+      <c r="AP21" s="57" t="b">
         <f>AN21&gt;AN19</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="R22" s="108"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="R22" s="102"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
     </row>
     <row r="23" spans="1:42" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="R23" s="108"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
+      <c r="R23" s="102"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
     </row>
     <row r="24" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="107">
+      <c r="A24" s="101">
         <v>3</v>
       </c>
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A24,20)&gt;0,INDEX(Uitslag!C$11:C$22,A24,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15" t="str">
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A24,20)&gt;0,INDEX(Uitslag!D$11:D$22,A24,1),"")</f>
         <v/>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="R24" s="108"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61">
+      <c r="E24" s="93"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="R24" s="102"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57">
         <f>F24+H24</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="61" t="b">
+      <c r="AD24" s="57" t="b">
         <f>AND(AB25=TRUE,AC24&gt;AC26)</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="61"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
     </row>
     <row r="25" spans="1:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="99" t="str">
+      <c r="A25" s="175"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="179" t="str">
         <f>IF(AA25=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I25" s="99"/>
-      <c r="J25" s="110"/>
-      <c r="R25" s="108"/>
-      <c r="Z25" s="61" t="b">
+      <c r="I25" s="179"/>
+      <c r="J25" s="103"/>
+      <c r="R25" s="102"/>
+      <c r="Z25" s="57" t="b">
         <f>AND(F24&lt;&gt;"",F26&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="61" t="b">
+      <c r="AA25" s="57" t="b">
         <f>AND(Z25=TRUE,F24=F26)</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="61" t="b">
+      <c r="AB25" s="57" t="b">
         <f>IF(Z25=FALSE,FALSE,OR(AA25=FALSE,AND(H24&lt;&gt;"",H26&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
     </row>
     <row r="26" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="107">
+      <c r="A26" s="101">
         <v>6</v>
       </c>
-      <c r="B26" s="15" t="str">
+      <c r="B26" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A26,20)&gt;0,INDEX(Uitslag!C$11:C$22,A26,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15" t="str">
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A26,20)&gt;0,INDEX(Uitslag!D$11:D$22,A26,1),"")</f>
         <v/>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="L26" s="38"/>
-      <c r="N26" s="67" t="s">
+      <c r="E26" s="93"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="L26" s="34"/>
+      <c r="N26" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="O26" s="68"/>
-      <c r="P26" s="67" t="s">
+      <c r="O26" s="64"/>
+      <c r="P26" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="R26" s="108"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="61"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61">
+      <c r="R26" s="102"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57">
         <f>F26+H26</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="61" t="b">
+      <c r="AD26" s="57" t="b">
         <f>AND(AB25=TRUE,AC26&gt;AC24)</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="69" t="s">
+      <c r="AF26" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="AG26" s="69" t="s">
+      <c r="AG26" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="AH26" s="80" t="s">
+      <c r="AH26" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="AI26" s="69" t="s">
+      <c r="AI26" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="AJ26" s="69" t="s">
+      <c r="AJ26" s="65" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="107">
+      <c r="A27" s="175"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="101">
         <v>3</v>
       </c>
-      <c r="L27" s="15" t="str">
+      <c r="L27" s="13" t="str">
         <f>IF(AD24=TRUE,B24,IF(AD26=TRUE,B26,""))</f>
         <v/>
       </c>
-      <c r="M27" s="70"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="108"/>
-      <c r="Y27" s="33"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="61">
+      <c r="M27" s="66"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="102"/>
+      <c r="Y27" s="29"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="57">
         <f>N27+P27</f>
         <v>0</v>
       </c>
-      <c r="AJ27" s="61" t="b">
+      <c r="AJ27" s="57" t="b">
         <f>AND(AH28=TRUE,AI27&gt;AI29)</f>
         <v>0</v>
       </c>
-      <c r="AK27" s="33"/>
+      <c r="AK27" s="29"/>
     </row>
     <row r="28" spans="1:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="L28" s="34"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36" t="str">
+      <c r="A28" s="175"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="L28" s="30"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32" t="str">
         <f>IF(AG28=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="R28" s="108"/>
-      <c r="T28" s="94" t="s">
+      <c r="R28" s="102"/>
+      <c r="T28" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="61" t="b">
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="57" t="b">
         <f>AND(N27&lt;&gt;"",N29&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="61" t="b">
+      <c r="AG28" s="57" t="b">
         <f>AND(AF28=TRUE,N27=N29)</f>
         <v>0</v>
       </c>
-      <c r="AH28" s="61" t="b">
+      <c r="AH28" s="57" t="b">
         <f>IF(AF28=FALSE,FALSE,OR(AG28=FALSE,AND(P27&lt;&gt;"",P29&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
     </row>
     <row r="29" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="I29" s="116"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="107">
+      <c r="I29" s="107"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="101">
         <v>2</v>
       </c>
-      <c r="L29" s="15" t="str">
+      <c r="L29" s="13" t="str">
         <f>IF(AD30=TRUE,B30,IF(AD32=TRUE,B32,""))</f>
         <v/>
       </c>
-      <c r="M29" s="70"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="108"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="61"/>
-      <c r="AI29" s="61">
+      <c r="M29" s="66"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="102"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AI29" s="57">
         <f>N29+P29</f>
         <v>0</v>
       </c>
-      <c r="AJ29" s="61" t="b">
+      <c r="AJ29" s="57" t="b">
         <f>AND(AH28=TRUE,AI29&gt;AI27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="107">
+      <c r="A30" s="101">
         <v>7</v>
       </c>
-      <c r="B30" s="15" t="str">
+      <c r="B30" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A30,20)&gt;0,INDEX(Uitslag!C$11:C$22,A30,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="15" t="str">
+      <c r="C30" s="14"/>
+      <c r="D30" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A30,20)&gt;0,INDEX(Uitslag!D$11:D$22,A30,1),"")</f>
         <v/>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="R30" s="108"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="67" t="s">
+      <c r="E30" s="93"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="R30" s="102"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67" t="s">
+      <c r="W30" s="63"/>
+      <c r="X30" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="61">
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="57">
         <f>F30+H30</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="61" t="b">
+      <c r="AD30" s="57" t="b">
         <f>AND(AB31=TRUE,AC30&gt;AC32)</f>
         <v>0</v>
       </c>
-      <c r="AL30" s="60" t="s">
+      <c r="AL30" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="AM30" s="60" t="s">
+      <c r="AM30" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="AN30" s="64" t="s">
+      <c r="AN30" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="AO30" s="65" t="s">
+      <c r="AO30" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AP30" s="65" t="s">
+      <c r="AP30" s="61" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="99" t="str">
+      <c r="A31" s="175"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="179" t="str">
         <f>IF(AA31=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I31" s="99"/>
-      <c r="J31" s="110"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="15" t="str">
+      <c r="I31" s="179"/>
+      <c r="J31" s="103"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="13" t="str">
         <f>IF(AJ15=TRUE,L17,IF(AJ17=TRUE,L15,""))</f>
         <v/>
       </c>
-      <c r="U31" s="70"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="39" t="str">
+      <c r="U31" s="66"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="35" t="str">
         <f>IF(OR(AL32=FALSE,AO32=FALSE),"",IF(AP31=TRUE,"3e","4e"))</f>
         <v/>
       </c>
-      <c r="Z31" s="61" t="b">
+      <c r="Z31" s="57" t="b">
         <f>AND(F30&lt;&gt;"",F32&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA31" s="61" t="b">
+      <c r="AA31" s="57" t="b">
         <f>AND(Z31=TRUE,F30=F32)</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="61" t="b">
+      <c r="AB31" s="57" t="b">
         <f>IF(Z31=FALSE,FALSE,OR(AA31=FALSE,AND(H30&lt;&gt;"",H32&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AN31" s="61">
+      <c r="AN31" s="57">
         <f>V31+X31</f>
         <v>0</v>
       </c>
-      <c r="AP31" s="61" t="b">
+      <c r="AP31" s="57" t="b">
         <f>AN31&gt;AN33</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="107">
+      <c r="A32" s="101">
         <v>2</v>
       </c>
-      <c r="B32" s="15" t="str">
+      <c r="B32" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A32,20)&gt;0,INDEX(Uitslag!C$11:C$22,A32,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="15" t="str">
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A32,20)&gt;0,INDEX(Uitslag!D$11:D$22,A32,1),"")</f>
         <v/>
       </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="R32" s="108"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="36" t="str">
+      <c r="E32" s="93"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="R32" s="102"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="32" t="str">
         <f>IF(AM32=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="61">
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="57">
         <f>F32+H32</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="61" t="b">
+      <c r="AD32" s="57" t="b">
         <f>AND(AB31=TRUE,AC32&gt;AC30)</f>
         <v>0</v>
       </c>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="61" t="b">
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="57" t="b">
         <f>AND(V31&lt;&gt;"",V33&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AM32" s="61" t="b">
+      <c r="AM32" s="57" t="b">
         <f>AND(AL32=TRUE,V31=V33)</f>
         <v>0</v>
       </c>
-      <c r="AO32" s="61" t="b">
+      <c r="AO32" s="57" t="b">
         <f>OR(AND(X31&lt;&gt;"",X33&lt;&gt;""),AM32=FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="18:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="R33" s="108"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="15" t="str">
+    <row r="33" spans="9:42" ht="30" x14ac:dyDescent="0.2">
+      <c r="I33" s="62"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="13" t="str">
         <f>IF(AJ27=TRUE,L29,IF(AJ29=TRUE,L27,""))</f>
         <v/>
       </c>
-      <c r="U33" s="70"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="39" t="str">
+      <c r="U33" s="66"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="35" t="str">
         <f>IF(OR(AL32=FALSE,AO32=FALSE),"",IF(AP33=TRUE,"3e","4e"))</f>
         <v/>
       </c>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AN33" s="61">
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AN33" s="57">
         <f>V33+X33</f>
         <v>0</v>
       </c>
-      <c r="AP33" s="61" t="b">
+      <c r="AP33" s="57" t="b">
         <f>AN33&gt;AN31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="18:42" x14ac:dyDescent="0.2">
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AN34" s="66"/>
-      <c r="AP34" s="66"/>
-    </row>
-    <row r="35" spans="18:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="39"/>
-      <c r="AO35" s="61"/>
-    </row>
-    <row r="36" spans="18:42" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="18:42" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="18:42" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="18:42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="63"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="63"/>
-      <c r="AG39" s="63"/>
+    <row r="34" spans="9:42" x14ac:dyDescent="0.2">
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AN34" s="62"/>
+      <c r="AP34" s="62"/>
+    </row>
+    <row r="35" spans="9:42" ht="30" x14ac:dyDescent="0.2">
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="35"/>
+      <c r="AO35" s="57"/>
+    </row>
+    <row r="36" spans="9:42" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="9:42" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="9:42" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="9:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7215,56 +7243,54 @@
   </sheetPr>
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="2" style="31" customWidth="1"/>
-    <col min="4" max="4" width="45" style="31" customWidth="1"/>
-    <col min="5" max="5" width="1.77734375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="1.21875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="2.77734375" style="63" customWidth="1"/>
-    <col min="11" max="11" width="2.77734375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="47.77734375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="1.77734375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="2" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="31" customWidth="1"/>
-    <col min="18" max="28" width="9.5546875" style="31" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="1.33203125" style="31" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.5546875" style="31" hidden="1"/>
+    <col min="1" max="1" width="2.77734375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="2" style="27" customWidth="1"/>
+    <col min="4" max="4" width="45" style="27" customWidth="1"/>
+    <col min="5" max="5" width="1.77734375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="1.21875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="2.77734375" style="59" customWidth="1"/>
+    <col min="11" max="11" width="2.77734375" style="27" customWidth="1"/>
+    <col min="12" max="12" width="47.77734375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="1.77734375" style="27" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" style="27" customWidth="1"/>
+    <col min="15" max="15" width="2" style="27" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="27" customWidth="1"/>
+    <col min="18" max="28" width="9.5546875" style="27" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="1.33203125" style="27" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.5546875" style="27" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="178" t="str">
+      <c r="B4" s="170" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="180"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
       <c r="Q4"/>
       <c r="U4"/>
       <c r="V4"/>
@@ -7288,554 +7314,554 @@
       <c r="AC5"/>
     </row>
     <row r="6" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J6" s="60"/>
-      <c r="K6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="39"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="35"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J8" s="60"/>
-      <c r="K8" s="37"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="33"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
     </row>
     <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J9" s="60"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
+      <c r="J9" s="56"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
     </row>
     <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="F10" s="67" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="F10" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="67" t="s">
+      <c r="G10" s="64"/>
+      <c r="H10" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="R10" s="69" t="s">
+      <c r="J10" s="27"/>
+      <c r="R10" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="69" t="s">
+      <c r="S10" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="80" t="s">
+      <c r="T10" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="U10" s="69" t="s">
+      <c r="U10" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="V10" s="69" t="s">
+      <c r="V10" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="W10" s="33"/>
+      <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107">
+      <c r="A11" s="101">
         <v>1</v>
       </c>
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A11,20)&gt;0,INDEX(Uitslag!C$11:C$22,A11,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15" t="str">
+      <c r="C11" s="14"/>
+      <c r="D11" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A11,20)&gt;0,INDEX(Uitslag!D$11:D$22,A11,1),"")</f>
         <v/>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="117"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="61">
+      <c r="E11" s="66"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="108"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="57">
         <f>F11+H11</f>
         <v>0</v>
       </c>
-      <c r="V11" s="61" t="b">
+      <c r="V11" s="57" t="b">
         <f>AND(T12=TRUE,U11&gt;U13)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="33"/>
-      <c r="Z11" s="66"/>
-      <c r="AB11" s="66"/>
+      <c r="W11" s="29"/>
+      <c r="Z11" s="62"/>
+      <c r="AB11" s="62"/>
     </row>
     <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36" t="str">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32" t="str">
         <f>IF(S12=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="J12" s="117"/>
-      <c r="L12" s="94" t="s">
+      <c r="J12" s="108"/>
+      <c r="L12" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="R12" s="61" t="b">
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
+      <c r="R12" s="57" t="b">
         <f>AND(F11&lt;&gt;"",F13&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="S12" s="61" t="b">
+      <c r="S12" s="57" t="b">
         <f>AND(R12=TRUE,F11=F13)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="61" t="b">
+      <c r="T12" s="57" t="b">
         <f>IF(R12=FALSE,FALSE,OR(S12=FALSE,AND(H11&lt;&gt;"",H13&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="39"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="35"/>
     </row>
     <row r="13" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="101">
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A13,20)&gt;0,INDEX(Uitslag!C$11:C$22,A13,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15" t="str">
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A13,20)&gt;0,INDEX(Uitslag!D$11:D$22,A13,1),"")</f>
         <v/>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="39"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61">
+      <c r="E13" s="66"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="35"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57">
         <f>F13+H13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="61" t="b">
+      <c r="V13" s="57" t="b">
         <f>AND(T12=TRUE,U13&gt;U11)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="40"/>
+      <c r="Z13" s="36"/>
     </row>
     <row r="14" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="117"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="67" t="s">
+      <c r="J14" s="108"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67" t="s">
+      <c r="O14" s="63"/>
+      <c r="P14" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="X14" s="69" t="s">
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="X14" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="Y14" s="69" t="s">
+      <c r="Y14" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="Z14" s="80" t="s">
+      <c r="Z14" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="AA14" s="69" t="s">
+      <c r="AA14" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" s="69" t="s">
+      <c r="AB14" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J15" s="117"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="15" t="str">
+      <c r="J15" s="108"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="13" t="str">
         <f>IF(V11=TRUE,B11,IF(V13=TRUE,B13,""))</f>
         <v/>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="39" t="str">
+      <c r="M15" s="66"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="35" t="str">
         <f>IF(OR(X16=FALSE,AA16=FALSE),"",IF(AB15=TRUE,"WINNAAR","2e"))</f>
         <v/>
       </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="Z15" s="61">
+      <c r="R15" s="23"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="Z15" s="57">
         <f>N15+P15</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="61" t="b">
+      <c r="AB15" s="57" t="b">
         <f>Z15&gt;Z17</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="J16" s="118"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="36" t="str">
+      <c r="J16" s="109"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="32" t="str">
         <f>IF(Y16=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="X16" s="61" t="b">
+      <c r="X16" s="57" t="b">
         <f>AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="61" t="b">
+      <c r="Y16" s="57" t="b">
         <f>AND(X16=TRUE,N15=N17)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="61" t="b">
+      <c r="AA16" s="57" t="b">
         <f>OR(AND(P15&lt;&gt;"",P17&lt;&gt;""),Y16=FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="15" t="str">
+      <c r="A17" s="28"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="13" t="str">
         <f>IF(V20=TRUE,B20,IF(V22=TRUE,B22,""))</f>
         <v/>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="39" t="str">
+      <c r="M17" s="66"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="35" t="str">
         <f>IF(OR(X16=FALSE,AA16=FALSE),"",IF(AB17=TRUE,"WINNAAR","2e"))</f>
         <v/>
       </c>
-      <c r="Z17" s="61">
+      <c r="Z17" s="57">
         <f>N17+P17</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61" t="b">
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57" t="b">
         <f>Z17&gt;Z15</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="J18" s="118"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="J18" s="109"/>
     </row>
     <row r="19" spans="1:28" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="F19" s="67" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="F19" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="67" t="s">
+      <c r="G19" s="64"/>
+      <c r="H19" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="118"/>
-      <c r="R19" s="69" t="s">
+      <c r="J19" s="109"/>
+      <c r="R19" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="S19" s="69" t="s">
+      <c r="S19" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="T19" s="80" t="s">
+      <c r="T19" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="U19" s="69" t="s">
+      <c r="U19" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="V19" s="69" t="s">
+      <c r="V19" s="65" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="107">
+      <c r="A20" s="101">
         <v>3</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A20,20)&gt;0,INDEX(Uitslag!C$11:C$22,A20,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15" t="str">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A20,20)&gt;0,INDEX(Uitslag!D$11:D$22,A20,1),"")</f>
         <v/>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="118"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="61">
+      <c r="E20" s="66"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="109"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="57">
         <f>F20+H20</f>
         <v>0</v>
       </c>
-      <c r="V20" s="61" t="b">
+      <c r="V20" s="57" t="b">
         <f>AND(T21=TRUE,U20&gt;U22)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="33"/>
+      <c r="W20" s="29"/>
     </row>
     <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36" t="str">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32" t="str">
         <f>IF(S21=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="J21" s="118"/>
-      <c r="L21" s="94" t="s">
+      <c r="J21" s="109"/>
+      <c r="L21" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="R21" s="61" t="b">
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="92"/>
+      <c r="R21" s="57" t="b">
         <f>AND(F20&lt;&gt;"",F22&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="S21" s="61" t="b">
+      <c r="S21" s="57" t="b">
         <f>AND(R21=TRUE,F20=F22)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="61" t="b">
+      <c r="T21" s="57" t="b">
         <f>IF(R21=FALSE,FALSE,OR(S21=FALSE,AND(H20&lt;&gt;"",H22&lt;&gt;"")))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="107">
+      <c r="A22" s="101">
         <v>2</v>
       </c>
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A22,20)&gt;0,INDEX(Uitslag!C$11:C$22,A22,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15" t="str">
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="str">
         <f>IF(INDEX(Uitslag!C$11:V$22,A22,20)&gt;0,INDEX(Uitslag!D$11:D$22,A22,1),"")</f>
         <v/>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="118"/>
-      <c r="U22" s="61">
+      <c r="E22" s="66"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="109"/>
+      <c r="U22" s="57">
         <f>F22+H22</f>
         <v>0</v>
       </c>
-      <c r="V22" s="61" t="b">
+      <c r="V22" s="57" t="b">
         <f>AND(T21=TRUE,U22&gt;U20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J23" s="118"/>
+      <c r="J23" s="109"/>
     </row>
     <row r="24" spans="1:28" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="J24" s="118"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="67" t="s">
+      <c r="J24" s="109"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67" t="s">
+      <c r="O24" s="63"/>
+      <c r="P24" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="69" t="s">
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="Y24" s="69" t="s">
+      <c r="Y24" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="Z24" s="80" t="s">
+      <c r="Z24" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="AA24" s="69" t="s">
+      <c r="AA24" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="AB24" s="69" t="s">
+      <c r="AB24" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="J25" s="118"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="15" t="str">
+      <c r="J25" s="109"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="13" t="str">
         <f>IF(V11=TRUE,B13,IF(V13=TRUE,B11,""))</f>
         <v/>
       </c>
-      <c r="M25" s="70"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="39" t="str">
+      <c r="M25" s="66"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="35" t="str">
         <f>IF(OR(X26=FALSE,AA26=FALSE),"",IF(AB25=TRUE,"3e","4e"))</f>
         <v/>
       </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="Z25" s="61">
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="Z25" s="57">
         <f>N25+P25</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="61" t="b">
+      <c r="AB25" s="57" t="b">
         <f>Z25&gt;Z27</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="J26" s="118"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="36" t="str">
+      <c r="J26" s="109"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="32" t="str">
         <f>IF(Y26=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="61" t="b">
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="57" t="b">
         <f>AND(N25&lt;&gt;"",N27&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="Y26" s="61" t="b">
+      <c r="Y26" s="57" t="b">
         <f>AND(X26=TRUE,N25=N27)</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="61" t="b">
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="57" t="b">
         <f>OR(AND(P25&lt;&gt;"",P27&lt;&gt;""),Y26=FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AB26" s="66"/>
+      <c r="AB26" s="62"/>
     </row>
     <row r="27" spans="1:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="J27" s="118"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="15" t="str">
+      <c r="J27" s="109"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="13" t="str">
         <f>IF(V20=TRUE,B22,IF(V22=TRUE,B20,""))</f>
         <v/>
       </c>
-      <c r="M27" s="70"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="39" t="str">
+      <c r="M27" s="66"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="35" t="str">
         <f>IF(OR(X26=FALSE,AA26=FALSE),"",IF(AB27=TRUE,"3e","4e"))</f>
         <v/>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="61">
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="57">
         <f>N27+P27</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61" t="b">
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57" t="b">
         <f>Z27&gt;Z25</f>
         <v>0</v>
       </c>
@@ -7844,9 +7870,9 @@
     <row r="29" spans="1:28" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2"/>
     <row r="33" x14ac:dyDescent="0.2"/>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299748AB-C893-4271-943E-EF4CFB47701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAB96D8-ACEE-4EC8-8179-BA996DC23E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1425" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="1260" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -29,8 +29,8 @@
     <definedName name="FINALE_ZON">#REF!</definedName>
     <definedName name="PRINT_A">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Deelnemers en Scores'!$B$2:$K$80</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Finales 4 teams'!$A$1:$Q$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Finales 8 teams'!$A$1:$Y$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Finales 4 teams'!$A$1:$R$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Finales 8 teams'!$A$1:$Z$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Uitslag!$A$1:$Y$21</definedName>
     <definedName name="PRINT_B">#REF!</definedName>
     <definedName name="PRINT_C">#REF!</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
   <si>
     <t>Baan</t>
   </si>
@@ -382,19 +382,6 @@
     <t>- Ze hebben een toestaan boogtype voor deze team wedstrijdklasse</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sporters </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(alfabetisch gesorteerd)</t>
-    </r>
-  </si>
-  <si>
     <t>Controleer dat ze voor hun eigen vereniging invallen</t>
   </si>
   <si>
@@ -469,25 +456,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Finales 8 teams</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: voor de finales met 8 teams (neemt informatie automatisch over van de andere bladen)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Finales 4 teams</t>
     </r>
     <r>
@@ -510,9 +478,6 @@
   </si>
   <si>
     <t>Vul de resultaten van de shoot-off in.</t>
-  </si>
-  <si>
-    <t>Dit werkboek bestaat uit 6 bladen:</t>
   </si>
   <si>
     <t>Notitie</t>
@@ -726,6 +691,28 @@
   <si>
     <t>top 3</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Finales 8 teams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: voor de finales met 8 teams (neemt informatie automatisch over van de andere bladen) - alleen voor ERE klasse</t>
+    </r>
+  </si>
+  <si>
+    <t>Dit werkboek bestaat uit 5 of 6 bladen:</t>
+  </si>
 </sst>
 </file>
 
@@ -735,7 +722,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -903,6 +890,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -954,7 +946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1368,64 +1360,6 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -1561,13 +1495,70 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1578,17 +1569,25 @@
         <color indexed="8"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1693,10 +1692,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1792,10 +1787,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1812,12 +1803,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1878,9 +1863,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1922,6 +1904,225 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1948,6 +2149,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1966,6 +2170,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1987,239 +2200,46 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A7495752-5368-4B1C-A554-75568F9C1911}"/>
     <cellStyle name="Standaard_team model" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="14">
@@ -2757,36 +2777,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E943A-A4FE-44C0-91C8-714011AFBE50}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="86.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="110.77734375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="3" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="119"/>
+      <c r="A4" s="188" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="188"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2796,7 +2816,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2810,29 +2830,29 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>95</v>
+      <c r="B11" s="100" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2"/>
@@ -2847,14 +2867,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="104" t="s">
-        <v>83</v>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="100" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2864,7 +2884,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2882,12 +2902,12 @@
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2898,47 +2918,47 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="B35" s="104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="B36" s="104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="B37" s="104" t="s">
+      <c r="B35" s="100" t="s">
         <v>120</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="100" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="104" t="s">
-        <v>119</v>
+      <c r="B38" s="100" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="104"/>
+      <c r="B39" s="100"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2956,7 +2976,7 @@
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2968,7 +2988,7 @@
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2982,12 +3002,12 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2997,7 +3017,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3015,18 +3035,15 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
@@ -3050,28 +3067,28 @@
     <col min="1" max="1" width="3.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" style="27" customWidth="1"/>
     <col min="3" max="3" width="5.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="59" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="57" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="56" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.88671875" style="6" customWidth="1"/>
     <col min="10" max="10" width="7.109375" style="6" customWidth="1"/>
     <col min="11" max="16384" width="7.109375" style="6" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="120" t="str">
+      <c r="B1" s="189" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="122"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
@@ -3079,17 +3096,17 @@
     <row r="3" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="D6" s="61" t="s">
-        <v>109</v>
+      <c r="D6" s="60" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D7" s="62" t="s">
-        <v>110</v>
+      <c r="D7" s="61" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="61" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3097,18 +3114,18 @@
       <c r="D9" s="27"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="55" t="s">
-        <v>79</v>
+      <c r="D12" s="54" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -3118,48 +3135,48 @@
     </row>
     <row r="14" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="64"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="50"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="65"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="53" t="s">
+      <c r="F16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="54" t="s">
-        <v>102</v>
+      <c r="I16" s="53" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E17" s="8"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E18" s="13">
         <v>123456</v>
@@ -3171,7 +3188,7 @@
         <v>7.7770000000000001</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I18" s="31"/>
     </row>
@@ -3201,165 +3218,165 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="88" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="196" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="196" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="196" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="88" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" style="88" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="89" customWidth="1"/>
-    <col min="8" max="9" width="3.6640625" style="90" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" style="90" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="88" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="88" customWidth="1"/>
-    <col min="13" max="16384" width="7.109375" style="88" hidden="1"/>
+    <col min="1" max="1" width="3.109375" style="84" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="156" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="156" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="156" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="84" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="84" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="85" customWidth="1"/>
+    <col min="8" max="9" width="3.6640625" style="86" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="86" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="84" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="84" customWidth="1"/>
+    <col min="13" max="16384" width="7.109375" style="84" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
+      <c r="B2" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="K3" s="91"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="92" t="s">
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="198"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="197"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="103"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="99"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="139" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="141" t="s">
+      <c r="H6" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="141"/>
-      <c r="J6" s="138" t="s">
+      <c r="I6" s="195"/>
+      <c r="J6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="118" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139" t="s">
+      <c r="B7" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="115"/>
+      <c r="D7" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="139" t="s">
+      <c r="F7" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="144" t="s">
+      <c r="G7" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="142" t="s">
+      <c r="J7" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="204"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="199"/>
+      <c r="B8" s="164"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="159"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="206">
+      <c r="B9" s="166">
         <v>1</v>
       </c>
-      <c r="C9" s="207"/>
-      <c r="D9" s="208" t="s">
+      <c r="C9" s="167"/>
+      <c r="D9" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="207"/>
-      <c r="F9" s="208" t="s">
+      <c r="E9" s="167"/>
+      <c r="F9" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="209">
+      <c r="G9" s="169">
         <v>888.8</v>
       </c>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="200">
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="160">
         <f>SUM(J10:J13)-MINA(J10:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="206"/>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
       <c r="E10" s="13">
         <v>123456</v>
       </c>
@@ -3375,16 +3392,16 @@
       <c r="I10" s="13">
         <v>0</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="86">
         <f>SUM(H10:I10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="91"/>
+      <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="206"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
       <c r="E11" s="13">
         <v>123456</v>
       </c>
@@ -3400,16 +3417,16 @@
       <c r="I11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="86">
         <f>SUM(H11:I11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="91"/>
+      <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="206"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="13">
         <v>123456</v>
       </c>
@@ -3425,16 +3442,16 @@
       <c r="I12" s="13">
         <v>0</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="86">
         <f>SUM(H12:I12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="91"/>
+      <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="206"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="13">
         <v>123456</v>
       </c>
@@ -3450,50 +3467,50 @@
       <c r="I13" s="13">
         <v>0</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="86">
         <f>SUM(H13:I13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="91"/>
+      <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="206"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="213"/>
-      <c r="K14" s="91"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="206">
+      <c r="B15" s="166">
         <v>2</v>
       </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="208" t="s">
+      <c r="C15" s="167"/>
+      <c r="D15" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="207"/>
-      <c r="F15" s="208" t="s">
+      <c r="E15" s="167"/>
+      <c r="F15" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="209">
+      <c r="G15" s="169">
         <v>888.8</v>
       </c>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="200">
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="160">
         <f>IF(COUNTA(J16:J19)&lt;3,0,IF(COUNTA(J16:J19)=3,SUM(J16:J19),IF(SUM(J16:J19)&gt;0,SUM(J16:J19)-MINA(J16:J19),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="206"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="13">
         <v>123456</v>
       </c>
@@ -3509,16 +3526,16 @@
       <c r="I16" s="13">
         <v>0</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="86">
         <f>SUM(H16:I16)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="91"/>
+      <c r="K16" s="87"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="206"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="13">
         <v>123456</v>
       </c>
@@ -3534,16 +3551,16 @@
       <c r="I17" s="13">
         <v>0</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="86">
         <f>SUM(H17:I17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="91"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="206"/>
-      <c r="C18" s="207"/>
-      <c r="D18" s="207"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="13">
         <v>123456</v>
       </c>
@@ -3559,16 +3576,16 @@
       <c r="I18" s="13">
         <v>0</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="86">
         <f>SUM(H18:I18)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="91"/>
+      <c r="K18" s="87"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="206"/>
-      <c r="C19" s="207"/>
-      <c r="D19" s="207"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="13">
         <v>123456</v>
       </c>
@@ -3584,50 +3601,50 @@
       <c r="I19" s="13">
         <v>0</v>
       </c>
-      <c r="J19" s="90">
+      <c r="J19" s="86">
         <f>SUM(H19:I19)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="91"/>
+      <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="206"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="K20" s="91"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="K20" s="87"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="206">
+      <c r="B21" s="166">
         <v>3</v>
       </c>
-      <c r="C21" s="207"/>
-      <c r="D21" s="208" t="s">
+      <c r="C21" s="167"/>
+      <c r="D21" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208" t="s">
+      <c r="E21" s="167"/>
+      <c r="F21" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="209">
+      <c r="G21" s="169">
         <v>888.8</v>
       </c>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="200">
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="160">
         <f>IF(COUNTA(J22:J25)&lt;3,0,IF(COUNTA(J22:J25)=3,SUM(J22:J25),IF(SUM(J22:J25)&gt;0,SUM(J22:J25)-MINA(J22:J25),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="206"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="207"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="13">
         <v>123456</v>
       </c>
@@ -3643,16 +3660,16 @@
       <c r="I22" s="13">
         <v>0</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22" s="86">
         <f>SUM(H22:I22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="91"/>
+      <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="206"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="13">
         <v>123456</v>
       </c>
@@ -3668,16 +3685,16 @@
       <c r="I23" s="13">
         <v>0</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="86">
         <f>SUM(H23:I23)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="91"/>
+      <c r="K23" s="87"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="206"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="13">
         <v>123456</v>
       </c>
@@ -3693,16 +3710,16 @@
       <c r="I24" s="13">
         <v>0</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24" s="86">
         <f>SUM(H24:I24)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="91"/>
+      <c r="K24" s="87"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="206"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="207"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
       <c r="E25" s="13">
         <v>123456</v>
       </c>
@@ -3718,50 +3735,50 @@
       <c r="I25" s="13">
         <v>0</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="86">
         <f>SUM(H25:I25)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="91"/>
+      <c r="K25" s="87"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="206"/>
-      <c r="C26" s="207"/>
-      <c r="D26" s="207"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="K26" s="91"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="206">
+      <c r="B27" s="166">
         <v>4</v>
       </c>
-      <c r="C27" s="207"/>
-      <c r="D27" s="208" t="s">
+      <c r="C27" s="167"/>
+      <c r="D27" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="207"/>
-      <c r="F27" s="208" t="s">
+      <c r="E27" s="167"/>
+      <c r="F27" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="209">
+      <c r="G27" s="169">
         <v>888.8</v>
       </c>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="200">
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="160">
         <f>IF(COUNTA(J28:J31)&lt;3,0,IF(COUNTA(J28:J31)=3,SUM(J28:J31),IF(SUM(J28:J31)&gt;0,SUM(J28:J31)-MINA(J28:J31),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="206"/>
-      <c r="C28" s="207"/>
-      <c r="D28" s="207"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
       <c r="E28" s="13">
         <v>123456</v>
       </c>
@@ -3777,16 +3794,16 @@
       <c r="I28" s="13">
         <v>0</v>
       </c>
-      <c r="J28" s="90">
+      <c r="J28" s="86">
         <f>SUM(H28:I28)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="91"/>
+      <c r="K28" s="87"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="206"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
       <c r="E29" s="13">
         <v>123456</v>
       </c>
@@ -3802,16 +3819,16 @@
       <c r="I29" s="13">
         <v>0</v>
       </c>
-      <c r="J29" s="90">
+      <c r="J29" s="86">
         <f>SUM(H29:I29)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="91"/>
+      <c r="K29" s="87"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="206"/>
-      <c r="C30" s="207"/>
-      <c r="D30" s="207"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
       <c r="E30" s="13">
         <v>123456</v>
       </c>
@@ -3827,16 +3844,16 @@
       <c r="I30" s="13">
         <v>0</v>
       </c>
-      <c r="J30" s="90">
+      <c r="J30" s="86">
         <f>SUM(H30:I30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="91"/>
+      <c r="K30" s="87"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="206"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="207"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
       <c r="E31" s="13">
         <v>123456</v>
       </c>
@@ -3852,50 +3869,50 @@
       <c r="I31" s="13">
         <v>0</v>
       </c>
-      <c r="J31" s="90">
+      <c r="J31" s="86">
         <f>SUM(H31:I31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="91"/>
+      <c r="K31" s="87"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="206"/>
-      <c r="C32" s="207"/>
-      <c r="D32" s="207"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="97"/>
+      <c r="G32" s="93"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="K32" s="91"/>
+      <c r="K32" s="87"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="206">
+      <c r="B33" s="166">
         <v>5</v>
       </c>
-      <c r="C33" s="207"/>
-      <c r="D33" s="208" t="s">
+      <c r="C33" s="167"/>
+      <c r="D33" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95" t="s">
+      <c r="E33" s="90"/>
+      <c r="F33" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="96">
+      <c r="G33" s="92">
         <v>888.8</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="200">
+      <c r="J33" s="156"/>
+      <c r="K33" s="160">
         <f>IF(COUNTA(J34:J37)&lt;3,0,IF(COUNTA(J34:J37)=3,SUM(J34:J37),IF(SUM(J34:J37)&gt;0,SUM(J34:J37)-MINA(J34:J37),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="206"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
       <c r="E34" s="13">
         <v>123456</v>
       </c>
@@ -3911,16 +3928,16 @@
       <c r="I34" s="13">
         <v>0</v>
       </c>
-      <c r="J34" s="90">
+      <c r="J34" s="86">
         <f>SUM(H34:I34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="91"/>
+      <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="206"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="207"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
       <c r="E35" s="13">
         <v>123456</v>
       </c>
@@ -3936,16 +3953,16 @@
       <c r="I35" s="13">
         <v>0</v>
       </c>
-      <c r="J35" s="90">
+      <c r="J35" s="86">
         <f>SUM(H35:I35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="91"/>
+      <c r="K35" s="87"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="206"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
       <c r="E36" s="13">
         <v>123456</v>
       </c>
@@ -3961,16 +3978,16 @@
       <c r="I36" s="13">
         <v>0</v>
       </c>
-      <c r="J36" s="90">
+      <c r="J36" s="86">
         <f>SUM(H36:I36)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="91"/>
+      <c r="K36" s="87"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="206"/>
-      <c r="C37" s="207"/>
-      <c r="D37" s="207"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
       <c r="E37" s="13">
         <v>123456</v>
       </c>
@@ -3986,50 +4003,50 @@
       <c r="I37" s="13">
         <v>0</v>
       </c>
-      <c r="J37" s="90">
+      <c r="J37" s="86">
         <f>SUM(H37:I37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="91"/>
+      <c r="K37" s="87"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="206"/>
-      <c r="C38" s="207"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="197"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="K38" s="91"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="K38" s="87"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="206">
+      <c r="B39" s="166">
         <v>6</v>
       </c>
-      <c r="C39" s="207"/>
-      <c r="D39" s="208" t="s">
+      <c r="C39" s="167"/>
+      <c r="D39" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="207"/>
-      <c r="F39" s="208" t="s">
+      <c r="E39" s="167"/>
+      <c r="F39" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="209">
+      <c r="G39" s="169">
         <v>888.8</v>
       </c>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="200">
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="160">
         <f>IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="206"/>
-      <c r="C40" s="207"/>
-      <c r="D40" s="207"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="167"/>
       <c r="E40" s="13">
         <v>123456</v>
       </c>
@@ -4045,16 +4062,16 @@
       <c r="I40" s="13">
         <v>0</v>
       </c>
-      <c r="J40" s="90">
+      <c r="J40" s="86">
         <f>SUM(H40:I40)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="91"/>
+      <c r="K40" s="87"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="206"/>
-      <c r="C41" s="207"/>
-      <c r="D41" s="207"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="167"/>
+      <c r="D41" s="167"/>
       <c r="E41" s="13">
         <v>123456</v>
       </c>
@@ -4070,16 +4087,16 @@
       <c r="I41" s="13">
         <v>0</v>
       </c>
-      <c r="J41" s="90">
+      <c r="J41" s="86">
         <f>SUM(H41:I41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="91"/>
+      <c r="K41" s="87"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="206"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="207"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="167"/>
       <c r="E42" s="13">
         <v>123456</v>
       </c>
@@ -4095,16 +4112,16 @@
       <c r="I42" s="13">
         <v>0</v>
       </c>
-      <c r="J42" s="90">
+      <c r="J42" s="86">
         <f>SUM(H42:I42)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="91"/>
+      <c r="K42" s="87"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="206"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="207"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="167"/>
       <c r="E43" s="13">
         <v>123456</v>
       </c>
@@ -4120,50 +4137,50 @@
       <c r="I43" s="13">
         <v>0</v>
       </c>
-      <c r="J43" s="90">
+      <c r="J43" s="86">
         <f>SUM(H43:I43)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="91"/>
+      <c r="K43" s="87"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="206"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="207"/>
-      <c r="E44" s="213"/>
-      <c r="F44" s="197"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="213"/>
-      <c r="I44" s="213"/>
-      <c r="K44" s="91"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="K44" s="87"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="206">
+      <c r="B45" s="166">
         <v>7</v>
       </c>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208" t="s">
+      <c r="C45" s="167"/>
+      <c r="D45" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="207"/>
-      <c r="F45" s="208" t="s">
+      <c r="E45" s="167"/>
+      <c r="F45" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="209">
+      <c r="G45" s="169">
         <v>888.8</v>
       </c>
-      <c r="H45" s="213"/>
-      <c r="I45" s="213"/>
-      <c r="J45" s="196"/>
-      <c r="K45" s="200">
+      <c r="H45" s="173"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="160">
         <f>IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="206"/>
-      <c r="C46" s="207"/>
-      <c r="D46" s="207"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
       <c r="E46" s="13">
         <v>123456</v>
       </c>
@@ -4179,16 +4196,16 @@
       <c r="I46" s="13">
         <v>0</v>
       </c>
-      <c r="J46" s="90">
+      <c r="J46" s="86">
         <f>SUM(H46:I46)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="91"/>
+      <c r="K46" s="87"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="206"/>
-      <c r="C47" s="207"/>
-      <c r="D47" s="207"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="167"/>
+      <c r="D47" s="167"/>
       <c r="E47" s="13">
         <v>123456</v>
       </c>
@@ -4204,16 +4221,16 @@
       <c r="I47" s="13">
         <v>0</v>
       </c>
-      <c r="J47" s="90">
+      <c r="J47" s="86">
         <f>SUM(H47:I47)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="91"/>
+      <c r="K47" s="87"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="206"/>
-      <c r="C48" s="207"/>
-      <c r="D48" s="207"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
       <c r="E48" s="13">
         <v>123456</v>
       </c>
@@ -4229,16 +4246,16 @@
       <c r="I48" s="13">
         <v>0</v>
       </c>
-      <c r="J48" s="90">
+      <c r="J48" s="86">
         <f>SUM(H48:I48)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="91"/>
+      <c r="K48" s="87"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="206"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="167"/>
       <c r="E49" s="13">
         <v>123456</v>
       </c>
@@ -4254,50 +4271,50 @@
       <c r="I49" s="13">
         <v>0</v>
       </c>
-      <c r="J49" s="90">
+      <c r="J49" s="86">
         <f>SUM(H49:I49)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="91"/>
+      <c r="K49" s="87"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="206"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="207"/>
-      <c r="E50" s="213"/>
-      <c r="F50" s="197"/>
-      <c r="G50" s="214"/>
-      <c r="H50" s="213"/>
-      <c r="I50" s="213"/>
-      <c r="K50" s="91"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="174"/>
+      <c r="H50" s="173"/>
+      <c r="I50" s="173"/>
+      <c r="K50" s="87"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="206">
+      <c r="B51" s="166">
         <v>8</v>
       </c>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208" t="s">
+      <c r="C51" s="167"/>
+      <c r="D51" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="207"/>
-      <c r="F51" s="208" t="s">
+      <c r="E51" s="167"/>
+      <c r="F51" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="209">
+      <c r="G51" s="169">
         <v>888.8</v>
       </c>
-      <c r="H51" s="213"/>
-      <c r="I51" s="213"/>
-      <c r="J51" s="196"/>
-      <c r="K51" s="200">
+      <c r="H51" s="173"/>
+      <c r="I51" s="173"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="160">
         <f>IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="206"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="207"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="167"/>
       <c r="E52" s="13">
         <v>123456</v>
       </c>
@@ -4313,16 +4330,16 @@
       <c r="I52" s="13">
         <v>0</v>
       </c>
-      <c r="J52" s="90">
+      <c r="J52" s="86">
         <f>SUM(H52:I52)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="91"/>
+      <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="206"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="207"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
       <c r="E53" s="13">
         <v>123456</v>
       </c>
@@ -4338,16 +4355,16 @@
       <c r="I53" s="13">
         <v>0</v>
       </c>
-      <c r="J53" s="90">
+      <c r="J53" s="86">
         <f>SUM(H53:I53)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="91"/>
+      <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="206"/>
-      <c r="C54" s="207"/>
-      <c r="D54" s="207"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
       <c r="E54" s="13">
         <v>123456</v>
       </c>
@@ -4363,16 +4380,16 @@
       <c r="I54" s="13">
         <v>0</v>
       </c>
-      <c r="J54" s="90">
+      <c r="J54" s="86">
         <f>SUM(H54:I54)</f>
         <v>0</v>
       </c>
-      <c r="K54" s="91"/>
+      <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="206"/>
-      <c r="C55" s="207"/>
-      <c r="D55" s="207"/>
+      <c r="B55" s="166"/>
+      <c r="C55" s="167"/>
+      <c r="D55" s="167"/>
       <c r="E55" s="13">
         <v>123456</v>
       </c>
@@ -4388,50 +4405,50 @@
       <c r="I55" s="13">
         <v>0</v>
       </c>
-      <c r="J55" s="90">
+      <c r="J55" s="86">
         <f>SUM(H55:I55)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="91"/>
+      <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="206"/>
-      <c r="C56" s="207"/>
-      <c r="D56" s="207"/>
-      <c r="E56" s="213"/>
-      <c r="F56" s="197"/>
-      <c r="G56" s="214"/>
-      <c r="H56" s="213"/>
-      <c r="I56" s="213"/>
-      <c r="K56" s="91"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="167"/>
+      <c r="D56" s="167"/>
+      <c r="E56" s="173"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="174"/>
+      <c r="H56" s="173"/>
+      <c r="I56" s="173"/>
+      <c r="K56" s="87"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="206">
+      <c r="B57" s="166">
         <v>9</v>
       </c>
-      <c r="C57" s="207"/>
-      <c r="D57" s="208" t="s">
+      <c r="C57" s="167"/>
+      <c r="D57" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="207"/>
-      <c r="F57" s="208" t="s">
+      <c r="E57" s="167"/>
+      <c r="F57" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="209">
+      <c r="G57" s="169">
         <v>888.8</v>
       </c>
-      <c r="H57" s="213"/>
-      <c r="I57" s="213"/>
-      <c r="J57" s="196"/>
-      <c r="K57" s="200">
+      <c r="H57" s="173"/>
+      <c r="I57" s="173"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="160">
         <f>IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="206"/>
-      <c r="C58" s="207"/>
-      <c r="D58" s="207"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="167"/>
+      <c r="D58" s="167"/>
       <c r="E58" s="13">
         <v>123456</v>
       </c>
@@ -4447,16 +4464,16 @@
       <c r="I58" s="13">
         <v>0</v>
       </c>
-      <c r="J58" s="90">
+      <c r="J58" s="86">
         <f>SUM(H58:I58)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="91"/>
+      <c r="K58" s="87"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="206"/>
-      <c r="C59" s="207"/>
-      <c r="D59" s="207"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="167"/>
       <c r="E59" s="13">
         <v>123456</v>
       </c>
@@ -4472,16 +4489,16 @@
       <c r="I59" s="13">
         <v>0</v>
       </c>
-      <c r="J59" s="90">
+      <c r="J59" s="86">
         <f>SUM(H59:I59)</f>
         <v>0</v>
       </c>
-      <c r="K59" s="91"/>
+      <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="206"/>
-      <c r="C60" s="207"/>
-      <c r="D60" s="207"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
       <c r="E60" s="13">
         <v>123456</v>
       </c>
@@ -4497,16 +4514,16 @@
       <c r="I60" s="13">
         <v>0</v>
       </c>
-      <c r="J60" s="90">
+      <c r="J60" s="86">
         <f>SUM(H60:I60)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="91"/>
+      <c r="K60" s="87"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="206"/>
-      <c r="C61" s="207"/>
-      <c r="D61" s="207"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="167"/>
       <c r="E61" s="13">
         <v>123456</v>
       </c>
@@ -4522,52 +4539,52 @@
       <c r="I61" s="13">
         <v>0</v>
       </c>
-      <c r="J61" s="90">
+      <c r="J61" s="86">
         <f>SUM(H61:I61)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="91"/>
+      <c r="K61" s="87"/>
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="43"/>
-      <c r="B62" s="210"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62" s="98"/>
+      <c r="G62" s="94"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="201"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="161"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="206">
+      <c r="B63" s="166">
         <v>10</v>
       </c>
-      <c r="C63" s="207"/>
-      <c r="D63" s="208" t="s">
+      <c r="C63" s="167"/>
+      <c r="D63" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="94"/>
-      <c r="F63" s="95" t="s">
+      <c r="E63" s="90"/>
+      <c r="F63" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="96">
+      <c r="G63" s="92">
         <v>888.8</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="196"/>
-      <c r="K63" s="200">
+      <c r="J63" s="156"/>
+      <c r="K63" s="160">
         <f>IF(COUNTA(J64:J67)&lt;3,0,IF(COUNTA(J64:J67)=3,SUM(J64:J67),IF(SUM(J64:J67)&gt;0,SUM(J64:J67)-MINA(J64:J67),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="206"/>
-      <c r="C64" s="207"/>
-      <c r="D64" s="207"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="167"/>
       <c r="E64" s="13">
         <v>123456</v>
       </c>
@@ -4583,16 +4600,16 @@
       <c r="I64" s="13">
         <v>0</v>
       </c>
-      <c r="J64" s="90">
+      <c r="J64" s="86">
         <f>SUM(H64:I64)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="91"/>
+      <c r="K64" s="87"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="206"/>
-      <c r="C65" s="207"/>
-      <c r="D65" s="207"/>
+      <c r="B65" s="166"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="167"/>
       <c r="E65" s="13">
         <v>123456</v>
       </c>
@@ -4608,16 +4625,16 @@
       <c r="I65" s="13">
         <v>0</v>
       </c>
-      <c r="J65" s="90">
+      <c r="J65" s="86">
         <f>SUM(H65:I65)</f>
         <v>0</v>
       </c>
-      <c r="K65" s="91"/>
+      <c r="K65" s="87"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="206"/>
-      <c r="C66" s="207"/>
-      <c r="D66" s="207"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="167"/>
       <c r="E66" s="13">
         <v>123456</v>
       </c>
@@ -4633,16 +4650,16 @@
       <c r="I66" s="13">
         <v>0</v>
       </c>
-      <c r="J66" s="90">
+      <c r="J66" s="86">
         <f>SUM(H66:I66)</f>
         <v>0</v>
       </c>
-      <c r="K66" s="91"/>
+      <c r="K66" s="87"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="206"/>
-      <c r="C67" s="207"/>
-      <c r="D67" s="207"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="167"/>
+      <c r="D67" s="167"/>
       <c r="E67" s="13">
         <v>123456</v>
       </c>
@@ -4658,45 +4675,45 @@
       <c r="I67" s="13">
         <v>0</v>
       </c>
-      <c r="J67" s="90">
+      <c r="J67" s="86">
         <f>SUM(H67:I67)</f>
         <v>0</v>
       </c>
-      <c r="K67" s="91"/>
+      <c r="K67" s="87"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="204"/>
-      <c r="H68" s="213"/>
-      <c r="I68" s="213"/>
-      <c r="K68" s="91"/>
+      <c r="B68" s="164"/>
+      <c r="H68" s="173"/>
+      <c r="I68" s="173"/>
+      <c r="K68" s="87"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="206">
+      <c r="B69" s="166">
         <v>11</v>
       </c>
-      <c r="C69" s="207"/>
-      <c r="D69" s="208" t="s">
+      <c r="C69" s="167"/>
+      <c r="D69" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="207"/>
-      <c r="F69" s="208" t="s">
+      <c r="E69" s="167"/>
+      <c r="F69" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="209">
+      <c r="G69" s="169">
         <v>888.8</v>
       </c>
-      <c r="H69" s="213"/>
-      <c r="I69" s="213"/>
-      <c r="J69" s="196"/>
-      <c r="K69" s="200">
+      <c r="H69" s="173"/>
+      <c r="I69" s="173"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="160">
         <f>IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="206"/>
-      <c r="C70" s="207"/>
-      <c r="D70" s="207"/>
+      <c r="B70" s="166"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="167"/>
       <c r="E70" s="13">
         <v>123456</v>
       </c>
@@ -4712,16 +4729,16 @@
       <c r="I70" s="13">
         <v>0</v>
       </c>
-      <c r="J70" s="90">
+      <c r="J70" s="86">
         <f>SUM(H70:I70)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="91"/>
+      <c r="K70" s="87"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="206"/>
-      <c r="C71" s="207"/>
-      <c r="D71" s="207"/>
+      <c r="B71" s="166"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
       <c r="E71" s="13">
         <v>123456</v>
       </c>
@@ -4737,16 +4754,16 @@
       <c r="I71" s="13">
         <v>0</v>
       </c>
-      <c r="J71" s="90">
+      <c r="J71" s="86">
         <f>SUM(H71:I71)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="91"/>
+      <c r="K71" s="87"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="206"/>
-      <c r="C72" s="207"/>
-      <c r="D72" s="207"/>
+      <c r="B72" s="166"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="167"/>
       <c r="E72" s="13">
         <v>123456</v>
       </c>
@@ -4762,16 +4779,16 @@
       <c r="I72" s="13">
         <v>0</v>
       </c>
-      <c r="J72" s="90">
+      <c r="J72" s="86">
         <f>SUM(H72:I72)</f>
         <v>0</v>
       </c>
-      <c r="K72" s="91"/>
+      <c r="K72" s="87"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="206"/>
-      <c r="C73" s="207"/>
-      <c r="D73" s="207"/>
+      <c r="B73" s="166"/>
+      <c r="C73" s="167"/>
+      <c r="D73" s="167"/>
       <c r="E73" s="13">
         <v>123456</v>
       </c>
@@ -4787,45 +4804,45 @@
       <c r="I73" s="13">
         <v>0</v>
       </c>
-      <c r="J73" s="90">
+      <c r="J73" s="86">
         <f>SUM(H73:I73)</f>
         <v>0</v>
       </c>
-      <c r="K73" s="91"/>
+      <c r="K73" s="87"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="204"/>
-      <c r="H74" s="213"/>
-      <c r="I74" s="213"/>
-      <c r="K74" s="91"/>
+      <c r="B74" s="164"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="173"/>
+      <c r="K74" s="87"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="206">
+      <c r="B75" s="166">
         <v>12</v>
       </c>
-      <c r="C75" s="207"/>
-      <c r="D75" s="208" t="s">
+      <c r="C75" s="167"/>
+      <c r="D75" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="207"/>
-      <c r="F75" s="208" t="s">
+      <c r="E75" s="167"/>
+      <c r="F75" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="209">
+      <c r="G75" s="169">
         <v>888.8</v>
       </c>
-      <c r="H75" s="213"/>
-      <c r="I75" s="213"/>
-      <c r="J75" s="196"/>
-      <c r="K75" s="200">
+      <c r="H75" s="173"/>
+      <c r="I75" s="173"/>
+      <c r="J75" s="156"/>
+      <c r="K75" s="160">
         <f>IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="206"/>
-      <c r="C76" s="207"/>
-      <c r="D76" s="207"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
       <c r="E76" s="13">
         <v>123456</v>
       </c>
@@ -4841,16 +4858,16 @@
       <c r="I76" s="13">
         <v>0</v>
       </c>
-      <c r="J76" s="90">
+      <c r="J76" s="86">
         <f>SUM(H76:I76)</f>
         <v>0</v>
       </c>
-      <c r="K76" s="91"/>
+      <c r="K76" s="87"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="206"/>
-      <c r="C77" s="207"/>
-      <c r="D77" s="207"/>
+      <c r="B77" s="166"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="167"/>
       <c r="E77" s="13">
         <v>123456</v>
       </c>
@@ -4866,16 +4883,16 @@
       <c r="I77" s="13">
         <v>0</v>
       </c>
-      <c r="J77" s="90">
+      <c r="J77" s="86">
         <f>SUM(H77:I77)</f>
         <v>0</v>
       </c>
-      <c r="K77" s="91"/>
+      <c r="K77" s="87"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="206"/>
-      <c r="C78" s="207"/>
-      <c r="D78" s="207"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="13">
         <v>123456</v>
       </c>
@@ -4891,16 +4908,16 @@
       <c r="I78" s="13">
         <v>0</v>
       </c>
-      <c r="J78" s="90">
+      <c r="J78" s="86">
         <f>SUM(H78:I78)</f>
         <v>0</v>
       </c>
-      <c r="K78" s="91"/>
+      <c r="K78" s="87"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="206"/>
-      <c r="C79" s="207"/>
-      <c r="D79" s="207"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
       <c r="E79" s="13">
         <v>123456</v>
       </c>
@@ -4916,27 +4933,27 @@
       <c r="I79" s="13">
         <v>0</v>
       </c>
-      <c r="J79" s="90">
+      <c r="J79" s="86">
         <f>SUM(H79:I79)</f>
         <v>0</v>
       </c>
-      <c r="K79" s="91"/>
+      <c r="K79" s="87"/>
     </row>
     <row r="80" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="211"/>
-      <c r="C80" s="212"/>
-      <c r="D80" s="212"/>
-      <c r="E80" s="215"/>
-      <c r="F80" s="215"/>
-      <c r="G80" s="216"/>
-      <c r="H80" s="202"/>
-      <c r="I80" s="202"/>
-      <c r="J80" s="202"/>
-      <c r="K80" s="203"/>
+      <c r="B80" s="171"/>
+      <c r="C80" s="172"/>
+      <c r="D80" s="172"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="176"/>
+      <c r="H80" s="162"/>
+      <c r="I80" s="162"/>
+      <c r="J80" s="162"/>
+      <c r="K80" s="163"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="198" t="s">
+      <c r="B82" s="158" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4971,7 +4988,7 @@
   <sheetPr transitionEvaluation="1" codeName="Blad3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Y20"/>
+  <dimension ref="A2:Y21"/>
   <sheetViews>
     <sheetView showGridLines="0" defaultGridColor="0" colorId="22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -4995,30 +5012,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="204" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="133"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="206"/>
     </row>
     <row r="4" spans="1:25" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5034,10 +5051,10 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="146" t="s">
+      <c r="O4" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="145" t="str">
+      <c r="P4" s="121" t="str">
         <f>'Deelnemers en Scores'!H4</f>
         <v>yyyy-mm-dd</v>
       </c>
@@ -5050,178 +5067,178 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="148"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="151" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="151" t="s">
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="151" t="s">
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="T7" s="184"/>
-      <c r="U7" s="187" t="s">
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="148"/>
+      <c r="U7" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="156" t="s">
-        <v>128</v>
+      <c r="V7" s="129" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="176" t="s">
+      <c r="B8" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="178">
+      <c r="E8" s="142">
         <v>1</v>
       </c>
-      <c r="F8" s="179">
+      <c r="F8" s="143">
         <v>2</v>
       </c>
-      <c r="G8" s="179">
+      <c r="G8" s="143">
         <v>3</v>
       </c>
-      <c r="H8" s="180">
+      <c r="H8" s="144">
         <v>4</v>
       </c>
-      <c r="I8" s="181"/>
-      <c r="J8" s="178">
+      <c r="I8" s="145"/>
+      <c r="J8" s="142">
         <v>1</v>
       </c>
-      <c r="K8" s="179">
+      <c r="K8" s="143">
         <v>2</v>
       </c>
-      <c r="L8" s="179">
+      <c r="L8" s="143">
         <v>3</v>
       </c>
-      <c r="M8" s="180">
+      <c r="M8" s="144">
         <v>4</v>
       </c>
-      <c r="N8" s="181"/>
-      <c r="O8" s="178">
+      <c r="N8" s="145"/>
+      <c r="O8" s="142">
         <v>1</v>
       </c>
-      <c r="P8" s="179">
+      <c r="P8" s="143">
         <v>2</v>
       </c>
-      <c r="Q8" s="179">
+      <c r="Q8" s="143">
         <v>3</v>
       </c>
-      <c r="R8" s="180">
+      <c r="R8" s="144">
         <v>4</v>
       </c>
-      <c r="S8" s="182" t="s">
-        <v>130</v>
-      </c>
-      <c r="T8" s="185"/>
-      <c r="U8" s="188" t="s">
+      <c r="S8" s="146" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" s="149"/>
+      <c r="U8" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="183"/>
+      <c r="V8" s="147"/>
     </row>
     <row r="9" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="167">
+      <c r="B9" s="131">
         <f>IF('Deelnemers en Scores'!B15&gt;0,'Deelnemers en Scores'!B15,"")</f>
         <v>2</v>
       </c>
-      <c r="C9" s="168" t="str">
+      <c r="C9" s="132" t="str">
         <f>IF('Deelnemers en Scores'!F15="","",'Deelnemers en Scores'!F15)</f>
         <v>Team naam 2</v>
       </c>
-      <c r="D9" s="169" t="str">
+      <c r="D9" s="133" t="str">
         <f>'Deelnemers en Scores'!D15</f>
         <v>Vereniging 2</v>
       </c>
-      <c r="E9" s="170" t="str">
+      <c r="E9" s="134" t="str">
         <f>IF('Deelnemers en Scores'!H16=0,"",'Deelnemers en Scores'!H16)</f>
         <v/>
       </c>
-      <c r="F9" s="170" t="str">
+      <c r="F9" s="134" t="str">
         <f>IF('Deelnemers en Scores'!H17=0,"",'Deelnemers en Scores'!H17)</f>
         <v/>
       </c>
-      <c r="G9" s="170" t="str">
+      <c r="G9" s="134" t="str">
         <f>IF('Deelnemers en Scores'!H18=0,"",'Deelnemers en Scores'!H18)</f>
         <v/>
       </c>
-      <c r="H9" s="170" t="str">
+      <c r="H9" s="134" t="str">
         <f>IF('Deelnemers en Scores'!H19=0,"",'Deelnemers en Scores'!H19)</f>
         <v/>
       </c>
-      <c r="I9" s="147"/>
-      <c r="J9" s="170" t="str">
+      <c r="I9" s="123"/>
+      <c r="J9" s="134" t="str">
         <f>IF('Deelnemers en Scores'!I16=0,"",'Deelnemers en Scores'!I16)</f>
         <v/>
       </c>
-      <c r="K9" s="170" t="str">
+      <c r="K9" s="134" t="str">
         <f>IF('Deelnemers en Scores'!I17=0,"",'Deelnemers en Scores'!I17)</f>
         <v/>
       </c>
-      <c r="L9" s="170" t="str">
+      <c r="L9" s="134" t="str">
         <f>IF('Deelnemers en Scores'!I18=0,"",'Deelnemers en Scores'!I18)</f>
         <v/>
       </c>
-      <c r="M9" s="170" t="str">
+      <c r="M9" s="134" t="str">
         <f>IF('Deelnemers en Scores'!I19=0,"",'Deelnemers en Scores'!I19)</f>
         <v/>
       </c>
-      <c r="N9" s="147"/>
-      <c r="O9" s="171" t="str">
-        <f>IF(ISNUMBER(J9),E9+J9,"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="172" t="str">
-        <f>IF(ISNUMBER(K9),F9+K9,"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="172" t="str">
-        <f>IF(ISNUMBER(L9),G9+L9,"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="173" t="str">
-        <f>IF(ISNUMBER(M9),H9+M9,"")</f>
-        <v/>
-      </c>
-      <c r="S9" s="174">
-        <f>IF(COUNT(O9:R9)&lt;4,SUM(O9:R9),SUM(O9:R9)-MIN(O9:R9))</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="158"/>
-      <c r="U9" s="189"/>
-      <c r="V9" s="194">
-        <f>S9+(U9/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="46"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="135" t="str">
+        <f t="shared" ref="O9:O20" si="0">IF(ISNUMBER(J9),E9+J9,"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="136" t="str">
+        <f t="shared" ref="P9:P20" si="1">IF(ISNUMBER(K9),F9+K9,"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="136" t="str">
+        <f t="shared" ref="Q9:Q20" si="2">IF(ISNUMBER(L9),G9+L9,"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="137" t="str">
+        <f t="shared" ref="R9:R20" si="3">IF(ISNUMBER(M9),H9+M9,"")</f>
+        <v/>
+      </c>
+      <c r="S9" s="138">
+        <f t="shared" ref="S9:S20" si="4">IF(COUNT(O9:R9)&lt;4,SUM(O9:R9),SUM(O9:R9)-MIN(O9:R9))</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="155">
+        <f t="shared" ref="V9:V20" si="5">S9+(U9/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="45"/>
     </row>
     <row r="10" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="157">
+      <c r="B10" s="130">
         <f>IF('Deelnemers en Scores'!B21&gt;0,'Deelnemers en Scores'!B21,"")</f>
         <v>3</v>
       </c>
@@ -5249,7 +5266,7 @@
         <f>IF('Deelnemers en Scores'!H25=0,"",'Deelnemers en Scores'!H25)</f>
         <v/>
       </c>
-      <c r="I10" s="147"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I22=0,"",'Deelnemers en Scores'!I22)</f>
         <v/>
@@ -5266,39 +5283,39 @@
         <f>IF('Deelnemers en Scores'!I25=0,"",'Deelnemers en Scores'!I25)</f>
         <v/>
       </c>
-      <c r="N10" s="147"/>
+      <c r="N10" s="123"/>
       <c r="O10" s="34" t="str">
-        <f>IF(ISNUMBER(J10),E10+J10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P10" s="35" t="str">
-        <f>IF(ISNUMBER(K10),F10+K10,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q10" s="35" t="str">
-        <f>IF(ISNUMBER(L10),G10+L10,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R10" s="36" t="str">
-        <f>IF(ISNUMBER(M10),H10+M10,"")</f>
-        <v/>
-      </c>
-      <c r="S10" s="174">
-        <f>IF(COUNT(O10:R10)&lt;4,SUM(O10:R10),SUM(O10:R10)-MIN(O10:R10))</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="158"/>
-      <c r="U10" s="190"/>
-      <c r="V10" s="194">
-        <f>S10+(U10/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="192"/>
-      <c r="Y10" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S10" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="45"/>
     </row>
     <row r="11" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="157">
+      <c r="B11" s="130">
         <f>IF('Deelnemers en Scores'!B9&gt;0,'Deelnemers en Scores'!B9,"")</f>
         <v>1</v>
       </c>
@@ -5326,7 +5343,7 @@
         <f>IF('Deelnemers en Scores'!H13=0,"",'Deelnemers en Scores'!H13)</f>
         <v/>
       </c>
-      <c r="I11" s="147"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I10=0,"",'Deelnemers en Scores'!I10)</f>
         <v/>
@@ -5343,39 +5360,39 @@
         <f>IF('Deelnemers en Scores'!I13=0,"",'Deelnemers en Scores'!I13)</f>
         <v/>
       </c>
-      <c r="N11" s="147"/>
+      <c r="N11" s="123"/>
       <c r="O11" s="34" t="str">
-        <f>IF(ISNUMBER(J11),E11+J11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P11" s="35" t="str">
-        <f>IF(ISNUMBER(K11),F11+K11,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q11" s="35" t="str">
-        <f>IF(ISNUMBER(L11),G11+L11,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R11" s="36" t="str">
-        <f>IF(ISNUMBER(M11),H11+M11,"")</f>
-        <v/>
-      </c>
-      <c r="S11" s="174">
-        <f>IF(COUNT(O11:R11)&lt;4,SUM(O11:R11),SUM(O11:R11)-MIN(O11:R11))</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="158"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="194">
-        <f>S11+(U11/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="192"/>
-      <c r="Y11" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S11" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="45"/>
     </row>
     <row r="12" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="157">
+      <c r="B12" s="130">
         <f>IF('Deelnemers en Scores'!B27&gt;0,'Deelnemers en Scores'!B27,"")</f>
         <v>4</v>
       </c>
@@ -5403,7 +5420,7 @@
         <f>IF('Deelnemers en Scores'!H31=0,"",'Deelnemers en Scores'!H31)</f>
         <v/>
       </c>
-      <c r="I12" s="147"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I28=0,"",'Deelnemers en Scores'!I28)</f>
         <v/>
@@ -5420,39 +5437,39 @@
         <f>IF('Deelnemers en Scores'!I31=0,"",'Deelnemers en Scores'!I31)</f>
         <v/>
       </c>
-      <c r="N12" s="147"/>
+      <c r="N12" s="123"/>
       <c r="O12" s="34" t="str">
-        <f>IF(ISNUMBER(J12),E12+J12,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P12" s="35" t="str">
-        <f>IF(ISNUMBER(K12),F12+K12,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q12" s="35" t="str">
-        <f>IF(ISNUMBER(L12),G12+L12,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R12" s="36" t="str">
-        <f>IF(ISNUMBER(M12),H12+M12,"")</f>
-        <v/>
-      </c>
-      <c r="S12" s="174">
-        <f>IF(COUNT(O12:R12)&lt;4,SUM(O12:R12),SUM(O12:R12)-MIN(O12:R12))</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="158"/>
-      <c r="U12" s="190"/>
-      <c r="V12" s="194">
-        <f>S12+(U12/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S12" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="157">
+      <c r="B13" s="130">
         <f>IF('Deelnemers en Scores'!B33&gt;0,'Deelnemers en Scores'!B33,"")</f>
         <v>5</v>
       </c>
@@ -5480,7 +5497,7 @@
         <f>IF('Deelnemers en Scores'!H37=0,"",'Deelnemers en Scores'!H37)</f>
         <v/>
       </c>
-      <c r="I13" s="147"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I34=0,"",'Deelnemers en Scores'!I34)</f>
         <v/>
@@ -5497,39 +5514,39 @@
         <f>IF('Deelnemers en Scores'!I37=0,"",'Deelnemers en Scores'!I37)</f>
         <v/>
       </c>
-      <c r="N13" s="147"/>
+      <c r="N13" s="123"/>
       <c r="O13" s="34" t="str">
-        <f>IF(ISNUMBER(J13),E13+J13,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P13" s="35" t="str">
-        <f>IF(ISNUMBER(K13),F13+K13,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q13" s="35" t="str">
-        <f>IF(ISNUMBER(L13),G13+L13,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R13" s="36" t="str">
-        <f>IF(ISNUMBER(M13),H13+M13,"")</f>
-        <v/>
-      </c>
-      <c r="S13" s="174">
-        <f>IF(COUNT(O13:R13)&lt;4,SUM(O13:R13),SUM(O13:R13)-MIN(O13:R13))</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="158"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="194">
-        <f>S13+(U13/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="192"/>
-      <c r="Y13" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S13" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="153"/>
+      <c r="V13" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="157">
+      <c r="B14" s="130">
         <f>IF('Deelnemers en Scores'!B39&gt;0,'Deelnemers en Scores'!B39,"")</f>
         <v>6</v>
       </c>
@@ -5557,7 +5574,7 @@
         <f>IF('Deelnemers en Scores'!H43=0,"",'Deelnemers en Scores'!H43)</f>
         <v/>
       </c>
-      <c r="I14" s="147"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I40=0,"",'Deelnemers en Scores'!I40)</f>
         <v/>
@@ -5574,39 +5591,39 @@
         <f>IF('Deelnemers en Scores'!I43=0,"",'Deelnemers en Scores'!I43)</f>
         <v/>
       </c>
-      <c r="N14" s="147"/>
+      <c r="N14" s="123"/>
       <c r="O14" s="34" t="str">
-        <f>IF(ISNUMBER(J14),E14+J14,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P14" s="35" t="str">
-        <f>IF(ISNUMBER(K14),F14+K14,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q14" s="35" t="str">
-        <f>IF(ISNUMBER(L14),G14+L14,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R14" s="36" t="str">
-        <f>IF(ISNUMBER(M14),H14+M14,"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="174">
-        <f>IF(COUNT(O14:R14)&lt;4,SUM(O14:R14),SUM(O14:R14)-MIN(O14:R14))</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="158"/>
-      <c r="U14" s="190"/>
-      <c r="V14" s="194">
-        <f>S14+(U14/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="192"/>
-      <c r="Y14" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S14" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="157">
+      <c r="B15" s="130">
         <f>IF('Deelnemers en Scores'!B45&gt;0,'Deelnemers en Scores'!B45,"")</f>
         <v>7</v>
       </c>
@@ -5634,7 +5651,7 @@
         <f>IF('Deelnemers en Scores'!H49=0,"",'Deelnemers en Scores'!H49)</f>
         <v/>
       </c>
-      <c r="I15" s="147"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I46=0,"",'Deelnemers en Scores'!I46)</f>
         <v/>
@@ -5651,39 +5668,39 @@
         <f>IF('Deelnemers en Scores'!I49=0,"",'Deelnemers en Scores'!I49)</f>
         <v/>
       </c>
-      <c r="N15" s="147"/>
+      <c r="N15" s="123"/>
       <c r="O15" s="34" t="str">
-        <f>IF(ISNUMBER(J15),E15+J15,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P15" s="35" t="str">
-        <f>IF(ISNUMBER(K15),F15+K15,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q15" s="35" t="str">
-        <f>IF(ISNUMBER(L15),G15+L15,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R15" s="36" t="str">
-        <f>IF(ISNUMBER(M15),H15+M15,"")</f>
-        <v/>
-      </c>
-      <c r="S15" s="174">
-        <f>IF(COUNT(O15:R15)&lt;4,SUM(O15:R15),SUM(O15:R15)-MIN(O15:R15))</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="158"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="194">
-        <f>S15+(U15/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="192"/>
-      <c r="Y15" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S15" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="45"/>
     </row>
     <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="157">
+      <c r="B16" s="130">
         <f>IF('Deelnemers en Scores'!B51&gt;0,'Deelnemers en Scores'!B51,"")</f>
         <v>8</v>
       </c>
@@ -5711,7 +5728,7 @@
         <f>IF('Deelnemers en Scores'!H55=0,"",'Deelnemers en Scores'!H55)</f>
         <v/>
       </c>
-      <c r="I16" s="147"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I52=0,"",'Deelnemers en Scores'!I52)</f>
         <v/>
@@ -5728,39 +5745,39 @@
         <f>IF('Deelnemers en Scores'!I55=0,"",'Deelnemers en Scores'!I55)</f>
         <v/>
       </c>
-      <c r="N16" s="147"/>
+      <c r="N16" s="123"/>
       <c r="O16" s="34" t="str">
-        <f>IF(ISNUMBER(J16),E16+J16,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P16" s="35" t="str">
-        <f>IF(ISNUMBER(K16),F16+K16,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q16" s="35" t="str">
-        <f>IF(ISNUMBER(L16),G16+L16,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R16" s="36" t="str">
-        <f>IF(ISNUMBER(M16),H16+M16,"")</f>
-        <v/>
-      </c>
-      <c r="S16" s="174">
-        <f>IF(COUNT(O16:R16)&lt;4,SUM(O16:R16),SUM(O16:R16)-MIN(O16:R16))</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="158"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="194">
-        <f>S16+(U16/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="192"/>
-      <c r="Y16" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S16" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="157">
+      <c r="B17" s="130">
         <f>IF('Deelnemers en Scores'!B57&gt;0,'Deelnemers en Scores'!B57,"")</f>
         <v>9</v>
       </c>
@@ -5788,7 +5805,7 @@
         <f>IF('Deelnemers en Scores'!H61=0,"",'Deelnemers en Scores'!H61)</f>
         <v/>
       </c>
-      <c r="I17" s="147"/>
+      <c r="I17" s="123"/>
       <c r="J17" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I58=0,"",'Deelnemers en Scores'!I58)</f>
         <v/>
@@ -5805,39 +5822,39 @@
         <f>IF('Deelnemers en Scores'!I61=0,"",'Deelnemers en Scores'!I61)</f>
         <v/>
       </c>
-      <c r="N17" s="147"/>
+      <c r="N17" s="123"/>
       <c r="O17" s="34" t="str">
-        <f>IF(ISNUMBER(J17),E17+J17,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P17" s="35" t="str">
-        <f>IF(ISNUMBER(K17),F17+K17,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q17" s="35" t="str">
-        <f>IF(ISNUMBER(L17),G17+L17,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R17" s="36" t="str">
-        <f>IF(ISNUMBER(M17),H17+M17,"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="174">
-        <f>IF(COUNT(O17:R17)&lt;4,SUM(O17:R17),SUM(O17:R17)-MIN(O17:R17))</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="158"/>
-      <c r="U17" s="190"/>
-      <c r="V17" s="194">
-        <f>S17+(U17/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="192"/>
-      <c r="Y17" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S17" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="45"/>
     </row>
     <row r="18" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="157">
+      <c r="B18" s="130">
         <f>IF('Deelnemers en Scores'!B63&gt;0,'Deelnemers en Scores'!B63,"")</f>
         <v>10</v>
       </c>
@@ -5865,7 +5882,7 @@
         <f>IF('Deelnemers en Scores'!H67=0,"",'Deelnemers en Scores'!H67)</f>
         <v/>
       </c>
-      <c r="I18" s="147"/>
+      <c r="I18" s="123"/>
       <c r="J18" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I64=0,"",'Deelnemers en Scores'!I64)</f>
         <v/>
@@ -5882,39 +5899,39 @@
         <f>IF('Deelnemers en Scores'!I67=0,"",'Deelnemers en Scores'!I67)</f>
         <v/>
       </c>
-      <c r="N18" s="147"/>
+      <c r="N18" s="123"/>
       <c r="O18" s="34" t="str">
-        <f>IF(ISNUMBER(J18),E18+J18,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P18" s="35" t="str">
-        <f>IF(ISNUMBER(K18),F18+K18,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q18" s="35" t="str">
-        <f>IF(ISNUMBER(L18),G18+L18,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R18" s="36" t="str">
-        <f>IF(ISNUMBER(M18),H18+M18,"")</f>
-        <v/>
-      </c>
-      <c r="S18" s="174">
-        <f>IF(COUNT(O18:R18)&lt;4,SUM(O18:R18),SUM(O18:R18)-MIN(O18:R18))</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="158"/>
-      <c r="U18" s="190"/>
-      <c r="V18" s="194">
-        <f>S18+(U18/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="192"/>
-      <c r="Y18" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S18" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="45"/>
     </row>
     <row r="19" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="157">
+      <c r="B19" s="130">
         <f>IF('Deelnemers en Scores'!B69&gt;0,'Deelnemers en Scores'!B69,"")</f>
         <v>11</v>
       </c>
@@ -5942,7 +5959,7 @@
         <f>IF('Deelnemers en Scores'!H73=0,"",'Deelnemers en Scores'!H73)</f>
         <v/>
       </c>
-      <c r="I19" s="147"/>
+      <c r="I19" s="123"/>
       <c r="J19" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I70=0,"",'Deelnemers en Scores'!I70)</f>
         <v/>
@@ -5959,112 +5976,135 @@
         <f>IF('Deelnemers en Scores'!I73=0,"",'Deelnemers en Scores'!I73)</f>
         <v/>
       </c>
-      <c r="N19" s="147"/>
+      <c r="N19" s="123"/>
       <c r="O19" s="34" t="str">
-        <f>IF(ISNUMBER(J19),E19+J19,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P19" s="35" t="str">
-        <f>IF(ISNUMBER(K19),F19+K19,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q19" s="35" t="str">
-        <f>IF(ISNUMBER(L19),G19+L19,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R19" s="36" t="str">
-        <f>IF(ISNUMBER(M19),H19+M19,"")</f>
-        <v/>
-      </c>
-      <c r="S19" s="174">
-        <f>IF(COUNT(O19:R19)&lt;4,SUM(O19:R19),SUM(O19:R19)-MIN(O19:R19))</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="158"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="194">
-        <f>S19+(U19/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="192"/>
-      <c r="Y19" s="46"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S19" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="159">
+      <c r="B20" s="210">
         <f>IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C20" s="160" t="str">
+      <c r="C20" s="211" t="str">
         <f>IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>Team naam 12</v>
       </c>
-      <c r="D20" s="161" t="str">
+      <c r="D20" s="212" t="str">
         <f>'Deelnemers en Scores'!D75</f>
         <v>Vereniging 12</v>
       </c>
-      <c r="E20" s="162" t="str">
+      <c r="E20" s="213" t="str">
         <f>IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F20" s="162" t="str">
+      <c r="F20" s="213" t="str">
         <f>IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G20" s="162" t="str">
+      <c r="G20" s="213" t="str">
         <f>IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H20" s="162" t="str">
+      <c r="H20" s="213" t="str">
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
-      <c r="I20" s="163"/>
-      <c r="J20" s="162" t="str">
+      <c r="I20" s="123"/>
+      <c r="J20" s="213" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K20" s="162" t="str">
+      <c r="K20" s="213" t="str">
         <f>IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L20" s="162" t="str">
+      <c r="L20" s="213" t="str">
         <f>IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M20" s="162" t="str">
+      <c r="M20" s="213" t="str">
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
-      <c r="N20" s="163"/>
-      <c r="O20" s="164" t="str">
-        <f>IF(ISNUMBER(J20),E20+J20,"")</f>
-        <v/>
-      </c>
-      <c r="P20" s="165" t="str">
-        <f>IF(ISNUMBER(K20),F20+K20,"")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="165" t="str">
-        <f>IF(ISNUMBER(L20),G20+L20,"")</f>
-        <v/>
-      </c>
-      <c r="R20" s="166" t="str">
-        <f>IF(ISNUMBER(M20),H20+M20,"")</f>
-        <v/>
-      </c>
-      <c r="S20" s="193">
-        <f>IF(COUNT(O20:R20)&lt;4,SUM(O20:R20),SUM(O20:R20)-MIN(O20:R20))</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="186"/>
-      <c r="U20" s="191"/>
-      <c r="V20" s="195">
-        <f>S20+(U20/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="192"/>
-      <c r="Y20" s="46"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="214" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P20" s="215" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q20" s="215" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R20" s="216" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S20" s="217">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="220"/>
+      <c r="U20" s="218"/>
+      <c r="V20" s="219">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="45"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B21" s="221"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="222"/>
+      <c r="L21" s="222"/>
+      <c r="M21" s="222"/>
+      <c r="N21" s="222"/>
+      <c r="O21" s="222"/>
+      <c r="P21" s="222"/>
+      <c r="Q21" s="222"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="222"/>
+      <c r="T21" s="222"/>
+      <c r="U21" s="222"/>
+      <c r="V21" s="222"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6102,7 +6142,7 @@
   <sheetPr codeName="Blad6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ39"/>
+  <dimension ref="A1:AS39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0"/>
   </sheetViews>
@@ -6128,61 +6168,63 @@
     <col min="22" max="22" width="9.77734375" style="16" customWidth="1"/>
     <col min="23" max="23" width="2" style="16" customWidth="1"/>
     <col min="24" max="24" width="11.6640625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" style="16" customWidth="1"/>
-    <col min="26" max="28" width="11.21875" style="16" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="9.21875" style="16" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="14.109375" style="16" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="32" max="34" width="11.21875" style="16" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="9.21875" style="16" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="11.21875" style="16" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" style="16" hidden="1" customWidth="1"/>
-    <col min="38" max="39" width="11.21875" style="16" hidden="1" customWidth="1"/>
-    <col min="40" max="41" width="9.5546875" style="16" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="11.21875" style="16" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="2" style="16" hidden="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.5546875" hidden="1"/>
+    <col min="25" max="25" width="2.33203125" style="16" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" style="16" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" style="16" hidden="1" customWidth="1"/>
+    <col min="28" max="30" width="11.21875" style="16" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.21875" style="16" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="14.109375" style="16" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="16" hidden="1" customWidth="1"/>
+    <col min="34" max="36" width="11.21875" style="16" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="9.21875" style="16" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="11.21875" style="16" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5546875" style="16" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="11.21875" style="16" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5546875" style="16" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="11.21875" style="16" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="2" style="16" hidden="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.5546875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:43" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="134" t="str">
+    <row r="1" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="207" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="136"/>
-      <c r="Y4"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="25"/>
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
       <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4"/>
@@ -6190,44 +6232,48 @@
       <c r="AO4"/>
       <c r="AP4"/>
       <c r="AQ4"/>
-    </row>
-    <row r="5" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-    </row>
-    <row r="6" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AR4"/>
+      <c r="AS4"/>
+    </row>
+    <row r="5" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+    </row>
+    <row r="6" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -6250,167 +6296,174 @@
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
       <c r="X6" s="25"/>
-    </row>
-    <row r="7" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:43" ht="30" x14ac:dyDescent="0.4">
-      <c r="B8" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="L8" s="67" t="s">
+      <c r="Y6" s="25"/>
+    </row>
+    <row r="7" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:45" ht="30" x14ac:dyDescent="0.4">
+      <c r="B8" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="L8" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="37" t="s">
-        <v>89</v>
-      </c>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68"/>
+      <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
+      <c r="AB8" s="37" t="s">
+        <v>88</v>
+      </c>
       <c r="AC8" s="18"/>
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
-      <c r="AF8" s="37" t="s">
-        <v>87</v>
-      </c>
+      <c r="AF8" s="18"/>
       <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
+      <c r="AH8" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="AI8" s="18"/>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18"/>
-      <c r="AL8" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-    </row>
-    <row r="10" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="40"/>
-      <c r="AO10" s="40"/>
-      <c r="AP10" s="40"/>
-      <c r="AQ10" s="40"/>
-    </row>
-    <row r="11" spans="1:43" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="44" t="s">
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+    </row>
+    <row r="10" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+    </row>
+    <row r="11" spans="1:45" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="46" t="s">
+      <c r="I11" s="43"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC11" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD11" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="AA11" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB11" s="56" t="s">
+      <c r="AE11" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AC11" s="46" t="s">
+      <c r="AF11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="AD11" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
+      <c r="AG11" s="18"/>
       <c r="AM11" s="18"/>
-    </row>
-    <row r="12" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77">
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+    </row>
+    <row r="12" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="75">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="str">
@@ -6422,73 +6475,76 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A12,20)&gt;0,INDEX(Uitslag!D$9:D$20,A12,1),"")</f>
         <v/>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="80"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38">
+      <c r="E12" s="72"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="183" t="str">
+        <f>IF(AND(ABS(H12-H14)&lt;1,H12&gt;H14),"*","")</f>
+        <v/>
+      </c>
+      <c r="J12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38">
         <f>F12+H12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="38" t="b">
-        <f>AND(AB13=TRUE,AC12&gt;AC14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="107"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111" t="str">
-        <f>IF(AA13=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="80"/>
+      <c r="AF12" s="38" t="b">
+        <f>AND(AD13=TRUE,AE12&gt;AE14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="102"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106" t="str">
+        <f>IF(AC13=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="78"/>
       <c r="L13" s="18"/>
-      <c r="Z13" s="38" t="b">
+      <c r="AB13" s="38" t="b">
         <f>AND(F12&lt;&gt;"",F14&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="38" t="b">
-        <f>AND(Z13=TRUE,F12=F14)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="38" t="b">
-        <f>IF(Z13=FALSE,FALSE,OR(AA13=FALSE,AND(H12&lt;&gt;"",H14&lt;&gt;"")))</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AF13" s="46" t="s">
+      <c r="AC13" s="38" t="b">
+        <f>AND(AB13=TRUE,F12=F14)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="38" t="b">
+        <f>IF(AB13=FALSE,FALSE,OR(AC13=FALSE,AND(H12&lt;&gt;"",H14&lt;&gt;"")))</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AH13" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI13" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ13" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH13" s="56" t="s">
+      <c r="AK13" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AI13" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ13" s="46" t="s">
+      <c r="AL13" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77">
+    <row r="14" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="75">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="str">
@@ -6500,169 +6556,179 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A14,20)&gt;0,INDEX(Uitslag!D$9:D$20,A14,1),"")</f>
         <v/>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="N14" s="44" t="s">
+      <c r="E14" s="72"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="184" t="str">
+        <f>IF(AND(ABS(H12-H14)&lt;1,H14&gt;H12),"*","")</f>
+        <v/>
+      </c>
+      <c r="J14" s="79"/>
+      <c r="N14" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="44" t="s">
+      <c r="O14" s="44"/>
+      <c r="P14" s="43" t="s">
         <v>70</v>
       </c>
       <c r="S14" s="24"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38">
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38">
         <f>F14+H14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="38" t="b">
-        <f>AND(AB13=TRUE,AC14&gt;AC12)</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AK14" s="44"/>
-    </row>
-    <row r="15" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="77">
+      <c r="AF14" s="38" t="b">
+        <f>AND(AD13=TRUE,AE14&gt;AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AM14" s="43"/>
+    </row>
+    <row r="15" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="102"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="75">
         <v>1</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f>IF(AD12=TRUE,B12,IF(AD14=TRUE,B14,""))</f>
-        <v/>
-      </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="76"/>
+        <f>IF(AF12=TRUE,B12,IF(AF14=TRUE,B14,""))</f>
+        <v/>
+      </c>
+      <c r="M15" s="46"/>
+      <c r="N15" s="74"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="78"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="183" t="str">
+        <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
+        <v/>
+      </c>
+      <c r="R15" s="76"/>
       <c r="S15" s="24"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
+      <c r="AB15" s="12"/>
       <c r="AC15" s="38"/>
       <c r="AD15" s="38"/>
-      <c r="AE15" s="44"/>
-      <c r="AI15" s="38">
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="43"/>
+      <c r="AK15" s="38">
         <f>N15+P15</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="38" t="b">
-        <f>AND(AH16=TRUE,AI15&gt;AI17)</f>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-    </row>
-    <row r="16" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="AL15" s="38" t="b">
+        <f>AND(AJ16=TRUE,AK15&gt;AK17)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+    </row>
+    <row r="16" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="102"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
       <c r="L16" s="19"/>
       <c r="N16" s="20"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="21" t="str">
-        <f>IF(AG16=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="R16" s="78"/>
-      <c r="T16" s="70" t="s">
+      <c r="P16" s="181" t="str">
+        <f>IF(AI16=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="76"/>
+      <c r="T16" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="72"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="71"/>
       <c r="AB16" s="24"/>
       <c r="AC16" s="24"/>
       <c r="AD16" s="24"/>
       <c r="AE16" s="24"/>
-      <c r="AF16" s="38" t="b">
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="38" t="b">
         <f>AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="38" t="b">
-        <f>AND(AF16=TRUE,N15=N17)</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="38" t="b">
-        <f>IF(AF16=FALSE,FALSE,OR(AG16=FALSE,AND(P15&lt;&gt;"",P17&lt;&gt;"")))</f>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="18"/>
-    </row>
-    <row r="17" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="77">
+      <c r="AI16" s="38" t="b">
+        <f>AND(AH16=TRUE,N15=N17)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="38" t="b">
+        <f>IF(AH16=FALSE,FALSE,OR(AI16=FALSE,AND(P15&lt;&gt;"",P17&lt;&gt;"")))</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="18"/>
+    </row>
+    <row r="17" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="17"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="75">
         <v>4</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f>IF(AD18=TRUE,B18,IF(AD20=TRUE,B20,""))</f>
-        <v/>
-      </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="76"/>
+        <f>IF(AF18=TRUE,B18,IF(AF20=TRUE,B20,""))</f>
+        <v/>
+      </c>
+      <c r="M17" s="46"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="78"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38">
+      <c r="P17" s="177"/>
+      <c r="Q17" s="184" t="str">
+        <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
+        <v/>
+      </c>
+      <c r="R17" s="76"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38">
         <f>N17+P17</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="38" t="b">
-        <f>AND(AH16=TRUE,AI17&gt;AI15)</f>
-        <v>0</v>
-      </c>
-      <c r="AK17" s="18"/>
-      <c r="AN17" s="43"/>
-      <c r="AP17" s="43"/>
-    </row>
-    <row r="18" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77">
+      <c r="AL17" s="38" t="b">
+        <f>AND(AJ16=TRUE,AK17&gt;AK15)</f>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="18"/>
+      <c r="AP17" s="42"/>
+      <c r="AR17" s="42"/>
+    </row>
+    <row r="18" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="75">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="str">
@@ -6674,103 +6740,115 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A18,20)&gt;0,INDEX(Uitslag!D$9:D$20,A18,1),"")</f>
         <v/>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="80"/>
-      <c r="R18" s="78"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="183" t="str">
+        <f>IF(AND(ABS(H18-H20)&lt;1,H18&gt;H20),"*","")</f>
+        <v/>
+      </c>
+      <c r="J18" s="79"/>
+      <c r="K18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="76"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
-      <c r="V18" s="44" t="s">
+      <c r="V18" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44" t="s">
+      <c r="W18" s="43"/>
+      <c r="X18" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="Y18" s="44"/>
-      <c r="AC18" s="38">
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AE18" s="38">
         <f>F18+H18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="38" t="b">
-        <f>AND(AB19=TRUE,AC18&gt;AC20)</f>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="24"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM18" s="37" t="s">
+      <c r="AF18" s="38" t="b">
+        <f>AND(AD19=TRUE,AE18&gt;AE20)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="24"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO18" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="AN18" s="41" t="s">
+      <c r="AP18" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="AO18" s="42" t="s">
+      <c r="AQ18" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AP18" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AR18" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111" t="str">
-        <f>IF(AA19=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="I19" s="117"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="80"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="77"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106" t="str">
+        <f>IF(AC19=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="I19" s="106"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="75"/>
       <c r="T19" s="4" t="str">
-        <f>IF(AJ15=TRUE,L15,IF(AJ17=TRUE,L17,""))</f>
-        <v/>
-      </c>
-      <c r="U19" s="47"/>
+        <f>IF(AL15=TRUE,L15,IF(AL17=TRUE,L17,""))</f>
+        <v/>
+      </c>
+      <c r="U19" s="46"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="24" t="str">
-        <f>IF(OR(AL20=FALSE,AO20=FALSE),"",IF(AP19=TRUE,"WINNAAR","2e"))</f>
-        <v/>
-      </c>
-      <c r="Z19" s="38" t="b">
+      <c r="W19" s="46"/>
+      <c r="X19" s="178"/>
+      <c r="Y19" s="179" t="str">
+        <f>IF(AND(ABS(X19-X21)&lt;1,X19&gt;X21),"*","")</f>
+        <v/>
+      </c>
+      <c r="Z19" s="24" t="str">
+        <f>IF(OR(AN20=FALSE,AQ20=FALSE),"",IF(AR19=TRUE,"WINNAAR","2e"))</f>
+        <v/>
+      </c>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="38" t="b">
         <f>AND(F18&lt;&gt;"",F20&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="38" t="b">
-        <f>AND(Z19=TRUE,F18=F20)</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="38" t="b">
-        <f>IF(Z19=FALSE,FALSE,OR(AA19=FALSE,AND(H18&lt;&gt;"",H20&lt;&gt;"")))</f>
-        <v>0</v>
-      </c>
-      <c r="AN19" s="38">
+      <c r="AC19" s="38" t="b">
+        <f>AND(AB19=TRUE,F18=F20)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="38" t="b">
+        <f>IF(AB19=FALSE,FALSE,OR(AC19=FALSE,AND(H18&lt;&gt;"",H20&lt;&gt;"")))</f>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="38">
         <f>V19+X19</f>
         <v>0</v>
       </c>
-      <c r="AP19" s="38" t="b">
-        <f>AN19&gt;AN21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77">
+      <c r="AR19" s="38" t="b">
+        <f>AP19&gt;AP21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="75">
         <v>4</v>
       </c>
       <c r="B20" s="4" t="str">
@@ -6782,118 +6860,134 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A20,20)&gt;0,INDEX(Uitslag!D$9:D$20,A20,1),"")</f>
         <v/>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="80"/>
-      <c r="R20" s="78"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="184" t="str">
+        <f>IF(AND(ABS(H18-H20)&lt;1,H20&gt;H18),"*","")</f>
+        <v/>
+      </c>
+      <c r="J20" s="79"/>
+      <c r="K20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="76"/>
       <c r="T20" s="23"/>
       <c r="U20" s="18"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="21" t="str">
-        <f>IF(AM20=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="181" t="str">
+        <f>IF(AO20=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="Y20" s="112"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
       <c r="AB20" s="24"/>
-      <c r="AC20" s="38">
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="38">
         <f>F20+H20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="38" t="b">
-        <f>AND(AB19=TRUE,AC20&gt;AC18)</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="38" t="b">
+      <c r="AF20" s="38" t="b">
+        <f>AND(AD19=TRUE,AE20&gt;AE18)</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="38" t="b">
         <f>AND(V19&lt;&gt;"",V21&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AM20" s="38" t="b">
-        <f>AND(AL20=TRUE,V19=V21)</f>
-        <v>0</v>
-      </c>
       <c r="AO20" s="38" t="b">
-        <f>OR(AND(X19&lt;&gt;"",X21&lt;&gt;""),AM20=FALSE)</f>
+        <f>AND(AN20=TRUE,V19=V21)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="38" t="b">
+        <f>OR(AND(X19&lt;&gt;"",X21&lt;&gt;""),AO20=FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="30" x14ac:dyDescent="0.4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="80"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="77"/>
+    <row r="21" spans="1:44" ht="30" x14ac:dyDescent="0.4">
+      <c r="A21" s="42"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="75"/>
       <c r="T21" s="4" t="str">
-        <f>IF(AJ27=TRUE,L27,IF(AJ29=TRUE,L29,""))</f>
-        <v/>
-      </c>
-      <c r="U21" s="47"/>
+        <f>IF(AL27=TRUE,L27,IF(AL29=TRUE,L29,""))</f>
+        <v/>
+      </c>
+      <c r="U21" s="46"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="24" t="str">
-        <f>IF(OR(AL20=FALSE,AO20=FALSE),"",IF(AP21=TRUE,"WINNAAR","2e"))</f>
-        <v/>
-      </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AN21" s="38">
+      <c r="W21" s="46"/>
+      <c r="X21" s="178"/>
+      <c r="Y21" s="180" t="str">
+        <f>IF(AND(ABS(X19-X21)&lt;1,X21&gt;X19),"*","")</f>
+        <v/>
+      </c>
+      <c r="Z21" s="24" t="str">
+        <f>IF(OR(AN20=FALSE,AQ20=FALSE),"",IF(AR21=TRUE,"WINNAAR","2e"))</f>
+        <v/>
+      </c>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AP21" s="38">
         <f>V21+X21</f>
         <v>0</v>
       </c>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38" t="b">
-        <f>AN21&gt;AN19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="R22" s="78"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38" t="b">
+        <f>AP21&gt;AP19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="42"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="76"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="12"/>
       <c r="AC22" s="38"/>
       <c r="AD22" s="38"/>
-    </row>
-    <row r="23" spans="1:42" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="R23" s="78"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+    </row>
+    <row r="23" spans="1:44" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I23" s="17"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="76"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
       <c r="AJ23" s="21"/>
-    </row>
-    <row r="24" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="77">
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+    </row>
+    <row r="24" spans="1:44" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="75">
         <v>3</v>
       </c>
       <c r="B24" s="4" t="str">
@@ -6905,62 +6999,67 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A24,20)&gt;0,INDEX(Uitslag!D$9:D$20,A24,1),"")</f>
         <v/>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="R24" s="78"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38">
+      <c r="E24" s="72"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="183" t="str">
+        <f>IF(AND(ABS(H24-H26)&lt;1,H24&gt;H26),"*","")</f>
+        <v/>
+      </c>
+      <c r="J24" s="77"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="76"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38">
         <f>F24+H24</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="38" t="b">
-        <f>AND(AB25=TRUE,AC24&gt;AC26)</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-    </row>
-    <row r="25" spans="1:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="107"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111" t="str">
-        <f>IF(AA25=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="I25" s="111"/>
-      <c r="J25" s="79"/>
-      <c r="R25" s="78"/>
-      <c r="Z25" s="38" t="b">
+      <c r="AF24" s="38" t="b">
+        <f>AND(AD25=TRUE,AE24&gt;AE26)</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+    </row>
+    <row r="25" spans="1:44" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="102"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106" t="str">
+        <f>IF(AC25=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="I25" s="106"/>
+      <c r="J25" s="77"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="76"/>
+      <c r="AB25" s="38" t="b">
         <f>AND(F24&lt;&gt;"",F26&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="38" t="b">
-        <f>AND(Z25=TRUE,F24=F26)</f>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="38" t="b">
-        <f>IF(Z25=FALSE,FALSE,OR(AA25=FALSE,AND(H24&lt;&gt;"",H26&lt;&gt;"")))</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-    </row>
-    <row r="26" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="77">
+      <c r="AC25" s="38" t="b">
+        <f>AND(AB25=TRUE,F24=F26)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="38" t="b">
+        <f>IF(AB25=FALSE,FALSE,OR(AC25=FALSE,AND(H24&lt;&gt;"",H26&lt;&gt;"")))</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21"/>
+    </row>
+    <row r="26" spans="1:44" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="75">
         <v>6</v>
       </c>
       <c r="B26" s="4" t="str">
@@ -6972,167 +7071,181 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A26,20)&gt;0,INDEX(Uitslag!D$9:D$20,A26,1),"")</f>
         <v/>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="184" t="str">
+        <f>IF(AND(ABS(H24-H26)&lt;1,H26&gt;H24),"*","")</f>
+        <v/>
+      </c>
+      <c r="J26" s="77"/>
       <c r="L26" s="23"/>
-      <c r="N26" s="44" t="s">
+      <c r="N26" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="O26" s="45"/>
-      <c r="P26" s="44" t="s">
+      <c r="O26" s="44"/>
+      <c r="P26" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="R26" s="78"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38">
+      <c r="Q26" s="78"/>
+      <c r="R26" s="76"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38">
         <f>F26+H26</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="38" t="b">
-        <f>AND(AB25=TRUE,AC26&gt;AC24)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="46" t="s">
+      <c r="AF26" s="38" t="b">
+        <f>AND(AD25=TRUE,AE26&gt;AE24)</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI26" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ26" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="AG26" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH26" s="56" t="s">
+      <c r="AK26" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AI26" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ26" s="46" t="s">
+      <c r="AL26" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="77">
+    <row r="27" spans="1:44" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="102"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="75">
         <v>3</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f>IF(AD24=TRUE,B24,IF(AD26=TRUE,B26,""))</f>
-        <v/>
-      </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="76"/>
+        <f>IF(AF24=TRUE,B24,IF(AF26=TRUE,B26,""))</f>
+        <v/>
+      </c>
+      <c r="M27" s="46"/>
+      <c r="N27" s="74"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="78"/>
-      <c r="Y27" s="18"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="183" t="str">
+        <f>IF(AND(ABS(P27-P29)&lt;1,P27&gt;P29),"*","")</f>
+        <v/>
+      </c>
+      <c r="R27" s="76"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
       <c r="AG27" s="18"/>
       <c r="AH27" s="18"/>
-      <c r="AI27" s="38">
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="38">
         <f>N27+P27</f>
         <v>0</v>
       </c>
-      <c r="AJ27" s="38" t="b">
-        <f>AND(AH28=TRUE,AI27&gt;AI29)</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="18"/>
-    </row>
-    <row r="28" spans="1:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
+      <c r="AL27" s="38" t="b">
+        <f>AND(AJ28=TRUE,AK27&gt;AK29)</f>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="18"/>
+    </row>
+    <row r="28" spans="1:44" ht="30" x14ac:dyDescent="0.4">
+      <c r="A28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
       <c r="L28" s="19"/>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="21" t="str">
-        <f>IF(AG28=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="R28" s="78"/>
-      <c r="T28" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
+      <c r="P28" s="181" t="str">
+        <f>IF(AI28=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="76"/>
+      <c r="T28" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
       <c r="AB28" s="38"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="38" t="b">
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="38" t="b">
         <f>AND(N27&lt;&gt;"",N29&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="38" t="b">
-        <f>AND(AF28=TRUE,N27=N29)</f>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="38" t="b">
-        <f>IF(AF28=FALSE,FALSE,OR(AG28=FALSE,AND(P27&lt;&gt;"",P29&lt;&gt;"")))</f>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
+      <c r="AI28" s="38" t="b">
+        <f>AND(AH28=TRUE,N27=N29)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="38" t="b">
+        <f>IF(AH28=FALSE,FALSE,OR(AI28=FALSE,AND(P27&lt;&gt;"",P29&lt;&gt;"")))</f>
+        <v>0</v>
+      </c>
       <c r="AK28" s="18"/>
-    </row>
-    <row r="29" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="I29" s="83"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="77">
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+    </row>
+    <row r="29" spans="1:44" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="I29" s="17"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="75">
         <v>2</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f>IF(AD30=TRUE,B30,IF(AD32=TRUE,B32,""))</f>
-        <v/>
-      </c>
-      <c r="M29" s="47"/>
-      <c r="N29" s="76"/>
+        <f>IF(AF30=TRUE,B30,IF(AF32=TRUE,B32,""))</f>
+        <v/>
+      </c>
+      <c r="M29" s="46"/>
+      <c r="N29" s="74"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="78"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AI29" s="38">
+      <c r="P29" s="177"/>
+      <c r="Q29" s="184" t="str">
+        <f>IF(AND(ABS(P27-P29)&lt;1,P29&gt;P27),"*","")</f>
+        <v/>
+      </c>
+      <c r="R29" s="76"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AK29" s="38">
         <f>N29+P29</f>
         <v>0</v>
       </c>
-      <c r="AJ29" s="38" t="b">
-        <f>AND(AH28=TRUE,AI29&gt;AI27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="77">
+      <c r="AL29" s="38" t="b">
+        <f>AND(AJ28=TRUE,AK29&gt;AK27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="75">
         <v>7</v>
       </c>
       <c r="B30" s="4" t="str">
@@ -7144,100 +7257,110 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A30,20)&gt;0,INDEX(Uitslag!D$9:D$20,A30,1),"")</f>
         <v/>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="R30" s="78"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="183" t="str">
+        <f>IF(AND(ABS(H30-H32)&lt;1,H30&gt;H32),"*","")</f>
+        <v/>
+      </c>
+      <c r="J30" s="77"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="76"/>
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
-      <c r="V30" s="44" t="s">
+      <c r="V30" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44" t="s">
+      <c r="W30" s="43"/>
+      <c r="X30" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
+      <c r="Y30" s="43"/>
       <c r="AB30" s="24"/>
-      <c r="AC30" s="38">
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="38">
         <f>F30+H30</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="38" t="b">
-        <f>AND(AB31=TRUE,AC30&gt;AC32)</f>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM30" s="37" t="s">
+      <c r="AF30" s="38" t="b">
+        <f>AND(AD31=TRUE,AE30&gt;AE32)</f>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO30" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="AN30" s="41" t="s">
+      <c r="AP30" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="AO30" s="42" t="s">
+      <c r="AQ30" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AP30" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="107"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="111" t="str">
-        <f>IF(AA31=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="I31" s="111"/>
-      <c r="J31" s="79"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="77"/>
+      <c r="AR30" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="102"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106" t="str">
+        <f>IF(AC31=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="I31" s="106"/>
+      <c r="J31" s="77"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="75"/>
       <c r="T31" s="4" t="str">
-        <f>IF(AJ15=TRUE,L17,IF(AJ17=TRUE,L15,""))</f>
-        <v/>
-      </c>
-      <c r="U31" s="47"/>
+        <f>IF(AL15=TRUE,L17,IF(AL17=TRUE,L15,""))</f>
+        <v/>
+      </c>
+      <c r="U31" s="46"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="24" t="str">
-        <f>IF(OR(AL32=FALSE,AO32=FALSE),"",IF(AP31=TRUE,"3e","4e"))</f>
-        <v/>
-      </c>
-      <c r="Z31" s="38" t="b">
+      <c r="W31" s="46"/>
+      <c r="X31" s="178"/>
+      <c r="Y31" s="179" t="str">
+        <f>IF(AND(ABS(X31-X33)&lt;1,X31&gt;X33),"*","")</f>
+        <v/>
+      </c>
+      <c r="Z31" s="24" t="str">
+        <f>IF(OR(AN32=FALSE,AQ32=FALSE),"",IF(AR31=TRUE,"3e","4e"))</f>
+        <v/>
+      </c>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="38" t="b">
         <f>AND(F30&lt;&gt;"",F32&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA31" s="38" t="b">
-        <f>AND(Z31=TRUE,F30=F32)</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="38" t="b">
-        <f>IF(Z31=FALSE,FALSE,OR(AA31=FALSE,AND(H30&lt;&gt;"",H32&lt;&gt;"")))</f>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="38">
+      <c r="AC31" s="38" t="b">
+        <f>AND(AB31=TRUE,F30=F32)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="38" t="b">
+        <f>IF(AB31=FALSE,FALSE,OR(AC31=FALSE,AND(H30&lt;&gt;"",H32&lt;&gt;"")))</f>
+        <v>0</v>
+      </c>
+      <c r="AP31" s="38">
         <f>V31+X31</f>
         <v>0</v>
       </c>
-      <c r="AP31" s="38" t="b">
-        <f>AN31&gt;AN33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="77">
+      <c r="AR31" s="38" t="b">
+        <f>AP31&gt;AP33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="75">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="str">
@@ -7249,70 +7372,78 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A32,20)&gt;0,INDEX(Uitslag!D$9:D$20,A32,1),"")</f>
         <v/>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="R32" s="78"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="184" t="str">
+        <f>IF(AND(ABS(H30-H32)&lt;1,H32&gt;H30),"*","")</f>
+        <v/>
+      </c>
+      <c r="J32" s="77"/>
+      <c r="R32" s="76"/>
       <c r="T32" s="23"/>
       <c r="U32" s="18"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="21" t="str">
-        <f>IF(AM32=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="38">
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="181" t="str">
+        <f>IF(AO32=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="38">
         <f>F32+H32</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="38" t="b">
-        <f>AND(AB31=TRUE,AC32&gt;AC30)</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="38" t="b">
+      <c r="AF32" s="38" t="b">
+        <f>AND(AD31=TRUE,AE32&gt;AE30)</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="38" t="b">
         <f>AND(V31&lt;&gt;"",V33&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AM32" s="38" t="b">
-        <f>AND(AL32=TRUE,V31=V33)</f>
-        <v>0</v>
-      </c>
       <c r="AO32" s="38" t="b">
-        <f>OR(AND(X31&lt;&gt;"",X33&lt;&gt;""),AM32=FALSE)</f>
+        <f>AND(AN32=TRUE,V31=V33)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="38" t="b">
+        <f>OR(AND(X31&lt;&gt;"",X33&lt;&gt;""),AO32=FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="9:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="I33" s="43"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="77"/>
+    <row r="33" spans="9:44" ht="30" x14ac:dyDescent="0.2">
+      <c r="I33" s="102"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="75"/>
       <c r="T33" s="4" t="str">
-        <f>IF(AJ27=TRUE,L29,IF(AJ29=TRUE,L27,""))</f>
-        <v/>
-      </c>
-      <c r="U33" s="47"/>
+        <f>IF(AL27=TRUE,L29,IF(AL29=TRUE,L27,""))</f>
+        <v/>
+      </c>
+      <c r="U33" s="46"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="24" t="str">
-        <f>IF(OR(AL32=FALSE,AO32=FALSE),"",IF(AP33=TRUE,"3e","4e"))</f>
-        <v/>
-      </c>
-      <c r="Z33" s="24"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="178"/>
+      <c r="Y33" s="180" t="str">
+        <f>IF(AND(ABS(X31-X33)&lt;1,X33&gt;X31),"*","")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="24" t="str">
+        <f>IF(OR(AN32=FALSE,AQ32=FALSE),"",IF(AR33=TRUE,"3e","4e"))</f>
+        <v/>
+      </c>
       <c r="AA33" s="24"/>
       <c r="AB33" s="24"/>
       <c r="AC33" s="24"/>
@@ -7320,22 +7451,23 @@
       <c r="AE33" s="24"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="24"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="24"/>
       <c r="AJ33" s="18"/>
       <c r="AK33" s="18"/>
-      <c r="AN33" s="38">
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="18"/>
+      <c r="AP33" s="38">
         <f>V33+X33</f>
         <v>0</v>
       </c>
-      <c r="AP33" s="38" t="b">
-        <f>AN33&gt;AN31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:42" x14ac:dyDescent="0.2">
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
+      <c r="AR33" s="38" t="b">
+        <f>AP33&gt;AP31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:44" x14ac:dyDescent="0.2">
+      <c r="I34" s="17"/>
       <c r="AB34" s="18"/>
       <c r="AC34" s="18"/>
       <c r="AD34" s="18"/>
@@ -7346,39 +7478,43 @@
       <c r="AI34" s="18"/>
       <c r="AJ34" s="18"/>
       <c r="AK34" s="18"/>
-      <c r="AN34" s="43"/>
-      <c r="AP34" s="43"/>
-    </row>
-    <row r="35" spans="9:42" ht="30" x14ac:dyDescent="0.2">
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
+      <c r="AL34" s="18"/>
+      <c r="AM34" s="18"/>
+      <c r="AP34" s="42"/>
+      <c r="AR34" s="42"/>
+    </row>
+    <row r="35" spans="9:44" ht="30" x14ac:dyDescent="0.2">
+      <c r="I35" s="17"/>
       <c r="AB35" s="24"/>
       <c r="AC35" s="24"/>
       <c r="AD35" s="24"/>
       <c r="AE35" s="24"/>
       <c r="AF35" s="24"/>
       <c r="AG35" s="24"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
       <c r="AJ35" s="18"/>
       <c r="AK35" s="18"/>
-      <c r="AL35" s="38"/>
-      <c r="AM35" s="24"/>
-      <c r="AO35" s="38"/>
-    </row>
-    <row r="36" spans="9:42" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="9:42" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="9:42" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="9:42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="40"/>
-      <c r="AG39" s="40"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="38"/>
+      <c r="AO35" s="24"/>
+      <c r="AQ35" s="38"/>
+    </row>
+    <row r="36" spans="9:44" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="9:44" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="9:44" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="9:44" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7386,42 +7522,42 @@
   </mergeCells>
   <conditionalFormatting sqref="H12 H14">
     <cfRule type="expression" dxfId="11" priority="4">
-      <formula>AA$13=FALSE</formula>
+      <formula>AC$13=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30 H32">
     <cfRule type="expression" dxfId="10" priority="19">
-      <formula>AA$31=FALSE</formula>
+      <formula>AC$31=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 H26">
     <cfRule type="expression" dxfId="9" priority="20">
-      <formula>AA$25=FALSE</formula>
+      <formula>AC$25=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 H20">
     <cfRule type="expression" dxfId="8" priority="21">
-      <formula>AA$19=FALSE</formula>
+      <formula>AC$19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17 P29">
     <cfRule type="expression" dxfId="7" priority="24">
-      <formula>AG16=FALSE</formula>
+      <formula>AI16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15 P27">
     <cfRule type="expression" dxfId="6" priority="25">
-      <formula>AG16=FALSE</formula>
+      <formula>AI16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19 X21">
     <cfRule type="expression" dxfId="5" priority="27">
-      <formula>AM$20=FALSE</formula>
+      <formula>AO$20=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31 X33">
     <cfRule type="expression" dxfId="4" priority="28">
-      <formula>AM$32=FALSE</formula>
+      <formula>AO$32=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7437,7 +7573,7 @@
   <sheetPr codeName="Blad4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0"/>
   </sheetViews>
@@ -7452,44 +7588,51 @@
     <col min="7" max="7" width="1.21875" style="16" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="16" customWidth="1"/>
     <col min="9" max="9" width="2.77734375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="2.77734375" style="40" customWidth="1"/>
+    <col min="10" max="10" width="2.77734375" style="39" customWidth="1"/>
     <col min="11" max="11" width="2.77734375" style="16" customWidth="1"/>
     <col min="12" max="12" width="47.77734375" style="16" customWidth="1"/>
     <col min="13" max="13" width="1.77734375" style="16" customWidth="1"/>
     <col min="14" max="14" width="9.77734375" style="16" customWidth="1"/>
     <col min="15" max="15" width="2" style="16" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" style="16" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="16" customWidth="1"/>
-    <col min="18" max="28" width="9.5546875" style="16" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="1.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.5546875" style="16" hidden="1"/>
+    <col min="17" max="17" width="2.5546875" style="16" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" style="16" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" style="16" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="10.77734375" style="16" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" style="16" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" style="16" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5546875" style="16" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="10.77734375" style="16" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="9.5546875" style="16" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" style="16" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="1.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.5546875" style="16" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="134" t="str">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="207" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="136"/>
-      <c r="Q4"/>
-      <c r="U4"/>
-      <c r="V4"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="209"/>
+      <c r="R4"/>
+      <c r="S4"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
@@ -7497,10 +7640,10 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
-    </row>
-    <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U5"/>
-      <c r="V5"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+    </row>
+    <row r="5" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
@@ -7508,81 +7651,85 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
-    </row>
-    <row r="6" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD5"/>
+      <c r="AE5"/>
+    </row>
+    <row r="6" spans="1:31" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J6" s="37"/>
       <c r="K6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
       <c r="Y6" s="18"/>
-    </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="67" t="s">
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+    </row>
+    <row r="7" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
       <c r="J7" s="37"/>
       <c r="K7" s="24"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-    </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T7" s="12"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+    </row>
+    <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J8" s="37"/>
       <c r="K8" s="22"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-    </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J9" s="37"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-    </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+    </row>
+    <row r="10" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="44"/>
+      <c r="H10" s="43" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="R10" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="S10" s="46" t="s">
+      <c r="T10" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="T10" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="U10" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="V10" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="W10" s="18"/>
-    </row>
-    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77">
+      <c r="U10" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" s="18"/>
+    </row>
+    <row r="11" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="75">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="str">
@@ -7594,67 +7741,72 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A11,20)&gt;0,INDEX(Uitslag!D$9:D$20,A11,1),"")</f>
         <v/>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="84"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="38"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="183" t="str">
+        <f>IF(AND(ABS(H11-H13)&lt;1,H11&gt;H13),"*","")</f>
+        <v/>
+      </c>
+      <c r="J11" s="80"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="38">
+      <c r="U11" s="38"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="38">
         <f>F11+H11</f>
         <v>0</v>
       </c>
-      <c r="V11" s="38" t="b">
-        <f>AND(T12=TRUE,U11&gt;U13)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="18"/>
-      <c r="Z11" s="43"/>
-      <c r="AB11" s="43"/>
-    </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X11" s="38" t="b">
+        <f>AND(V12=TRUE,W11&gt;W13)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18"/>
+      <c r="AB11" s="42"/>
+      <c r="AD11" s="42"/>
+    </row>
+    <row r="12" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="21" t="str">
-        <f>IF(S12=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="J12" s="84"/>
-      <c r="L12" s="70" t="s">
+      <c r="H12" s="181" t="str">
+        <f>IF(U12=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="I12" s="112"/>
+      <c r="J12" s="80"/>
+      <c r="L12" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="72"/>
-      <c r="R12" s="38" t="b">
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="71"/>
+      <c r="T12" s="38" t="b">
         <f>AND(F11&lt;&gt;"",F13&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="S12" s="38" t="b">
-        <f>AND(R12=TRUE,F11=F13)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="38" t="b">
-        <f>IF(R12=FALSE,FALSE,OR(S12=FALSE,AND(H11&lt;&gt;"",H13&lt;&gt;"")))</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="24"/>
-    </row>
-    <row r="13" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
+      <c r="U12" s="38" t="b">
+        <f>AND(T12=TRUE,F11=F13)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="38" t="b">
+        <f>IF(T12=FALSE,FALSE,OR(U12=FALSE,AND(H11&lt;&gt;"",H13&lt;&gt;"")))</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="24"/>
+    </row>
+    <row r="13" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="str">
@@ -7666,107 +7818,120 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A13,20)&gt;0,INDEX(Uitslag!D$9:D$20,A13,1),"")</f>
         <v/>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="84"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="184" t="str">
+        <f>IF(AND(ABS(H11-H13)&lt;1,H13&gt;H11),"*","")</f>
+        <v/>
+      </c>
+      <c r="J13" s="80"/>
       <c r="K13" s="24"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38">
+      <c r="T13" s="12"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38">
         <f>F13+H13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="38" t="b">
-        <f>AND(T12=TRUE,U13&gt;U11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="25"/>
-    </row>
-    <row r="14" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J14" s="84"/>
+      <c r="X13" s="38" t="b">
+        <f>AND(V12=TRUE,W13&gt;W11)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="25"/>
+    </row>
+    <row r="14" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="78"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="24"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="44" t="s">
+      <c r="N14" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44" t="s">
+      <c r="O14" s="43"/>
+      <c r="P14" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="X14" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y14" s="46" t="s">
+      <c r="Q14" s="43"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Z14" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="Z14" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA14" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB14" s="46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J15" s="84"/>
-      <c r="K15" s="78"/>
+      <c r="AA14" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB14" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC14" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD14" s="45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="78"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="76"/>
       <c r="L15" s="4" t="str">
-        <f>IF(V11=TRUE,B11,IF(V13=TRUE,B13,""))</f>
-        <v/>
-      </c>
-      <c r="M15" s="47"/>
+        <f>IF(X11=TRUE,B11,IF(X13=TRUE,B13,""))</f>
+        <v/>
+      </c>
+      <c r="M15" s="46"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="24" t="str">
-        <f>IF(OR(X16=FALSE,AA16=FALSE),"",IF(AB15=TRUE,"WINNAAR","2e"))</f>
-        <v/>
-      </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="Z15" s="38">
+      <c r="O15" s="46"/>
+      <c r="P15" s="178"/>
+      <c r="Q15" s="186" t="str">
+        <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
+        <v/>
+      </c>
+      <c r="R15" s="24" t="str">
+        <f>IF(OR(Z16=FALSE,AC16=FALSE),"",IF(AD15=TRUE,"WINNAAR","2e"))</f>
+        <v/>
+      </c>
+      <c r="S15" s="24"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="AB15" s="38">
         <f>N15+P15</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="38" t="b">
-        <f>Z15&gt;Z17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="J16" s="85"/>
+      <c r="AD15" s="38" t="b">
+        <f>AB15&gt;AB17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I16" s="78"/>
+      <c r="J16" s="81"/>
       <c r="L16" s="23"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="21" t="str">
-        <f>IF(Y16=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="X16" s="38" t="b">
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="181" t="str">
+        <f>IF(AA16=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="Q16" s="112"/>
+      <c r="Z16" s="38" t="b">
         <f>AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="38" t="b">
-        <f>AND(X16=TRUE,N15=N17)</f>
-        <v>0</v>
-      </c>
       <c r="AA16" s="38" t="b">
-        <f>OR(AND(P15&lt;&gt;"",P17&lt;&gt;""),Y16=FALSE)</f>
+        <f>AND(Z16=TRUE,N15=N17)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="38" t="b">
+        <f>OR(AND(P15&lt;&gt;"",P17&lt;&gt;""),AA16=FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -7774,31 +7939,37 @@
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="76"/>
       <c r="L17" s="4" t="str">
-        <f>IF(V20=TRUE,B20,IF(V22=TRUE,B22,""))</f>
-        <v/>
-      </c>
-      <c r="M17" s="47"/>
+        <f>IF(X20=TRUE,B20,IF(X22=TRUE,B22,""))</f>
+        <v/>
+      </c>
+      <c r="M17" s="46"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="24" t="str">
-        <f>IF(OR(X16=FALSE,AA16=FALSE),"",IF(AB17=TRUE,"WINNAAR","2e"))</f>
-        <v/>
-      </c>
-      <c r="Z17" s="38">
+      <c r="O17" s="46"/>
+      <c r="P17" s="178"/>
+      <c r="Q17" s="187" t="str">
+        <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
+        <v/>
+      </c>
+      <c r="R17" s="24" t="str">
+        <f>IF(OR(Z16=FALSE,AC16=FALSE),"",IF(AD17=TRUE,"WINNAAR","2e"))</f>
+        <v/>
+      </c>
+      <c r="S17" s="24"/>
+      <c r="AB17" s="38">
         <f>N17+P17</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38" t="b">
-        <f>Z17&gt;Z15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38" t="b">
+        <f>AB17&gt;AB15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -7806,39 +7977,43 @@
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="J18" s="85"/>
-    </row>
-    <row r="19" spans="1:28" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="I18" s="78"/>
+      <c r="J18" s="81"/>
+      <c r="Q18" s="78"/>
+    </row>
+    <row r="19" spans="1:30" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="85"/>
-      <c r="R19" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="46" t="s">
+      <c r="I19" s="78"/>
+      <c r="J19" s="81"/>
+      <c r="Q19" s="78"/>
+      <c r="T19" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="T19" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="V19" s="46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="77">
+      <c r="U19" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="V19" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="W19" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="X19" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="75">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="str">
@@ -7850,60 +8025,67 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A20,20)&gt;0,INDEX(Uitslag!D$9:D$20,A20,1),"")</f>
         <v/>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="85"/>
-      <c r="Q20" s="18"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="183" t="str">
+        <f>IF(AND(ABS(H20-H22)&lt;1,H20&gt;H22),"*","")</f>
+        <v/>
+      </c>
+      <c r="J20" s="81"/>
+      <c r="Q20" s="78"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="38">
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="38">
         <f>F20+H20</f>
         <v>0</v>
       </c>
-      <c r="V20" s="38" t="b">
-        <f>AND(T21=TRUE,U20&gt;U22)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="18"/>
-    </row>
-    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.2">
+      <c r="X20" s="38" t="b">
+        <f>AND(V21=TRUE,W20&gt;W22)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" ht="30" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="21" t="str">
-        <f>IF(S21=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="J21" s="85"/>
-      <c r="L21" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="72"/>
-      <c r="R21" s="38" t="b">
+      <c r="H21" s="181" t="str">
+        <f>IF(U21=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="I21" s="112"/>
+      <c r="J21" s="81"/>
+      <c r="L21" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="78"/>
+      <c r="T21" s="38" t="b">
         <f>AND(F20&lt;&gt;"",F22&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="S21" s="38" t="b">
-        <f>AND(R21=TRUE,F20=F22)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="38" t="b">
-        <f>IF(R21=FALSE,FALSE,OR(S21=FALSE,AND(H20&lt;&gt;"",H22&lt;&gt;"")))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="77">
+      <c r="U21" s="38" t="b">
+        <f>AND(T21=TRUE,F20=F22)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="38" t="b">
+        <f>IF(T21=FALSE,FALSE,OR(U21=FALSE,AND(H20&lt;&gt;"",H22&lt;&gt;"")))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="75">
         <v>2</v>
       </c>
       <c r="B22" s="4" t="str">
@@ -7915,162 +8097,182 @@
         <f>IF(INDEX(Uitslag!C$9:V$20,A22,20)&gt;0,INDEX(Uitslag!D$9:D$20,A22,1),"")</f>
         <v/>
       </c>
-      <c r="E22" s="47"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="85"/>
-      <c r="U22" s="38">
+      <c r="H22" s="182"/>
+      <c r="I22" s="184" t="str">
+        <f>IF(AND(ABS(H20-H22)&lt;1,H22&gt;H20),"*","")</f>
+        <v/>
+      </c>
+      <c r="J22" s="81"/>
+      <c r="Q22" s="78"/>
+      <c r="W22" s="38">
         <f>F22+H22</f>
         <v>0</v>
       </c>
-      <c r="V22" s="38" t="b">
-        <f>AND(T21=TRUE,U22&gt;U20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="J23" s="85"/>
-    </row>
-    <row r="24" spans="1:28" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="J24" s="85"/>
+      <c r="X22" s="38" t="b">
+        <f>AND(V21=TRUE,W22&gt;W20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="J23" s="81"/>
+      <c r="Q23" s="78"/>
+    </row>
+    <row r="24" spans="1:30" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="J24" s="81"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
-      <c r="N24" s="44" t="s">
+      <c r="N24" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44" t="s">
+      <c r="O24" s="43"/>
+      <c r="P24" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y24" s="46" t="s">
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="Z24" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA24" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB24" s="46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="J25" s="85"/>
-      <c r="K25" s="78"/>
+      <c r="AA24" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB24" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC24" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD24" s="45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="30" x14ac:dyDescent="0.2">
+      <c r="J25" s="81"/>
+      <c r="K25" s="76"/>
       <c r="L25" s="4" t="str">
-        <f>IF(V11=TRUE,B13,IF(V13=TRUE,B11,""))</f>
-        <v/>
-      </c>
-      <c r="M25" s="47"/>
+        <f>IF(X11=TRUE,B13,IF(X13=TRUE,B11,""))</f>
+        <v/>
+      </c>
+      <c r="M25" s="46"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="24" t="str">
-        <f>IF(OR(X26=FALSE,AA26=FALSE),"",IF(AB25=TRUE,"3e","4e"))</f>
-        <v/>
-      </c>
-      <c r="R25" s="24"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="186" t="str">
+        <f>IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
+        <v/>
+      </c>
+      <c r="R25" s="24" t="str">
+        <f>IF(OR(Z26=FALSE,AC26=FALSE),"",IF(AD25=TRUE,"3e","4e"))</f>
+        <v/>
+      </c>
       <c r="S25" s="24"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
-      <c r="Z25" s="38">
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="AB25" s="38">
         <f>N25+P25</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="38" t="b">
-        <f>Z25&gt;Z27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="J26" s="85"/>
+      <c r="AD25" s="38" t="b">
+        <f>AB25&gt;AB27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="J26" s="81"/>
       <c r="L26" s="23"/>
       <c r="M26" s="18"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="21" t="str">
-        <f>IF(Y26=TRUE,"SO","")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="18"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="181" t="str">
+        <f>IF(AA26=TRUE,"SO","")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="112"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
-      <c r="X26" s="38" t="b">
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="38" t="b">
         <f>AND(N25&lt;&gt;"",N27&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="Y26" s="38" t="b">
-        <f>AND(X26=TRUE,N25=N27)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="43"/>
       <c r="AA26" s="38" t="b">
-        <f>OR(AND(P25&lt;&gt;"",P27&lt;&gt;""),Y26=FALSE)</f>
+        <f>AND(Z26=TRUE,N25=N27)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="38" t="b">
+        <f>OR(AND(P25&lt;&gt;"",P27&lt;&gt;""),AA26=FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AB26" s="43"/>
-    </row>
-    <row r="27" spans="1:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="J27" s="85"/>
-      <c r="K27" s="78"/>
+      <c r="AD26" s="42"/>
+    </row>
+    <row r="27" spans="1:30" ht="30" x14ac:dyDescent="0.2">
+      <c r="J27" s="81"/>
+      <c r="K27" s="76"/>
       <c r="L27" s="4" t="str">
-        <f>IF(V20=TRUE,B22,IF(V22=TRUE,B20,""))</f>
-        <v/>
-      </c>
-      <c r="M27" s="47"/>
+        <f>IF(X20=TRUE,B22,IF(X22=TRUE,B20,""))</f>
+        <v/>
+      </c>
+      <c r="M27" s="46"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="24" t="str">
-        <f>IF(OR(X26=FALSE,AA26=FALSE),"",IF(AB27=TRUE,"3e","4e"))</f>
-        <v/>
-      </c>
-      <c r="R27" s="24"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="187" t="str">
+        <f>IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
+        <v/>
+      </c>
+      <c r="R27" s="24" t="str">
+        <f>IF(OR(Z26=FALSE,AC26=FALSE),"",IF(AD27=TRUE,"3e","4e"))</f>
+        <v/>
+      </c>
       <c r="S27" s="24"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="38">
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="38">
         <f>N27+P27</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38" t="b">
-        <f>Z27&gt;Z25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38" t="b">
+        <f>AB27&gt;AB25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2"/>
     <row r="33" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
@@ -8079,26 +8281,26 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="P25 P27">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>Y$26=FALSE</formula>
+      <formula>AA$26=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20 H11">
     <cfRule type="expression" dxfId="2" priority="29">
-      <formula>S12=FALSE</formula>
+      <formula>U12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H13">
     <cfRule type="expression" dxfId="1" priority="30">
-      <formula>S12=FALSE</formula>
+      <formula>U12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15 P17">
     <cfRule type="expression" dxfId="0" priority="31">
-      <formula>Y$16=FALSE</formula>
+      <formula>AA$16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;D &amp;T</oddFooter>
   </headerFooter>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAB96D8-ACEE-4EC8-8179-BA996DC23E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2D9BD-CC00-43FD-8B6D-6FDC0923827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1260" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="765" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -2123,6 +2123,42 @@
     <xf numFmtId="2" fontId="29" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2200,42 +2236,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="201" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="188"/>
+      <c r="B4" s="201"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
@@ -3078,17 +3078,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="189" t="str">
+      <c r="B1" s="202" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="204"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
@@ -3214,7 +3214,9 @@
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3234,18 +3236,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="194"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="207"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="82"/>
@@ -3254,26 +3256,26 @@
       <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
       <c r="E4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="196" t="s">
+      <c r="F4" s="209" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="197" t="s">
+      <c r="H4" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="198"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="157"/>
@@ -3281,7 +3283,7 @@
       <c r="C5" s="96"/>
       <c r="D5" s="97"/>
       <c r="E5" s="96"/>
-      <c r="F5" s="196"/>
+      <c r="F5" s="209"/>
       <c r="G5" s="96"/>
       <c r="H5" s="98"/>
       <c r="I5" s="98"/>
@@ -3299,10 +3301,10 @@
       <c r="G6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="195" t="s">
+      <c r="H6" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="195"/>
+      <c r="I6" s="208"/>
       <c r="J6" s="115" t="s">
         <v>5</v>
       </c>
@@ -5012,30 +5014,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="204" t="str">
+      <c r="B2" s="217" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="206"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="219"/>
     </row>
     <row r="4" spans="1:25" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5070,26 +5072,26 @@
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
       <c r="D7" s="126"/>
-      <c r="E7" s="201" t="s">
+      <c r="E7" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="203"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="216"/>
       <c r="I7" s="128"/>
-      <c r="J7" s="201" t="s">
+      <c r="J7" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="203"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="216"/>
       <c r="N7" s="128"/>
-      <c r="O7" s="201" t="s">
+      <c r="O7" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="203"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
+      <c r="R7" s="216"/>
       <c r="S7" s="127" t="s">
         <v>126</v>
       </c>
@@ -6008,75 +6010,75 @@
     </row>
     <row r="20" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="210">
+      <c r="B20" s="188">
         <f>IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C20" s="211" t="str">
+      <c r="C20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>Team naam 12</v>
       </c>
-      <c r="D20" s="212" t="str">
+      <c r="D20" s="190" t="str">
         <f>'Deelnemers en Scores'!D75</f>
         <v>Vereniging 12</v>
       </c>
-      <c r="E20" s="213" t="str">
+      <c r="E20" s="191" t="str">
         <f>IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F20" s="213" t="str">
+      <c r="F20" s="191" t="str">
         <f>IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G20" s="213" t="str">
+      <c r="G20" s="191" t="str">
         <f>IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H20" s="213" t="str">
+      <c r="H20" s="191" t="str">
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
       <c r="I20" s="123"/>
-      <c r="J20" s="213" t="str">
+      <c r="J20" s="191" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K20" s="213" t="str">
+      <c r="K20" s="191" t="str">
         <f>IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L20" s="213" t="str">
+      <c r="L20" s="191" t="str">
         <f>IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M20" s="213" t="str">
+      <c r="M20" s="191" t="str">
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
       <c r="N20" s="123"/>
-      <c r="O20" s="214" t="str">
+      <c r="O20" s="192" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="215" t="str">
+      <c r="P20" s="193" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="215" t="str">
+      <c r="Q20" s="193" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="216" t="str">
+      <c r="R20" s="194" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S20" s="217">
+      <c r="S20" s="195">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="220"/>
-      <c r="U20" s="218"/>
-      <c r="V20" s="219">
+      <c r="T20" s="198"/>
+      <c r="U20" s="196"/>
+      <c r="V20" s="197">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6084,27 +6086,27 @@
       <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="221"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="222"/>
-      <c r="E21" s="222"/>
-      <c r="F21" s="222"/>
-      <c r="G21" s="222"/>
-      <c r="H21" s="222"/>
-      <c r="I21" s="222"/>
-      <c r="J21" s="222"/>
-      <c r="K21" s="222"/>
-      <c r="L21" s="222"/>
-      <c r="M21" s="222"/>
-      <c r="N21" s="222"/>
-      <c r="O21" s="222"/>
-      <c r="P21" s="222"/>
-      <c r="Q21" s="222"/>
-      <c r="R21" s="222"/>
-      <c r="S21" s="222"/>
-      <c r="T21" s="222"/>
-      <c r="U21" s="222"/>
-      <c r="V21" s="222"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="200"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
+      <c r="N21" s="200"/>
+      <c r="O21" s="200"/>
+      <c r="P21" s="200"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200"/>
+      <c r="U21" s="200"/>
+      <c r="V21" s="200"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6190,32 +6192,32 @@
     <row r="2" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="207" t="str">
+      <c r="B4" s="220" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="208"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="209"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
+      <c r="O4" s="221"/>
+      <c r="P4" s="221"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="221"/>
+      <c r="S4" s="221"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
+      <c r="V4" s="221"/>
+      <c r="W4" s="221"/>
+      <c r="X4" s="222"/>
       <c r="Y4" s="25"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -7613,24 +7615,24 @@
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="207" t="str">
+      <c r="B4" s="220" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="209"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
+      <c r="O4" s="221"/>
+      <c r="P4" s="222"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="W4"/>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2D9BD-CC00-43FD-8B6D-6FDC0923827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFDBCD9-07E7-4279-8821-0A9718CE54EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="765" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="1365" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -3214,9 +3214,7 @@
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5164,75 +5162,75 @@
     <row r="9" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="131">
-        <f>IF('Deelnemers en Scores'!B15&gt;0,'Deelnemers en Scores'!B15,"")</f>
-        <v>2</v>
+        <f>IF('Deelnemers en Scores'!B9&gt;0,'Deelnemers en Scores'!B9,"")</f>
+        <v>1</v>
       </c>
       <c r="C9" s="132" t="str">
-        <f>IF('Deelnemers en Scores'!F15="","",'Deelnemers en Scores'!F15)</f>
-        <v>Team naam 2</v>
+        <f>IF('Deelnemers en Scores'!F9="","",'Deelnemers en Scores'!F9)</f>
+        <v>Team naam 1</v>
       </c>
       <c r="D9" s="133" t="str">
-        <f>'Deelnemers en Scores'!D15</f>
-        <v>Vereniging 2</v>
+        <f>'Deelnemers en Scores'!D9</f>
+        <v>Vereniging 1</v>
       </c>
       <c r="E9" s="134" t="str">
-        <f>IF('Deelnemers en Scores'!H16=0,"",'Deelnemers en Scores'!H16)</f>
+        <f>IF('Deelnemers en Scores'!H10=0,"",'Deelnemers en Scores'!H10)</f>
         <v/>
       </c>
       <c r="F9" s="134" t="str">
-        <f>IF('Deelnemers en Scores'!H17=0,"",'Deelnemers en Scores'!H17)</f>
+        <f>IF('Deelnemers en Scores'!H11=0,"",'Deelnemers en Scores'!H11)</f>
         <v/>
       </c>
       <c r="G9" s="134" t="str">
-        <f>IF('Deelnemers en Scores'!H18=0,"",'Deelnemers en Scores'!H18)</f>
+        <f>IF('Deelnemers en Scores'!H12=0,"",'Deelnemers en Scores'!H12)</f>
         <v/>
       </c>
       <c r="H9" s="134" t="str">
-        <f>IF('Deelnemers en Scores'!H19=0,"",'Deelnemers en Scores'!H19)</f>
+        <f>IF('Deelnemers en Scores'!H13=0,"",'Deelnemers en Scores'!H13)</f>
         <v/>
       </c>
       <c r="I9" s="123"/>
       <c r="J9" s="134" t="str">
-        <f>IF('Deelnemers en Scores'!I16=0,"",'Deelnemers en Scores'!I16)</f>
+        <f>IF('Deelnemers en Scores'!I10=0,"",'Deelnemers en Scores'!I10)</f>
         <v/>
       </c>
       <c r="K9" s="134" t="str">
-        <f>IF('Deelnemers en Scores'!I17=0,"",'Deelnemers en Scores'!I17)</f>
+        <f>IF('Deelnemers en Scores'!I11=0,"",'Deelnemers en Scores'!I11)</f>
         <v/>
       </c>
       <c r="L9" s="134" t="str">
-        <f>IF('Deelnemers en Scores'!I18=0,"",'Deelnemers en Scores'!I18)</f>
+        <f>IF('Deelnemers en Scores'!I12=0,"",'Deelnemers en Scores'!I12)</f>
         <v/>
       </c>
       <c r="M9" s="134" t="str">
-        <f>IF('Deelnemers en Scores'!I19=0,"",'Deelnemers en Scores'!I19)</f>
+        <f>IF('Deelnemers en Scores'!I13=0,"",'Deelnemers en Scores'!I13)</f>
         <v/>
       </c>
       <c r="N9" s="123"/>
       <c r="O9" s="135" t="str">
-        <f t="shared" ref="O9:O20" si="0">IF(ISNUMBER(J9),E9+J9,"")</f>
+        <f>IF(ISNUMBER(J9),E9+J9,"")</f>
         <v/>
       </c>
       <c r="P9" s="136" t="str">
-        <f t="shared" ref="P9:P20" si="1">IF(ISNUMBER(K9),F9+K9,"")</f>
+        <f>IF(ISNUMBER(K9),F9+K9,"")</f>
         <v/>
       </c>
       <c r="Q9" s="136" t="str">
-        <f t="shared" ref="Q9:Q20" si="2">IF(ISNUMBER(L9),G9+L9,"")</f>
+        <f>IF(ISNUMBER(L9),G9+L9,"")</f>
         <v/>
       </c>
       <c r="R9" s="137" t="str">
-        <f t="shared" ref="R9:R20" si="3">IF(ISNUMBER(M9),H9+M9,"")</f>
+        <f>IF(ISNUMBER(M9),H9+M9,"")</f>
         <v/>
       </c>
       <c r="S9" s="138">
-        <f t="shared" ref="S9:S20" si="4">IF(COUNT(O9:R9)&lt;4,SUM(O9:R9),SUM(O9:R9)-MIN(O9:R9))</f>
+        <f>IF(COUNT(O9:R9)&lt;4,SUM(O9:R9),SUM(O9:R9)-MIN(O9:R9))</f>
         <v>0</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="152"/>
       <c r="V9" s="155">
-        <f t="shared" ref="V9:V20" si="5">S9+(U9/1000)</f>
+        <f>S9+(U9/1000)</f>
         <v>0</v>
       </c>
       <c r="X9" s="154"/>
@@ -5241,75 +5239,75 @@
     <row r="10" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="130">
-        <f>IF('Deelnemers en Scores'!B21&gt;0,'Deelnemers en Scores'!B21,"")</f>
-        <v>3</v>
+        <f>IF('Deelnemers en Scores'!B15&gt;0,'Deelnemers en Scores'!B15,"")</f>
+        <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF('Deelnemers en Scores'!F21="","",'Deelnemers en Scores'!F21)</f>
-        <v>Team naam 3</v>
+        <f>IF('Deelnemers en Scores'!F15="","",'Deelnemers en Scores'!F15)</f>
+        <v>Team naam 2</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>'Deelnemers en Scores'!D21</f>
-        <v>Vereniging 3</v>
+        <f>'Deelnemers en Scores'!D15</f>
+        <v>Vereniging 2</v>
       </c>
       <c r="E10" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!H22=0,"",'Deelnemers en Scores'!H22)</f>
+        <f>IF('Deelnemers en Scores'!H16=0,"",'Deelnemers en Scores'!H16)</f>
         <v/>
       </c>
       <c r="F10" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!H23=0,"",'Deelnemers en Scores'!H23)</f>
+        <f>IF('Deelnemers en Scores'!H17=0,"",'Deelnemers en Scores'!H17)</f>
         <v/>
       </c>
       <c r="G10" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!H24=0,"",'Deelnemers en Scores'!H24)</f>
+        <f>IF('Deelnemers en Scores'!H18=0,"",'Deelnemers en Scores'!H18)</f>
         <v/>
       </c>
       <c r="H10" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!H25=0,"",'Deelnemers en Scores'!H25)</f>
+        <f>IF('Deelnemers en Scores'!H19=0,"",'Deelnemers en Scores'!H19)</f>
         <v/>
       </c>
       <c r="I10" s="123"/>
       <c r="J10" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!I22=0,"",'Deelnemers en Scores'!I22)</f>
+        <f>IF('Deelnemers en Scores'!I16=0,"",'Deelnemers en Scores'!I16)</f>
         <v/>
       </c>
       <c r="K10" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!I23=0,"",'Deelnemers en Scores'!I23)</f>
+        <f>IF('Deelnemers en Scores'!I17=0,"",'Deelnemers en Scores'!I17)</f>
         <v/>
       </c>
       <c r="L10" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!I24=0,"",'Deelnemers en Scores'!I24)</f>
+        <f>IF('Deelnemers en Scores'!I18=0,"",'Deelnemers en Scores'!I18)</f>
         <v/>
       </c>
       <c r="M10" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!I25=0,"",'Deelnemers en Scores'!I25)</f>
+        <f>IF('Deelnemers en Scores'!I19=0,"",'Deelnemers en Scores'!I19)</f>
         <v/>
       </c>
       <c r="N10" s="123"/>
       <c r="O10" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J10),E10+J10,"")</f>
         <v/>
       </c>
       <c r="P10" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K10),F10+K10,"")</f>
         <v/>
       </c>
       <c r="Q10" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L10),G10+L10,"")</f>
         <v/>
       </c>
       <c r="R10" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M10),H10+M10,"")</f>
         <v/>
       </c>
       <c r="S10" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O10:R10)&lt;4,SUM(O10:R10),SUM(O10:R10)-MIN(O10:R10))</f>
         <v>0</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="153"/>
       <c r="V10" s="155">
-        <f t="shared" si="5"/>
+        <f>S10+(U10/1000)</f>
         <v>0</v>
       </c>
       <c r="X10" s="154"/>
@@ -5318,75 +5316,75 @@
     <row r="11" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="130">
-        <f>IF('Deelnemers en Scores'!B9&gt;0,'Deelnemers en Scores'!B9,"")</f>
-        <v>1</v>
+        <f>IF('Deelnemers en Scores'!B21&gt;0,'Deelnemers en Scores'!B21,"")</f>
+        <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF('Deelnemers en Scores'!F9="","",'Deelnemers en Scores'!F9)</f>
-        <v>Team naam 1</v>
+        <f>IF('Deelnemers en Scores'!F21="","",'Deelnemers en Scores'!F21)</f>
+        <v>Team naam 3</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>'Deelnemers en Scores'!D9</f>
-        <v>Vereniging 1</v>
+        <f>'Deelnemers en Scores'!D21</f>
+        <v>Vereniging 3</v>
       </c>
       <c r="E11" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!H10=0,"",'Deelnemers en Scores'!H10)</f>
+        <f>IF('Deelnemers en Scores'!H22=0,"",'Deelnemers en Scores'!H22)</f>
         <v/>
       </c>
       <c r="F11" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!H11=0,"",'Deelnemers en Scores'!H11)</f>
+        <f>IF('Deelnemers en Scores'!H23=0,"",'Deelnemers en Scores'!H23)</f>
         <v/>
       </c>
       <c r="G11" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!H12=0,"",'Deelnemers en Scores'!H12)</f>
+        <f>IF('Deelnemers en Scores'!H24=0,"",'Deelnemers en Scores'!H24)</f>
         <v/>
       </c>
       <c r="H11" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!H13=0,"",'Deelnemers en Scores'!H13)</f>
+        <f>IF('Deelnemers en Scores'!H25=0,"",'Deelnemers en Scores'!H25)</f>
         <v/>
       </c>
       <c r="I11" s="123"/>
       <c r="J11" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!I10=0,"",'Deelnemers en Scores'!I10)</f>
+        <f>IF('Deelnemers en Scores'!I22=0,"",'Deelnemers en Scores'!I22)</f>
         <v/>
       </c>
       <c r="K11" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!I11=0,"",'Deelnemers en Scores'!I11)</f>
+        <f>IF('Deelnemers en Scores'!I23=0,"",'Deelnemers en Scores'!I23)</f>
         <v/>
       </c>
       <c r="L11" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!I12=0,"",'Deelnemers en Scores'!I12)</f>
+        <f>IF('Deelnemers en Scores'!I24=0,"",'Deelnemers en Scores'!I24)</f>
         <v/>
       </c>
       <c r="M11" s="33" t="str">
-        <f>IF('Deelnemers en Scores'!I13=0,"",'Deelnemers en Scores'!I13)</f>
+        <f>IF('Deelnemers en Scores'!I25=0,"",'Deelnemers en Scores'!I25)</f>
         <v/>
       </c>
       <c r="N11" s="123"/>
       <c r="O11" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J11),E11+J11,"")</f>
         <v/>
       </c>
       <c r="P11" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K11),F11+K11,"")</f>
         <v/>
       </c>
       <c r="Q11" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L11),G11+L11,"")</f>
         <v/>
       </c>
       <c r="R11" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M11),H11+M11,"")</f>
         <v/>
       </c>
       <c r="S11" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O11:R11)&lt;4,SUM(O11:R11),SUM(O11:R11)-MIN(O11:R11))</f>
         <v>0</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="153"/>
       <c r="V11" s="155">
-        <f t="shared" si="5"/>
+        <f>S11+(U11/1000)</f>
         <v>0</v>
       </c>
       <c r="X11" s="154"/>
@@ -5441,29 +5439,29 @@
       </c>
       <c r="N12" s="123"/>
       <c r="O12" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J12),E12+J12,"")</f>
         <v/>
       </c>
       <c r="P12" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K12),F12+K12,"")</f>
         <v/>
       </c>
       <c r="Q12" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L12),G12+L12,"")</f>
         <v/>
       </c>
       <c r="R12" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M12),H12+M12,"")</f>
         <v/>
       </c>
       <c r="S12" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O12:R12)&lt;4,SUM(O12:R12),SUM(O12:R12)-MIN(O12:R12))</f>
         <v>0</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="153"/>
       <c r="V12" s="155">
-        <f t="shared" si="5"/>
+        <f>S12+(U12/1000)</f>
         <v>0</v>
       </c>
       <c r="X12" s="154"/>
@@ -5518,29 +5516,29 @@
       </c>
       <c r="N13" s="123"/>
       <c r="O13" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J13),E13+J13,"")</f>
         <v/>
       </c>
       <c r="P13" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K13),F13+K13,"")</f>
         <v/>
       </c>
       <c r="Q13" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L13),G13+L13,"")</f>
         <v/>
       </c>
       <c r="R13" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M13),H13+M13,"")</f>
         <v/>
       </c>
       <c r="S13" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O13:R13)&lt;4,SUM(O13:R13),SUM(O13:R13)-MIN(O13:R13))</f>
         <v>0</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="153"/>
       <c r="V13" s="155">
-        <f t="shared" si="5"/>
+        <f>S13+(U13/1000)</f>
         <v>0</v>
       </c>
       <c r="X13" s="154"/>
@@ -5595,29 +5593,29 @@
       </c>
       <c r="N14" s="123"/>
       <c r="O14" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J14),E14+J14,"")</f>
         <v/>
       </c>
       <c r="P14" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K14),F14+K14,"")</f>
         <v/>
       </c>
       <c r="Q14" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L14),G14+L14,"")</f>
         <v/>
       </c>
       <c r="R14" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M14),H14+M14,"")</f>
         <v/>
       </c>
       <c r="S14" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O14:R14)&lt;4,SUM(O14:R14),SUM(O14:R14)-MIN(O14:R14))</f>
         <v>0</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="153"/>
       <c r="V14" s="155">
-        <f t="shared" si="5"/>
+        <f>S14+(U14/1000)</f>
         <v>0</v>
       </c>
       <c r="X14" s="154"/>
@@ -5672,29 +5670,29 @@
       </c>
       <c r="N15" s="123"/>
       <c r="O15" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J15),E15+J15,"")</f>
         <v/>
       </c>
       <c r="P15" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K15),F15+K15,"")</f>
         <v/>
       </c>
       <c r="Q15" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L15),G15+L15,"")</f>
         <v/>
       </c>
       <c r="R15" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M15),H15+M15,"")</f>
         <v/>
       </c>
       <c r="S15" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O15:R15)&lt;4,SUM(O15:R15),SUM(O15:R15)-MIN(O15:R15))</f>
         <v>0</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="153"/>
       <c r="V15" s="155">
-        <f t="shared" si="5"/>
+        <f>S15+(U15/1000)</f>
         <v>0</v>
       </c>
       <c r="X15" s="154"/>
@@ -5749,29 +5747,29 @@
       </c>
       <c r="N16" s="123"/>
       <c r="O16" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J16),E16+J16,"")</f>
         <v/>
       </c>
       <c r="P16" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K16),F16+K16,"")</f>
         <v/>
       </c>
       <c r="Q16" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L16),G16+L16,"")</f>
         <v/>
       </c>
       <c r="R16" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M16),H16+M16,"")</f>
         <v/>
       </c>
       <c r="S16" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O16:R16)&lt;4,SUM(O16:R16),SUM(O16:R16)-MIN(O16:R16))</f>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="153"/>
       <c r="V16" s="155">
-        <f t="shared" si="5"/>
+        <f>S16+(U16/1000)</f>
         <v>0</v>
       </c>
       <c r="X16" s="154"/>
@@ -5826,29 +5824,29 @@
       </c>
       <c r="N17" s="123"/>
       <c r="O17" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J17),E17+J17,"")</f>
         <v/>
       </c>
       <c r="P17" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K17),F17+K17,"")</f>
         <v/>
       </c>
       <c r="Q17" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L17),G17+L17,"")</f>
         <v/>
       </c>
       <c r="R17" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M17),H17+M17,"")</f>
         <v/>
       </c>
       <c r="S17" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O17:R17)&lt;4,SUM(O17:R17),SUM(O17:R17)-MIN(O17:R17))</f>
         <v>0</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="153"/>
       <c r="V17" s="155">
-        <f t="shared" si="5"/>
+        <f>S17+(U17/1000)</f>
         <v>0</v>
       </c>
       <c r="X17" s="154"/>
@@ -5903,29 +5901,29 @@
       </c>
       <c r="N18" s="123"/>
       <c r="O18" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J18),E18+J18,"")</f>
         <v/>
       </c>
       <c r="P18" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K18),F18+K18,"")</f>
         <v/>
       </c>
       <c r="Q18" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L18),G18+L18,"")</f>
         <v/>
       </c>
       <c r="R18" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M18),H18+M18,"")</f>
         <v/>
       </c>
       <c r="S18" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O18:R18)&lt;4,SUM(O18:R18),SUM(O18:R18)-MIN(O18:R18))</f>
         <v>0</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="153"/>
       <c r="V18" s="155">
-        <f t="shared" si="5"/>
+        <f>S18+(U18/1000)</f>
         <v>0</v>
       </c>
       <c r="X18" s="154"/>
@@ -5980,29 +5978,29 @@
       </c>
       <c r="N19" s="123"/>
       <c r="O19" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J19),E19+J19,"")</f>
         <v/>
       </c>
       <c r="P19" s="35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K19),F19+K19,"")</f>
         <v/>
       </c>
       <c r="Q19" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L19),G19+L19,"")</f>
         <v/>
       </c>
       <c r="R19" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M19),H19+M19,"")</f>
         <v/>
       </c>
       <c r="S19" s="138">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O19:R19)&lt;4,SUM(O19:R19),SUM(O19:R19)-MIN(O19:R19))</f>
         <v>0</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="153"/>
       <c r="V19" s="155">
-        <f t="shared" si="5"/>
+        <f>S19+(U19/1000)</f>
         <v>0</v>
       </c>
       <c r="X19" s="154"/>
@@ -6057,29 +6055,29 @@
       </c>
       <c r="N20" s="123"/>
       <c r="O20" s="192" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(J20),E20+J20,"")</f>
         <v/>
       </c>
       <c r="P20" s="193" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(K20),F20+K20,"")</f>
         <v/>
       </c>
       <c r="Q20" s="193" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(L20),G20+L20,"")</f>
         <v/>
       </c>
       <c r="R20" s="194" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(M20),H20+M20,"")</f>
         <v/>
       </c>
       <c r="S20" s="195">
-        <f t="shared" si="4"/>
+        <f>IF(COUNT(O20:R20)&lt;4,SUM(O20:R20),SUM(O20:R20)-MIN(O20:R20))</f>
         <v>0</v>
       </c>
       <c r="T20" s="198"/>
       <c r="U20" s="196"/>
       <c r="V20" s="197">
-        <f t="shared" si="5"/>
+        <f>S20+(U20/1000)</f>
         <v>0</v>
       </c>
       <c r="X20" s="154"/>
@@ -6112,7 +6110,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="B8:V20" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:V20">
-      <sortCondition descending="1" ref="V8:V20"/>
+      <sortCondition ref="B8:B20"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:V20">

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFDBCD9-07E7-4279-8821-0A9718CE54EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D5279-5610-4EB3-9C2F-94E2ADF9C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="1365" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -5208,29 +5208,29 @@
       </c>
       <c r="N9" s="123"/>
       <c r="O9" s="135" t="str">
-        <f>IF(ISNUMBER(J9),E9+J9,"")</f>
+        <f t="shared" ref="O9:O20" si="0">IF(ISNUMBER(J9),E9+J9,"")</f>
         <v/>
       </c>
       <c r="P9" s="136" t="str">
-        <f>IF(ISNUMBER(K9),F9+K9,"")</f>
+        <f t="shared" ref="P9:P20" si="1">IF(ISNUMBER(K9),F9+K9,"")</f>
         <v/>
       </c>
       <c r="Q9" s="136" t="str">
-        <f>IF(ISNUMBER(L9),G9+L9,"")</f>
+        <f t="shared" ref="Q9:Q20" si="2">IF(ISNUMBER(L9),G9+L9,"")</f>
         <v/>
       </c>
       <c r="R9" s="137" t="str">
-        <f>IF(ISNUMBER(M9),H9+M9,"")</f>
+        <f t="shared" ref="R9:R20" si="3">IF(ISNUMBER(M9),H9+M9,"")</f>
         <v/>
       </c>
       <c r="S9" s="138">
-        <f>IF(COUNT(O9:R9)&lt;4,SUM(O9:R9),SUM(O9:R9)-MIN(O9:R9))</f>
+        <f t="shared" ref="S9:S20" si="4">IF(COUNT(O9:R9)&lt;4,SUM(O9:R9),SUM(O9:R9)-MIN(O9:R9))</f>
         <v>0</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="152"/>
       <c r="V9" s="155">
-        <f>S9+(U9/1000)</f>
+        <f t="shared" ref="V9:V20" si="5">S9+(U9/1000)</f>
         <v>0</v>
       </c>
       <c r="X9" s="154"/>
@@ -5285,29 +5285,29 @@
       </c>
       <c r="N10" s="123"/>
       <c r="O10" s="34" t="str">
-        <f>IF(ISNUMBER(J10),E10+J10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P10" s="35" t="str">
-        <f>IF(ISNUMBER(K10),F10+K10,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q10" s="35" t="str">
-        <f>IF(ISNUMBER(L10),G10+L10,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R10" s="36" t="str">
-        <f>IF(ISNUMBER(M10),H10+M10,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S10" s="138">
-        <f>IF(COUNT(O10:R10)&lt;4,SUM(O10:R10),SUM(O10:R10)-MIN(O10:R10))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="153"/>
       <c r="V10" s="155">
-        <f>S10+(U10/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X10" s="154"/>
@@ -5362,29 +5362,29 @@
       </c>
       <c r="N11" s="123"/>
       <c r="O11" s="34" t="str">
-        <f>IF(ISNUMBER(J11),E11+J11,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P11" s="35" t="str">
-        <f>IF(ISNUMBER(K11),F11+K11,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q11" s="35" t="str">
-        <f>IF(ISNUMBER(L11),G11+L11,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R11" s="36" t="str">
-        <f>IF(ISNUMBER(M11),H11+M11,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S11" s="138">
-        <f>IF(COUNT(O11:R11)&lt;4,SUM(O11:R11),SUM(O11:R11)-MIN(O11:R11))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="153"/>
       <c r="V11" s="155">
-        <f>S11+(U11/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X11" s="154"/>
@@ -5439,29 +5439,29 @@
       </c>
       <c r="N12" s="123"/>
       <c r="O12" s="34" t="str">
-        <f>IF(ISNUMBER(J12),E12+J12,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P12" s="35" t="str">
-        <f>IF(ISNUMBER(K12),F12+K12,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q12" s="35" t="str">
-        <f>IF(ISNUMBER(L12),G12+L12,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R12" s="36" t="str">
-        <f>IF(ISNUMBER(M12),H12+M12,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S12" s="138">
-        <f>IF(COUNT(O12:R12)&lt;4,SUM(O12:R12),SUM(O12:R12)-MIN(O12:R12))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="153"/>
       <c r="V12" s="155">
-        <f>S12+(U12/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X12" s="154"/>
@@ -5516,29 +5516,29 @@
       </c>
       <c r="N13" s="123"/>
       <c r="O13" s="34" t="str">
-        <f>IF(ISNUMBER(J13),E13+J13,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P13" s="35" t="str">
-        <f>IF(ISNUMBER(K13),F13+K13,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q13" s="35" t="str">
-        <f>IF(ISNUMBER(L13),G13+L13,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R13" s="36" t="str">
-        <f>IF(ISNUMBER(M13),H13+M13,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S13" s="138">
-        <f>IF(COUNT(O13:R13)&lt;4,SUM(O13:R13),SUM(O13:R13)-MIN(O13:R13))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="153"/>
       <c r="V13" s="155">
-        <f>S13+(U13/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="154"/>
@@ -5593,29 +5593,29 @@
       </c>
       <c r="N14" s="123"/>
       <c r="O14" s="34" t="str">
-        <f>IF(ISNUMBER(J14),E14+J14,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P14" s="35" t="str">
-        <f>IF(ISNUMBER(K14),F14+K14,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q14" s="35" t="str">
-        <f>IF(ISNUMBER(L14),G14+L14,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R14" s="36" t="str">
-        <f>IF(ISNUMBER(M14),H14+M14,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S14" s="138">
-        <f>IF(COUNT(O14:R14)&lt;4,SUM(O14:R14),SUM(O14:R14)-MIN(O14:R14))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="153"/>
       <c r="V14" s="155">
-        <f>S14+(U14/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X14" s="154"/>
@@ -5670,29 +5670,29 @@
       </c>
       <c r="N15" s="123"/>
       <c r="O15" s="34" t="str">
-        <f>IF(ISNUMBER(J15),E15+J15,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P15" s="35" t="str">
-        <f>IF(ISNUMBER(K15),F15+K15,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q15" s="35" t="str">
-        <f>IF(ISNUMBER(L15),G15+L15,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R15" s="36" t="str">
-        <f>IF(ISNUMBER(M15),H15+M15,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S15" s="138">
-        <f>IF(COUNT(O15:R15)&lt;4,SUM(O15:R15),SUM(O15:R15)-MIN(O15:R15))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="153"/>
       <c r="V15" s="155">
-        <f>S15+(U15/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X15" s="154"/>
@@ -5747,29 +5747,29 @@
       </c>
       <c r="N16" s="123"/>
       <c r="O16" s="34" t="str">
-        <f>IF(ISNUMBER(J16),E16+J16,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P16" s="35" t="str">
-        <f>IF(ISNUMBER(K16),F16+K16,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q16" s="35" t="str">
-        <f>IF(ISNUMBER(L16),G16+L16,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R16" s="36" t="str">
-        <f>IF(ISNUMBER(M16),H16+M16,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S16" s="138">
-        <f>IF(COUNT(O16:R16)&lt;4,SUM(O16:R16),SUM(O16:R16)-MIN(O16:R16))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="153"/>
       <c r="V16" s="155">
-        <f>S16+(U16/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X16" s="154"/>
@@ -5824,29 +5824,29 @@
       </c>
       <c r="N17" s="123"/>
       <c r="O17" s="34" t="str">
-        <f>IF(ISNUMBER(J17),E17+J17,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P17" s="35" t="str">
-        <f>IF(ISNUMBER(K17),F17+K17,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q17" s="35" t="str">
-        <f>IF(ISNUMBER(L17),G17+L17,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R17" s="36" t="str">
-        <f>IF(ISNUMBER(M17),H17+M17,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S17" s="138">
-        <f>IF(COUNT(O17:R17)&lt;4,SUM(O17:R17),SUM(O17:R17)-MIN(O17:R17))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="153"/>
       <c r="V17" s="155">
-        <f>S17+(U17/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X17" s="154"/>
@@ -5901,29 +5901,29 @@
       </c>
       <c r="N18" s="123"/>
       <c r="O18" s="34" t="str">
-        <f>IF(ISNUMBER(J18),E18+J18,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P18" s="35" t="str">
-        <f>IF(ISNUMBER(K18),F18+K18,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q18" s="35" t="str">
-        <f>IF(ISNUMBER(L18),G18+L18,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R18" s="36" t="str">
-        <f>IF(ISNUMBER(M18),H18+M18,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S18" s="138">
-        <f>IF(COUNT(O18:R18)&lt;4,SUM(O18:R18),SUM(O18:R18)-MIN(O18:R18))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="153"/>
       <c r="V18" s="155">
-        <f>S18+(U18/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X18" s="154"/>
@@ -5978,29 +5978,29 @@
       </c>
       <c r="N19" s="123"/>
       <c r="O19" s="34" t="str">
-        <f>IF(ISNUMBER(J19),E19+J19,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P19" s="35" t="str">
-        <f>IF(ISNUMBER(K19),F19+K19,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q19" s="35" t="str">
-        <f>IF(ISNUMBER(L19),G19+L19,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R19" s="36" t="str">
-        <f>IF(ISNUMBER(M19),H19+M19,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S19" s="138">
-        <f>IF(COUNT(O19:R19)&lt;4,SUM(O19:R19),SUM(O19:R19)-MIN(O19:R19))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="153"/>
       <c r="V19" s="155">
-        <f>S19+(U19/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X19" s="154"/>
@@ -6055,29 +6055,29 @@
       </c>
       <c r="N20" s="123"/>
       <c r="O20" s="192" t="str">
-        <f>IF(ISNUMBER(J20),E20+J20,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P20" s="193" t="str">
-        <f>IF(ISNUMBER(K20),F20+K20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q20" s="193" t="str">
-        <f>IF(ISNUMBER(L20),G20+L20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R20" s="194" t="str">
-        <f>IF(ISNUMBER(M20),H20+M20,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S20" s="195">
-        <f>IF(COUNT(O20:R20)&lt;4,SUM(O20:R20),SUM(O20:R20)-MIN(O20:R20))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T20" s="198"/>
       <c r="U20" s="196"/>
       <c r="V20" s="197">
-        <f>S20+(U20/1000)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X20" s="154"/>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D5279-5610-4EB3-9C2F-94E2ADF9C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AABE547-D409-4946-8F86-224AFB1550A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="1410" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -1587,7 +1587,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1977,9 +1977,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2796,10 +2793,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="201"/>
+      <c r="B4" s="200"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
@@ -3078,17 +3075,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="202" t="str">
+      <c r="B1" s="201" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="204"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
@@ -3219,9 +3216,9 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="156" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="156" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="156" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="155" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="155" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="155" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="84" customWidth="1"/>
     <col min="6" max="6" width="34.44140625" style="84" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="85" customWidth="1"/>
@@ -3234,18 +3231,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="207"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="206"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="82"/>
@@ -3254,34 +3251,34 @@
       <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="208" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="210" t="s">
+      <c r="H4" s="209" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="211"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="210"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="157"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="89"/>
       <c r="C5" s="96"/>
       <c r="D5" s="97"/>
       <c r="E5" s="96"/>
-      <c r="F5" s="209"/>
+      <c r="F5" s="208"/>
       <c r="G5" s="96"/>
       <c r="H5" s="98"/>
       <c r="I5" s="98"/>
@@ -3299,10 +3296,10 @@
       <c r="G6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="208" t="s">
+      <c r="H6" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="208"/>
+      <c r="I6" s="207"/>
       <c r="J6" s="115" t="s">
         <v>5</v>
       </c>
@@ -3341,42 +3338,42 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="164"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="159"/>
+      <c r="B8" s="163"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="158"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="166">
+      <c r="B9" s="165">
         <v>1</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168" t="s">
+      <c r="C9" s="166"/>
+      <c r="D9" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="168" t="s">
+      <c r="E9" s="166"/>
+      <c r="F9" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="169">
+      <c r="G9" s="168">
         <v>888.8</v>
       </c>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="160">
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="159">
         <f>SUM(J10:J13)-MINA(J10:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
       <c r="E10" s="13">
         <v>123456</v>
       </c>
@@ -3399,9 +3396,9 @@
       <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="166"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="13">
         <v>123456</v>
       </c>
@@ -3424,9 +3421,9 @@
       <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
       <c r="E12" s="13">
         <v>123456</v>
       </c>
@@ -3449,9 +3446,9 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
       <c r="E13" s="13">
         <v>123456</v>
       </c>
@@ -3474,43 +3471,43 @@
       <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
       <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="166">
+      <c r="B15" s="165">
         <v>2</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168" t="s">
+      <c r="C15" s="166"/>
+      <c r="D15" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="168" t="s">
+      <c r="E15" s="166"/>
+      <c r="F15" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="169">
+      <c r="G15" s="168">
         <v>888.8</v>
       </c>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="160">
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="159">
         <f>IF(COUNTA(J16:J19)&lt;3,0,IF(COUNTA(J16:J19)=3,SUM(J16:J19),IF(SUM(J16:J19)&gt;0,SUM(J16:J19)-MINA(J16:J19),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="13">
         <v>123456</v>
       </c>
@@ -3533,9 +3530,9 @@
       <c r="K16" s="87"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="13">
         <v>123456</v>
       </c>
@@ -3558,9 +3555,9 @@
       <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="166"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
       <c r="E18" s="13">
         <v>123456</v>
       </c>
@@ -3583,9 +3580,9 @@
       <c r="K18" s="87"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="166"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="13">
         <v>123456</v>
       </c>
@@ -3608,43 +3605,43 @@
       <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
       <c r="K20" s="87"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="166">
+      <c r="B21" s="165">
         <v>3</v>
       </c>
-      <c r="C21" s="167"/>
-      <c r="D21" s="168" t="s">
+      <c r="C21" s="166"/>
+      <c r="D21" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="167"/>
-      <c r="F21" s="168" t="s">
+      <c r="E21" s="166"/>
+      <c r="F21" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="169">
+      <c r="G21" s="168">
         <v>888.8</v>
       </c>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="160">
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="159">
         <f>IF(COUNTA(J22:J25)&lt;3,0,IF(COUNTA(J22:J25)=3,SUM(J22:J25),IF(SUM(J22:J25)&gt;0,SUM(J22:J25)-MINA(J22:J25),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
       <c r="E22" s="13">
         <v>123456</v>
       </c>
@@ -3667,9 +3664,9 @@
       <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="166"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
       <c r="E23" s="13">
         <v>123456</v>
       </c>
@@ -3692,9 +3689,9 @@
       <c r="K23" s="87"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="166"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
       <c r="E24" s="13">
         <v>123456</v>
       </c>
@@ -3717,9 +3714,9 @@
       <c r="K24" s="87"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="166"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
       <c r="E25" s="13">
         <v>123456</v>
       </c>
@@ -3742,43 +3739,43 @@
       <c r="K25" s="87"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="166"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="166">
+      <c r="B27" s="165">
         <v>4</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="168" t="s">
+      <c r="C27" s="166"/>
+      <c r="D27" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="167"/>
-      <c r="F27" s="168" t="s">
+      <c r="E27" s="166"/>
+      <c r="F27" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="169">
+      <c r="G27" s="168">
         <v>888.8</v>
       </c>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="160">
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="159">
         <f>IF(COUNTA(J28:J31)&lt;3,0,IF(COUNTA(J28:J31)=3,SUM(J28:J31),IF(SUM(J28:J31)&gt;0,SUM(J28:J31)-MINA(J28:J31),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="166"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
       <c r="E28" s="13">
         <v>123456</v>
       </c>
@@ -3801,9 +3798,9 @@
       <c r="K28" s="87"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="166"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
       <c r="E29" s="13">
         <v>123456</v>
       </c>
@@ -3826,9 +3823,9 @@
       <c r="K29" s="87"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="166"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
       <c r="E30" s="13">
         <v>123456</v>
       </c>
@@ -3851,9 +3848,9 @@
       <c r="K30" s="87"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="166"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
       <c r="E31" s="13">
         <v>123456</v>
       </c>
@@ -3876,9 +3873,9 @@
       <c r="K31" s="87"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="166"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
       <c r="G32" s="93"/>
@@ -3887,11 +3884,11 @@
       <c r="K32" s="87"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="166">
+      <c r="B33" s="165">
         <v>5</v>
       </c>
-      <c r="C33" s="167"/>
-      <c r="D33" s="168" t="s">
+      <c r="C33" s="166"/>
+      <c r="D33" s="167" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="90"/>
@@ -3903,16 +3900,16 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="160">
+      <c r="J33" s="155"/>
+      <c r="K33" s="159">
         <f>IF(COUNTA(J34:J37)&lt;3,0,IF(COUNTA(J34:J37)=3,SUM(J34:J37),IF(SUM(J34:J37)&gt;0,SUM(J34:J37)-MINA(J34:J37),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="166"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="13">
         <v>123456</v>
       </c>
@@ -3935,9 +3932,9 @@
       <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="166"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="13">
         <v>123456</v>
       </c>
@@ -3960,9 +3957,9 @@
       <c r="K35" s="87"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="166"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
       <c r="E36" s="13">
         <v>123456</v>
       </c>
@@ -3985,9 +3982,9 @@
       <c r="K36" s="87"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="166"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="13">
         <v>123456</v>
       </c>
@@ -4010,43 +4007,43 @@
       <c r="K37" s="87"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="166"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
       <c r="K38" s="87"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="166">
+      <c r="B39" s="165">
         <v>6</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="168" t="s">
+      <c r="C39" s="166"/>
+      <c r="D39" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="167"/>
-      <c r="F39" s="168" t="s">
+      <c r="E39" s="166"/>
+      <c r="F39" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="169">
+      <c r="G39" s="168">
         <v>888.8</v>
       </c>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="160">
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="159">
         <f>IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="166"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
       <c r="E40" s="13">
         <v>123456</v>
       </c>
@@ -4069,9 +4066,9 @@
       <c r="K40" s="87"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="166"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
       <c r="E41" s="13">
         <v>123456</v>
       </c>
@@ -4094,9 +4091,9 @@
       <c r="K41" s="87"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="166"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="13">
         <v>123456</v>
       </c>
@@ -4119,9 +4116,9 @@
       <c r="K42" s="87"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="166"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="13">
         <v>123456</v>
       </c>
@@ -4144,43 +4141,43 @@
       <c r="K43" s="87"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="166"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
       <c r="K44" s="87"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="166">
+      <c r="B45" s="165">
         <v>7</v>
       </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="168" t="s">
+      <c r="C45" s="166"/>
+      <c r="D45" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="167"/>
-      <c r="F45" s="168" t="s">
+      <c r="E45" s="166"/>
+      <c r="F45" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="169">
+      <c r="G45" s="168">
         <v>888.8</v>
       </c>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="160">
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="159">
         <f>IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="166"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
       <c r="E46" s="13">
         <v>123456</v>
       </c>
@@ -4203,9 +4200,9 @@
       <c r="K46" s="87"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="166"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="13">
         <v>123456</v>
       </c>
@@ -4228,9 +4225,9 @@
       <c r="K47" s="87"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="166"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="13">
         <v>123456</v>
       </c>
@@ -4253,9 +4250,9 @@
       <c r="K48" s="87"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="166"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
       <c r="E49" s="13">
         <v>123456</v>
       </c>
@@ -4278,43 +4275,43 @@
       <c r="K49" s="87"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="166"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="173"/>
-      <c r="I50" s="173"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="173"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
       <c r="K50" s="87"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="166">
+      <c r="B51" s="165">
         <v>8</v>
       </c>
-      <c r="C51" s="167"/>
-      <c r="D51" s="168" t="s">
+      <c r="C51" s="166"/>
+      <c r="D51" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="167"/>
-      <c r="F51" s="168" t="s">
+      <c r="E51" s="166"/>
+      <c r="F51" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="169">
+      <c r="G51" s="168">
         <v>888.8</v>
       </c>
-      <c r="H51" s="173"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="160">
+      <c r="H51" s="172"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="159">
         <f>IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="166"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
       <c r="E52" s="13">
         <v>123456</v>
       </c>
@@ -4337,9 +4334,9 @@
       <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="166"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
       <c r="E53" s="13">
         <v>123456</v>
       </c>
@@ -4362,9 +4359,9 @@
       <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="166"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
       <c r="E54" s="13">
         <v>123456</v>
       </c>
@@ -4387,9 +4384,9 @@
       <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="166"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
       <c r="E55" s="13">
         <v>123456</v>
       </c>
@@ -4412,43 +4409,43 @@
       <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="166"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="174"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="173"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
       <c r="K56" s="87"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="166">
+      <c r="B57" s="165">
         <v>9</v>
       </c>
-      <c r="C57" s="167"/>
-      <c r="D57" s="168" t="s">
+      <c r="C57" s="166"/>
+      <c r="D57" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="167"/>
-      <c r="F57" s="168" t="s">
+      <c r="E57" s="166"/>
+      <c r="F57" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="169">
+      <c r="G57" s="168">
         <v>888.8</v>
       </c>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="160">
+      <c r="H57" s="172"/>
+      <c r="I57" s="172"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="159">
         <f>IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="166"/>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
       <c r="E58" s="13">
         <v>123456</v>
       </c>
@@ -4471,9 +4468,9 @@
       <c r="K58" s="87"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="166"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
       <c r="E59" s="13">
         <v>123456</v>
       </c>
@@ -4496,9 +4493,9 @@
       <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="166"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
       <c r="E60" s="13">
         <v>123456</v>
       </c>
@@ -4521,9 +4518,9 @@
       <c r="K60" s="87"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="166"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
       <c r="E61" s="13">
         <v>123456</v>
       </c>
@@ -4547,7 +4544,7 @@
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="42"/>
-      <c r="B62" s="170"/>
+      <c r="B62" s="169"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
       <c r="E62"/>
@@ -4556,14 +4553,14 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="42"/>
-      <c r="K62" s="161"/>
+      <c r="K62" s="160"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="166">
+      <c r="B63" s="165">
         <v>10</v>
       </c>
-      <c r="C63" s="167"/>
-      <c r="D63" s="168" t="s">
+      <c r="C63" s="166"/>
+      <c r="D63" s="167" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="90"/>
@@ -4575,16 +4572,16 @@
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="160">
+      <c r="J63" s="155"/>
+      <c r="K63" s="159">
         <f>IF(COUNTA(J64:J67)&lt;3,0,IF(COUNTA(J64:J67)=3,SUM(J64:J67),IF(SUM(J64:J67)&gt;0,SUM(J64:J67)-MINA(J64:J67),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="166"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
       <c r="E64" s="13">
         <v>123456</v>
       </c>
@@ -4607,9 +4604,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="166"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="166"/>
       <c r="E65" s="13">
         <v>123456</v>
       </c>
@@ -4632,9 +4629,9 @@
       <c r="K65" s="87"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="166"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="167"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="166"/>
       <c r="E66" s="13">
         <v>123456</v>
       </c>
@@ -4657,9 +4654,9 @@
       <c r="K66" s="87"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="166"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="166"/>
       <c r="E67" s="13">
         <v>123456</v>
       </c>
@@ -4682,38 +4679,38 @@
       <c r="K67" s="87"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="164"/>
-      <c r="H68" s="173"/>
-      <c r="I68" s="173"/>
+      <c r="B68" s="163"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="172"/>
       <c r="K68" s="87"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="166">
+      <c r="B69" s="165">
         <v>11</v>
       </c>
-      <c r="C69" s="167"/>
-      <c r="D69" s="168" t="s">
+      <c r="C69" s="166"/>
+      <c r="D69" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="167"/>
-      <c r="F69" s="168" t="s">
+      <c r="E69" s="166"/>
+      <c r="F69" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="169">
+      <c r="G69" s="168">
         <v>888.8</v>
       </c>
-      <c r="H69" s="173"/>
-      <c r="I69" s="173"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="160">
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="155"/>
+      <c r="K69" s="159">
         <f>IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="166"/>
-      <c r="C70" s="167"/>
-      <c r="D70" s="167"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="166"/>
       <c r="E70" s="13">
         <v>123456</v>
       </c>
@@ -4736,9 +4733,9 @@
       <c r="K70" s="87"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="166"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="166"/>
       <c r="E71" s="13">
         <v>123456</v>
       </c>
@@ -4761,9 +4758,9 @@
       <c r="K71" s="87"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="166"/>
-      <c r="C72" s="167"/>
-      <c r="D72" s="167"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="166"/>
       <c r="E72" s="13">
         <v>123456</v>
       </c>
@@ -4786,9 +4783,9 @@
       <c r="K72" s="87"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="166"/>
-      <c r="C73" s="167"/>
-      <c r="D73" s="167"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
       <c r="E73" s="13">
         <v>123456</v>
       </c>
@@ -4811,38 +4808,38 @@
       <c r="K73" s="87"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="164"/>
-      <c r="H74" s="173"/>
-      <c r="I74" s="173"/>
+      <c r="B74" s="163"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
       <c r="K74" s="87"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="166">
+      <c r="B75" s="165">
         <v>12</v>
       </c>
-      <c r="C75" s="167"/>
-      <c r="D75" s="168" t="s">
+      <c r="C75" s="166"/>
+      <c r="D75" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="167"/>
-      <c r="F75" s="168" t="s">
+      <c r="E75" s="166"/>
+      <c r="F75" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="169">
+      <c r="G75" s="168">
         <v>888.8</v>
       </c>
-      <c r="H75" s="173"/>
-      <c r="I75" s="173"/>
-      <c r="J75" s="156"/>
-      <c r="K75" s="160">
+      <c r="H75" s="172"/>
+      <c r="I75" s="172"/>
+      <c r="J75" s="155"/>
+      <c r="K75" s="159">
         <f>IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="166"/>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
       <c r="E76" s="13">
         <v>123456</v>
       </c>
@@ -4865,9 +4862,9 @@
       <c r="K76" s="87"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="166"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="13">
         <v>123456</v>
       </c>
@@ -4890,9 +4887,9 @@
       <c r="K77" s="87"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="166"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="13">
         <v>123456</v>
       </c>
@@ -4915,9 +4912,9 @@
       <c r="K78" s="87"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="166"/>
-      <c r="C79" s="167"/>
-      <c r="D79" s="167"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
       <c r="E79" s="13">
         <v>123456</v>
       </c>
@@ -4940,20 +4937,20 @@
       <c r="K79" s="87"/>
     </row>
     <row r="80" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="171"/>
-      <c r="C80" s="172"/>
-      <c r="D80" s="172"/>
-      <c r="E80" s="175"/>
-      <c r="F80" s="175"/>
-      <c r="G80" s="176"/>
-      <c r="H80" s="162"/>
-      <c r="I80" s="162"/>
-      <c r="J80" s="162"/>
-      <c r="K80" s="163"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="171"/>
+      <c r="E80" s="174"/>
+      <c r="F80" s="174"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="161"/>
+      <c r="I80" s="161"/>
+      <c r="J80" s="161"/>
+      <c r="K80" s="162"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="158" t="s">
+      <c r="B82" s="157" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5012,30 +5009,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="217" t="str">
+      <c r="B2" s="216" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="219"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="218"/>
     </row>
     <row r="4" spans="1:25" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5070,31 +5067,31 @@
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
       <c r="D7" s="126"/>
-      <c r="E7" s="214" t="s">
+      <c r="E7" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="216"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="215"/>
       <c r="I7" s="128"/>
-      <c r="J7" s="214" t="s">
+      <c r="J7" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="216"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="215"/>
       <c r="N7" s="128"/>
-      <c r="O7" s="214" t="s">
+      <c r="O7" s="213" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
+      <c r="P7" s="214"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="215"/>
       <c r="S7" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="T7" s="148"/>
-      <c r="U7" s="150" t="s">
+      <c r="T7" s="147"/>
+      <c r="U7" s="149" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="129" t="s">
@@ -5107,57 +5104,57 @@
         <v>0</v>
       </c>
       <c r="C8" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="141" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="142">
+      <c r="E8" s="141">
         <v>1</v>
       </c>
-      <c r="F8" s="143">
+      <c r="F8" s="142">
         <v>2</v>
       </c>
-      <c r="G8" s="143">
+      <c r="G8" s="142">
         <v>3</v>
       </c>
-      <c r="H8" s="144">
+      <c r="H8" s="143">
         <v>4</v>
       </c>
-      <c r="I8" s="145"/>
-      <c r="J8" s="142">
+      <c r="I8" s="144"/>
+      <c r="J8" s="141">
         <v>1</v>
       </c>
-      <c r="K8" s="143">
+      <c r="K8" s="142">
         <v>2</v>
       </c>
-      <c r="L8" s="143">
+      <c r="L8" s="142">
         <v>3</v>
       </c>
-      <c r="M8" s="144">
+      <c r="M8" s="143">
         <v>4</v>
       </c>
-      <c r="N8" s="145"/>
-      <c r="O8" s="142">
+      <c r="N8" s="144"/>
+      <c r="O8" s="141">
         <v>1</v>
       </c>
-      <c r="P8" s="143">
+      <c r="P8" s="142">
         <v>2</v>
       </c>
-      <c r="Q8" s="143">
+      <c r="Q8" s="142">
         <v>3</v>
       </c>
-      <c r="R8" s="144">
+      <c r="R8" s="143">
         <v>4</v>
       </c>
-      <c r="S8" s="146" t="s">
+      <c r="S8" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="T8" s="149"/>
-      <c r="U8" s="151" t="s">
+      <c r="T8" s="148"/>
+      <c r="U8" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="147"/>
+      <c r="V8" s="146"/>
     </row>
     <row r="9" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -5228,12 +5225,12 @@
         <v>0</v>
       </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="155">
+      <c r="U9" s="151"/>
+      <c r="V9" s="154">
         <f t="shared" ref="V9:V20" si="5">S9+(U9/1000)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="154"/>
+      <c r="X9" s="153"/>
       <c r="Y9" s="45"/>
     </row>
     <row r="10" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5305,12 +5302,12 @@
         <v>0</v>
       </c>
       <c r="T10" s="3"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="155">
+      <c r="U10" s="152"/>
+      <c r="V10" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X10" s="154"/>
+      <c r="X10" s="153"/>
       <c r="Y10" s="45"/>
     </row>
     <row r="11" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5382,12 +5379,12 @@
         <v>0</v>
       </c>
       <c r="T11" s="3"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="155">
+      <c r="U11" s="152"/>
+      <c r="V11" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X11" s="154"/>
+      <c r="X11" s="153"/>
       <c r="Y11" s="45"/>
     </row>
     <row r="12" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5459,12 +5456,12 @@
         <v>0</v>
       </c>
       <c r="T12" s="3"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="155">
+      <c r="U12" s="152"/>
+      <c r="V12" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X12" s="154"/>
+      <c r="X12" s="153"/>
       <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5536,12 +5533,12 @@
         <v>0</v>
       </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="153"/>
-      <c r="V13" s="155">
+      <c r="U13" s="152"/>
+      <c r="V13" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X13" s="154"/>
+      <c r="X13" s="153"/>
       <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5613,12 +5610,12 @@
         <v>0</v>
       </c>
       <c r="T14" s="3"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="155">
+      <c r="U14" s="152"/>
+      <c r="V14" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X14" s="154"/>
+      <c r="X14" s="153"/>
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5690,12 +5687,12 @@
         <v>0</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="155">
+      <c r="U15" s="152"/>
+      <c r="V15" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X15" s="154"/>
+      <c r="X15" s="153"/>
       <c r="Y15" s="45"/>
     </row>
     <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5767,12 +5764,12 @@
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="155">
+      <c r="U16" s="152"/>
+      <c r="V16" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X16" s="154"/>
+      <c r="X16" s="153"/>
       <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5844,12 +5841,12 @@
         <v>0</v>
       </c>
       <c r="T17" s="3"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="155">
+      <c r="U17" s="152"/>
+      <c r="V17" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X17" s="154"/>
+      <c r="X17" s="153"/>
       <c r="Y17" s="45"/>
     </row>
     <row r="18" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5921,12 +5918,12 @@
         <v>0</v>
       </c>
       <c r="T18" s="3"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="155">
+      <c r="U18" s="152"/>
+      <c r="V18" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X18" s="154"/>
+      <c r="X18" s="153"/>
       <c r="Y18" s="45"/>
     </row>
     <row r="19" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5998,113 +5995,113 @@
         <v>0</v>
       </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="155">
+      <c r="U19" s="152"/>
+      <c r="V19" s="154">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X19" s="154"/>
+      <c r="X19" s="153"/>
       <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="188">
+      <c r="B20" s="187">
         <f>IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C20" s="189" t="str">
+      <c r="C20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>Team naam 12</v>
       </c>
-      <c r="D20" s="190" t="str">
+      <c r="D20" s="189" t="str">
         <f>'Deelnemers en Scores'!D75</f>
         <v>Vereniging 12</v>
       </c>
-      <c r="E20" s="191" t="str">
+      <c r="E20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F20" s="191" t="str">
+      <c r="F20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G20" s="191" t="str">
+      <c r="G20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H20" s="191" t="str">
+      <c r="H20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
       <c r="I20" s="123"/>
-      <c r="J20" s="191" t="str">
+      <c r="J20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K20" s="191" t="str">
+      <c r="K20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L20" s="191" t="str">
+      <c r="L20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M20" s="191" t="str">
+      <c r="M20" s="190" t="str">
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
       <c r="N20" s="123"/>
-      <c r="O20" s="192" t="str">
+      <c r="O20" s="191" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="193" t="str">
+      <c r="P20" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="193" t="str">
+      <c r="Q20" s="192" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="194" t="str">
+      <c r="R20" s="193" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S20" s="195">
+      <c r="S20" s="194">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="198"/>
-      <c r="U20" s="196"/>
-      <c r="V20" s="197">
+      <c r="T20" s="197"/>
+      <c r="U20" s="195"/>
+      <c r="V20" s="196">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X20" s="154"/>
+      <c r="X20" s="153"/>
       <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="199"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="200"/>
-      <c r="P21" s="200"/>
-      <c r="Q21" s="200"/>
-      <c r="R21" s="200"/>
-      <c r="S21" s="200"/>
-      <c r="T21" s="200"/>
-      <c r="U21" s="200"/>
-      <c r="V21" s="200"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="199"/>
+      <c r="N21" s="199"/>
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="199"/>
+      <c r="U21" s="199"/>
+      <c r="V21" s="199"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6190,32 +6187,32 @@
     <row r="2" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="220" t="str">
+      <c r="B4" s="219" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="221"/>
-      <c r="W4" s="221"/>
-      <c r="X4" s="222"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="220"/>
+      <c r="S4" s="220"/>
+      <c r="T4" s="220"/>
+      <c r="U4" s="220"/>
+      <c r="V4" s="220"/>
+      <c r="W4" s="220"/>
+      <c r="X4" s="221"/>
       <c r="Y4" s="25"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -6478,8 +6475,8 @@
       <c r="E12" s="72"/>
       <c r="F12" s="74"/>
       <c r="G12" s="73"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="183" t="str">
+      <c r="H12" s="176"/>
+      <c r="I12" s="182" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H12&gt;H14),"*","")</f>
         <v/>
       </c>
@@ -6559,8 +6556,8 @@
       <c r="E14" s="72"/>
       <c r="F14" s="74"/>
       <c r="G14" s="73"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="184" t="str">
+      <c r="H14" s="176"/>
+      <c r="I14" s="183" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H14&gt;H12),"*","")</f>
         <v/>
       </c>
@@ -6611,8 +6608,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="74"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="183" t="str">
+      <c r="P15" s="176"/>
+      <c r="Q15" s="182" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -6654,7 +6651,7 @@
       <c r="L16" s="19"/>
       <c r="N16" s="20"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="181" t="str">
+      <c r="P16" s="180" t="str">
         <f>IF(AI16=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -6702,8 +6699,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="74"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="184" t="str">
+      <c r="P17" s="176"/>
+      <c r="Q17" s="183" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -6743,8 +6740,8 @@
       <c r="E18" s="72"/>
       <c r="F18" s="74"/>
       <c r="G18" s="73"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="183" t="str">
+      <c r="H18" s="176"/>
+      <c r="I18" s="182" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H18&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -6816,8 +6813,8 @@
       <c r="U19" s="46"/>
       <c r="V19" s="11"/>
       <c r="W19" s="46"/>
-      <c r="X19" s="178"/>
-      <c r="Y19" s="179" t="str">
+      <c r="X19" s="177"/>
+      <c r="Y19" s="178" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X19&gt;X21),"*","")</f>
         <v/>
       </c>
@@ -6863,8 +6860,8 @@
       <c r="E20" s="72"/>
       <c r="F20" s="74"/>
       <c r="G20" s="73"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="184" t="str">
+      <c r="H20" s="176"/>
+      <c r="I20" s="183" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H20&gt;H18),"*","")</f>
         <v/>
       </c>
@@ -6876,7 +6873,7 @@
       <c r="U20" s="18"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
-      <c r="X20" s="181" t="str">
+      <c r="X20" s="180" t="str">
         <f>IF(AO20=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -6929,8 +6926,8 @@
       <c r="U21" s="46"/>
       <c r="V21" s="11"/>
       <c r="W21" s="46"/>
-      <c r="X21" s="178"/>
-      <c r="Y21" s="180" t="str">
+      <c r="X21" s="177"/>
+      <c r="Y21" s="179" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X21&gt;X19),"*","")</f>
         <v/>
       </c>
@@ -6961,7 +6958,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="108"/>
-      <c r="I22" s="185"/>
+      <c r="I22" s="184"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
       <c r="Q22" s="78"/>
@@ -7002,8 +6999,8 @@
       <c r="E24" s="72"/>
       <c r="F24" s="74"/>
       <c r="G24" s="73"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="183" t="str">
+      <c r="H24" s="176"/>
+      <c r="I24" s="182" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H24&gt;H26),"*","")</f>
         <v/>
       </c>
@@ -7074,8 +7071,8 @@
       <c r="E26" s="72"/>
       <c r="F26" s="74"/>
       <c r="G26" s="73"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="184" t="str">
+      <c r="H26" s="176"/>
+      <c r="I26" s="183" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H26&gt;H24),"*","")</f>
         <v/>
       </c>
@@ -7138,8 +7135,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="74"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="183" t="str">
+      <c r="P27" s="176"/>
+      <c r="Q27" s="182" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P27&gt;P29),"*","")</f>
         <v/>
       </c>
@@ -7175,7 +7172,7 @@
       <c r="L28" s="19"/>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="181" t="str">
+      <c r="P28" s="180" t="str">
         <f>IF(AI28=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7226,8 +7223,8 @@
       <c r="M29" s="46"/>
       <c r="N29" s="74"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="184" t="str">
+      <c r="P29" s="176"/>
+      <c r="Q29" s="183" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P29&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -7260,8 +7257,8 @@
       <c r="E30" s="72"/>
       <c r="F30" s="74"/>
       <c r="G30" s="73"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="183" t="str">
+      <c r="H30" s="176"/>
+      <c r="I30" s="182" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H30&gt;H32),"*","")</f>
         <v/>
       </c>
@@ -7328,8 +7325,8 @@
       <c r="U31" s="46"/>
       <c r="V31" s="11"/>
       <c r="W31" s="46"/>
-      <c r="X31" s="178"/>
-      <c r="Y31" s="179" t="str">
+      <c r="X31" s="177"/>
+      <c r="Y31" s="178" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X31&gt;X33),"*","")</f>
         <v/>
       </c>
@@ -7375,8 +7372,8 @@
       <c r="E32" s="72"/>
       <c r="F32" s="74"/>
       <c r="G32" s="73"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="184" t="str">
+      <c r="H32" s="176"/>
+      <c r="I32" s="183" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H32&gt;H30),"*","")</f>
         <v/>
       </c>
@@ -7386,7 +7383,7 @@
       <c r="U32" s="18"/>
       <c r="V32" s="65"/>
       <c r="W32" s="65"/>
-      <c r="X32" s="181" t="str">
+      <c r="X32" s="180" t="str">
         <f>IF(AO32=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7435,8 +7432,8 @@
       <c r="U33" s="46"/>
       <c r="V33" s="11"/>
       <c r="W33" s="46"/>
-      <c r="X33" s="178"/>
-      <c r="Y33" s="180" t="str">
+      <c r="X33" s="177"/>
+      <c r="Y33" s="179" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X33&gt;X31),"*","")</f>
         <v/>
       </c>
@@ -7613,24 +7610,24 @@
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="220" t="str">
+      <c r="B4" s="219" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="222"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="221"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="W4"/>
@@ -7744,8 +7741,8 @@
       <c r="E11" s="46"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="183" t="str">
+      <c r="H11" s="181"/>
+      <c r="I11" s="182" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H11&gt;H13),"*","")</f>
         <v/>
       </c>
@@ -7774,7 +7771,7 @@
       <c r="D12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="181" t="str">
+      <c r="H12" s="180" t="str">
         <f>IF(U12=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7821,8 +7818,8 @@
       <c r="E13" s="46"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="184" t="str">
+      <c r="H13" s="181"/>
+      <c r="I13" s="183" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H13&gt;H11),"*","")</f>
         <v/>
       </c>
@@ -7884,8 +7881,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="11"/>
       <c r="O15" s="46"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="186" t="str">
+      <c r="P15" s="177"/>
+      <c r="Q15" s="185" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -7913,7 +7910,7 @@
       <c r="M16" s="18"/>
       <c r="N16" s="65"/>
       <c r="O16" s="65"/>
-      <c r="P16" s="181" t="str">
+      <c r="P16" s="180" t="str">
         <f>IF(AA16=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7949,8 +7946,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="11"/>
       <c r="O17" s="46"/>
-      <c r="P17" s="178"/>
-      <c r="Q17" s="187" t="str">
+      <c r="P17" s="177"/>
+      <c r="Q17" s="186" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -8028,8 +8025,8 @@
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="183" t="str">
+      <c r="H20" s="181"/>
+      <c r="I20" s="182" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H20&gt;H22),"*","")</f>
         <v/>
       </c>
@@ -8057,7 +8054,7 @@
       <c r="D21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="181" t="str">
+      <c r="H21" s="180" t="str">
         <f>IF(U21=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -8100,8 +8097,8 @@
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="184" t="str">
+      <c r="H22" s="181"/>
+      <c r="I22" s="183" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H22&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -8166,8 +8163,8 @@
       <c r="M25" s="46"/>
       <c r="N25" s="11"/>
       <c r="O25" s="46"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="186" t="str">
+      <c r="P25" s="177"/>
+      <c r="Q25" s="185" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -8197,7 +8194,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
-      <c r="P26" s="181" t="str">
+      <c r="P26" s="180" t="str">
         <f>IF(AA26=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -8235,8 +8232,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="11"/>
       <c r="O27" s="46"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="187" t="str">
+      <c r="P27" s="177"/>
+      <c r="Q27" s="186" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AABE547-D409-4946-8F86-224AFB1550A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D692E33-60E1-4329-85A9-CD73A172AD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1410" windowWidth="22440" windowHeight="14040" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="1005" windowWidth="18195" windowHeight="14025" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>Baan</t>
   </si>
@@ -487,28 +487,6 @@
   </si>
   <si>
     <t>Vereniging 123</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">E-mail </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>opsturen ingevuld bestand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: nhb-apps-support@handboogsport.nl</t>
-    </r>
   </si>
   <si>
     <t>BK Indoor Teams, Klasse: komt hier</t>
@@ -712,6 +690,31 @@
   </si>
   <si>
     <t>Dit werkboek bestaat uit 5 of 6 bladen:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E-mail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>insturen ingevuld bestand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: mh-support@handboogsport.nl</t>
+    </r>
+  </si>
+  <si>
+    <t>Contactgegevens</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1590,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2232,6 +2235,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2788,13 +2794,13 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="200" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="200"/>
     </row>
@@ -2803,7 +2809,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2813,7 +2819,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2828,7 +2834,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2844,7 +2850,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2871,7 +2877,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2899,12 +2905,12 @@
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2915,32 +2921,32 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B35" s="100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2949,13 +2955,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3029,15 +3035,19 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="222" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2"/>
@@ -3094,12 +3104,12 @@
     <row r="4" spans="2:9" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="D6" s="60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D7" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -3232,7 +3242,7 @@
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="204" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="205"/>
       <c r="D2" s="205"/>
@@ -3322,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="120" t="s">
         <v>52</v>
@@ -3331,7 +3341,7 @@
         <v>53</v>
       </c>
       <c r="J7" s="115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" s="118" t="s">
         <v>6</v>
@@ -5088,14 +5098,14 @@
       <c r="Q7" s="214"/>
       <c r="R7" s="215"/>
       <c r="S7" s="127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T7" s="147"/>
       <c r="U7" s="149" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5148,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="S8" s="145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T8" s="148"/>
       <c r="U8" s="150" t="s">
@@ -7522,9 +7532,9 @@
       <formula>AC$13=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30 H32">
-    <cfRule type="expression" dxfId="10" priority="19">
-      <formula>AC$31=FALSE</formula>
+  <conditionalFormatting sqref="H18 H20">
+    <cfRule type="expression" dxfId="10" priority="21">
+      <formula>AC$19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 H26">
@@ -7532,18 +7542,18 @@
       <formula>AC$25=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18 H20">
-    <cfRule type="expression" dxfId="8" priority="21">
-      <formula>AC$19=FALSE</formula>
+  <conditionalFormatting sqref="H30 H32">
+    <cfRule type="expression" dxfId="8" priority="19">
+      <formula>AC$31=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15 P27">
+    <cfRule type="expression" dxfId="7" priority="25">
+      <formula>AI16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17 P29">
-    <cfRule type="expression" dxfId="7" priority="24">
-      <formula>AI16=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15 P27">
-    <cfRule type="expression" dxfId="6" priority="25">
+    <cfRule type="expression" dxfId="6" priority="24">
       <formula>AI16=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7721,7 +7731,7 @@
         <v>92</v>
       </c>
       <c r="X10" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y10" s="18"/>
     </row>
@@ -8006,7 +8016,7 @@
         <v>92</v>
       </c>
       <c r="X19" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="27.75" x14ac:dyDescent="0.2">
@@ -8276,24 +8286,24 @@
     <mergeCell ref="B4:P4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="P25 P27">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AA$26=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20 H11">
-    <cfRule type="expression" dxfId="2" priority="29">
+  <conditionalFormatting sqref="H11 H20">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>U12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H13">
-    <cfRule type="expression" dxfId="1" priority="30">
+  <conditionalFormatting sqref="H13 H22">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>U12=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15 P17">
-    <cfRule type="expression" dxfId="0" priority="31">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>AA$16=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25 P27">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AA$26=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D692E33-60E1-4329-85A9-CD73A172AD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973DA3EB-40AF-4767-A156-BD0CA43F0556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1005" windowWidth="18195" windowHeight="14025" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="1095" windowWidth="18810" windowHeight="14025" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Finales 4 teams" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$B$8:$V$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$V$8:$V$20</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
@@ -2159,6 +2159,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2235,9 +2238,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2799,10 +2799,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="200"/>
+      <c r="B4" s="201"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="222" t="s">
+      <c r="A58" s="200" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3085,17 +3085,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="201" t="str">
+      <c r="B1" s="202" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="204"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
@@ -3241,18 +3241,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="205" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="207"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="82"/>
@@ -3261,26 +3261,26 @@
       <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
       <c r="E4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="208" t="s">
+      <c r="F4" s="209" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="209" t="s">
+      <c r="H4" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="156"/>
@@ -3288,7 +3288,7 @@
       <c r="C5" s="96"/>
       <c r="D5" s="97"/>
       <c r="E5" s="96"/>
-      <c r="F5" s="208"/>
+      <c r="F5" s="209"/>
       <c r="G5" s="96"/>
       <c r="H5" s="98"/>
       <c r="I5" s="98"/>
@@ -3306,10 +3306,10 @@
       <c r="G6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="207" t="s">
+      <c r="H6" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="207"/>
+      <c r="I6" s="208"/>
       <c r="J6" s="115" t="s">
         <v>5</v>
       </c>
@@ -5019,30 +5019,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="216" t="str">
+      <c r="B2" s="217" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="219"/>
     </row>
     <row r="4" spans="1:25" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5077,26 +5077,26 @@
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
       <c r="D7" s="126"/>
-      <c r="E7" s="213" t="s">
+      <c r="E7" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="216"/>
       <c r="I7" s="128"/>
-      <c r="J7" s="213" t="s">
+      <c r="J7" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="216"/>
       <c r="N7" s="128"/>
-      <c r="O7" s="213" t="s">
+      <c r="O7" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
+      <c r="R7" s="216"/>
       <c r="S7" s="127" t="s">
         <v>125</v>
       </c>
@@ -6115,11 +6115,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="B8:V20" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:V20">
-      <sortCondition ref="B8:B20"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="V8:V20" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:V20">
     <sortCondition ref="B9"/>
   </sortState>
@@ -6197,32 +6193,32 @@
     <row r="2" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="219" t="str">
+      <c r="B4" s="220" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="220"/>
-      <c r="Q4" s="220"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="220"/>
-      <c r="U4" s="220"/>
-      <c r="V4" s="220"/>
-      <c r="W4" s="220"/>
-      <c r="X4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
+      <c r="O4" s="221"/>
+      <c r="P4" s="221"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="221"/>
+      <c r="S4" s="221"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
+      <c r="V4" s="221"/>
+      <c r="W4" s="221"/>
+      <c r="X4" s="222"/>
       <c r="Y4" s="25"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -7620,24 +7616,24 @@
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="219" t="str">
+      <c r="B4" s="220" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
+      <c r="O4" s="221"/>
+      <c r="P4" s="222"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="W4"/>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973DA3EB-40AF-4767-A156-BD0CA43F0556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8AFCC-54F4-461C-A6AF-9CC4EDF46B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1095" windowWidth="18810" windowHeight="14025" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="753" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Finales 4 teams" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$V$8:$V$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$B$8:$X$20</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Deelnemers en Scores'!$B$2:$K$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Finales 4 teams'!$A$1:$R$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Finales 8 teams'!$A$1:$Z$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Uitslag!$A$1:$Y$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Uitslag!$A$1:$W$21</definedName>
     <definedName name="PRINT_B">#REF!</definedName>
     <definedName name="PRINT_C">#REF!</definedName>
     <definedName name="PRINT_COMP_A">#REF!</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
   <si>
     <t>Baan</t>
   </si>
@@ -511,30 +511,6 @@
   </si>
   <si>
     <t>Naar finale?</t>
-  </si>
-  <si>
-    <r>
-      <t>Je hebt dit blad vooringevuld gekregen vanuit MijnHandboogsport met de laatste stand van zaken op moment van download.
-Aan het einde van de wedstrijd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> moet het ingevulde bestand terug gestuurd worden</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> voor publicatie.
-Contactgegevens staan onderaan.</t>
-    </r>
   </si>
   <si>
     <t>Finales met 8 of 4 teams</t>
@@ -716,6 +692,34 @@
   <si>
     <t>Contactgegevens</t>
   </si>
+  <si>
+    <t>Sorteer mij</t>
+  </si>
+  <si>
+    <t>(hoog naar laag)</t>
+  </si>
+  <si>
+    <r>
+      <t>Je hebt dit blad vooringevuld gekregen vanuit MijnHandboogsport met de laatste stand van zaken op moment van download. Aan het einde van de wedstrijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> moet het ingevulde bestand terug gestuurd worden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> voor publicatie. De contactgegevens staan onderaan.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -725,7 +729,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -898,8 +902,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,8 +958,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1584,13 +1600,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2018,9 +2060,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2161,6 +2200,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2245,7 +2293,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{A7495752-5368-4B1C-A554-75568F9C1911}"/>
     <cellStyle name="Standaard_team model" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -2327,6 +2375,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2782,7 +2837,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2794,22 +2849,22 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="201" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="201"/>
+    <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="203" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="203"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2819,7 +2874,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2834,7 +2889,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2905,12 +2960,12 @@
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2921,32 +2976,32 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B35" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2955,13 +3010,13 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3036,18 +3091,18 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="200" t="s">
-        <v>130</v>
+      <c r="A58" s="199" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2"/>
@@ -3085,17 +3140,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="202" t="str">
+      <c r="B1" s="204" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="204"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="206"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
@@ -3226,9 +3281,9 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="155" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="155" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="155" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="154" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="154" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="154" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="84" customWidth="1"/>
     <col min="6" max="6" width="34.44140625" style="84" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="85" customWidth="1"/>
@@ -3241,18 +3296,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="207" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="207"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="209"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="82"/>
@@ -3261,34 +3316,34 @@
       <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="211" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="210" t="s">
+      <c r="H4" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="211"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="213"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="89"/>
       <c r="C5" s="96"/>
       <c r="D5" s="97"/>
       <c r="E5" s="96"/>
-      <c r="F5" s="209"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="96"/>
       <c r="H5" s="98"/>
       <c r="I5" s="98"/>
@@ -3306,10 +3361,10 @@
       <c r="G6" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="208" t="s">
+      <c r="H6" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="208"/>
+      <c r="I6" s="210"/>
       <c r="J6" s="115" t="s">
         <v>5</v>
       </c>
@@ -3348,42 +3403,42 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="163"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="158"/>
+      <c r="B8" s="162"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="157"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="165">
+      <c r="B9" s="164">
         <v>1</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167" t="s">
+      <c r="C9" s="165"/>
+      <c r="D9" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="167" t="s">
+      <c r="E9" s="165"/>
+      <c r="F9" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="168">
+      <c r="G9" s="167">
         <v>888.8</v>
       </c>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="159">
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="158">
         <f>SUM(J10:J13)-MINA(J10:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="165"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="13">
         <v>123456</v>
       </c>
@@ -3406,9 +3461,9 @@
       <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="165"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="13">
         <v>123456</v>
       </c>
@@ -3431,9 +3486,9 @@
       <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="165"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="13">
         <v>123456</v>
       </c>
@@ -3456,9 +3511,9 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="13">
         <v>123456</v>
       </c>
@@ -3481,43 +3536,43 @@
       <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
       <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="165">
+      <c r="B15" s="164">
         <v>2</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167" t="s">
+      <c r="C15" s="165"/>
+      <c r="D15" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="166"/>
-      <c r="F15" s="167" t="s">
+      <c r="E15" s="165"/>
+      <c r="F15" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="168">
+      <c r="G15" s="167">
         <v>888.8</v>
       </c>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="159">
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="158">
         <f>IF(COUNTA(J16:J19)&lt;3,0,IF(COUNTA(J16:J19)=3,SUM(J16:J19),IF(SUM(J16:J19)&gt;0,SUM(J16:J19)-MINA(J16:J19),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="13">
         <v>123456</v>
       </c>
@@ -3540,9 +3595,9 @@
       <c r="K16" s="87"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="13">
         <v>123456</v>
       </c>
@@ -3565,9 +3620,9 @@
       <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="13">
         <v>123456</v>
       </c>
@@ -3590,9 +3645,9 @@
       <c r="K18" s="87"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
       <c r="E19" s="13">
         <v>123456</v>
       </c>
@@ -3615,43 +3670,43 @@
       <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="165"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
       <c r="K20" s="87"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="165">
+      <c r="B21" s="164">
         <v>3</v>
       </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167" t="s">
+      <c r="C21" s="165"/>
+      <c r="D21" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167" t="s">
+      <c r="E21" s="165"/>
+      <c r="F21" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="168">
+      <c r="G21" s="167">
         <v>888.8</v>
       </c>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="159">
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="158">
         <f>IF(COUNTA(J22:J25)&lt;3,0,IF(COUNTA(J22:J25)=3,SUM(J22:J25),IF(SUM(J22:J25)&gt;0,SUM(J22:J25)-MINA(J22:J25),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="165"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
       <c r="E22" s="13">
         <v>123456</v>
       </c>
@@ -3674,9 +3729,9 @@
       <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="165"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="13">
         <v>123456</v>
       </c>
@@ -3699,9 +3754,9 @@
       <c r="K23" s="87"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="165"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="13">
         <v>123456</v>
       </c>
@@ -3724,9 +3779,9 @@
       <c r="K24" s="87"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="165"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
       <c r="E25" s="13">
         <v>123456</v>
       </c>
@@ -3749,43 +3804,43 @@
       <c r="K25" s="87"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="165"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="165">
+      <c r="B27" s="164">
         <v>4</v>
       </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167" t="s">
+      <c r="C27" s="165"/>
+      <c r="D27" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="167" t="s">
+      <c r="E27" s="165"/>
+      <c r="F27" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="168">
+      <c r="G27" s="167">
         <v>888.8</v>
       </c>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="159">
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="158">
         <f>IF(COUNTA(J28:J31)&lt;3,0,IF(COUNTA(J28:J31)=3,SUM(J28:J31),IF(SUM(J28:J31)&gt;0,SUM(J28:J31)-MINA(J28:J31),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="13">
         <v>123456</v>
       </c>
@@ -3808,9 +3863,9 @@
       <c r="K28" s="87"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="165"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
       <c r="E29" s="13">
         <v>123456</v>
       </c>
@@ -3833,9 +3888,9 @@
       <c r="K29" s="87"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="165"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
       <c r="E30" s="13">
         <v>123456</v>
       </c>
@@ -3858,9 +3913,9 @@
       <c r="K30" s="87"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="165"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
       <c r="E31" s="13">
         <v>123456</v>
       </c>
@@ -3883,9 +3938,9 @@
       <c r="K31" s="87"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="165"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
       <c r="G32" s="93"/>
@@ -3894,11 +3949,11 @@
       <c r="K32" s="87"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="165">
+      <c r="B33" s="164">
         <v>5</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167" t="s">
+      <c r="C33" s="165"/>
+      <c r="D33" s="166" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="90"/>
@@ -3910,16 +3965,16 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="159">
+      <c r="J33" s="154"/>
+      <c r="K33" s="158">
         <f>IF(COUNTA(J34:J37)&lt;3,0,IF(COUNTA(J34:J37)=3,SUM(J34:J37),IF(SUM(J34:J37)&gt;0,SUM(J34:J37)-MINA(J34:J37),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="165"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="13">
         <v>123456</v>
       </c>
@@ -3942,9 +3997,9 @@
       <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="165"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="13">
         <v>123456</v>
       </c>
@@ -3967,9 +4022,9 @@
       <c r="K35" s="87"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="165"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="13">
         <v>123456</v>
       </c>
@@ -3992,9 +4047,9 @@
       <c r="K36" s="87"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="165"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="13">
         <v>123456</v>
       </c>
@@ -4017,43 +4072,43 @@
       <c r="K37" s="87"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="165"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
       <c r="K38" s="87"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="165">
+      <c r="B39" s="164">
         <v>6</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="D39" s="167" t="s">
+      <c r="C39" s="165"/>
+      <c r="D39" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="167" t="s">
+      <c r="E39" s="165"/>
+      <c r="F39" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="168">
+      <c r="G39" s="167">
         <v>888.8</v>
       </c>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="159">
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="158">
         <f>IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="165"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="166"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="13">
         <v>123456</v>
       </c>
@@ -4076,9 +4131,9 @@
       <c r="K40" s="87"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="165"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="166"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="13">
         <v>123456</v>
       </c>
@@ -4101,9 +4156,9 @@
       <c r="K41" s="87"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="165"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="166"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="13">
         <v>123456</v>
       </c>
@@ -4126,9 +4181,9 @@
       <c r="K42" s="87"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="165"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="13">
         <v>123456</v>
       </c>
@@ -4151,43 +4206,43 @@
       <c r="K43" s="87"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="165"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171"/>
       <c r="K44" s="87"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="165">
+      <c r="B45" s="164">
         <v>7</v>
       </c>
-      <c r="C45" s="166"/>
-      <c r="D45" s="167" t="s">
+      <c r="C45" s="165"/>
+      <c r="D45" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="166"/>
-      <c r="F45" s="167" t="s">
+      <c r="E45" s="165"/>
+      <c r="F45" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="168">
+      <c r="G45" s="167">
         <v>888.8</v>
       </c>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="159">
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="154"/>
+      <c r="K45" s="158">
         <f>IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="165"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="13">
         <v>123456</v>
       </c>
@@ -4210,9 +4265,9 @@
       <c r="K46" s="87"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="165"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="13">
         <v>123456</v>
       </c>
@@ -4235,9 +4290,9 @@
       <c r="K47" s="87"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="165"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="166"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="13">
         <v>123456</v>
       </c>
@@ -4260,9 +4315,9 @@
       <c r="K48" s="87"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="165"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="13">
         <v>123456</v>
       </c>
@@ -4285,43 +4340,43 @@
       <c r="K49" s="87"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="165"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="173"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="172"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="171"/>
       <c r="K50" s="87"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="165">
+      <c r="B51" s="164">
         <v>8</v>
       </c>
-      <c r="C51" s="166"/>
-      <c r="D51" s="167" t="s">
+      <c r="C51" s="165"/>
+      <c r="D51" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="166"/>
-      <c r="F51" s="167" t="s">
+      <c r="E51" s="165"/>
+      <c r="F51" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="168">
+      <c r="G51" s="167">
         <v>888.8</v>
       </c>
-      <c r="H51" s="172"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="159">
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="158">
         <f>IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="165"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="13">
         <v>123456</v>
       </c>
@@ -4344,9 +4399,9 @@
       <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="165"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="13">
         <v>123456</v>
       </c>
@@ -4369,9 +4424,9 @@
       <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="165"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="166"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="13">
         <v>123456</v>
       </c>
@@ -4394,9 +4449,9 @@
       <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="165"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="13">
         <v>123456</v>
       </c>
@@ -4419,43 +4474,43 @@
       <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="165"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="166"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="172"/>
-      <c r="I56" s="172"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="171"/>
+      <c r="I56" s="171"/>
       <c r="K56" s="87"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="165">
+      <c r="B57" s="164">
         <v>9</v>
       </c>
-      <c r="C57" s="166"/>
-      <c r="D57" s="167" t="s">
+      <c r="C57" s="165"/>
+      <c r="D57" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="166"/>
-      <c r="F57" s="167" t="s">
+      <c r="E57" s="165"/>
+      <c r="F57" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="168">
+      <c r="G57" s="167">
         <v>888.8</v>
       </c>
-      <c r="H57" s="172"/>
-      <c r="I57" s="172"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="159">
+      <c r="H57" s="171"/>
+      <c r="I57" s="171"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="158">
         <f>IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="165"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="166"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="13">
         <v>123456</v>
       </c>
@@ -4478,9 +4533,9 @@
       <c r="K58" s="87"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="165"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="13">
         <v>123456</v>
       </c>
@@ -4503,9 +4558,9 @@
       <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="165"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="13">
         <v>123456</v>
       </c>
@@ -4528,9 +4583,9 @@
       <c r="K60" s="87"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="165"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="166"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="13">
         <v>123456</v>
       </c>
@@ -4554,7 +4609,7 @@
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="42"/>
-      <c r="B62" s="169"/>
+      <c r="B62" s="168"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
       <c r="E62"/>
@@ -4563,14 +4618,14 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="42"/>
-      <c r="K62" s="160"/>
+      <c r="K62" s="159"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="165">
+      <c r="B63" s="164">
         <v>10</v>
       </c>
-      <c r="C63" s="166"/>
-      <c r="D63" s="167" t="s">
+      <c r="C63" s="165"/>
+      <c r="D63" s="166" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="90"/>
@@ -4582,16 +4637,16 @@
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="159">
+      <c r="J63" s="154"/>
+      <c r="K63" s="158">
         <f>IF(COUNTA(J64:J67)&lt;3,0,IF(COUNTA(J64:J67)=3,SUM(J64:J67),IF(SUM(J64:J67)&gt;0,SUM(J64:J67)-MINA(J64:J67),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="165"/>
-      <c r="C64" s="166"/>
-      <c r="D64" s="166"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="13">
         <v>123456</v>
       </c>
@@ -4614,9 +4669,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="165"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="166"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="13">
         <v>123456</v>
       </c>
@@ -4639,9 +4694,9 @@
       <c r="K65" s="87"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="165"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="166"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="13">
         <v>123456</v>
       </c>
@@ -4664,9 +4719,9 @@
       <c r="K66" s="87"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="165"/>
-      <c r="C67" s="166"/>
-      <c r="D67" s="166"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="13">
         <v>123456</v>
       </c>
@@ -4689,38 +4744,38 @@
       <c r="K67" s="87"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="163"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="172"/>
+      <c r="B68" s="162"/>
+      <c r="H68" s="171"/>
+      <c r="I68" s="171"/>
       <c r="K68" s="87"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="165">
+      <c r="B69" s="164">
         <v>11</v>
       </c>
-      <c r="C69" s="166"/>
-      <c r="D69" s="167" t="s">
+      <c r="C69" s="165"/>
+      <c r="D69" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="166"/>
-      <c r="F69" s="167" t="s">
+      <c r="E69" s="165"/>
+      <c r="F69" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="168">
+      <c r="G69" s="167">
         <v>888.8</v>
       </c>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-      <c r="J69" s="155"/>
-      <c r="K69" s="159">
+      <c r="H69" s="171"/>
+      <c r="I69" s="171"/>
+      <c r="J69" s="154"/>
+      <c r="K69" s="158">
         <f>IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="165"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="166"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
       <c r="E70" s="13">
         <v>123456</v>
       </c>
@@ -4743,9 +4798,9 @@
       <c r="K70" s="87"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="165"/>
-      <c r="C71" s="166"/>
-      <c r="D71" s="166"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="13">
         <v>123456</v>
       </c>
@@ -4768,9 +4823,9 @@
       <c r="K71" s="87"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="165"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="166"/>
+      <c r="B72" s="164"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
       <c r="E72" s="13">
         <v>123456</v>
       </c>
@@ -4793,9 +4848,9 @@
       <c r="K72" s="87"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="165"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="166"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
       <c r="E73" s="13">
         <v>123456</v>
       </c>
@@ -4818,38 +4873,38 @@
       <c r="K73" s="87"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="163"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="172"/>
+      <c r="B74" s="162"/>
+      <c r="H74" s="171"/>
+      <c r="I74" s="171"/>
       <c r="K74" s="87"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="165">
+      <c r="B75" s="164">
         <v>12</v>
       </c>
-      <c r="C75" s="166"/>
-      <c r="D75" s="167" t="s">
+      <c r="C75" s="165"/>
+      <c r="D75" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="166"/>
-      <c r="F75" s="167" t="s">
+      <c r="E75" s="165"/>
+      <c r="F75" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="168">
+      <c r="G75" s="167">
         <v>888.8</v>
       </c>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="155"/>
-      <c r="K75" s="159">
+      <c r="H75" s="171"/>
+      <c r="I75" s="171"/>
+      <c r="J75" s="154"/>
+      <c r="K75" s="158">
         <f>IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="165"/>
-      <c r="C76" s="166"/>
-      <c r="D76" s="166"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="165"/>
       <c r="E76" s="13">
         <v>123456</v>
       </c>
@@ -4872,9 +4927,9 @@
       <c r="K76" s="87"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="165"/>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="165"/>
       <c r="E77" s="13">
         <v>123456</v>
       </c>
@@ -4897,9 +4952,9 @@
       <c r="K77" s="87"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="165"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="166"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
       <c r="E78" s="13">
         <v>123456</v>
       </c>
@@ -4922,9 +4977,9 @@
       <c r="K78" s="87"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="165"/>
-      <c r="C79" s="166"/>
-      <c r="D79" s="166"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="13">
         <v>123456</v>
       </c>
@@ -4947,20 +5002,20 @@
       <c r="K79" s="87"/>
     </row>
     <row r="80" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="170"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="171"/>
-      <c r="E80" s="174"/>
-      <c r="F80" s="174"/>
-      <c r="G80" s="175"/>
-      <c r="H80" s="161"/>
-      <c r="I80" s="161"/>
-      <c r="J80" s="161"/>
-      <c r="K80" s="162"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="174"/>
+      <c r="H80" s="160"/>
+      <c r="I80" s="160"/>
+      <c r="J80" s="160"/>
+      <c r="K80" s="161"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="157" t="s">
+      <c r="B82" s="156" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4997,7 +5052,7 @@
   </sheetPr>
   <dimension ref="A2:Y21"/>
   <sheetViews>
-    <sheetView showGridLines="0" defaultGridColor="0" colorId="22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5013,36 +5068,36 @@
     <col min="21" max="21" width="6.5546875" customWidth="1"/>
     <col min="22" max="22" width="9.6640625" customWidth="1"/>
     <col min="23" max="23" width="2.21875" customWidth="1"/>
-    <col min="24" max="24" width="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16.21875" customWidth="1"/>
     <col min="25" max="25" width="3.6640625" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9.77734375" hidden="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="217" t="str">
+      <c r="B2" s="219" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="219"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="221"/>
     </row>
     <row r="4" spans="1:25" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5077,35 +5132,38 @@
       <c r="B7" s="124"/>
       <c r="C7" s="125"/>
       <c r="D7" s="126"/>
-      <c r="E7" s="214" t="s">
+      <c r="E7" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="216"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="218"/>
       <c r="I7" s="128"/>
-      <c r="J7" s="214" t="s">
+      <c r="J7" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="216"/>
+      <c r="K7" s="217"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="218"/>
       <c r="N7" s="128"/>
-      <c r="O7" s="214" t="s">
+      <c r="O7" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
+      <c r="P7" s="217"/>
+      <c r="Q7" s="217"/>
+      <c r="R7" s="218"/>
       <c r="S7" s="127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T7" s="147"/>
       <c r="U7" s="149" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="129" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="X7" s="201" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5158,13 +5216,16 @@
         <v>4</v>
       </c>
       <c r="S8" s="145" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T8" s="148"/>
       <c r="U8" s="150" t="s">
         <v>4</v>
       </c>
       <c r="V8" s="146"/>
+      <c r="X8" s="202" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -5236,11 +5297,14 @@
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="151"/>
-      <c r="V9" s="154">
+      <c r="V9" s="153">
         <f t="shared" ref="V9:V20" si="5">S9+(U9/1000)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="153"/>
+      <c r="X9" s="200">
+        <f>V9</f>
+        <v>0</v>
+      </c>
       <c r="Y9" s="45"/>
     </row>
     <row r="10" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5313,11 +5377,14 @@
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="152"/>
-      <c r="V10" s="154">
+      <c r="V10" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X10" s="153"/>
+      <c r="X10" s="200">
+        <f t="shared" ref="X10:X20" si="6">V10</f>
+        <v>0</v>
+      </c>
       <c r="Y10" s="45"/>
     </row>
     <row r="11" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5390,11 +5457,14 @@
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="152"/>
-      <c r="V11" s="154">
+      <c r="V11" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X11" s="153"/>
+      <c r="X11" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y11" s="45"/>
     </row>
     <row r="12" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5467,11 +5537,14 @@
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="152"/>
-      <c r="V12" s="154">
+      <c r="V12" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X12" s="153"/>
+      <c r="X12" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5544,11 +5617,14 @@
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="152"/>
-      <c r="V13" s="154">
+      <c r="V13" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X13" s="153"/>
+      <c r="X13" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5621,11 +5697,14 @@
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="152"/>
-      <c r="V14" s="154">
+      <c r="V14" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X14" s="153"/>
+      <c r="X14" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5698,11 +5777,14 @@
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="152"/>
-      <c r="V15" s="154">
+      <c r="V15" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X15" s="153"/>
+      <c r="X15" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y15" s="45"/>
     </row>
     <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5775,11 +5857,14 @@
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="152"/>
-      <c r="V16" s="154">
+      <c r="V16" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X16" s="153"/>
+      <c r="X16" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5852,11 +5937,14 @@
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="152"/>
-      <c r="V17" s="154">
+      <c r="V17" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X17" s="153"/>
+      <c r="X17" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y17" s="45"/>
     </row>
     <row r="18" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5929,11 +6017,14 @@
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="152"/>
-      <c r="V18" s="154">
+      <c r="V18" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X18" s="153"/>
+      <c r="X18" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y18" s="45"/>
     </row>
     <row r="19" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6006,116 +6097,122 @@
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="152"/>
-      <c r="V19" s="154">
+      <c r="V19" s="153">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X19" s="153"/>
+      <c r="X19" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="187">
+      <c r="B20" s="186">
         <f>IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C20" s="188" t="str">
+      <c r="C20" s="187" t="str">
         <f>IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>Team naam 12</v>
       </c>
-      <c r="D20" s="189" t="str">
+      <c r="D20" s="188" t="str">
         <f>'Deelnemers en Scores'!D75</f>
         <v>Vereniging 12</v>
       </c>
-      <c r="E20" s="190" t="str">
+      <c r="E20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F20" s="190" t="str">
+      <c r="F20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G20" s="190" t="str">
+      <c r="G20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H20" s="190" t="str">
+      <c r="H20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
       <c r="I20" s="123"/>
-      <c r="J20" s="190" t="str">
+      <c r="J20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K20" s="190" t="str">
+      <c r="K20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L20" s="190" t="str">
+      <c r="L20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M20" s="190" t="str">
+      <c r="M20" s="189" t="str">
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
       <c r="N20" s="123"/>
-      <c r="O20" s="191" t="str">
+      <c r="O20" s="190" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="192" t="str">
+      <c r="P20" s="191" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="192" t="str">
+      <c r="Q20" s="191" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="193" t="str">
+      <c r="R20" s="192" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S20" s="194">
+      <c r="S20" s="193">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="197"/>
-      <c r="U20" s="195"/>
-      <c r="V20" s="196">
+      <c r="T20" s="196"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="195">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X20" s="153"/>
+      <c r="X20" s="200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="199"/>
-      <c r="N21" s="199"/>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
-      <c r="U21" s="199"/>
-      <c r="V21" s="199"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
+      <c r="N21" s="198"/>
+      <c r="O21" s="198"/>
+      <c r="P21" s="198"/>
+      <c r="Q21" s="198"/>
+      <c r="R21" s="198"/>
+      <c r="S21" s="198"/>
+      <c r="T21" s="198"/>
+      <c r="U21" s="198"/>
+      <c r="V21" s="198"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="V8:V20" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="B8:X20" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:V20">
     <sortCondition ref="B9"/>
   </sortState>
@@ -6127,10 +6224,15 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="V9:V20">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9:X20">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>INDEX(V9:V10,1)&lt;INDEX(V9:V10,2)</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6193,32 +6295,32 @@
     <row r="2" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="220" t="str">
+      <c r="B4" s="222" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="221"/>
-      <c r="W4" s="221"/>
-      <c r="X4" s="222"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="223"/>
+      <c r="Q4" s="223"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="223"/>
+      <c r="T4" s="223"/>
+      <c r="U4" s="223"/>
+      <c r="V4" s="223"/>
+      <c r="W4" s="223"/>
+      <c r="X4" s="224"/>
       <c r="Y4" s="25"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -6481,8 +6583,8 @@
       <c r="E12" s="72"/>
       <c r="F12" s="74"/>
       <c r="G12" s="73"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="182" t="str">
+      <c r="H12" s="175"/>
+      <c r="I12" s="181" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H12&gt;H14),"*","")</f>
         <v/>
       </c>
@@ -6562,8 +6664,8 @@
       <c r="E14" s="72"/>
       <c r="F14" s="74"/>
       <c r="G14" s="73"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="183" t="str">
+      <c r="H14" s="175"/>
+      <c r="I14" s="182" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H14&gt;H12),"*","")</f>
         <v/>
       </c>
@@ -6614,8 +6716,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="74"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="182" t="str">
+      <c r="P15" s="175"/>
+      <c r="Q15" s="181" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -6657,7 +6759,7 @@
       <c r="L16" s="19"/>
       <c r="N16" s="20"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="180" t="str">
+      <c r="P16" s="179" t="str">
         <f>IF(AI16=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -6705,8 +6807,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="74"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="183" t="str">
+      <c r="P17" s="175"/>
+      <c r="Q17" s="182" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -6746,8 +6848,8 @@
       <c r="E18" s="72"/>
       <c r="F18" s="74"/>
       <c r="G18" s="73"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="182" t="str">
+      <c r="H18" s="175"/>
+      <c r="I18" s="181" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H18&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -6819,8 +6921,8 @@
       <c r="U19" s="46"/>
       <c r="V19" s="11"/>
       <c r="W19" s="46"/>
-      <c r="X19" s="177"/>
-      <c r="Y19" s="178" t="str">
+      <c r="X19" s="176"/>
+      <c r="Y19" s="177" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X19&gt;X21),"*","")</f>
         <v/>
       </c>
@@ -6866,8 +6968,8 @@
       <c r="E20" s="72"/>
       <c r="F20" s="74"/>
       <c r="G20" s="73"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="183" t="str">
+      <c r="H20" s="175"/>
+      <c r="I20" s="182" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H20&gt;H18),"*","")</f>
         <v/>
       </c>
@@ -6879,7 +6981,7 @@
       <c r="U20" s="18"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
-      <c r="X20" s="180" t="str">
+      <c r="X20" s="179" t="str">
         <f>IF(AO20=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -6932,8 +7034,8 @@
       <c r="U21" s="46"/>
       <c r="V21" s="11"/>
       <c r="W21" s="46"/>
-      <c r="X21" s="177"/>
-      <c r="Y21" s="179" t="str">
+      <c r="X21" s="176"/>
+      <c r="Y21" s="178" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X21&gt;X19),"*","")</f>
         <v/>
       </c>
@@ -6964,7 +7066,7 @@
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="108"/>
-      <c r="I22" s="184"/>
+      <c r="I22" s="183"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
       <c r="Q22" s="78"/>
@@ -7005,8 +7107,8 @@
       <c r="E24" s="72"/>
       <c r="F24" s="74"/>
       <c r="G24" s="73"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="182" t="str">
+      <c r="H24" s="175"/>
+      <c r="I24" s="181" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H24&gt;H26),"*","")</f>
         <v/>
       </c>
@@ -7077,8 +7179,8 @@
       <c r="E26" s="72"/>
       <c r="F26" s="74"/>
       <c r="G26" s="73"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="183" t="str">
+      <c r="H26" s="175"/>
+      <c r="I26" s="182" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H26&gt;H24),"*","")</f>
         <v/>
       </c>
@@ -7141,8 +7243,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="74"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="182" t="str">
+      <c r="P27" s="175"/>
+      <c r="Q27" s="181" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P27&gt;P29),"*","")</f>
         <v/>
       </c>
@@ -7178,7 +7280,7 @@
       <c r="L28" s="19"/>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="180" t="str">
+      <c r="P28" s="179" t="str">
         <f>IF(AI28=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7229,8 +7331,8 @@
       <c r="M29" s="46"/>
       <c r="N29" s="74"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="183" t="str">
+      <c r="P29" s="175"/>
+      <c r="Q29" s="182" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P29&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -7263,8 +7365,8 @@
       <c r="E30" s="72"/>
       <c r="F30" s="74"/>
       <c r="G30" s="73"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="182" t="str">
+      <c r="H30" s="175"/>
+      <c r="I30" s="181" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H30&gt;H32),"*","")</f>
         <v/>
       </c>
@@ -7331,8 +7433,8 @@
       <c r="U31" s="46"/>
       <c r="V31" s="11"/>
       <c r="W31" s="46"/>
-      <c r="X31" s="177"/>
-      <c r="Y31" s="178" t="str">
+      <c r="X31" s="176"/>
+      <c r="Y31" s="177" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X31&gt;X33),"*","")</f>
         <v/>
       </c>
@@ -7378,8 +7480,8 @@
       <c r="E32" s="72"/>
       <c r="F32" s="74"/>
       <c r="G32" s="73"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="183" t="str">
+      <c r="H32" s="175"/>
+      <c r="I32" s="182" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H32&gt;H30),"*","")</f>
         <v/>
       </c>
@@ -7389,7 +7491,7 @@
       <c r="U32" s="18"/>
       <c r="V32" s="65"/>
       <c r="W32" s="65"/>
-      <c r="X32" s="180" t="str">
+      <c r="X32" s="179" t="str">
         <f>IF(AO32=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7438,8 +7540,8 @@
       <c r="U33" s="46"/>
       <c r="V33" s="11"/>
       <c r="W33" s="46"/>
-      <c r="X33" s="177"/>
-      <c r="Y33" s="179" t="str">
+      <c r="X33" s="176"/>
+      <c r="Y33" s="178" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X33&gt;X31),"*","")</f>
         <v/>
       </c>
@@ -7616,24 +7718,24 @@
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="220" t="str">
+      <c r="B4" s="222" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="222"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="224"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="W4"/>
@@ -7747,8 +7849,8 @@
       <c r="E11" s="46"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="182" t="str">
+      <c r="H11" s="180"/>
+      <c r="I11" s="181" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H11&gt;H13),"*","")</f>
         <v/>
       </c>
@@ -7777,7 +7879,7 @@
       <c r="D12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="180" t="str">
+      <c r="H12" s="179" t="str">
         <f>IF(U12=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7824,8 +7926,8 @@
       <c r="E13" s="46"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="183" t="str">
+      <c r="H13" s="180"/>
+      <c r="I13" s="182" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H13&gt;H11),"*","")</f>
         <v/>
       </c>
@@ -7887,8 +7989,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="11"/>
       <c r="O15" s="46"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="185" t="str">
+      <c r="P15" s="176"/>
+      <c r="Q15" s="184" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -7916,7 +8018,7 @@
       <c r="M16" s="18"/>
       <c r="N16" s="65"/>
       <c r="O16" s="65"/>
-      <c r="P16" s="180" t="str">
+      <c r="P16" s="179" t="str">
         <f>IF(AA16=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -7952,8 +8054,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="11"/>
       <c r="O17" s="46"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="186" t="str">
+      <c r="P17" s="176"/>
+      <c r="Q17" s="185" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -8031,8 +8133,8 @@
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="182" t="str">
+      <c r="H20" s="180"/>
+      <c r="I20" s="181" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H20&gt;H22),"*","")</f>
         <v/>
       </c>
@@ -8060,7 +8162,7 @@
       <c r="D21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="180" t="str">
+      <c r="H21" s="179" t="str">
         <f>IF(U21=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -8103,8 +8205,8 @@
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="183" t="str">
+      <c r="H22" s="180"/>
+      <c r="I22" s="182" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H22&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -8169,8 +8271,8 @@
       <c r="M25" s="46"/>
       <c r="N25" s="11"/>
       <c r="O25" s="46"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="185" t="str">
+      <c r="P25" s="176"/>
+      <c r="Q25" s="184" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -8200,7 +8302,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
-      <c r="P26" s="180" t="str">
+      <c r="P26" s="179" t="str">
         <f>IF(AA26=TRUE,"SO","")</f>
         <v/>
       </c>
@@ -8238,8 +8340,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="11"/>
       <c r="O27" s="46"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="186" t="str">
+      <c r="P27" s="176"/>
+      <c r="Q27" s="185" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8AFCC-54F4-461C-A6AF-9CC4EDF46B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1227B-5D10-43F8-9259-35C34C2098AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="753" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -1886,9 +1886,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2286,6 +2283,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2837,7 +2837,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="202" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="203"/>
+      <c r="B4" s="202"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
@@ -2888,7 +2888,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="99" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="99" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2985,27 +2985,27 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="99" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="99" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="99" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="99" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="100"/>
+      <c r="B39" s="99"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3091,7 +3091,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="199" t="s">
+      <c r="A58" s="198" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3140,17 +3140,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="204" t="str">
+      <c r="B1" s="203" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="206"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="205"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
@@ -3281,9 +3281,9 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="154" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="154" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="154" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="153" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="153" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="153" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="84" customWidth="1"/>
     <col min="6" max="6" width="34.44140625" style="84" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="85" customWidth="1"/>
@@ -3296,18 +3296,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="209"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="208"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="82"/>
@@ -3316,129 +3316,129 @@
       <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
       <c r="E4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="211" t="s">
+      <c r="F4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="212" t="s">
+      <c r="H4" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="212"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="213"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="212"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="155"/>
+      <c r="A5" s="154"/>
       <c r="B5" s="89"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116" t="s">
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="210" t="s">
+      <c r="H6" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="210"/>
-      <c r="J6" s="115" t="s">
+      <c r="I6" s="209"/>
+      <c r="J6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="118" t="s">
+      <c r="K6" s="117" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116" t="s">
+      <c r="B7" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="120" t="s">
+      <c r="I7" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="115" t="s">
+      <c r="J7" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="118" t="s">
+      <c r="K7" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="162"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="157"/>
+      <c r="B8" s="161"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="156"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="164">
+      <c r="B9" s="163">
         <v>1</v>
       </c>
-      <c r="C9" s="165"/>
-      <c r="D9" s="166" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="166" t="s">
+      <c r="E9" s="164"/>
+      <c r="F9" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="167">
+      <c r="G9" s="166">
         <v>888.8</v>
       </c>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="158">
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="157">
         <f>SUM(J10:J13)-MINA(J10:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="13">
         <v>123456</v>
       </c>
@@ -3461,9 +3461,9 @@
       <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="164"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="13">
         <v>123456</v>
       </c>
@@ -3486,9 +3486,9 @@
       <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="164"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="13">
         <v>123456</v>
       </c>
@@ -3511,9 +3511,9 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
       <c r="E13" s="13">
         <v>123456</v>
       </c>
@@ -3536,43 +3536,43 @@
       <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
       <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="164">
+      <c r="B15" s="163">
         <v>2</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166" t="s">
+      <c r="C15" s="164"/>
+      <c r="D15" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="165"/>
-      <c r="F15" s="166" t="s">
+      <c r="E15" s="164"/>
+      <c r="F15" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="167">
+      <c r="G15" s="166">
         <v>888.8</v>
       </c>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="158">
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="157">
         <f>IF(COUNTA(J16:J19)&lt;3,0,IF(COUNTA(J16:J19)=3,SUM(J16:J19),IF(SUM(J16:J19)&gt;0,SUM(J16:J19)-MINA(J16:J19),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="13">
         <v>123456</v>
       </c>
@@ -3595,9 +3595,9 @@
       <c r="K16" s="87"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="13">
         <v>123456</v>
       </c>
@@ -3620,9 +3620,9 @@
       <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
       <c r="E18" s="13">
         <v>123456</v>
       </c>
@@ -3645,9 +3645,9 @@
       <c r="K18" s="87"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="13">
         <v>123456</v>
       </c>
@@ -3670,43 +3670,43 @@
       <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="164"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
       <c r="K20" s="87"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="164">
+      <c r="B21" s="163">
         <v>3</v>
       </c>
-      <c r="C21" s="165"/>
-      <c r="D21" s="166" t="s">
+      <c r="C21" s="164"/>
+      <c r="D21" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="165"/>
-      <c r="F21" s="166" t="s">
+      <c r="E21" s="164"/>
+      <c r="F21" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="167">
+      <c r="G21" s="166">
         <v>888.8</v>
       </c>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="158">
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="157">
         <f>IF(COUNTA(J22:J25)&lt;3,0,IF(COUNTA(J22:J25)=3,SUM(J22:J25),IF(SUM(J22:J25)&gt;0,SUM(J22:J25)-MINA(J22:J25),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="164"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
       <c r="E22" s="13">
         <v>123456</v>
       </c>
@@ -3729,9 +3729,9 @@
       <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="164"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
       <c r="E23" s="13">
         <v>123456</v>
       </c>
@@ -3754,9 +3754,9 @@
       <c r="K23" s="87"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="164"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
       <c r="E24" s="13">
         <v>123456</v>
       </c>
@@ -3779,9 +3779,9 @@
       <c r="K24" s="87"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="164"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
       <c r="E25" s="13">
         <v>123456</v>
       </c>
@@ -3804,43 +3804,43 @@
       <c r="K25" s="87"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="164"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="164">
+      <c r="B27" s="163">
         <v>4</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="166" t="s">
+      <c r="C27" s="164"/>
+      <c r="D27" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="165"/>
-      <c r="F27" s="166" t="s">
+      <c r="E27" s="164"/>
+      <c r="F27" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="167">
+      <c r="G27" s="166">
         <v>888.8</v>
       </c>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="158">
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="157">
         <f>IF(COUNTA(J28:J31)&lt;3,0,IF(COUNTA(J28:J31)=3,SUM(J28:J31),IF(SUM(J28:J31)&gt;0,SUM(J28:J31)-MINA(J28:J31),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="164"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
       <c r="E28" s="13">
         <v>123456</v>
       </c>
@@ -3863,9 +3863,9 @@
       <c r="K28" s="87"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="164"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
       <c r="E29" s="13">
         <v>123456</v>
       </c>
@@ -3888,9 +3888,9 @@
       <c r="K29" s="87"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="164"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
       <c r="E30" s="13">
         <v>123456</v>
       </c>
@@ -3913,9 +3913,9 @@
       <c r="K30" s="87"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="164"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
       <c r="E31" s="13">
         <v>123456</v>
       </c>
@@ -3938,9 +3938,9 @@
       <c r="K31" s="87"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="164"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
       <c r="G32" s="93"/>
@@ -3949,11 +3949,11 @@
       <c r="K32" s="87"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="164">
+      <c r="B33" s="163">
         <v>5</v>
       </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="166" t="s">
+      <c r="C33" s="164"/>
+      <c r="D33" s="165" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="90"/>
@@ -3965,16 +3965,16 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="158">
+      <c r="J33" s="153"/>
+      <c r="K33" s="157">
         <f>IF(COUNTA(J34:J37)&lt;3,0,IF(COUNTA(J34:J37)=3,SUM(J34:J37),IF(SUM(J34:J37)&gt;0,SUM(J34:J37)-MINA(J34:J37),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="164"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="13">
         <v>123456</v>
       </c>
@@ -3997,9 +3997,9 @@
       <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="164"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="13">
         <v>123456</v>
       </c>
@@ -4022,9 +4022,9 @@
       <c r="K35" s="87"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="164"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="13">
         <v>123456</v>
       </c>
@@ -4047,9 +4047,9 @@
       <c r="K36" s="87"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="164"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="13">
         <v>123456</v>
       </c>
@@ -4072,43 +4072,43 @@
       <c r="K37" s="87"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="164"/>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
       <c r="K38" s="87"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="164">
+      <c r="B39" s="163">
         <v>6</v>
       </c>
-      <c r="C39" s="165"/>
-      <c r="D39" s="166" t="s">
+      <c r="C39" s="164"/>
+      <c r="D39" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="165"/>
-      <c r="F39" s="166" t="s">
+      <c r="E39" s="164"/>
+      <c r="F39" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="167">
+      <c r="G39" s="166">
         <v>888.8</v>
       </c>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="158">
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="157">
         <f>IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="164"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="13">
         <v>123456</v>
       </c>
@@ -4131,9 +4131,9 @@
       <c r="K40" s="87"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="164"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="13">
         <v>123456</v>
       </c>
@@ -4156,9 +4156,9 @@
       <c r="K41" s="87"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="164"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="13">
         <v>123456</v>
       </c>
@@ -4181,9 +4181,9 @@
       <c r="K42" s="87"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="164"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="13">
         <v>123456</v>
       </c>
@@ -4206,43 +4206,43 @@
       <c r="K43" s="87"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="164"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
       <c r="K44" s="87"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="164">
+      <c r="B45" s="163">
         <v>7</v>
       </c>
-      <c r="C45" s="165"/>
-      <c r="D45" s="166" t="s">
+      <c r="C45" s="164"/>
+      <c r="D45" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="165"/>
-      <c r="F45" s="166" t="s">
+      <c r="E45" s="164"/>
+      <c r="F45" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="167">
+      <c r="G45" s="166">
         <v>888.8</v>
       </c>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="154"/>
-      <c r="K45" s="158">
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="157">
         <f>IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="164"/>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="13">
         <v>123456</v>
       </c>
@@ -4265,9 +4265,9 @@
       <c r="K46" s="87"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="164"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="13">
         <v>123456</v>
       </c>
@@ -4290,9 +4290,9 @@
       <c r="K47" s="87"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="164"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="13">
         <v>123456</v>
       </c>
@@ -4315,9 +4315,9 @@
       <c r="K48" s="87"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="164"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="13">
         <v>123456</v>
       </c>
@@ -4340,43 +4340,43 @@
       <c r="K49" s="87"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="164"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="172"/>
-      <c r="H50" s="171"/>
-      <c r="I50" s="171"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="170"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="170"/>
       <c r="K50" s="87"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="164">
+      <c r="B51" s="163">
         <v>8</v>
       </c>
-      <c r="C51" s="165"/>
-      <c r="D51" s="166" t="s">
+      <c r="C51" s="164"/>
+      <c r="D51" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="165"/>
-      <c r="F51" s="166" t="s">
+      <c r="E51" s="164"/>
+      <c r="F51" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="167">
+      <c r="G51" s="166">
         <v>888.8</v>
       </c>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="158">
+      <c r="H51" s="170"/>
+      <c r="I51" s="170"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="157">
         <f>IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="164"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="13">
         <v>123456</v>
       </c>
@@ -4399,9 +4399,9 @@
       <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="164"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="13">
         <v>123456</v>
       </c>
@@ -4424,9 +4424,9 @@
       <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="164"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="13">
         <v>123456</v>
       </c>
@@ -4449,9 +4449,9 @@
       <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="164"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="13">
         <v>123456</v>
       </c>
@@ -4474,43 +4474,43 @@
       <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="164"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="172"/>
-      <c r="H56" s="171"/>
-      <c r="I56" s="171"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
       <c r="K56" s="87"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="164">
+      <c r="B57" s="163">
         <v>9</v>
       </c>
-      <c r="C57" s="165"/>
-      <c r="D57" s="166" t="s">
+      <c r="C57" s="164"/>
+      <c r="D57" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="165"/>
-      <c r="F57" s="166" t="s">
+      <c r="E57" s="164"/>
+      <c r="F57" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="167">
+      <c r="G57" s="166">
         <v>888.8</v>
       </c>
-      <c r="H57" s="171"/>
-      <c r="I57" s="171"/>
-      <c r="J57" s="154"/>
-      <c r="K57" s="158">
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="157">
         <f>IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="164"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="13">
         <v>123456</v>
       </c>
@@ -4533,9 +4533,9 @@
       <c r="K58" s="87"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="164"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="13">
         <v>123456</v>
       </c>
@@ -4558,9 +4558,9 @@
       <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="164"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="13">
         <v>123456</v>
       </c>
@@ -4583,9 +4583,9 @@
       <c r="K60" s="87"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="164"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="13">
         <v>123456</v>
       </c>
@@ -4609,44 +4609,44 @@
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="42"/>
-      <c r="B62" s="168"/>
+      <c r="B62" s="167"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="224"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="170"/>
       <c r="J62" s="42"/>
-      <c r="K62" s="159"/>
+      <c r="K62" s="158"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="164">
+      <c r="B63" s="163">
         <v>10</v>
       </c>
-      <c r="C63" s="165"/>
-      <c r="D63" s="166" t="s">
+      <c r="C63" s="164"/>
+      <c r="D63" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="90"/>
-      <c r="F63" s="91" t="s">
+      <c r="E63" s="164"/>
+      <c r="F63" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="92">
+      <c r="G63" s="166">
         <v>888.8</v>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="158">
+      <c r="H63" s="170"/>
+      <c r="I63" s="170"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="157">
         <f>IF(COUNTA(J64:J67)&lt;3,0,IF(COUNTA(J64:J67)=3,SUM(J64:J67),IF(SUM(J64:J67)&gt;0,SUM(J64:J67)-MINA(J64:J67),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="164"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="13">
         <v>123456</v>
       </c>
@@ -4669,9 +4669,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="164"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
       <c r="E65" s="13">
         <v>123456</v>
       </c>
@@ -4694,9 +4694,9 @@
       <c r="K65" s="87"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="164"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="13">
         <v>123456</v>
       </c>
@@ -4719,9 +4719,9 @@
       <c r="K66" s="87"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="164"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="13">
         <v>123456</v>
       </c>
@@ -4744,38 +4744,38 @@
       <c r="K67" s="87"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="162"/>
-      <c r="H68" s="171"/>
-      <c r="I68" s="171"/>
+      <c r="B68" s="161"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="170"/>
       <c r="K68" s="87"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="164">
+      <c r="B69" s="163">
         <v>11</v>
       </c>
-      <c r="C69" s="165"/>
-      <c r="D69" s="166" t="s">
+      <c r="C69" s="164"/>
+      <c r="D69" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="165"/>
-      <c r="F69" s="166" t="s">
+      <c r="E69" s="164"/>
+      <c r="F69" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="167">
+      <c r="G69" s="166">
         <v>888.8</v>
       </c>
-      <c r="H69" s="171"/>
-      <c r="I69" s="171"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="158">
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
+      <c r="J69" s="153"/>
+      <c r="K69" s="157">
         <f>IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="164"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="164"/>
       <c r="E70" s="13">
         <v>123456</v>
       </c>
@@ -4798,9 +4798,9 @@
       <c r="K70" s="87"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="164"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="13">
         <v>123456</v>
       </c>
@@ -4823,9 +4823,9 @@
       <c r="K71" s="87"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="164"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="165"/>
+      <c r="B72" s="163"/>
+      <c r="C72" s="164"/>
+      <c r="D72" s="164"/>
       <c r="E72" s="13">
         <v>123456</v>
       </c>
@@ -4848,9 +4848,9 @@
       <c r="K72" s="87"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="164"/>
-      <c r="C73" s="165"/>
-      <c r="D73" s="165"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="164"/>
       <c r="E73" s="13">
         <v>123456</v>
       </c>
@@ -4873,38 +4873,38 @@
       <c r="K73" s="87"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="162"/>
-      <c r="H74" s="171"/>
-      <c r="I74" s="171"/>
+      <c r="B74" s="161"/>
+      <c r="H74" s="170"/>
+      <c r="I74" s="170"/>
       <c r="K74" s="87"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="164">
+      <c r="B75" s="163">
         <v>12</v>
       </c>
-      <c r="C75" s="165"/>
-      <c r="D75" s="166" t="s">
+      <c r="C75" s="164"/>
+      <c r="D75" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="165"/>
-      <c r="F75" s="166" t="s">
+      <c r="E75" s="164"/>
+      <c r="F75" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="167">
+      <c r="G75" s="166">
         <v>888.8</v>
       </c>
-      <c r="H75" s="171"/>
-      <c r="I75" s="171"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="158">
+      <c r="H75" s="170"/>
+      <c r="I75" s="170"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="157">
         <f>IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="164"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="165"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="164"/>
+      <c r="D76" s="164"/>
       <c r="E76" s="13">
         <v>123456</v>
       </c>
@@ -4927,9 +4927,9 @@
       <c r="K76" s="87"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="164"/>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
       <c r="E77" s="13">
         <v>123456</v>
       </c>
@@ -4952,9 +4952,9 @@
       <c r="K77" s="87"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="164"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="164"/>
+      <c r="D78" s="164"/>
       <c r="E78" s="13">
         <v>123456</v>
       </c>
@@ -4977,9 +4977,9 @@
       <c r="K78" s="87"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="164"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
+      <c r="B79" s="163"/>
+      <c r="C79" s="164"/>
+      <c r="D79" s="164"/>
       <c r="E79" s="13">
         <v>123456</v>
       </c>
@@ -5002,20 +5002,20 @@
       <c r="K79" s="87"/>
     </row>
     <row r="80" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="169"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="173"/>
-      <c r="F80" s="173"/>
-      <c r="G80" s="174"/>
-      <c r="H80" s="160"/>
-      <c r="I80" s="160"/>
-      <c r="J80" s="160"/>
-      <c r="K80" s="161"/>
+      <c r="B80" s="168"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="172"/>
+      <c r="G80" s="173"/>
+      <c r="H80" s="159"/>
+      <c r="I80" s="159"/>
+      <c r="J80" s="159"/>
+      <c r="K80" s="160"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="156" t="s">
+      <c r="B82" s="155" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
   </sheetPr>
   <dimension ref="A2:Y21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" defaultGridColor="0" colorId="22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5074,30 +5074,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="219" t="str">
+      <c r="B2" s="218" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="221"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="220"/>
     </row>
     <row r="4" spans="1:25" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5113,10 +5113,10 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="122" t="s">
+      <c r="O4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="121" t="str">
+      <c r="P4" s="120" t="str">
         <f>'Deelnemers en Scores'!H4</f>
         <v>yyyy-mm-dd</v>
       </c>
@@ -5129,179 +5129,179 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="124"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="216" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="216" t="s">
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="217"/>
-      <c r="L7" s="217"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="216" t="s">
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="217"/>
-      <c r="R7" s="218"/>
-      <c r="S7" s="127" t="s">
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="217"/>
+      <c r="S7" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="T7" s="147"/>
-      <c r="U7" s="149" t="s">
+      <c r="T7" s="146"/>
+      <c r="U7" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="129" t="s">
+      <c r="V7" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="X7" s="201" t="s">
+      <c r="X7" s="200" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="140" t="s">
+      <c r="B8" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="141">
+      <c r="E8" s="140">
         <v>1</v>
       </c>
-      <c r="F8" s="142">
+      <c r="F8" s="141">
         <v>2</v>
       </c>
-      <c r="G8" s="142">
+      <c r="G8" s="141">
         <v>3</v>
       </c>
-      <c r="H8" s="143">
+      <c r="H8" s="142">
         <v>4</v>
       </c>
-      <c r="I8" s="144"/>
-      <c r="J8" s="141">
+      <c r="I8" s="143"/>
+      <c r="J8" s="140">
         <v>1</v>
       </c>
-      <c r="K8" s="142">
+      <c r="K8" s="141">
         <v>2</v>
       </c>
-      <c r="L8" s="142">
+      <c r="L8" s="141">
         <v>3</v>
       </c>
-      <c r="M8" s="143">
+      <c r="M8" s="142">
         <v>4</v>
       </c>
-      <c r="N8" s="144"/>
-      <c r="O8" s="141">
+      <c r="N8" s="143"/>
+      <c r="O8" s="140">
         <v>1</v>
       </c>
-      <c r="P8" s="142">
+      <c r="P8" s="141">
         <v>2</v>
       </c>
-      <c r="Q8" s="142">
+      <c r="Q8" s="141">
         <v>3</v>
       </c>
-      <c r="R8" s="143">
+      <c r="R8" s="142">
         <v>4</v>
       </c>
-      <c r="S8" s="145" t="s">
+      <c r="S8" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="T8" s="148"/>
-      <c r="U8" s="150" t="s">
+      <c r="T8" s="147"/>
+      <c r="U8" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="146"/>
-      <c r="X8" s="202" t="s">
+      <c r="V8" s="145"/>
+      <c r="X8" s="201" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="131">
+      <c r="B9" s="130">
         <f>IF('Deelnemers en Scores'!B9&gt;0,'Deelnemers en Scores'!B9,"")</f>
         <v>1</v>
       </c>
-      <c r="C9" s="132" t="str">
+      <c r="C9" s="131" t="str">
         <f>IF('Deelnemers en Scores'!F9="","",'Deelnemers en Scores'!F9)</f>
         <v>Team naam 1</v>
       </c>
-      <c r="D9" s="133" t="str">
+      <c r="D9" s="132" t="str">
         <f>'Deelnemers en Scores'!D9</f>
         <v>Vereniging 1</v>
       </c>
-      <c r="E9" s="134" t="str">
+      <c r="E9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!H10=0,"",'Deelnemers en Scores'!H10)</f>
         <v/>
       </c>
-      <c r="F9" s="134" t="str">
+      <c r="F9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!H11=0,"",'Deelnemers en Scores'!H11)</f>
         <v/>
       </c>
-      <c r="G9" s="134" t="str">
+      <c r="G9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!H12=0,"",'Deelnemers en Scores'!H12)</f>
         <v/>
       </c>
-      <c r="H9" s="134" t="str">
+      <c r="H9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!H13=0,"",'Deelnemers en Scores'!H13)</f>
         <v/>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="134" t="str">
+      <c r="I9" s="122"/>
+      <c r="J9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!I10=0,"",'Deelnemers en Scores'!I10)</f>
         <v/>
       </c>
-      <c r="K9" s="134" t="str">
+      <c r="K9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!I11=0,"",'Deelnemers en Scores'!I11)</f>
         <v/>
       </c>
-      <c r="L9" s="134" t="str">
+      <c r="L9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!I12=0,"",'Deelnemers en Scores'!I12)</f>
         <v/>
       </c>
-      <c r="M9" s="134" t="str">
+      <c r="M9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!I13=0,"",'Deelnemers en Scores'!I13)</f>
         <v/>
       </c>
-      <c r="N9" s="123"/>
-      <c r="O9" s="135" t="str">
+      <c r="N9" s="122"/>
+      <c r="O9" s="134" t="str">
         <f t="shared" ref="O9:O20" si="0">IF(ISNUMBER(J9),E9+J9,"")</f>
         <v/>
       </c>
-      <c r="P9" s="136" t="str">
+      <c r="P9" s="135" t="str">
         <f t="shared" ref="P9:P20" si="1">IF(ISNUMBER(K9),F9+K9,"")</f>
         <v/>
       </c>
-      <c r="Q9" s="136" t="str">
+      <c r="Q9" s="135" t="str">
         <f t="shared" ref="Q9:Q20" si="2">IF(ISNUMBER(L9),G9+L9,"")</f>
         <v/>
       </c>
-      <c r="R9" s="137" t="str">
+      <c r="R9" s="136" t="str">
         <f t="shared" ref="R9:R20" si="3">IF(ISNUMBER(M9),H9+M9,"")</f>
         <v/>
       </c>
-      <c r="S9" s="138">
+      <c r="S9" s="137">
         <f t="shared" ref="S9:S20" si="4">IF(COUNT(O9:R9)&lt;4,SUM(O9:R9),SUM(O9:R9)-MIN(O9:R9))</f>
         <v>0</v>
       </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="153">
+      <c r="U9" s="150"/>
+      <c r="V9" s="152">
         <f t="shared" ref="V9:V20" si="5">S9+(U9/1000)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="200">
+      <c r="X9" s="199">
         <f>V9</f>
         <v>0</v>
       </c>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="10" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="130">
+      <c r="B10" s="129">
         <f>IF('Deelnemers en Scores'!B15&gt;0,'Deelnemers en Scores'!B15,"")</f>
         <v>2</v>
       </c>
@@ -5337,7 +5337,7 @@
         <f>IF('Deelnemers en Scores'!H19=0,"",'Deelnemers en Scores'!H19)</f>
         <v/>
       </c>
-      <c r="I10" s="123"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I16=0,"",'Deelnemers en Scores'!I16)</f>
         <v/>
@@ -5354,7 +5354,7 @@
         <f>IF('Deelnemers en Scores'!I19=0,"",'Deelnemers en Scores'!I19)</f>
         <v/>
       </c>
-      <c r="N10" s="123"/>
+      <c r="N10" s="122"/>
       <c r="O10" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5371,17 +5371,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S10" s="138">
+      <c r="S10" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T10" s="3"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="153">
+      <c r="U10" s="151"/>
+      <c r="V10" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X10" s="200">
+      <c r="X10" s="199">
         <f t="shared" ref="X10:X20" si="6">V10</f>
         <v>0</v>
       </c>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="11" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="130">
+      <c r="B11" s="129">
         <f>IF('Deelnemers en Scores'!B21&gt;0,'Deelnemers en Scores'!B21,"")</f>
         <v>3</v>
       </c>
@@ -5417,7 +5417,7 @@
         <f>IF('Deelnemers en Scores'!H25=0,"",'Deelnemers en Scores'!H25)</f>
         <v/>
       </c>
-      <c r="I11" s="123"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I22=0,"",'Deelnemers en Scores'!I22)</f>
         <v/>
@@ -5434,7 +5434,7 @@
         <f>IF('Deelnemers en Scores'!I25=0,"",'Deelnemers en Scores'!I25)</f>
         <v/>
       </c>
-      <c r="N11" s="123"/>
+      <c r="N11" s="122"/>
       <c r="O11" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5451,17 +5451,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S11" s="138">
+      <c r="S11" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="3"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="153">
+      <c r="U11" s="151"/>
+      <c r="V11" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X11" s="200">
+      <c r="X11" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="12" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="130">
+      <c r="B12" s="129">
         <f>IF('Deelnemers en Scores'!B27&gt;0,'Deelnemers en Scores'!B27,"")</f>
         <v>4</v>
       </c>
@@ -5497,7 +5497,7 @@
         <f>IF('Deelnemers en Scores'!H31=0,"",'Deelnemers en Scores'!H31)</f>
         <v/>
       </c>
-      <c r="I12" s="123"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I28=0,"",'Deelnemers en Scores'!I28)</f>
         <v/>
@@ -5514,7 +5514,7 @@
         <f>IF('Deelnemers en Scores'!I31=0,"",'Deelnemers en Scores'!I31)</f>
         <v/>
       </c>
-      <c r="N12" s="123"/>
+      <c r="N12" s="122"/>
       <c r="O12" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5531,17 +5531,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S12" s="138">
+      <c r="S12" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12" s="3"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="153">
+      <c r="U12" s="151"/>
+      <c r="V12" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X12" s="200">
+      <c r="X12" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="130">
+      <c r="B13" s="129">
         <f>IF('Deelnemers en Scores'!B33&gt;0,'Deelnemers en Scores'!B33,"")</f>
         <v>5</v>
       </c>
@@ -5577,7 +5577,7 @@
         <f>IF('Deelnemers en Scores'!H37=0,"",'Deelnemers en Scores'!H37)</f>
         <v/>
       </c>
-      <c r="I13" s="123"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I34=0,"",'Deelnemers en Scores'!I34)</f>
         <v/>
@@ -5594,7 +5594,7 @@
         <f>IF('Deelnemers en Scores'!I37=0,"",'Deelnemers en Scores'!I37)</f>
         <v/>
       </c>
-      <c r="N13" s="123"/>
+      <c r="N13" s="122"/>
       <c r="O13" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5611,17 +5611,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S13" s="138">
+      <c r="S13" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="153">
+      <c r="U13" s="151"/>
+      <c r="V13" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X13" s="200">
+      <c r="X13" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="130">
+      <c r="B14" s="129">
         <f>IF('Deelnemers en Scores'!B39&gt;0,'Deelnemers en Scores'!B39,"")</f>
         <v>6</v>
       </c>
@@ -5657,7 +5657,7 @@
         <f>IF('Deelnemers en Scores'!H43=0,"",'Deelnemers en Scores'!H43)</f>
         <v/>
       </c>
-      <c r="I14" s="123"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I40=0,"",'Deelnemers en Scores'!I40)</f>
         <v/>
@@ -5674,7 +5674,7 @@
         <f>IF('Deelnemers en Scores'!I43=0,"",'Deelnemers en Scores'!I43)</f>
         <v/>
       </c>
-      <c r="N14" s="123"/>
+      <c r="N14" s="122"/>
       <c r="O14" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5691,17 +5691,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S14" s="138">
+      <c r="S14" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14" s="3"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="153">
+      <c r="U14" s="151"/>
+      <c r="V14" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X14" s="200">
+      <c r="X14" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="130">
+      <c r="B15" s="129">
         <f>IF('Deelnemers en Scores'!B45&gt;0,'Deelnemers en Scores'!B45,"")</f>
         <v>7</v>
       </c>
@@ -5737,7 +5737,7 @@
         <f>IF('Deelnemers en Scores'!H49=0,"",'Deelnemers en Scores'!H49)</f>
         <v/>
       </c>
-      <c r="I15" s="123"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I46=0,"",'Deelnemers en Scores'!I46)</f>
         <v/>
@@ -5754,7 +5754,7 @@
         <f>IF('Deelnemers en Scores'!I49=0,"",'Deelnemers en Scores'!I49)</f>
         <v/>
       </c>
-      <c r="N15" s="123"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5771,17 +5771,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S15" s="138">
+      <c r="S15" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="153">
+      <c r="U15" s="151"/>
+      <c r="V15" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X15" s="200">
+      <c r="X15" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="130">
+      <c r="B16" s="129">
         <f>IF('Deelnemers en Scores'!B51&gt;0,'Deelnemers en Scores'!B51,"")</f>
         <v>8</v>
       </c>
@@ -5817,7 +5817,7 @@
         <f>IF('Deelnemers en Scores'!H55=0,"",'Deelnemers en Scores'!H55)</f>
         <v/>
       </c>
-      <c r="I16" s="123"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I52=0,"",'Deelnemers en Scores'!I52)</f>
         <v/>
@@ -5834,7 +5834,7 @@
         <f>IF('Deelnemers en Scores'!I55=0,"",'Deelnemers en Scores'!I55)</f>
         <v/>
       </c>
-      <c r="N16" s="123"/>
+      <c r="N16" s="122"/>
       <c r="O16" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5851,17 +5851,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S16" s="138">
+      <c r="S16" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
-      <c r="U16" s="152"/>
-      <c r="V16" s="153">
+      <c r="U16" s="151"/>
+      <c r="V16" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X16" s="200">
+      <c r="X16" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="17" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="130">
+      <c r="B17" s="129">
         <f>IF('Deelnemers en Scores'!B57&gt;0,'Deelnemers en Scores'!B57,"")</f>
         <v>9</v>
       </c>
@@ -5897,7 +5897,7 @@
         <f>IF('Deelnemers en Scores'!H61=0,"",'Deelnemers en Scores'!H61)</f>
         <v/>
       </c>
-      <c r="I17" s="123"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I58=0,"",'Deelnemers en Scores'!I58)</f>
         <v/>
@@ -5914,7 +5914,7 @@
         <f>IF('Deelnemers en Scores'!I61=0,"",'Deelnemers en Scores'!I61)</f>
         <v/>
       </c>
-      <c r="N17" s="123"/>
+      <c r="N17" s="122"/>
       <c r="O17" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5931,17 +5931,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S17" s="138">
+      <c r="S17" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="3"/>
-      <c r="U17" s="152"/>
-      <c r="V17" s="153">
+      <c r="U17" s="151"/>
+      <c r="V17" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X17" s="200">
+      <c r="X17" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="18" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="130">
+      <c r="B18" s="129">
         <f>IF('Deelnemers en Scores'!B63&gt;0,'Deelnemers en Scores'!B63,"")</f>
         <v>10</v>
       </c>
@@ -5977,7 +5977,7 @@
         <f>IF('Deelnemers en Scores'!H67=0,"",'Deelnemers en Scores'!H67)</f>
         <v/>
       </c>
-      <c r="I18" s="123"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I64=0,"",'Deelnemers en Scores'!I64)</f>
         <v/>
@@ -5994,7 +5994,7 @@
         <f>IF('Deelnemers en Scores'!I67=0,"",'Deelnemers en Scores'!I67)</f>
         <v/>
       </c>
-      <c r="N18" s="123"/>
+      <c r="N18" s="122"/>
       <c r="O18" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6011,17 +6011,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S18" s="138">
+      <c r="S18" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T18" s="3"/>
-      <c r="U18" s="152"/>
-      <c r="V18" s="153">
+      <c r="U18" s="151"/>
+      <c r="V18" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X18" s="200">
+      <c r="X18" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="19" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="130">
+      <c r="B19" s="129">
         <f>IF('Deelnemers en Scores'!B69&gt;0,'Deelnemers en Scores'!B69,"")</f>
         <v>11</v>
       </c>
@@ -6057,7 +6057,7 @@
         <f>IF('Deelnemers en Scores'!H73=0,"",'Deelnemers en Scores'!H73)</f>
         <v/>
       </c>
-      <c r="I19" s="123"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I70=0,"",'Deelnemers en Scores'!I70)</f>
         <v/>
@@ -6074,7 +6074,7 @@
         <f>IF('Deelnemers en Scores'!I73=0,"",'Deelnemers en Scores'!I73)</f>
         <v/>
       </c>
-      <c r="N19" s="123"/>
+      <c r="N19" s="122"/>
       <c r="O19" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6091,17 +6091,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S19" s="138">
+      <c r="S19" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="152"/>
-      <c r="V19" s="153">
+      <c r="U19" s="151"/>
+      <c r="V19" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X19" s="200">
+      <c r="X19" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6109,106 +6109,106 @@
     </row>
     <row r="20" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="186">
+      <c r="B20" s="185">
         <f>IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C20" s="187" t="str">
+      <c r="C20" s="186" t="str">
         <f>IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>Team naam 12</v>
       </c>
-      <c r="D20" s="188" t="str">
+      <c r="D20" s="187" t="str">
         <f>'Deelnemers en Scores'!D75</f>
         <v>Vereniging 12</v>
       </c>
-      <c r="E20" s="189" t="str">
+      <c r="E20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F20" s="189" t="str">
+      <c r="F20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G20" s="189" t="str">
+      <c r="G20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H20" s="189" t="str">
+      <c r="H20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
-      <c r="I20" s="123"/>
-      <c r="J20" s="189" t="str">
+      <c r="I20" s="122"/>
+      <c r="J20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K20" s="189" t="str">
+      <c r="K20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L20" s="189" t="str">
+      <c r="L20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M20" s="189" t="str">
+      <c r="M20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
-      <c r="N20" s="123"/>
-      <c r="O20" s="190" t="str">
+      <c r="N20" s="122"/>
+      <c r="O20" s="189" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="191" t="str">
+      <c r="P20" s="190" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="191" t="str">
+      <c r="Q20" s="190" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="192" t="str">
+      <c r="R20" s="191" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S20" s="193">
+      <c r="S20" s="192">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="196"/>
-      <c r="U20" s="194"/>
-      <c r="V20" s="195">
+      <c r="T20" s="195"/>
+      <c r="U20" s="193"/>
+      <c r="V20" s="194">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X20" s="200">
+      <c r="X20" s="199">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="197"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="198"/>
-      <c r="P21" s="198"/>
-      <c r="Q21" s="198"/>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198"/>
-      <c r="U21" s="198"/>
-      <c r="V21" s="198"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="197"/>
+      <c r="M21" s="197"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+      <c r="Q21" s="197"/>
+      <c r="R21" s="197"/>
+      <c r="S21" s="197"/>
+      <c r="T21" s="197"/>
+      <c r="U21" s="197"/>
+      <c r="V21" s="197"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6295,32 +6295,32 @@
     <row r="2" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="222" t="str">
+      <c r="B4" s="221" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="223"/>
-      <c r="P4" s="223"/>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="223"/>
-      <c r="S4" s="223"/>
-      <c r="T4" s="223"/>
-      <c r="U4" s="223"/>
-      <c r="V4" s="223"/>
-      <c r="W4" s="223"/>
-      <c r="X4" s="224"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="222"/>
+      <c r="V4" s="222"/>
+      <c r="W4" s="222"/>
+      <c r="X4" s="223"/>
       <c r="Y4" s="25"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -6583,8 +6583,8 @@
       <c r="E12" s="72"/>
       <c r="F12" s="74"/>
       <c r="G12" s="73"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="181" t="str">
+      <c r="H12" s="174"/>
+      <c r="I12" s="180" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H12&gt;H14),"*","")</f>
         <v/>
       </c>
@@ -6603,18 +6603,18 @@
       </c>
     </row>
     <row r="13" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="42"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106" t="str">
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105" t="str">
         <f>IF(AC13=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I13" s="106"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="79"/>
       <c r="K13" s="78"/>
       <c r="L13" s="18"/>
@@ -6664,8 +6664,8 @@
       <c r="E14" s="72"/>
       <c r="F14" s="74"/>
       <c r="G14" s="73"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="182" t="str">
+      <c r="H14" s="174"/>
+      <c r="I14" s="181" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H14&gt;H12),"*","")</f>
         <v/>
       </c>
@@ -6696,15 +6696,15 @@
       <c r="AM14" s="43"/>
     </row>
     <row r="15" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="72"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
       <c r="J15" s="79"/>
       <c r="K15" s="75">
         <v>1</v>
@@ -6716,8 +6716,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="74"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="181" t="str">
+      <c r="P15" s="174"/>
+      <c r="Q15" s="180" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -6745,25 +6745,25 @@
       <c r="AR15" s="41"/>
     </row>
     <row r="16" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="78"/>
       <c r="K16" s="78"/>
       <c r="L16" s="19"/>
       <c r="N16" s="20"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="179" t="str">
+      <c r="P16" s="178" t="str">
         <f>IF(AI16=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Q16" s="112"/>
+      <c r="Q16" s="111"/>
       <c r="R16" s="76"/>
       <c r="T16" s="69" t="s">
         <v>2</v>
@@ -6807,8 +6807,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="74"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="182" t="str">
+      <c r="P17" s="174"/>
+      <c r="Q17" s="181" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -6848,8 +6848,8 @@
       <c r="E18" s="72"/>
       <c r="F18" s="74"/>
       <c r="G18" s="73"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="181" t="str">
+      <c r="H18" s="174"/>
+      <c r="I18" s="180" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H18&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -6898,17 +6898,17 @@
     </row>
     <row r="19" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106" t="str">
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="105" t="str">
         <f>IF(AC19=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I19" s="106"/>
+      <c r="I19" s="105"/>
       <c r="J19" s="79"/>
       <c r="K19" s="78"/>
       <c r="Q19" s="78"/>
@@ -6921,8 +6921,8 @@
       <c r="U19" s="46"/>
       <c r="V19" s="11"/>
       <c r="W19" s="46"/>
-      <c r="X19" s="176"/>
-      <c r="Y19" s="177" t="str">
+      <c r="X19" s="175"/>
+      <c r="Y19" s="176" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X19&gt;X21),"*","")</f>
         <v/>
       </c>
@@ -6968,8 +6968,8 @@
       <c r="E20" s="72"/>
       <c r="F20" s="74"/>
       <c r="G20" s="73"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="182" t="str">
+      <c r="H20" s="174"/>
+      <c r="I20" s="181" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H20&gt;H18),"*","")</f>
         <v/>
       </c>
@@ -6981,11 +6981,11 @@
       <c r="U20" s="18"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
-      <c r="X20" s="179" t="str">
+      <c r="X20" s="178" t="str">
         <f>IF(AO20=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Y20" s="112"/>
+      <c r="Y20" s="111"/>
       <c r="Z20" s="18"/>
       <c r="AA20" s="18"/>
       <c r="AB20" s="24"/>
@@ -7014,15 +7014,15 @@
     </row>
     <row r="21" spans="1:44" ht="30" x14ac:dyDescent="0.4">
       <c r="A21" s="42"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="108"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="55"/>
-      <c r="J21" s="101"/>
+      <c r="J21" s="100"/>
       <c r="K21" s="78"/>
       <c r="Q21" s="78"/>
       <c r="R21" s="76"/>
@@ -7034,8 +7034,8 @@
       <c r="U21" s="46"/>
       <c r="V21" s="11"/>
       <c r="W21" s="46"/>
-      <c r="X21" s="176"/>
-      <c r="Y21" s="178" t="str">
+      <c r="X21" s="175"/>
+      <c r="Y21" s="177" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X21&gt;X19),"*","")</f>
         <v/>
       </c>
@@ -7059,14 +7059,14 @@
     </row>
     <row r="22" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="42"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="183"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="182"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
       <c r="Q22" s="78"/>
@@ -7107,8 +7107,8 @@
       <c r="E24" s="72"/>
       <c r="F24" s="74"/>
       <c r="G24" s="73"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="181" t="str">
+      <c r="H24" s="174"/>
+      <c r="I24" s="180" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H24&gt;H26),"*","")</f>
         <v/>
       </c>
@@ -7131,18 +7131,18 @@
       <c r="AJ24" s="38"/>
     </row>
     <row r="25" spans="1:44" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="106" t="str">
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105" t="str">
         <f>IF(AC25=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I25" s="106"/>
+      <c r="I25" s="105"/>
       <c r="J25" s="77"/>
       <c r="Q25" s="78"/>
       <c r="R25" s="76"/>
@@ -7179,8 +7179,8 @@
       <c r="E26" s="72"/>
       <c r="F26" s="74"/>
       <c r="G26" s="73"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="182" t="str">
+      <c r="H26" s="174"/>
+      <c r="I26" s="181" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H26&gt;H24),"*","")</f>
         <v/>
       </c>
@@ -7223,15 +7223,15 @@
       </c>
     </row>
     <row r="27" spans="1:44" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
       <c r="J27" s="77"/>
       <c r="K27" s="75">
         <v>3</v>
@@ -7243,8 +7243,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="74"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="181" t="str">
+      <c r="P27" s="174"/>
+      <c r="Q27" s="180" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P27&gt;P29),"*","")</f>
         <v/>
       </c>
@@ -7268,23 +7268,23 @@
       <c r="AM27" s="18"/>
     </row>
     <row r="28" spans="1:44" ht="30" x14ac:dyDescent="0.4">
-      <c r="A28" s="102"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
       <c r="L28" s="19"/>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="179" t="str">
+      <c r="P28" s="178" t="str">
         <f>IF(AI28=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Q28" s="112"/>
+      <c r="Q28" s="111"/>
       <c r="R28" s="76"/>
       <c r="T28" s="69" t="s">
         <v>79</v>
@@ -7331,8 +7331,8 @@
       <c r="M29" s="46"/>
       <c r="N29" s="74"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="182" t="str">
+      <c r="P29" s="174"/>
+      <c r="Q29" s="181" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P29&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -7365,8 +7365,8 @@
       <c r="E30" s="72"/>
       <c r="F30" s="74"/>
       <c r="G30" s="73"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="181" t="str">
+      <c r="H30" s="174"/>
+      <c r="I30" s="180" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H30&gt;H32),"*","")</f>
         <v/>
       </c>
@@ -7411,18 +7411,18 @@
       </c>
     </row>
     <row r="31" spans="1:44" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="102"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106" t="str">
+      <c r="F31" s="103"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105" t="str">
         <f>IF(AC31=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I31" s="106"/>
+      <c r="I31" s="105"/>
       <c r="J31" s="77"/>
       <c r="R31" s="76"/>
       <c r="S31" s="75"/>
@@ -7433,8 +7433,8 @@
       <c r="U31" s="46"/>
       <c r="V31" s="11"/>
       <c r="W31" s="46"/>
-      <c r="X31" s="176"/>
-      <c r="Y31" s="177" t="str">
+      <c r="X31" s="175"/>
+      <c r="Y31" s="176" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X31&gt;X33),"*","")</f>
         <v/>
       </c>
@@ -7480,8 +7480,8 @@
       <c r="E32" s="72"/>
       <c r="F32" s="74"/>
       <c r="G32" s="73"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="182" t="str">
+      <c r="H32" s="174"/>
+      <c r="I32" s="181" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H32&gt;H30),"*","")</f>
         <v/>
       </c>
@@ -7491,11 +7491,11 @@
       <c r="U32" s="18"/>
       <c r="V32" s="65"/>
       <c r="W32" s="65"/>
-      <c r="X32" s="179" t="str">
+      <c r="X32" s="178" t="str">
         <f>IF(AO32=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Y32" s="112"/>
+      <c r="Y32" s="111"/>
       <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
       <c r="AB32" s="43"/>
@@ -7530,7 +7530,7 @@
       </c>
     </row>
     <row r="33" spans="9:44" ht="30" x14ac:dyDescent="0.2">
-      <c r="I33" s="102"/>
+      <c r="I33" s="101"/>
       <c r="R33" s="76"/>
       <c r="S33" s="75"/>
       <c r="T33" s="4" t="str">
@@ -7540,8 +7540,8 @@
       <c r="U33" s="46"/>
       <c r="V33" s="11"/>
       <c r="W33" s="46"/>
-      <c r="X33" s="176"/>
-      <c r="Y33" s="178" t="str">
+      <c r="X33" s="175"/>
+      <c r="Y33" s="177" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X33&gt;X31),"*","")</f>
         <v/>
       </c>
@@ -7718,24 +7718,24 @@
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="222" t="str">
+      <c r="B4" s="221" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="223"/>
-      <c r="P4" s="224"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="223"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="W4"/>
@@ -7849,8 +7849,8 @@
       <c r="E11" s="46"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="181" t="str">
+      <c r="H11" s="179"/>
+      <c r="I11" s="180" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H11&gt;H13),"*","")</f>
         <v/>
       </c>
@@ -7879,11 +7879,11 @@
       <c r="D12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="179" t="str">
+      <c r="H12" s="178" t="str">
         <f>IF(U12=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I12" s="112"/>
+      <c r="I12" s="111"/>
       <c r="J12" s="80"/>
       <c r="L12" s="69" t="s">
         <v>2</v>
@@ -7926,8 +7926,8 @@
       <c r="E13" s="46"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="182" t="str">
+      <c r="H13" s="179"/>
+      <c r="I13" s="181" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H13&gt;H11),"*","")</f>
         <v/>
       </c>
@@ -7989,8 +7989,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="11"/>
       <c r="O15" s="46"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="184" t="str">
+      <c r="P15" s="175"/>
+      <c r="Q15" s="183" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -8018,11 +8018,11 @@
       <c r="M16" s="18"/>
       <c r="N16" s="65"/>
       <c r="O16" s="65"/>
-      <c r="P16" s="179" t="str">
+      <c r="P16" s="178" t="str">
         <f>IF(AA16=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Q16" s="112"/>
+      <c r="Q16" s="111"/>
       <c r="Z16" s="38" t="b">
         <f>AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>0</v>
@@ -8054,8 +8054,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="11"/>
       <c r="O17" s="46"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="185" t="str">
+      <c r="P17" s="175"/>
+      <c r="Q17" s="184" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -8133,8 +8133,8 @@
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="181" t="str">
+      <c r="H20" s="179"/>
+      <c r="I20" s="180" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H20&gt;H22),"*","")</f>
         <v/>
       </c>
@@ -8162,11 +8162,11 @@
       <c r="D21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="179" t="str">
+      <c r="H21" s="178" t="str">
         <f>IF(U21=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I21" s="112"/>
+      <c r="I21" s="111"/>
       <c r="J21" s="81"/>
       <c r="L21" s="69" t="s">
         <v>79</v>
@@ -8205,8 +8205,8 @@
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="182" t="str">
+      <c r="H22" s="179"/>
+      <c r="I22" s="181" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H22&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -8271,8 +8271,8 @@
       <c r="M25" s="46"/>
       <c r="N25" s="11"/>
       <c r="O25" s="46"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="184" t="str">
+      <c r="P25" s="175"/>
+      <c r="Q25" s="183" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -8302,11 +8302,11 @@
       <c r="M26" s="18"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
-      <c r="P26" s="179" t="str">
+      <c r="P26" s="178" t="str">
         <f>IF(AA26=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Q26" s="112"/>
+      <c r="Q26" s="111"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
@@ -8340,8 +8340,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="11"/>
       <c r="O27" s="46"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="185" t="str">
+      <c r="P27" s="175"/>
+      <c r="Q27" s="184" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>

--- a/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
+++ b/CompLaagBond/files/template-excel-bk-indoor-teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects Ramon\Websites\NHB-applicaties\Excel programma's\BK excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973DA3EB-40AF-4767-A156-BD0CA43F0556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1227B-5D10-43F8-9259-35C34C2098AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1095" windowWidth="18810" windowHeight="14025" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Finales 4 teams" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$V$8:$V$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Uitslag!$B$8:$X$20</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Deelnemers en Scores'!$B$2:$K$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Finales 4 teams'!$A$1:$R$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Finales 8 teams'!$A$1:$Z$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Uitslag!$A$1:$Y$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Uitslag!$A$1:$W$21</definedName>
     <definedName name="PRINT_B">#REF!</definedName>
     <definedName name="PRINT_C">#REF!</definedName>
     <definedName name="PRINT_COMP_A">#REF!</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
   <si>
     <t>Baan</t>
   </si>
@@ -511,30 +511,6 @@
   </si>
   <si>
     <t>Naar finale?</t>
-  </si>
-  <si>
-    <r>
-      <t>Je hebt dit blad vooringevuld gekregen vanuit MijnHandboogsport met de laatste stand van zaken op moment van download.
-Aan het einde van de wedstrijd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> moet het ingevulde bestand terug gestuurd worden</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> voor publicatie.
-Contactgegevens staan onderaan.</t>
-    </r>
   </si>
   <si>
     <t>Finales met 8 of 4 teams</t>
@@ -716,6 +692,34 @@
   <si>
     <t>Contactgegevens</t>
   </si>
+  <si>
+    <t>Sorteer mij</t>
+  </si>
+  <si>
+    <t>(hoog naar laag)</t>
+  </si>
+  <si>
+    <r>
+      <t>Je hebt dit blad vooringevuld gekregen vanuit MijnHandboogsport met de laatste stand van zaken op moment van download. Aan het einde van de wedstrijd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> moet het ingevulde bestand terug gestuurd worden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> voor publicatie. De contactgegevens staan onderaan.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -725,7 +729,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -898,8 +902,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,8 +958,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1584,13 +1600,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1844,9 +1886,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2018,9 +2057,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2162,6 +2198,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2238,6 +2283,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2245,7 +2293,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{A7495752-5368-4B1C-A554-75568F9C1911}"/>
     <cellStyle name="Standaard_team model" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -2327,6 +2375,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2794,22 +2849,22 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="201" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="201"/>
+    <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="202" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="202"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2819,7 +2874,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2833,8 +2888,8 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="100" t="s">
-        <v>127</v>
+      <c r="B11" s="99" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2871,7 +2926,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="99" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2905,12 +2960,12 @@
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2921,47 +2976,47 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B35" s="99" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="B35" s="100" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="99" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="100" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="100" t="s">
-        <v>116</v>
+      <c r="B37" s="99" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="100" t="s">
-        <v>115</v>
+      <c r="B38" s="99" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="100"/>
+      <c r="B39" s="99"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3036,18 +3091,18 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="200" t="s">
-        <v>130</v>
+      <c r="A58" s="198" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2"/>
@@ -3085,17 +3140,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="202" t="str">
+      <c r="B1" s="203" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="205"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="15"/>
@@ -3226,9 +3281,9 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="155" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="155" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="155" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="153" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="153" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="153" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="84" customWidth="1"/>
     <col min="6" max="6" width="34.44140625" style="84" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="85" customWidth="1"/>
@@ -3241,18 +3296,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="208"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="82"/>
@@ -3261,129 +3316,129 @@
       <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
       <c r="E4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="210" t="s">
+      <c r="H4" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="212"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
+      <c r="A5" s="154"/>
       <c r="B5" s="89"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116" t="s">
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="208" t="s">
+      <c r="H6" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="208"/>
-      <c r="J6" s="115" t="s">
+      <c r="I6" s="209"/>
+      <c r="J6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="118" t="s">
+      <c r="K6" s="117" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116" t="s">
+      <c r="B7" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="120" t="s">
+      <c r="I7" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="115" t="s">
+      <c r="J7" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="118" t="s">
+      <c r="K7" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="163"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="158"/>
+      <c r="B8" s="161"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="156"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="165">
+      <c r="B9" s="163">
         <v>1</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="167" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="167" t="s">
+      <c r="E9" s="164"/>
+      <c r="F9" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="168">
+      <c r="G9" s="166">
         <v>888.8</v>
       </c>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="159">
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="157">
         <f>SUM(J10:J13)-MINA(J10:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="165"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="13">
         <v>123456</v>
       </c>
@@ -3406,9 +3461,9 @@
       <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="165"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="13">
         <v>123456</v>
       </c>
@@ -3431,9 +3486,9 @@
       <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="165"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="13">
         <v>123456</v>
       </c>
@@ -3456,9 +3511,9 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
       <c r="E13" s="13">
         <v>123456</v>
       </c>
@@ -3481,43 +3536,43 @@
       <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
       <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="165">
+      <c r="B15" s="163">
         <v>2</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167" t="s">
+      <c r="C15" s="164"/>
+      <c r="D15" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="166"/>
-      <c r="F15" s="167" t="s">
+      <c r="E15" s="164"/>
+      <c r="F15" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="168">
+      <c r="G15" s="166">
         <v>888.8</v>
       </c>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="159">
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="157">
         <f>IF(COUNTA(J16:J19)&lt;3,0,IF(COUNTA(J16:J19)=3,SUM(J16:J19),IF(SUM(J16:J19)&gt;0,SUM(J16:J19)-MINA(J16:J19),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="13">
         <v>123456</v>
       </c>
@@ -3540,9 +3595,9 @@
       <c r="K16" s="87"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="13">
         <v>123456</v>
       </c>
@@ -3565,9 +3620,9 @@
       <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
       <c r="E18" s="13">
         <v>123456</v>
       </c>
@@ -3590,9 +3645,9 @@
       <c r="K18" s="87"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="13">
         <v>123456</v>
       </c>
@@ -3615,43 +3670,43 @@
       <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="165"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
       <c r="K20" s="87"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="165">
+      <c r="B21" s="163">
         <v>3</v>
       </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167" t="s">
+      <c r="C21" s="164"/>
+      <c r="D21" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167" t="s">
+      <c r="E21" s="164"/>
+      <c r="F21" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="168">
+      <c r="G21" s="166">
         <v>888.8</v>
       </c>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="159">
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="157">
         <f>IF(COUNTA(J22:J25)&lt;3,0,IF(COUNTA(J22:J25)=3,SUM(J22:J25),IF(SUM(J22:J25)&gt;0,SUM(J22:J25)-MINA(J22:J25),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="165"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
       <c r="E22" s="13">
         <v>123456</v>
       </c>
@@ -3674,9 +3729,9 @@
       <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="165"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
       <c r="E23" s="13">
         <v>123456</v>
       </c>
@@ -3699,9 +3754,9 @@
       <c r="K23" s="87"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="165"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
       <c r="E24" s="13">
         <v>123456</v>
       </c>
@@ -3724,9 +3779,9 @@
       <c r="K24" s="87"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="165"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
       <c r="E25" s="13">
         <v>123456</v>
       </c>
@@ -3749,43 +3804,43 @@
       <c r="K25" s="87"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="165"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="165">
+      <c r="B27" s="163">
         <v>4</v>
       </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167" t="s">
+      <c r="C27" s="164"/>
+      <c r="D27" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="167" t="s">
+      <c r="E27" s="164"/>
+      <c r="F27" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="168">
+      <c r="G27" s="166">
         <v>888.8</v>
       </c>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="159">
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="157">
         <f>IF(COUNTA(J28:J31)&lt;3,0,IF(COUNTA(J28:J31)=3,SUM(J28:J31),IF(SUM(J28:J31)&gt;0,SUM(J28:J31)-MINA(J28:J31),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
       <c r="E28" s="13">
         <v>123456</v>
       </c>
@@ -3808,9 +3863,9 @@
       <c r="K28" s="87"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="165"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
       <c r="E29" s="13">
         <v>123456</v>
       </c>
@@ -3833,9 +3888,9 @@
       <c r="K29" s="87"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="165"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
       <c r="E30" s="13">
         <v>123456</v>
       </c>
@@ -3858,9 +3913,9 @@
       <c r="K30" s="87"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="165"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
       <c r="E31" s="13">
         <v>123456</v>
       </c>
@@ -3883,9 +3938,9 @@
       <c r="K31" s="87"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="165"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
       <c r="G32" s="93"/>
@@ -3894,11 +3949,11 @@
       <c r="K32" s="87"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="165">
+      <c r="B33" s="163">
         <v>5</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167" t="s">
+      <c r="C33" s="164"/>
+      <c r="D33" s="165" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="90"/>
@@ -3910,16 +3965,16 @@
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="159">
+      <c r="J33" s="153"/>
+      <c r="K33" s="157">
         <f>IF(COUNTA(J34:J37)&lt;3,0,IF(COUNTA(J34:J37)=3,SUM(J34:J37),IF(SUM(J34:J37)&gt;0,SUM(J34:J37)-MINA(J34:J37),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="165"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="13">
         <v>123456</v>
       </c>
@@ -3942,9 +3997,9 @@
       <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="165"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="13">
         <v>123456</v>
       </c>
@@ -3967,9 +4022,9 @@
       <c r="K35" s="87"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="165"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="13">
         <v>123456</v>
       </c>
@@ -3992,9 +4047,9 @@
       <c r="K36" s="87"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="165"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="13">
         <v>123456</v>
       </c>
@@ -4017,43 +4072,43 @@
       <c r="K37" s="87"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="165"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
       <c r="K38" s="87"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="165">
+      <c r="B39" s="163">
         <v>6</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="D39" s="167" t="s">
+      <c r="C39" s="164"/>
+      <c r="D39" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="167" t="s">
+      <c r="E39" s="164"/>
+      <c r="F39" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="168">
+      <c r="G39" s="166">
         <v>888.8</v>
       </c>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="159">
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="157">
         <f>IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="165"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="166"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="13">
         <v>123456</v>
       </c>
@@ -4076,9 +4131,9 @@
       <c r="K40" s="87"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="165"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="166"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="13">
         <v>123456</v>
       </c>
@@ -4101,9 +4156,9 @@
       <c r="K41" s="87"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="165"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="166"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="13">
         <v>123456</v>
       </c>
@@ -4126,9 +4181,9 @@
       <c r="K42" s="87"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="165"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="13">
         <v>123456</v>
       </c>
@@ -4151,43 +4206,43 @@
       <c r="K43" s="87"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="165"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
       <c r="K44" s="87"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="165">
+      <c r="B45" s="163">
         <v>7</v>
       </c>
-      <c r="C45" s="166"/>
-      <c r="D45" s="167" t="s">
+      <c r="C45" s="164"/>
+      <c r="D45" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="166"/>
-      <c r="F45" s="167" t="s">
+      <c r="E45" s="164"/>
+      <c r="F45" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="168">
+      <c r="G45" s="166">
         <v>888.8</v>
       </c>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="159">
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="157">
         <f>IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="165"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="13">
         <v>123456</v>
       </c>
@@ -4210,9 +4265,9 @@
       <c r="K46" s="87"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="165"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="13">
         <v>123456</v>
       </c>
@@ -4235,9 +4290,9 @@
       <c r="K47" s="87"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="165"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="166"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="13">
         <v>123456</v>
       </c>
@@ -4260,9 +4315,9 @@
       <c r="K48" s="87"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="165"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="13">
         <v>123456</v>
       </c>
@@ -4285,43 +4340,43 @@
       <c r="K49" s="87"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="165"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="173"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="172"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="170"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="170"/>
       <c r="K50" s="87"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="165">
+      <c r="B51" s="163">
         <v>8</v>
       </c>
-      <c r="C51" s="166"/>
-      <c r="D51" s="167" t="s">
+      <c r="C51" s="164"/>
+      <c r="D51" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="166"/>
-      <c r="F51" s="167" t="s">
+      <c r="E51" s="164"/>
+      <c r="F51" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="168">
+      <c r="G51" s="166">
         <v>888.8</v>
       </c>
-      <c r="H51" s="172"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="159">
+      <c r="H51" s="170"/>
+      <c r="I51" s="170"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="157">
         <f>IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="165"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="13">
         <v>123456</v>
       </c>
@@ -4344,9 +4399,9 @@
       <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="165"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="13">
         <v>123456</v>
       </c>
@@ -4369,9 +4424,9 @@
       <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="165"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="166"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="13">
         <v>123456</v>
       </c>
@@ -4394,9 +4449,9 @@
       <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="165"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="166"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="13">
         <v>123456</v>
       </c>
@@ -4419,43 +4474,43 @@
       <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="165"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="166"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="172"/>
-      <c r="I56" s="172"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
       <c r="K56" s="87"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="165">
+      <c r="B57" s="163">
         <v>9</v>
       </c>
-      <c r="C57" s="166"/>
-      <c r="D57" s="167" t="s">
+      <c r="C57" s="164"/>
+      <c r="D57" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="166"/>
-      <c r="F57" s="167" t="s">
+      <c r="E57" s="164"/>
+      <c r="F57" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="168">
+      <c r="G57" s="166">
         <v>888.8</v>
       </c>
-      <c r="H57" s="172"/>
-      <c r="I57" s="172"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="159">
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="157">
         <f>IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="165"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="166"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="13">
         <v>123456</v>
       </c>
@@ -4478,9 +4533,9 @@
       <c r="K58" s="87"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="165"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="13">
         <v>123456</v>
       </c>
@@ -4503,9 +4558,9 @@
       <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="165"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="13">
         <v>123456</v>
       </c>
@@ -4528,9 +4583,9 @@
       <c r="K60" s="87"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="165"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="166"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="13">
         <v>123456</v>
       </c>
@@ -4554,44 +4609,44 @@
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="42"/>
-      <c r="B62" s="169"/>
+      <c r="B62" s="167"/>
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="224"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="170"/>
       <c r="J62" s="42"/>
-      <c r="K62" s="160"/>
+      <c r="K62" s="158"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="165">
+      <c r="B63" s="163">
         <v>10</v>
       </c>
-      <c r="C63" s="166"/>
-      <c r="D63" s="167" t="s">
+      <c r="C63" s="164"/>
+      <c r="D63" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="90"/>
-      <c r="F63" s="91" t="s">
+      <c r="E63" s="164"/>
+      <c r="F63" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="92">
+      <c r="G63" s="166">
         <v>888.8</v>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="159">
+      <c r="H63" s="170"/>
+      <c r="I63" s="170"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="157">
         <f>IF(COUNTA(J64:J67)&lt;3,0,IF(COUNTA(J64:J67)=3,SUM(J64:J67),IF(SUM(J64:J67)&gt;0,SUM(J64:J67)-MINA(J64:J67),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="165"/>
-      <c r="C64" s="166"/>
-      <c r="D64" s="166"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="13">
         <v>123456</v>
       </c>
@@ -4614,9 +4669,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="165"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="166"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
       <c r="E65" s="13">
         <v>123456</v>
       </c>
@@ -4639,9 +4694,9 @@
       <c r="K65" s="87"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="165"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="166"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="13">
         <v>123456</v>
       </c>
@@ -4664,9 +4719,9 @@
       <c r="K66" s="87"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="165"/>
-      <c r="C67" s="166"/>
-      <c r="D67" s="166"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="13">
         <v>123456</v>
       </c>
@@ -4689,38 +4744,38 @@
       <c r="K67" s="87"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="163"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="172"/>
+      <c r="B68" s="161"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="170"/>
       <c r="K68" s="87"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="165">
+      <c r="B69" s="163">
         <v>11</v>
       </c>
-      <c r="C69" s="166"/>
-      <c r="D69" s="167" t="s">
+      <c r="C69" s="164"/>
+      <c r="D69" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="166"/>
-      <c r="F69" s="167" t="s">
+      <c r="E69" s="164"/>
+      <c r="F69" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="168">
+      <c r="G69" s="166">
         <v>888.8</v>
       </c>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-      <c r="J69" s="155"/>
-      <c r="K69" s="159">
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
+      <c r="J69" s="153"/>
+      <c r="K69" s="157">
         <f>IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="165"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="166"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="164"/>
       <c r="E70" s="13">
         <v>123456</v>
       </c>
@@ -4743,9 +4798,9 @@
       <c r="K70" s="87"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="165"/>
-      <c r="C71" s="166"/>
-      <c r="D71" s="166"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="13">
         <v>123456</v>
       </c>
@@ -4768,9 +4823,9 @@
       <c r="K71" s="87"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="165"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="166"/>
+      <c r="B72" s="163"/>
+      <c r="C72" s="164"/>
+      <c r="D72" s="164"/>
       <c r="E72" s="13">
         <v>123456</v>
       </c>
@@ -4793,9 +4848,9 @@
       <c r="K72" s="87"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="165"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="166"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="164"/>
       <c r="E73" s="13">
         <v>123456</v>
       </c>
@@ -4818,38 +4873,38 @@
       <c r="K73" s="87"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="163"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="172"/>
+      <c r="B74" s="161"/>
+      <c r="H74" s="170"/>
+      <c r="I74" s="170"/>
       <c r="K74" s="87"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="165">
+      <c r="B75" s="163">
         <v>12</v>
       </c>
-      <c r="C75" s="166"/>
-      <c r="D75" s="167" t="s">
+      <c r="C75" s="164"/>
+      <c r="D75" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="166"/>
-      <c r="F75" s="167" t="s">
+      <c r="E75" s="164"/>
+      <c r="F75" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="168">
+      <c r="G75" s="166">
         <v>888.8</v>
       </c>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="155"/>
-      <c r="K75" s="159">
+      <c r="H75" s="170"/>
+      <c r="I75" s="170"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="157">
         <f>IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="165"/>
-      <c r="C76" s="166"/>
-      <c r="D76" s="166"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="164"/>
+      <c r="D76" s="164"/>
       <c r="E76" s="13">
         <v>123456</v>
       </c>
@@ -4872,9 +4927,9 @@
       <c r="K76" s="87"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="165"/>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
       <c r="E77" s="13">
         <v>123456</v>
       </c>
@@ -4897,9 +4952,9 @@
       <c r="K77" s="87"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="165"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="166"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="164"/>
+      <c r="D78" s="164"/>
       <c r="E78" s="13">
         <v>123456</v>
       </c>
@@ -4922,9 +4977,9 @@
       <c r="K78" s="87"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="165"/>
-      <c r="C79" s="166"/>
-      <c r="D79" s="166"/>
+      <c r="B79" s="163"/>
+      <c r="C79" s="164"/>
+      <c r="D79" s="164"/>
       <c r="E79" s="13">
         <v>123456</v>
       </c>
@@ -4947,20 +5002,20 @@
       <c r="K79" s="87"/>
     </row>
     <row r="80" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="170"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="171"/>
-      <c r="E80" s="174"/>
-      <c r="F80" s="174"/>
-      <c r="G80" s="175"/>
-      <c r="H80" s="161"/>
-      <c r="I80" s="161"/>
-      <c r="J80" s="161"/>
-      <c r="K80" s="162"/>
+      <c r="B80" s="168"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="172"/>
+      <c r="G80" s="173"/>
+      <c r="H80" s="159"/>
+      <c r="I80" s="159"/>
+      <c r="J80" s="159"/>
+      <c r="K80" s="160"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="157" t="s">
+      <c r="B82" s="155" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5013,36 +5068,36 @@
     <col min="21" max="21" width="6.5546875" customWidth="1"/>
     <col min="22" max="22" width="9.6640625" customWidth="1"/>
     <col min="23" max="23" width="2.21875" customWidth="1"/>
-    <col min="24" max="24" width="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16.21875" customWidth="1"/>
     <col min="25" max="25" width="3.6640625" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="9.77734375" hidden="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="217" t="str">
+      <c r="B2" s="218" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="220"/>
     </row>
     <row r="4" spans="1:25" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5058,10 +5113,10 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="122" t="s">
+      <c r="O4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="121" t="str">
+      <c r="P4" s="120" t="str">
         <f>'Deelnemers en Scores'!H4</f>
         <v>yyyy-mm-dd</v>
       </c>
@@ -5074,178 +5129,187 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="124"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="214" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="216"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="214" t="s">
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="214" t="s">
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
-      <c r="S7" s="127" t="s">
-        <v>125</v>
-      </c>
-      <c r="T7" s="147"/>
-      <c r="U7" s="149" t="s">
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="217"/>
+      <c r="S7" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="146"/>
+      <c r="U7" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="129" t="s">
-        <v>124</v>
+      <c r="V7" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" s="200" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="140" t="s">
+      <c r="B8" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="141">
+      <c r="E8" s="140">
         <v>1</v>
       </c>
-      <c r="F8" s="142">
+      <c r="F8" s="141">
         <v>2</v>
       </c>
-      <c r="G8" s="142">
+      <c r="G8" s="141">
         <v>3</v>
       </c>
-      <c r="H8" s="143">
+      <c r="H8" s="142">
         <v>4</v>
       </c>
-      <c r="I8" s="144"/>
-      <c r="J8" s="141">
+      <c r="I8" s="143"/>
+      <c r="J8" s="140">
         <v>1</v>
       </c>
-      <c r="K8" s="142">
+      <c r="K8" s="141">
         <v>2</v>
       </c>
-      <c r="L8" s="142">
+      <c r="L8" s="141">
         <v>3</v>
       </c>
-      <c r="M8" s="143">
+      <c r="M8" s="142">
         <v>4</v>
       </c>
-      <c r="N8" s="144"/>
-      <c r="O8" s="141">
+      <c r="N8" s="143"/>
+      <c r="O8" s="140">
         <v>1</v>
       </c>
-      <c r="P8" s="142">
+      <c r="P8" s="141">
         <v>2</v>
       </c>
-      <c r="Q8" s="142">
+      <c r="Q8" s="141">
         <v>3</v>
       </c>
-      <c r="R8" s="143">
+      <c r="R8" s="142">
         <v>4</v>
       </c>
-      <c r="S8" s="145" t="s">
-        <v>126</v>
-      </c>
-      <c r="T8" s="148"/>
-      <c r="U8" s="150" t="s">
+      <c r="S8" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" s="147"/>
+      <c r="U8" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="146"/>
+      <c r="V8" s="145"/>
+      <c r="X8" s="201" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="131">
+      <c r="B9" s="130">
         <f>IF('Deelnemers en Scores'!B9&gt;0,'Deelnemers en Scores'!B9,"")</f>
         <v>1</v>
       </c>
-      <c r="C9" s="132" t="str">
+      <c r="C9" s="131" t="str">
         <f>IF('Deelnemers en Scores'!F9="","",'Deelnemers en Scores'!F9)</f>
         <v>Team naam 1</v>
       </c>
-      <c r="D9" s="133" t="str">
+      <c r="D9" s="132" t="str">
         <f>'Deelnemers en Scores'!D9</f>
         <v>Vereniging 1</v>
       </c>
-      <c r="E9" s="134" t="str">
+      <c r="E9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!H10=0,"",'Deelnemers en Scores'!H10)</f>
         <v/>
       </c>
-      <c r="F9" s="134" t="str">
+      <c r="F9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!H11=0,"",'Deelnemers en Scores'!H11)</f>
         <v/>
       </c>
-      <c r="G9" s="134" t="str">
+      <c r="G9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!H12=0,"",'Deelnemers en Scores'!H12)</f>
         <v/>
       </c>
-      <c r="H9" s="134" t="str">
+      <c r="H9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!H13=0,"",'Deelnemers en Scores'!H13)</f>
         <v/>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="134" t="str">
+      <c r="I9" s="122"/>
+      <c r="J9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!I10=0,"",'Deelnemers en Scores'!I10)</f>
         <v/>
       </c>
-      <c r="K9" s="134" t="str">
+      <c r="K9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!I11=0,"",'Deelnemers en Scores'!I11)</f>
         <v/>
       </c>
-      <c r="L9" s="134" t="str">
+      <c r="L9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!I12=0,"",'Deelnemers en Scores'!I12)</f>
         <v/>
       </c>
-      <c r="M9" s="134" t="str">
+      <c r="M9" s="133" t="str">
         <f>IF('Deelnemers en Scores'!I13=0,"",'Deelnemers en Scores'!I13)</f>
         <v/>
       </c>
-      <c r="N9" s="123"/>
-      <c r="O9" s="135" t="str">
+      <c r="N9" s="122"/>
+      <c r="O9" s="134" t="str">
         <f t="shared" ref="O9:O20" si="0">IF(ISNUMBER(J9),E9+J9,"")</f>
         <v/>
       </c>
-      <c r="P9" s="136" t="str">
+      <c r="P9" s="135" t="str">
         <f t="shared" ref="P9:P20" si="1">IF(ISNUMBER(K9),F9+K9,"")</f>
         <v/>
       </c>
-      <c r="Q9" s="136" t="str">
+      <c r="Q9" s="135" t="str">
         <f t="shared" ref="Q9:Q20" si="2">IF(ISNUMBER(L9),G9+L9,"")</f>
         <v/>
       </c>
-      <c r="R9" s="137" t="str">
+      <c r="R9" s="136" t="str">
         <f t="shared" ref="R9:R20" si="3">IF(ISNUMBER(M9),H9+M9,"")</f>
         <v/>
       </c>
-      <c r="S9" s="138">
+      <c r="S9" s="137">
         <f t="shared" ref="S9:S20" si="4">IF(COUNT(O9:R9)&lt;4,SUM(O9:R9),SUM(O9:R9)-MIN(O9:R9))</f>
         <v>0</v>
       </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="154">
+      <c r="U9" s="150"/>
+      <c r="V9" s="152">
         <f t="shared" ref="V9:V20" si="5">S9+(U9/1000)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="153"/>
+      <c r="X9" s="199">
+        <f>V9</f>
+        <v>0</v>
+      </c>
       <c r="Y9" s="45"/>
     </row>
     <row r="10" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="130">
+      <c r="B10" s="129">
         <f>IF('Deelnemers en Scores'!B15&gt;0,'Deelnemers en Scores'!B15,"")</f>
         <v>2</v>
       </c>
@@ -5273,7 +5337,7 @@
         <f>IF('Deelnemers en Scores'!H19=0,"",'Deelnemers en Scores'!H19)</f>
         <v/>
       </c>
-      <c r="I10" s="123"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I16=0,"",'Deelnemers en Scores'!I16)</f>
         <v/>
@@ -5290,7 +5354,7 @@
         <f>IF('Deelnemers en Scores'!I19=0,"",'Deelnemers en Scores'!I19)</f>
         <v/>
       </c>
-      <c r="N10" s="123"/>
+      <c r="N10" s="122"/>
       <c r="O10" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5307,22 +5371,25 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S10" s="138">
+      <c r="S10" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T10" s="3"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="154">
+      <c r="U10" s="151"/>
+      <c r="V10" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X10" s="153"/>
+      <c r="X10" s="199">
+        <f t="shared" ref="X10:X20" si="6">V10</f>
+        <v>0</v>
+      </c>
       <c r="Y10" s="45"/>
     </row>
     <row r="11" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="130">
+      <c r="B11" s="129">
         <f>IF('Deelnemers en Scores'!B21&gt;0,'Deelnemers en Scores'!B21,"")</f>
         <v>3</v>
       </c>
@@ -5350,7 +5417,7 @@
         <f>IF('Deelnemers en Scores'!H25=0,"",'Deelnemers en Scores'!H25)</f>
         <v/>
       </c>
-      <c r="I11" s="123"/>
+      <c r="I11" s="122"/>
       <c r="J11" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I22=0,"",'Deelnemers en Scores'!I22)</f>
         <v/>
@@ -5367,7 +5434,7 @@
         <f>IF('Deelnemers en Scores'!I25=0,"",'Deelnemers en Scores'!I25)</f>
         <v/>
       </c>
-      <c r="N11" s="123"/>
+      <c r="N11" s="122"/>
       <c r="O11" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5384,22 +5451,25 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S11" s="138">
+      <c r="S11" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11" s="3"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="154">
+      <c r="U11" s="151"/>
+      <c r="V11" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X11" s="153"/>
+      <c r="X11" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y11" s="45"/>
     </row>
     <row r="12" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="130">
+      <c r="B12" s="129">
         <f>IF('Deelnemers en Scores'!B27&gt;0,'Deelnemers en Scores'!B27,"")</f>
         <v>4</v>
       </c>
@@ -5427,7 +5497,7 @@
         <f>IF('Deelnemers en Scores'!H31=0,"",'Deelnemers en Scores'!H31)</f>
         <v/>
       </c>
-      <c r="I12" s="123"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I28=0,"",'Deelnemers en Scores'!I28)</f>
         <v/>
@@ -5444,7 +5514,7 @@
         <f>IF('Deelnemers en Scores'!I31=0,"",'Deelnemers en Scores'!I31)</f>
         <v/>
       </c>
-      <c r="N12" s="123"/>
+      <c r="N12" s="122"/>
       <c r="O12" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5461,22 +5531,25 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S12" s="138">
+      <c r="S12" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12" s="3"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="154">
+      <c r="U12" s="151"/>
+      <c r="V12" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X12" s="153"/>
+      <c r="X12" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="130">
+      <c r="B13" s="129">
         <f>IF('Deelnemers en Scores'!B33&gt;0,'Deelnemers en Scores'!B33,"")</f>
         <v>5</v>
       </c>
@@ -5504,7 +5577,7 @@
         <f>IF('Deelnemers en Scores'!H37=0,"",'Deelnemers en Scores'!H37)</f>
         <v/>
       </c>
-      <c r="I13" s="123"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I34=0,"",'Deelnemers en Scores'!I34)</f>
         <v/>
@@ -5521,7 +5594,7 @@
         <f>IF('Deelnemers en Scores'!I37=0,"",'Deelnemers en Scores'!I37)</f>
         <v/>
       </c>
-      <c r="N13" s="123"/>
+      <c r="N13" s="122"/>
       <c r="O13" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5538,22 +5611,25 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S13" s="138">
+      <c r="S13" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="154">
+      <c r="U13" s="151"/>
+      <c r="V13" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X13" s="153"/>
+      <c r="X13" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="130">
+      <c r="B14" s="129">
         <f>IF('Deelnemers en Scores'!B39&gt;0,'Deelnemers en Scores'!B39,"")</f>
         <v>6</v>
       </c>
@@ -5581,7 +5657,7 @@
         <f>IF('Deelnemers en Scores'!H43=0,"",'Deelnemers en Scores'!H43)</f>
         <v/>
       </c>
-      <c r="I14" s="123"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I40=0,"",'Deelnemers en Scores'!I40)</f>
         <v/>
@@ -5598,7 +5674,7 @@
         <f>IF('Deelnemers en Scores'!I43=0,"",'Deelnemers en Scores'!I43)</f>
         <v/>
       </c>
-      <c r="N14" s="123"/>
+      <c r="N14" s="122"/>
       <c r="O14" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5615,22 +5691,25 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S14" s="138">
+      <c r="S14" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14" s="3"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="154">
+      <c r="U14" s="151"/>
+      <c r="V14" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X14" s="153"/>
+      <c r="X14" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="130">
+      <c r="B15" s="129">
         <f>IF('Deelnemers en Scores'!B45&gt;0,'Deelnemers en Scores'!B45,"")</f>
         <v>7</v>
       </c>
@@ -5658,7 +5737,7 @@
         <f>IF('Deelnemers en Scores'!H49=0,"",'Deelnemers en Scores'!H49)</f>
         <v/>
       </c>
-      <c r="I15" s="123"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I46=0,"",'Deelnemers en Scores'!I46)</f>
         <v/>
@@ -5675,7 +5754,7 @@
         <f>IF('Deelnemers en Scores'!I49=0,"",'Deelnemers en Scores'!I49)</f>
         <v/>
       </c>
-      <c r="N15" s="123"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5692,22 +5771,25 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S15" s="138">
+      <c r="S15" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="154">
+      <c r="U15" s="151"/>
+      <c r="V15" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X15" s="153"/>
+      <c r="X15" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y15" s="45"/>
     </row>
     <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="130">
+      <c r="B16" s="129">
         <f>IF('Deelnemers en Scores'!B51&gt;0,'Deelnemers en Scores'!B51,"")</f>
         <v>8</v>
       </c>
@@ -5735,7 +5817,7 @@
         <f>IF('Deelnemers en Scores'!H55=0,"",'Deelnemers en Scores'!H55)</f>
         <v/>
       </c>
-      <c r="I16" s="123"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I52=0,"",'Deelnemers en Scores'!I52)</f>
         <v/>
@@ -5752,7 +5834,7 @@
         <f>IF('Deelnemers en Scores'!I55=0,"",'Deelnemers en Scores'!I55)</f>
         <v/>
       </c>
-      <c r="N16" s="123"/>
+      <c r="N16" s="122"/>
       <c r="O16" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5769,22 +5851,25 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S16" s="138">
+      <c r="S16" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T16" s="3"/>
-      <c r="U16" s="152"/>
-      <c r="V16" s="154">
+      <c r="U16" s="151"/>
+      <c r="V16" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X16" s="153"/>
+      <c r="X16" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="130">
+      <c r="B17" s="129">
         <f>IF('Deelnemers en Scores'!B57&gt;0,'Deelnemers en Scores'!B57,"")</f>
         <v>9</v>
       </c>
@@ -5812,7 +5897,7 @@
         <f>IF('Deelnemers en Scores'!H61=0,"",'Deelnemers en Scores'!H61)</f>
         <v/>
       </c>
-      <c r="I17" s="123"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I58=0,"",'Deelnemers en Scores'!I58)</f>
         <v/>
@@ -5829,7 +5914,7 @@
         <f>IF('Deelnemers en Scores'!I61=0,"",'Deelnemers en Scores'!I61)</f>
         <v/>
       </c>
-      <c r="N17" s="123"/>
+      <c r="N17" s="122"/>
       <c r="O17" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5846,22 +5931,25 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S17" s="138">
+      <c r="S17" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="3"/>
-      <c r="U17" s="152"/>
-      <c r="V17" s="154">
+      <c r="U17" s="151"/>
+      <c r="V17" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X17" s="153"/>
+      <c r="X17" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y17" s="45"/>
     </row>
     <row r="18" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="130">
+      <c r="B18" s="129">
         <f>IF('Deelnemers en Scores'!B63&gt;0,'Deelnemers en Scores'!B63,"")</f>
         <v>10</v>
       </c>
@@ -5889,7 +5977,7 @@
         <f>IF('Deelnemers en Scores'!H67=0,"",'Deelnemers en Scores'!H67)</f>
         <v/>
       </c>
-      <c r="I18" s="123"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I64=0,"",'Deelnemers en Scores'!I64)</f>
         <v/>
@@ -5906,7 +5994,7 @@
         <f>IF('Deelnemers en Scores'!I67=0,"",'Deelnemers en Scores'!I67)</f>
         <v/>
       </c>
-      <c r="N18" s="123"/>
+      <c r="N18" s="122"/>
       <c r="O18" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5923,22 +6011,25 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S18" s="138">
+      <c r="S18" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T18" s="3"/>
-      <c r="U18" s="152"/>
-      <c r="V18" s="154">
+      <c r="U18" s="151"/>
+      <c r="V18" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X18" s="153"/>
+      <c r="X18" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y18" s="45"/>
     </row>
     <row r="19" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="130">
+      <c r="B19" s="129">
         <f>IF('Deelnemers en Scores'!B69&gt;0,'Deelnemers en Scores'!B69,"")</f>
         <v>11</v>
       </c>
@@ -5966,7 +6057,7 @@
         <f>IF('Deelnemers en Scores'!H73=0,"",'Deelnemers en Scores'!H73)</f>
         <v/>
       </c>
-      <c r="I19" s="123"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="33" t="str">
         <f>IF('Deelnemers en Scores'!I70=0,"",'Deelnemers en Scores'!I70)</f>
         <v/>
@@ -5983,7 +6074,7 @@
         <f>IF('Deelnemers en Scores'!I73=0,"",'Deelnemers en Scores'!I73)</f>
         <v/>
       </c>
-      <c r="N19" s="123"/>
+      <c r="N19" s="122"/>
       <c r="O19" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6000,122 +6091,128 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S19" s="138">
+      <c r="S19" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="152"/>
-      <c r="V19" s="154">
+      <c r="U19" s="151"/>
+      <c r="V19" s="152">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X19" s="153"/>
+      <c r="X19" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="1:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="187">
+      <c r="B20" s="185">
         <f>IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C20" s="188" t="str">
+      <c r="C20" s="186" t="str">
         <f>IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>Team naam 12</v>
       </c>
-      <c r="D20" s="189" t="str">
+      <c r="D20" s="187" t="str">
         <f>'Deelnemers en Scores'!D75</f>
         <v>Vereniging 12</v>
       </c>
-      <c r="E20" s="190" t="str">
+      <c r="E20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F20" s="190" t="str">
+      <c r="F20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G20" s="190" t="str">
+      <c r="G20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H20" s="190" t="str">
+      <c r="H20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
-      <c r="I20" s="123"/>
-      <c r="J20" s="190" t="str">
+      <c r="I20" s="122"/>
+      <c r="J20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K20" s="190" t="str">
+      <c r="K20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L20" s="190" t="str">
+      <c r="L20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M20" s="190" t="str">
+      <c r="M20" s="188" t="str">
         <f>IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
-      <c r="N20" s="123"/>
-      <c r="O20" s="191" t="str">
+      <c r="N20" s="122"/>
+      <c r="O20" s="189" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" s="192" t="str">
+      <c r="P20" s="190" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="192" t="str">
+      <c r="Q20" s="190" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="193" t="str">
+      <c r="R20" s="191" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S20" s="194">
+      <c r="S20" s="192">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="197"/>
-      <c r="U20" s="195"/>
-      <c r="V20" s="196">
+      <c r="T20" s="195"/>
+      <c r="U20" s="193"/>
+      <c r="V20" s="194">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X20" s="153"/>
+      <c r="X20" s="199">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="199"/>
-      <c r="N21" s="199"/>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
-      <c r="U21" s="199"/>
-      <c r="V21" s="199"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="197"/>
+      <c r="M21" s="197"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+      <c r="Q21" s="197"/>
+      <c r="R21" s="197"/>
+      <c r="S21" s="197"/>
+      <c r="T21" s="197"/>
+      <c r="U21" s="197"/>
+      <c r="V21" s="197"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="V8:V20" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="B8:X20" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:V20">
     <sortCondition ref="B9"/>
   </sortState>
@@ -6127,10 +6224,15 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="V9:V20">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9:X20">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>INDEX(V9:V10,1)&lt;INDEX(V9:V10,2)</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6193,32 +6295,32 @@
     <row r="2" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="220" t="str">
+      <c r="B4" s="221" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="221"/>
-      <c r="W4" s="221"/>
-      <c r="X4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="222"/>
+      <c r="V4" s="222"/>
+      <c r="W4" s="222"/>
+      <c r="X4" s="223"/>
       <c r="Y4" s="25"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -6481,8 +6583,8 @@
       <c r="E12" s="72"/>
       <c r="F12" s="74"/>
       <c r="G12" s="73"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="182" t="str">
+      <c r="H12" s="174"/>
+      <c r="I12" s="180" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H12&gt;H14),"*","")</f>
         <v/>
       </c>
@@ -6501,18 +6603,18 @@
       </c>
     </row>
     <row r="13" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="42"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106" t="str">
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105" t="str">
         <f>IF(AC13=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I13" s="106"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="79"/>
       <c r="K13" s="78"/>
       <c r="L13" s="18"/>
@@ -6562,8 +6664,8 @@
       <c r="E14" s="72"/>
       <c r="F14" s="74"/>
       <c r="G14" s="73"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="183" t="str">
+      <c r="H14" s="174"/>
+      <c r="I14" s="181" t="str">
         <f>IF(AND(ABS(H12-H14)&lt;1,H14&gt;H12),"*","")</f>
         <v/>
       </c>
@@ -6594,15 +6696,15 @@
       <c r="AM14" s="43"/>
     </row>
     <row r="15" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="72"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
       <c r="J15" s="79"/>
       <c r="K15" s="75">
         <v>1</v>
@@ -6614,8 +6716,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="74"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="182" t="str">
+      <c r="P15" s="174"/>
+      <c r="Q15" s="180" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -6643,25 +6745,25 @@
       <c r="AR15" s="41"/>
     </row>
     <row r="16" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="78"/>
       <c r="K16" s="78"/>
       <c r="L16" s="19"/>
       <c r="N16" s="20"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="180" t="str">
+      <c r="P16" s="178" t="str">
         <f>IF(AI16=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Q16" s="112"/>
+      <c r="Q16" s="111"/>
       <c r="R16" s="76"/>
       <c r="T16" s="69" t="s">
         <v>2</v>
@@ -6705,8 +6807,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="74"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="183" t="str">
+      <c r="P17" s="174"/>
+      <c r="Q17" s="181" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -6746,8 +6848,8 @@
       <c r="E18" s="72"/>
       <c r="F18" s="74"/>
       <c r="G18" s="73"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="182" t="str">
+      <c r="H18" s="174"/>
+      <c r="I18" s="180" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H18&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -6796,17 +6898,17 @@
     </row>
     <row r="19" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106" t="str">
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="105" t="str">
         <f>IF(AC19=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I19" s="106"/>
+      <c r="I19" s="105"/>
       <c r="J19" s="79"/>
       <c r="K19" s="78"/>
       <c r="Q19" s="78"/>
@@ -6819,8 +6921,8 @@
       <c r="U19" s="46"/>
       <c r="V19" s="11"/>
       <c r="W19" s="46"/>
-      <c r="X19" s="177"/>
-      <c r="Y19" s="178" t="str">
+      <c r="X19" s="175"/>
+      <c r="Y19" s="176" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X19&gt;X21),"*","")</f>
         <v/>
       </c>
@@ -6866,8 +6968,8 @@
       <c r="E20" s="72"/>
       <c r="F20" s="74"/>
       <c r="G20" s="73"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="183" t="str">
+      <c r="H20" s="174"/>
+      <c r="I20" s="181" t="str">
         <f>IF(AND(ABS(H18-H20)&lt;1,H20&gt;H18),"*","")</f>
         <v/>
       </c>
@@ -6879,11 +6981,11 @@
       <c r="U20" s="18"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
-      <c r="X20" s="180" t="str">
+      <c r="X20" s="178" t="str">
         <f>IF(AO20=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Y20" s="112"/>
+      <c r="Y20" s="111"/>
       <c r="Z20" s="18"/>
       <c r="AA20" s="18"/>
       <c r="AB20" s="24"/>
@@ -6912,15 +7014,15 @@
     </row>
     <row r="21" spans="1:44" ht="30" x14ac:dyDescent="0.4">
       <c r="A21" s="42"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="108"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="55"/>
-      <c r="J21" s="101"/>
+      <c r="J21" s="100"/>
       <c r="K21" s="78"/>
       <c r="Q21" s="78"/>
       <c r="R21" s="76"/>
@@ -6932,8 +7034,8 @@
       <c r="U21" s="46"/>
       <c r="V21" s="11"/>
       <c r="W21" s="46"/>
-      <c r="X21" s="177"/>
-      <c r="Y21" s="179" t="str">
+      <c r="X21" s="175"/>
+      <c r="Y21" s="177" t="str">
         <f>IF(AND(ABS(X19-X21)&lt;1,X21&gt;X19),"*","")</f>
         <v/>
       </c>
@@ -6957,14 +7059,14 @@
     </row>
     <row r="22" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="42"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="184"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="182"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
       <c r="Q22" s="78"/>
@@ -7005,8 +7107,8 @@
       <c r="E24" s="72"/>
       <c r="F24" s="74"/>
       <c r="G24" s="73"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="182" t="str">
+      <c r="H24" s="174"/>
+      <c r="I24" s="180" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H24&gt;H26),"*","")</f>
         <v/>
       </c>
@@ -7029,18 +7131,18 @@
       <c r="AJ24" s="38"/>
     </row>
     <row r="25" spans="1:44" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="106" t="str">
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105" t="str">
         <f>IF(AC25=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I25" s="106"/>
+      <c r="I25" s="105"/>
       <c r="J25" s="77"/>
       <c r="Q25" s="78"/>
       <c r="R25" s="76"/>
@@ -7077,8 +7179,8 @@
       <c r="E26" s="72"/>
       <c r="F26" s="74"/>
       <c r="G26" s="73"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="183" t="str">
+      <c r="H26" s="174"/>
+      <c r="I26" s="181" t="str">
         <f>IF(AND(ABS(H24-H26)&lt;1,H26&gt;H24),"*","")</f>
         <v/>
       </c>
@@ -7121,15 +7223,15 @@
       </c>
     </row>
     <row r="27" spans="1:44" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
       <c r="J27" s="77"/>
       <c r="K27" s="75">
         <v>3</v>
@@ -7141,8 +7243,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="74"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="182" t="str">
+      <c r="P27" s="174"/>
+      <c r="Q27" s="180" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P27&gt;P29),"*","")</f>
         <v/>
       </c>
@@ -7166,23 +7268,23 @@
       <c r="AM27" s="18"/>
     </row>
     <row r="28" spans="1:44" ht="30" x14ac:dyDescent="0.4">
-      <c r="A28" s="102"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
       <c r="L28" s="19"/>
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="180" t="str">
+      <c r="P28" s="178" t="str">
         <f>IF(AI28=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Q28" s="112"/>
+      <c r="Q28" s="111"/>
       <c r="R28" s="76"/>
       <c r="T28" s="69" t="s">
         <v>79</v>
@@ -7229,8 +7331,8 @@
       <c r="M29" s="46"/>
       <c r="N29" s="74"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="183" t="str">
+      <c r="P29" s="174"/>
+      <c r="Q29" s="181" t="str">
         <f>IF(AND(ABS(P27-P29)&lt;1,P29&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -7263,8 +7365,8 @@
       <c r="E30" s="72"/>
       <c r="F30" s="74"/>
       <c r="G30" s="73"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="182" t="str">
+      <c r="H30" s="174"/>
+      <c r="I30" s="180" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H30&gt;H32),"*","")</f>
         <v/>
       </c>
@@ -7309,18 +7411,18 @@
       </c>
     </row>
     <row r="31" spans="1:44" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="102"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106" t="str">
+      <c r="F31" s="103"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105" t="str">
         <f>IF(AC31=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I31" s="106"/>
+      <c r="I31" s="105"/>
       <c r="J31" s="77"/>
       <c r="R31" s="76"/>
       <c r="S31" s="75"/>
@@ -7331,8 +7433,8 @@
       <c r="U31" s="46"/>
       <c r="V31" s="11"/>
       <c r="W31" s="46"/>
-      <c r="X31" s="177"/>
-      <c r="Y31" s="178" t="str">
+      <c r="X31" s="175"/>
+      <c r="Y31" s="176" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X31&gt;X33),"*","")</f>
         <v/>
       </c>
@@ -7378,8 +7480,8 @@
       <c r="E32" s="72"/>
       <c r="F32" s="74"/>
       <c r="G32" s="73"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="183" t="str">
+      <c r="H32" s="174"/>
+      <c r="I32" s="181" t="str">
         <f>IF(AND(ABS(H30-H32)&lt;1,H32&gt;H30),"*","")</f>
         <v/>
       </c>
@@ -7389,11 +7491,11 @@
       <c r="U32" s="18"/>
       <c r="V32" s="65"/>
       <c r="W32" s="65"/>
-      <c r="X32" s="180" t="str">
+      <c r="X32" s="178" t="str">
         <f>IF(AO32=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Y32" s="112"/>
+      <c r="Y32" s="111"/>
       <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
       <c r="AB32" s="43"/>
@@ -7428,7 +7530,7 @@
       </c>
     </row>
     <row r="33" spans="9:44" ht="30" x14ac:dyDescent="0.2">
-      <c r="I33" s="102"/>
+      <c r="I33" s="101"/>
       <c r="R33" s="76"/>
       <c r="S33" s="75"/>
       <c r="T33" s="4" t="str">
@@ -7438,8 +7540,8 @@
       <c r="U33" s="46"/>
       <c r="V33" s="11"/>
       <c r="W33" s="46"/>
-      <c r="X33" s="177"/>
-      <c r="Y33" s="179" t="str">
+      <c r="X33" s="175"/>
+      <c r="Y33" s="177" t="str">
         <f>IF(AND(ABS(X31-X33)&lt;1,X33&gt;X31),"*","")</f>
         <v/>
       </c>
@@ -7616,24 +7718,24 @@
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="220" t="str">
+      <c r="B4" s="221" t="str">
         <f>'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Klasse: komt hier</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="223"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="W4"/>
@@ -7747,8 +7849,8 @@
       <c r="E11" s="46"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="182" t="str">
+      <c r="H11" s="179"/>
+      <c r="I11" s="180" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H11&gt;H13),"*","")</f>
         <v/>
       </c>
@@ -7777,11 +7879,11 @@
       <c r="D12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="180" t="str">
+      <c r="H12" s="178" t="str">
         <f>IF(U12=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I12" s="112"/>
+      <c r="I12" s="111"/>
       <c r="J12" s="80"/>
       <c r="L12" s="69" t="s">
         <v>2</v>
@@ -7824,8 +7926,8 @@
       <c r="E13" s="46"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="183" t="str">
+      <c r="H13" s="179"/>
+      <c r="I13" s="181" t="str">
         <f>IF(AND(ABS(H11-H13)&lt;1,H13&gt;H11),"*","")</f>
         <v/>
       </c>
@@ -7887,8 +7989,8 @@
       <c r="M15" s="46"/>
       <c r="N15" s="11"/>
       <c r="O15" s="46"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="185" t="str">
+      <c r="P15" s="175"/>
+      <c r="Q15" s="183" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
@@ -7916,11 +8018,11 @@
       <c r="M16" s="18"/>
       <c r="N16" s="65"/>
       <c r="O16" s="65"/>
-      <c r="P16" s="180" t="str">
+      <c r="P16" s="178" t="str">
         <f>IF(AA16=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Q16" s="112"/>
+      <c r="Q16" s="111"/>
       <c r="Z16" s="38" t="b">
         <f>AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>0</v>
@@ -7952,8 +8054,8 @@
       <c r="M17" s="46"/>
       <c r="N17" s="11"/>
       <c r="O17" s="46"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="186" t="str">
+      <c r="P17" s="175"/>
+      <c r="Q17" s="184" t="str">
         <f>IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
@@ -8031,8 +8133,8 @@
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="182" t="str">
+      <c r="H20" s="179"/>
+      <c r="I20" s="180" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H20&gt;H22),"*","")</f>
         <v/>
       </c>
@@ -8060,11 +8162,11 @@
       <c r="D21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="180" t="str">
+      <c r="H21" s="178" t="str">
         <f>IF(U21=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="I21" s="112"/>
+      <c r="I21" s="111"/>
       <c r="J21" s="81"/>
       <c r="L21" s="69" t="s">
         <v>79</v>
@@ -8103,8 +8205,8 @@
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="183" t="str">
+      <c r="H22" s="179"/>
+      <c r="I22" s="181" t="str">
         <f>IF(AND(ABS(H20-H22)&lt;1,H22&gt;H20),"*","")</f>
         <v/>
       </c>
@@ -8169,8 +8271,8 @@
       <c r="M25" s="46"/>
       <c r="N25" s="11"/>
       <c r="O25" s="46"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="185" t="str">
+      <c r="P25" s="175"/>
+      <c r="Q25" s="183" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
@@ -8200,11 +8302,11 @@
       <c r="M26" s="18"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
-      <c r="P26" s="180" t="str">
+      <c r="P26" s="178" t="str">
         <f>IF(AA26=TRUE,"SO","")</f>
         <v/>
       </c>
-      <c r="Q26" s="112"/>
+      <c r="Q26" s="111"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
@@ -8238,8 +8340,8 @@
       <c r="M27" s="46"/>
       <c r="N27" s="11"/>
       <c r="O27" s="46"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="186" t="str">
+      <c r="P27" s="175"/>
+      <c r="Q27" s="184" t="str">
         <f>IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>
